--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11102"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr.sharepoint.com/sites/EMF-Docs/INFO/7_Enseignement/306/2025-2026/3. Classes/INFO-FD31 (MRA)/3. Documents/GitProjet/306project/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximebardy/Github/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F1D0C3E0-9C7C-4D00-8DF3-5820BEACE957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914B83B5-284F-4F14-846D-1DB20A8A801F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C2DADA-F04E-BA42-AC8A-BD8CE0569CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Tâches</t>
   </si>
@@ -96,6 +96,81 @@
     <t>heures &gt;</t>
   </si>
   <si>
+    <t>Férié</t>
+  </si>
+  <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>Validation par les utilisateurs</t>
+  </si>
+  <si>
+    <t>Calibrer les capteurs</t>
+  </si>
+  <si>
+    <t>Tester le système sur le terrain</t>
+  </si>
+  <si>
+    <t>Rédiger documentation technique</t>
+  </si>
+  <si>
+    <t>Enregistrer mission (logs &amp; vidéos)</t>
+  </si>
+  <si>
+    <t>Générer mini-rapport de mission</t>
+  </si>
+  <si>
+    <t>Enregistrer un clip vidéo de la mission</t>
+  </si>
+  <si>
+    <t>Détecter obstacles</t>
+  </si>
+  <si>
+    <t>Détecter passages trop étroits</t>
+  </si>
+  <si>
+    <t>Détecter présence d’eau</t>
+  </si>
+  <si>
+    <t>Détecter stabilité apparente</t>
+  </si>
+  <si>
+    <t>Mettre en place exploration 50–300 m</t>
+  </si>
+  <si>
+    <t>Créer mini-carte fil d’Ariane</t>
+  </si>
+  <si>
+    <t>Intégrer capteurs (température, humidité, pente)</t>
+  </si>
+  <si>
+    <t>Afficher intensité du signal radio</t>
+  </si>
+  <si>
+    <t>Afficher niveau de batterie</t>
+  </si>
+  <si>
+    <t>Intégrer flux vidéo live</t>
+  </si>
+  <si>
+    <t>Implémenter vibrations manette (perte de signal, batterie faible, choc)</t>
+  </si>
+  <si>
+    <t>Programmer boutons latéraux (vitesses lente/normale, mode crabe)</t>
+  </si>
+  <si>
+    <t>Programmer bouton B pour arrêt d'urgence</t>
+  </si>
+  <si>
+    <t>Programmer bouton A pour éclairage LED</t>
+  </si>
+  <si>
+    <t>Programmer joystick droit (vitesse + progressif)</t>
+  </si>
+  <si>
+    <t>Programmer joystick gauche (direction)</t>
+  </si>
+  <si>
     <r>
       <t>Projet :</t>
     </r>
@@ -106,7 +181,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> Exploration sécurisée de galeries spéléologiques</t>
     </r>
     <r>
       <rPr>
@@ -114,7 +189,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Titre du projet]      </t>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
@@ -126,13 +201,34 @@
     </r>
   </si>
   <si>
-    <t>Férié</t>
+    <t>Bardy Maxime, Kolly Romain, Lefort Julie, Hohl Cyril</t>
   </si>
   <si>
-    <t>lundi</t>
+    <t>Piloter le rover</t>
   </si>
   <si>
-    <t>[Nom des personnes]</t>
+    <t>Surveiller l'environnement(vidéo + capteurs + fil d’Ariane)</t>
+  </si>
+  <si>
+    <t>Enregistrer la mission(données + vidéo)</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Documentation projet</t>
+  </si>
+  <si>
+    <t>Connecter le rover</t>
+  </si>
+  <si>
+    <t>Connecter la manette</t>
+  </si>
+  <si>
+    <t>Connection de la manette au programme</t>
+  </si>
+  <si>
+    <t>Connection du rover au programme</t>
   </si>
 </sst>
 </file>
@@ -142,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -224,9 +320,42 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +365,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -758,6 +923,58 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -794,56 +1011,73 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -899,7 +1133,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1325,32 +1559,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF37"/>
+  <dimension ref="A1:CF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4" max="83" width="2.140625" style="2" customWidth="1"/>
-    <col min="84" max="84" width="3.140625" style="3" customWidth="1"/>
-    <col min="85" max="297" width="9.140625" style="3" customWidth="1"/>
-    <col min="298" max="16384" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="57.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="83" width="2.1640625" style="2" customWidth="1"/>
+    <col min="84" max="84" width="3.1640625" style="3" customWidth="1"/>
+    <col min="85" max="297" width="9.1640625" style="3" customWidth="1"/>
+    <col min="298" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1392,177 +1626,177 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="48"/>
-      <c r="BC2" s="48"/>
-      <c r="BD2" s="48"/>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="48"/>
-      <c r="BG2" s="48"/>
-      <c r="BH2" s="48"/>
-      <c r="BI2" s="48"/>
-      <c r="BJ2" s="48"/>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="48"/>
-      <c r="BM2" s="48"/>
-      <c r="BN2" s="48"/>
-      <c r="BO2" s="48"/>
-      <c r="BP2" s="48"/>
-      <c r="BQ2" s="48"/>
-      <c r="BR2" s="48"/>
-      <c r="BS2" s="48"/>
-      <c r="BT2" s="48"/>
-      <c r="BU2" s="48"/>
-      <c r="BV2" s="48"/>
-      <c r="BW2" s="48"/>
-      <c r="BX2" s="48"/>
-      <c r="BY2" s="48"/>
-      <c r="BZ2" s="48"/>
-      <c r="CA2" s="48"/>
-      <c r="CB2" s="48"/>
-      <c r="CC2" s="48"/>
-      <c r="CD2" s="48"/>
-      <c r="CE2" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="38"/>
+      <c r="BT2" s="38"/>
+      <c r="BU2" s="38"/>
+      <c r="BV2" s="38"/>
+      <c r="BW2" s="38"/>
+      <c r="BX2" s="38"/>
+      <c r="BY2" s="38"/>
+      <c r="BZ2" s="38"/>
+      <c r="CA2" s="38"/>
+      <c r="CB2" s="38"/>
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="38"/>
+      <c r="CE2" s="38"/>
     </row>
-    <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49"/>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="49"/>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="49"/>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49"/>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="49"/>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="49"/>
+    <row r="3" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="39"/>
+      <c r="BG3" s="39"/>
+      <c r="BH3" s="39"/>
+      <c r="BI3" s="39"/>
+      <c r="BJ3" s="39"/>
+      <c r="BK3" s="39"/>
+      <c r="BL3" s="39"/>
+      <c r="BM3" s="39"/>
+      <c r="BN3" s="39"/>
+      <c r="BO3" s="39"/>
+      <c r="BP3" s="39"/>
+      <c r="BQ3" s="39"/>
+      <c r="BR3" s="39"/>
+      <c r="BS3" s="39"/>
+      <c r="BT3" s="39"/>
+      <c r="BU3" s="39"/>
+      <c r="BV3" s="39"/>
+      <c r="BW3" s="39"/>
+      <c r="BX3" s="39"/>
+      <c r="BY3" s="39"/>
+      <c r="BZ3" s="39"/>
+      <c r="CA3" s="39"/>
+      <c r="CB3" s="39"/>
+      <c r="CC3" s="39"/>
+      <c r="CD3" s="39"/>
+      <c r="CE3" s="39"/>
     </row>
-    <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A4" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -1571,132 +1805,132 @@
       <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42">
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="34">
         <v>45992</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="40" t="s">
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42">
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="34">
         <v>45993</v>
       </c>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="40" t="s">
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="42">
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="34">
         <v>45999</v>
       </c>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="40" t="s">
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="42">
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="34">
         <v>46000</v>
       </c>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="40" t="s">
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="42">
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="34">
         <v>46006</v>
       </c>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="40" t="s">
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="42">
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="34">
         <v>46007</v>
       </c>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="42">
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="34">
         <v>46027</v>
       </c>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="40" t="s">
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="42">
+      <c r="BI4" s="37"/>
+      <c r="BJ4" s="37"/>
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="34">
         <v>46028</v>
       </c>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="43"/>
-      <c r="BP4" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="42">
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ4" s="37"/>
+      <c r="BR4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BT4" s="34">
         <v>46034</v>
       </c>
-      <c r="BU4" s="42"/>
-      <c r="BV4" s="42"/>
-      <c r="BW4" s="43"/>
-      <c r="BX4" s="40" t="s">
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="42">
+      <c r="BY4" s="37"/>
+      <c r="BZ4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CB4" s="34">
         <v>46035</v>
       </c>
-      <c r="CC4" s="42"/>
-      <c r="CD4" s="42"/>
-      <c r="CE4" s="43"/>
-      <c r="CF4" s="44" t="s">
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="34"/>
+      <c r="CE4" s="35"/>
+      <c r="CF4" s="40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
@@ -1943,9 +2177,9 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="44"/>
+      <c r="CF5" s="40"/>
     </row>
-    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="24"/>
       <c r="C6" s="9"/>
@@ -1965,16 +2199,16 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="33"/>
+      <c r="T6" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="46"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -2031,354 +2265,364 @@
       <c r="CC6" s="11"/>
       <c r="CD6" s="11"/>
       <c r="CE6" s="12"/>
-      <c r="CF6" s="44"/>
+      <c r="CF6" s="40"/>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="25"/>
+    <row r="7" spans="1:84" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="68"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="18"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="17"/>
-      <c r="BJ7" s="17"/>
-      <c r="BK7" s="17"/>
-      <c r="BL7" s="17"/>
-      <c r="BM7" s="17"/>
-      <c r="BN7" s="17"/>
-      <c r="BO7" s="18"/>
-      <c r="BP7" s="16"/>
-      <c r="BQ7" s="17"/>
-      <c r="BR7" s="17"/>
-      <c r="BS7" s="17"/>
-      <c r="BT7" s="17"/>
-      <c r="BU7" s="17"/>
-      <c r="BV7" s="17"/>
-      <c r="BW7" s="18"/>
-      <c r="BX7" s="16"/>
-      <c r="BY7" s="17"/>
-      <c r="BZ7" s="17"/>
-      <c r="CA7" s="17"/>
-      <c r="CB7" s="17"/>
-      <c r="CC7" s="17"/>
-      <c r="CD7" s="17"/>
-      <c r="CE7" s="18"/>
-      <c r="CF7" s="44"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+      <c r="BF7" s="11"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11"/>
+      <c r="BL7" s="11"/>
+      <c r="BM7" s="11"/>
+      <c r="BN7" s="11"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="13"/>
+      <c r="BQ7" s="11"/>
+      <c r="BR7" s="11"/>
+      <c r="BS7" s="11"/>
+      <c r="BT7" s="11"/>
+      <c r="BU7" s="11"/>
+      <c r="BV7" s="11"/>
+      <c r="BW7" s="12"/>
+      <c r="BX7" s="13"/>
+      <c r="BY7" s="11"/>
+      <c r="BZ7" s="11"/>
+      <c r="CA7" s="11"/>
+      <c r="CB7" s="11"/>
+      <c r="CC7" s="11"/>
+      <c r="CD7" s="11"/>
+      <c r="CE7" s="12"/>
+      <c r="CF7" s="40"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="25"/>
+    <row r="8" spans="1:84" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="68"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="18"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="17"/>
-      <c r="BB8" s="17"/>
-      <c r="BC8" s="17"/>
-      <c r="BD8" s="17"/>
-      <c r="BE8" s="17"/>
-      <c r="BF8" s="17"/>
-      <c r="BG8" s="18"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="17"/>
-      <c r="BJ8" s="17"/>
-      <c r="BK8" s="17"/>
-      <c r="BL8" s="17"/>
-      <c r="BM8" s="17"/>
-      <c r="BN8" s="17"/>
-      <c r="BO8" s="18"/>
-      <c r="BP8" s="16"/>
-      <c r="BQ8" s="17"/>
-      <c r="BR8" s="17"/>
-      <c r="BS8" s="17"/>
-      <c r="BT8" s="17"/>
-      <c r="BU8" s="17"/>
-      <c r="BV8" s="17"/>
-      <c r="BW8" s="18"/>
-      <c r="BX8" s="16"/>
-      <c r="BY8" s="17"/>
-      <c r="BZ8" s="17"/>
-      <c r="CA8" s="17"/>
-      <c r="CB8" s="17"/>
-      <c r="CC8" s="17"/>
-      <c r="CD8" s="17"/>
-      <c r="CE8" s="18"/>
-      <c r="CF8" s="44"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="11"/>
+      <c r="BK8" s="11"/>
+      <c r="BL8" s="11"/>
+      <c r="BM8" s="11"/>
+      <c r="BN8" s="11"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="13"/>
+      <c r="BQ8" s="11"/>
+      <c r="BR8" s="11"/>
+      <c r="BS8" s="11"/>
+      <c r="BT8" s="11"/>
+      <c r="BU8" s="11"/>
+      <c r="BV8" s="11"/>
+      <c r="BW8" s="12"/>
+      <c r="BX8" s="13"/>
+      <c r="BY8" s="11"/>
+      <c r="BZ8" s="11"/>
+      <c r="CA8" s="11"/>
+      <c r="CB8" s="11"/>
+      <c r="CC8" s="11"/>
+      <c r="CD8" s="11"/>
+      <c r="CE8" s="12"/>
+      <c r="CF8" s="40"/>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:84" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="68"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="17"/>
-      <c r="BL9" s="17"/>
-      <c r="BM9" s="17"/>
-      <c r="BN9" s="17"/>
-      <c r="BO9" s="18"/>
-      <c r="BP9" s="16"/>
-      <c r="BQ9" s="17"/>
-      <c r="BR9" s="17"/>
-      <c r="BS9" s="17"/>
-      <c r="BT9" s="17"/>
-      <c r="BU9" s="17"/>
-      <c r="BV9" s="17"/>
-      <c r="BW9" s="18"/>
-      <c r="BX9" s="16"/>
-      <c r="BY9" s="17"/>
-      <c r="BZ9" s="17"/>
-      <c r="CA9" s="17"/>
-      <c r="CB9" s="17"/>
-      <c r="CC9" s="17"/>
-      <c r="CD9" s="17"/>
-      <c r="CE9" s="18"/>
-      <c r="CF9" s="44"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+      <c r="BF9" s="11"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="11"/>
+      <c r="BJ9" s="11"/>
+      <c r="BK9" s="11"/>
+      <c r="BL9" s="11"/>
+      <c r="BM9" s="11"/>
+      <c r="BN9" s="11"/>
+      <c r="BO9" s="12"/>
+      <c r="BP9" s="13"/>
+      <c r="BQ9" s="11"/>
+      <c r="BR9" s="11"/>
+      <c r="BS9" s="11"/>
+      <c r="BT9" s="11"/>
+      <c r="BU9" s="11"/>
+      <c r="BV9" s="11"/>
+      <c r="BW9" s="12"/>
+      <c r="BX9" s="13"/>
+      <c r="BY9" s="11"/>
+      <c r="BZ9" s="11"/>
+      <c r="CA9" s="11"/>
+      <c r="CB9" s="11"/>
+      <c r="CC9" s="11"/>
+      <c r="CD9" s="11"/>
+      <c r="CE9" s="12"/>
+      <c r="CF9" s="40"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="25"/>
+    <row r="10" spans="1:84" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="68"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="17"/>
-      <c r="BJ10" s="17"/>
-      <c r="BK10" s="17"/>
-      <c r="BL10" s="17"/>
-      <c r="BM10" s="17"/>
-      <c r="BN10" s="17"/>
-      <c r="BO10" s="18"/>
-      <c r="BP10" s="16"/>
-      <c r="BQ10" s="17"/>
-      <c r="BR10" s="17"/>
-      <c r="BS10" s="17"/>
-      <c r="BT10" s="17"/>
-      <c r="BU10" s="17"/>
-      <c r="BV10" s="17"/>
-      <c r="BW10" s="18"/>
-      <c r="BX10" s="16"/>
-      <c r="BY10" s="17"/>
-      <c r="BZ10" s="17"/>
-      <c r="CA10" s="17"/>
-      <c r="CB10" s="17"/>
-      <c r="CC10" s="17"/>
-      <c r="CD10" s="17"/>
-      <c r="CE10" s="18"/>
-      <c r="CF10" s="44"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+      <c r="BF10" s="11"/>
+      <c r="BG10" s="12"/>
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="11"/>
+      <c r="BJ10" s="11"/>
+      <c r="BK10" s="11"/>
+      <c r="BL10" s="11"/>
+      <c r="BM10" s="11"/>
+      <c r="BN10" s="11"/>
+      <c r="BO10" s="12"/>
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="11"/>
+      <c r="BR10" s="11"/>
+      <c r="BS10" s="11"/>
+      <c r="BT10" s="11"/>
+      <c r="BU10" s="11"/>
+      <c r="BV10" s="11"/>
+      <c r="BW10" s="12"/>
+      <c r="BX10" s="13"/>
+      <c r="BY10" s="11"/>
+      <c r="BZ10" s="11"/>
+      <c r="CA10" s="11"/>
+      <c r="CB10" s="11"/>
+      <c r="CC10" s="11"/>
+      <c r="CD10" s="11"/>
+      <c r="CE10" s="12"/>
+      <c r="CF10" s="40"/>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:84" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="60" t="s">
+        <v>36</v>
+      </c>
       <c r="B11" s="25"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -2397,14 +2641,14 @@
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="36"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="49"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -2461,10 +2705,12 @@
       <c r="CC11" s="17"/>
       <c r="CD11" s="17"/>
       <c r="CE11" s="18"/>
-      <c r="CF11" s="44"/>
+      <c r="CF11" s="40"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A12" s="61" t="s">
+        <v>33</v>
+      </c>
       <c r="B12" s="25"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -2483,14 +2729,14 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="36"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="49"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -2547,10 +2793,12 @@
       <c r="CC12" s="17"/>
       <c r="CD12" s="17"/>
       <c r="CE12" s="18"/>
-      <c r="CF12" s="44"/>
+      <c r="CF12" s="40"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A13" s="61" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" s="25"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -2569,14 +2817,14 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="36"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="49"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -2633,10 +2881,12 @@
       <c r="CC13" s="17"/>
       <c r="CD13" s="17"/>
       <c r="CE13" s="18"/>
-      <c r="CF13" s="44"/>
+      <c r="CF13" s="40"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A14" s="61" t="s">
+        <v>31</v>
+      </c>
       <c r="B14" s="25"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -2655,14 +2905,14 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="36"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="49"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -2719,10 +2969,12 @@
       <c r="CC14" s="17"/>
       <c r="CD14" s="17"/>
       <c r="CE14" s="18"/>
-      <c r="CF14" s="44"/>
+      <c r="CF14" s="40"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A15" s="61" t="s">
+        <v>30</v>
+      </c>
       <c r="B15" s="25"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -2741,14 +2993,14 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="36"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="49"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
@@ -2805,10 +3057,12 @@
       <c r="CC15" s="17"/>
       <c r="CD15" s="17"/>
       <c r="CE15" s="18"/>
-      <c r="CF15" s="44"/>
+      <c r="CF15" s="40"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A16" s="61" t="s">
+        <v>29</v>
+      </c>
       <c r="B16" s="25"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -2827,14 +3081,14 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="36"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="49"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
@@ -2891,10 +3145,12 @@
       <c r="CC16" s="17"/>
       <c r="CD16" s="17"/>
       <c r="CE16" s="18"/>
-      <c r="CF16" s="44"/>
+      <c r="CF16" s="40"/>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A17" s="61" t="s">
+        <v>28</v>
+      </c>
       <c r="B17" s="25"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -2913,14 +3169,14 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="36"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="49"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
@@ -2977,10 +3233,12 @@
       <c r="CC17" s="17"/>
       <c r="CD17" s="17"/>
       <c r="CE17" s="18"/>
-      <c r="CF17" s="44"/>
+      <c r="CF17" s="40"/>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:84" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="64" t="s">
+        <v>37</v>
+      </c>
       <c r="B18" s="25"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -2999,14 +3257,14 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="36"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="49"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
@@ -3063,10 +3321,12 @@
       <c r="CC18" s="17"/>
       <c r="CD18" s="17"/>
       <c r="CE18" s="18"/>
-      <c r="CF18" s="44"/>
+      <c r="CF18" s="40"/>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A19" s="65" t="s">
+        <v>27</v>
+      </c>
       <c r="B19" s="25"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -3085,14 +3345,14 @@
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="36"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="49"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
@@ -3149,10 +3409,12 @@
       <c r="CC19" s="17"/>
       <c r="CD19" s="17"/>
       <c r="CE19" s="18"/>
-      <c r="CF19" s="44"/>
+      <c r="CF19" s="40"/>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A20" s="65" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="25"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -3171,14 +3433,14 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="36"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="49"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
@@ -3235,10 +3497,12 @@
       <c r="CC20" s="17"/>
       <c r="CD20" s="17"/>
       <c r="CE20" s="18"/>
-      <c r="CF20" s="44"/>
+      <c r="CF20" s="40"/>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A21" s="65" t="s">
+        <v>25</v>
+      </c>
       <c r="B21" s="25"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -3257,14 +3521,14 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="36"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
@@ -3321,10 +3585,12 @@
       <c r="CC21" s="17"/>
       <c r="CD21" s="17"/>
       <c r="CE21" s="18"/>
-      <c r="CF21" s="44"/>
+      <c r="CF21" s="40"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A22" s="65" t="s">
+        <v>24</v>
+      </c>
       <c r="B22" s="25"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -3343,14 +3609,14 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="36"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="49"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
@@ -3407,10 +3673,12 @@
       <c r="CC22" s="17"/>
       <c r="CD22" s="17"/>
       <c r="CE22" s="18"/>
-      <c r="CF22" s="44"/>
+      <c r="CF22" s="40"/>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A23" s="65" t="s">
+        <v>23</v>
+      </c>
       <c r="B23" s="25"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -3429,14 +3697,14 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="36"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="49"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
@@ -3493,10 +3761,12 @@
       <c r="CC23" s="17"/>
       <c r="CD23" s="17"/>
       <c r="CE23" s="18"/>
-      <c r="CF23" s="44"/>
+      <c r="CF23" s="40"/>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A24" s="65" t="s">
+        <v>22</v>
+      </c>
       <c r="B24" s="25"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -3515,14 +3785,14 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="36"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="49"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
@@ -3579,10 +3849,12 @@
       <c r="CC24" s="17"/>
       <c r="CD24" s="17"/>
       <c r="CE24" s="18"/>
-      <c r="CF24" s="44"/>
+      <c r="CF24" s="40"/>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A25" s="65" t="s">
+        <v>21</v>
+      </c>
       <c r="B25" s="25"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -3601,14 +3873,14 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="36"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="49"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
@@ -3665,10 +3937,12 @@
       <c r="CC25" s="17"/>
       <c r="CD25" s="17"/>
       <c r="CE25" s="18"/>
-      <c r="CF25" s="44"/>
+      <c r="CF25" s="40"/>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A26" s="65" t="s">
+        <v>20</v>
+      </c>
       <c r="B26" s="25"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -3687,14 +3961,14 @@
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="18"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="36"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="49"/>
       <c r="AB26" s="16"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
@@ -3751,10 +4025,12 @@
       <c r="CC26" s="17"/>
       <c r="CD26" s="17"/>
       <c r="CE26" s="18"/>
-      <c r="CF26" s="44"/>
+      <c r="CF26" s="40"/>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A27" s="65" t="s">
+        <v>19</v>
+      </c>
       <c r="B27" s="25"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -3773,14 +4049,14 @@
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="18"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="36"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="49"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
@@ -3837,10 +4113,12 @@
       <c r="CC27" s="17"/>
       <c r="CD27" s="17"/>
       <c r="CE27" s="18"/>
-      <c r="CF27" s="44"/>
+      <c r="CF27" s="40"/>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A28" s="65" t="s">
+        <v>18</v>
+      </c>
       <c r="B28" s="25"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -3859,14 +4137,14 @@
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="18"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="36"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="49"/>
       <c r="AB28" s="16"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
@@ -3923,10 +4201,12 @@
       <c r="CC28" s="17"/>
       <c r="CD28" s="17"/>
       <c r="CE28" s="18"/>
-      <c r="CF28" s="44"/>
+      <c r="CF28" s="40"/>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:84" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="62" t="s">
+        <v>38</v>
+      </c>
       <c r="B29" s="25"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -3945,14 +4225,14 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="36"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="49"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
@@ -4009,10 +4289,12 @@
       <c r="CC29" s="17"/>
       <c r="CD29" s="17"/>
       <c r="CE29" s="18"/>
-      <c r="CF29" s="44"/>
+      <c r="CF29" s="40"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A30" s="63" t="s">
+        <v>17</v>
+      </c>
       <c r="B30" s="25"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -4031,14 +4313,14 @@
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="36"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="49"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
@@ -4095,10 +4377,12 @@
       <c r="CC30" s="17"/>
       <c r="CD30" s="17"/>
       <c r="CE30" s="18"/>
-      <c r="CF30" s="44"/>
+      <c r="CF30" s="40"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A31" s="63" t="s">
+        <v>16</v>
+      </c>
       <c r="B31" s="25"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -4117,14 +4401,14 @@
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="36"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="49"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
@@ -4181,10 +4465,12 @@
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
       <c r="CE31" s="18"/>
-      <c r="CF31" s="44"/>
+      <c r="CF31" s="40"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A32" s="63" t="s">
+        <v>15</v>
+      </c>
       <c r="B32" s="25"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -4203,14 +4489,14 @@
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="36"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="49"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
@@ -4267,96 +4553,100 @@
       <c r="CC32" s="17"/>
       <c r="CD32" s="17"/>
       <c r="CE32" s="18"/>
-      <c r="CF32" s="44"/>
+      <c r="CF32" s="40"/>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="18"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-      <c r="AN33" s="17"/>
-      <c r="AO33" s="17"/>
-      <c r="AP33" s="17"/>
-      <c r="AQ33" s="18"/>
-      <c r="AR33" s="16"/>
-      <c r="AS33" s="17"/>
-      <c r="AT33" s="17"/>
-      <c r="AU33" s="17"/>
-      <c r="AV33" s="17"/>
-      <c r="AW33" s="17"/>
-      <c r="AX33" s="17"/>
-      <c r="AY33" s="18"/>
-      <c r="AZ33" s="16"/>
-      <c r="BA33" s="17"/>
-      <c r="BB33" s="17"/>
-      <c r="BC33" s="17"/>
-      <c r="BD33" s="17"/>
-      <c r="BE33" s="17"/>
-      <c r="BF33" s="17"/>
-      <c r="BG33" s="18"/>
-      <c r="BH33" s="16"/>
-      <c r="BI33" s="17"/>
-      <c r="BJ33" s="17"/>
-      <c r="BK33" s="17"/>
-      <c r="BL33" s="17"/>
-      <c r="BM33" s="17"/>
-      <c r="BN33" s="17"/>
-      <c r="BO33" s="18"/>
-      <c r="BP33" s="16"/>
-      <c r="BQ33" s="17"/>
-      <c r="BR33" s="17"/>
-      <c r="BS33" s="17"/>
-      <c r="BT33" s="17"/>
-      <c r="BU33" s="17"/>
-      <c r="BV33" s="17"/>
-      <c r="BW33" s="18"/>
-      <c r="BX33" s="16"/>
-      <c r="BY33" s="17"/>
-      <c r="BZ33" s="17"/>
-      <c r="CA33" s="17"/>
-      <c r="CB33" s="17"/>
-      <c r="CC33" s="17"/>
-      <c r="CD33" s="17"/>
-      <c r="CE33" s="18"/>
-      <c r="CF33" s="44"/>
+    <row r="33" spans="1:84" s="57" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="53"/>
+      <c r="AN33" s="53"/>
+      <c r="AO33" s="53"/>
+      <c r="AP33" s="53"/>
+      <c r="AQ33" s="56"/>
+      <c r="AR33" s="55"/>
+      <c r="AS33" s="53"/>
+      <c r="AT33" s="53"/>
+      <c r="AU33" s="53"/>
+      <c r="AV33" s="53"/>
+      <c r="AW33" s="53"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="56"/>
+      <c r="AZ33" s="55"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="53"/>
+      <c r="BC33" s="53"/>
+      <c r="BD33" s="53"/>
+      <c r="BE33" s="53"/>
+      <c r="BF33" s="53"/>
+      <c r="BG33" s="56"/>
+      <c r="BH33" s="55"/>
+      <c r="BI33" s="53"/>
+      <c r="BJ33" s="53"/>
+      <c r="BK33" s="53"/>
+      <c r="BL33" s="53"/>
+      <c r="BM33" s="53"/>
+      <c r="BN33" s="53"/>
+      <c r="BO33" s="56"/>
+      <c r="BP33" s="55"/>
+      <c r="BQ33" s="53"/>
+      <c r="BR33" s="53"/>
+      <c r="BS33" s="53"/>
+      <c r="BT33" s="53"/>
+      <c r="BU33" s="53"/>
+      <c r="BV33" s="53"/>
+      <c r="BW33" s="56"/>
+      <c r="BX33" s="55"/>
+      <c r="BY33" s="53"/>
+      <c r="BZ33" s="53"/>
+      <c r="CA33" s="53"/>
+      <c r="CB33" s="53"/>
+      <c r="CC33" s="53"/>
+      <c r="CD33" s="53"/>
+      <c r="CE33" s="56"/>
+      <c r="CF33" s="40"/>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A34" s="59" t="s">
+        <v>14</v>
+      </c>
       <c r="B34" s="25"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -4375,14 +4665,14 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="36"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="49"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
@@ -4439,10 +4729,12 @@
       <c r="CC34" s="17"/>
       <c r="CD34" s="17"/>
       <c r="CE34" s="18"/>
-      <c r="CF34" s="44"/>
+      <c r="CF34" s="40"/>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:84" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="66" t="s">
+        <v>39</v>
+      </c>
       <c r="B35" s="25"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -4461,14 +4753,14 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="36"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="49"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
@@ -4525,189 +4817,885 @@
       <c r="CC35" s="17"/>
       <c r="CD35" s="17"/>
       <c r="CE35" s="18"/>
-      <c r="CF35" s="44"/>
+      <c r="CF35" s="40"/>
     </row>
-    <row r="36" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="23"/>
-      <c r="AJ36" s="21"/>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="22"/>
-      <c r="AP36" s="22"/>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="21"/>
-      <c r="AS36" s="22"/>
-      <c r="AT36" s="22"/>
-      <c r="AU36" s="22"/>
-      <c r="AV36" s="22"/>
-      <c r="AW36" s="22"/>
-      <c r="AX36" s="22"/>
-      <c r="AY36" s="23"/>
-      <c r="AZ36" s="21"/>
-      <c r="BA36" s="22"/>
-      <c r="BB36" s="22"/>
-      <c r="BC36" s="22"/>
-      <c r="BD36" s="22"/>
-      <c r="BE36" s="22"/>
-      <c r="BF36" s="22"/>
-      <c r="BG36" s="23"/>
-      <c r="BH36" s="21"/>
-      <c r="BI36" s="22"/>
-      <c r="BJ36" s="22"/>
-      <c r="BK36" s="22"/>
-      <c r="BL36" s="22"/>
-      <c r="BM36" s="22"/>
-      <c r="BN36" s="22"/>
-      <c r="BO36" s="23"/>
-      <c r="BP36" s="21"/>
-      <c r="BQ36" s="22"/>
-      <c r="BR36" s="22"/>
-      <c r="BS36" s="22"/>
-      <c r="BT36" s="22"/>
-      <c r="BU36" s="22"/>
-      <c r="BV36" s="22"/>
-      <c r="BW36" s="23"/>
-      <c r="BX36" s="21"/>
-      <c r="BY36" s="22"/>
-      <c r="BZ36" s="22"/>
-      <c r="CA36" s="22"/>
-      <c r="CB36" s="22"/>
-      <c r="CC36" s="22"/>
-      <c r="CD36" s="22"/>
-      <c r="CE36" s="23"/>
-      <c r="CF36" s="44"/>
+    <row r="36" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A36" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="16"/>
+      <c r="AS36" s="17"/>
+      <c r="AT36" s="17"/>
+      <c r="AU36" s="17"/>
+      <c r="AV36" s="17"/>
+      <c r="AW36" s="17"/>
+      <c r="AX36" s="17"/>
+      <c r="AY36" s="18"/>
+      <c r="AZ36" s="16"/>
+      <c r="BA36" s="17"/>
+      <c r="BB36" s="17"/>
+      <c r="BC36" s="17"/>
+      <c r="BD36" s="17"/>
+      <c r="BE36" s="17"/>
+      <c r="BF36" s="17"/>
+      <c r="BG36" s="18"/>
+      <c r="BH36" s="16"/>
+      <c r="BI36" s="17"/>
+      <c r="BJ36" s="17"/>
+      <c r="BK36" s="17"/>
+      <c r="BL36" s="17"/>
+      <c r="BM36" s="17"/>
+      <c r="BN36" s="17"/>
+      <c r="BO36" s="18"/>
+      <c r="BP36" s="16"/>
+      <c r="BQ36" s="17"/>
+      <c r="BR36" s="17"/>
+      <c r="BS36" s="17"/>
+      <c r="BT36" s="17"/>
+      <c r="BU36" s="17"/>
+      <c r="BV36" s="17"/>
+      <c r="BW36" s="18"/>
+      <c r="BX36" s="16"/>
+      <c r="BY36" s="17"/>
+      <c r="BZ36" s="17"/>
+      <c r="CA36" s="17"/>
+      <c r="CB36" s="17"/>
+      <c r="CC36" s="17"/>
+      <c r="CD36" s="17"/>
+      <c r="CE36" s="18"/>
+      <c r="CF36" s="40"/>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
+    <row r="37" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A37" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="16"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="17"/>
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="18"/>
+      <c r="AZ37" s="16"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="17"/>
+      <c r="BE37" s="17"/>
+      <c r="BF37" s="17"/>
+      <c r="BG37" s="18"/>
+      <c r="BH37" s="16"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="17"/>
+      <c r="BK37" s="17"/>
+      <c r="BL37" s="17"/>
+      <c r="BM37" s="17"/>
+      <c r="BN37" s="17"/>
+      <c r="BO37" s="18"/>
+      <c r="BP37" s="16"/>
+      <c r="BQ37" s="17"/>
+      <c r="BR37" s="17"/>
+      <c r="BS37" s="17"/>
+      <c r="BT37" s="17"/>
+      <c r="BU37" s="17"/>
+      <c r="BV37" s="17"/>
+      <c r="BW37" s="18"/>
+      <c r="BX37" s="16"/>
+      <c r="BY37" s="17"/>
+      <c r="BZ37" s="17"/>
+      <c r="CA37" s="17"/>
+      <c r="CB37" s="17"/>
+      <c r="CC37" s="17"/>
+      <c r="CD37" s="17"/>
+      <c r="CE37" s="18"/>
+      <c r="CF37" s="40"/>
+    </row>
+    <row r="38" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A38" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
+      <c r="AQ38" s="18"/>
+      <c r="AR38" s="16"/>
+      <c r="AS38" s="17"/>
+      <c r="AT38" s="17"/>
+      <c r="AU38" s="17"/>
+      <c r="AV38" s="17"/>
+      <c r="AW38" s="17"/>
+      <c r="AX38" s="17"/>
+      <c r="AY38" s="18"/>
+      <c r="AZ38" s="16"/>
+      <c r="BA38" s="17"/>
+      <c r="BB38" s="17"/>
+      <c r="BC38" s="17"/>
+      <c r="BD38" s="17"/>
+      <c r="BE38" s="17"/>
+      <c r="BF38" s="17"/>
+      <c r="BG38" s="18"/>
+      <c r="BH38" s="16"/>
+      <c r="BI38" s="17"/>
+      <c r="BJ38" s="17"/>
+      <c r="BK38" s="17"/>
+      <c r="BL38" s="17"/>
+      <c r="BM38" s="17"/>
+      <c r="BN38" s="17"/>
+      <c r="BO38" s="18"/>
+      <c r="BP38" s="16"/>
+      <c r="BQ38" s="17"/>
+      <c r="BR38" s="17"/>
+      <c r="BS38" s="17"/>
+      <c r="BT38" s="17"/>
+      <c r="BU38" s="17"/>
+      <c r="BV38" s="17"/>
+      <c r="BW38" s="18"/>
+      <c r="BX38" s="16"/>
+      <c r="BY38" s="17"/>
+      <c r="BZ38" s="17"/>
+      <c r="CA38" s="17"/>
+      <c r="CB38" s="17"/>
+      <c r="CC38" s="17"/>
+      <c r="CD38" s="17"/>
+      <c r="CE38" s="18"/>
+      <c r="CF38" s="40"/>
+    </row>
+    <row r="39" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A39" s="14"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="17"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="16"/>
+      <c r="AS39" s="17"/>
+      <c r="AT39" s="17"/>
+      <c r="AU39" s="17"/>
+      <c r="AV39" s="17"/>
+      <c r="AW39" s="17"/>
+      <c r="AX39" s="17"/>
+      <c r="AY39" s="18"/>
+      <c r="AZ39" s="16"/>
+      <c r="BA39" s="17"/>
+      <c r="BB39" s="17"/>
+      <c r="BC39" s="17"/>
+      <c r="BD39" s="17"/>
+      <c r="BE39" s="17"/>
+      <c r="BF39" s="17"/>
+      <c r="BG39" s="18"/>
+      <c r="BH39" s="16"/>
+      <c r="BI39" s="17"/>
+      <c r="BJ39" s="17"/>
+      <c r="BK39" s="17"/>
+      <c r="BL39" s="17"/>
+      <c r="BM39" s="17"/>
+      <c r="BN39" s="17"/>
+      <c r="BO39" s="18"/>
+      <c r="BP39" s="16"/>
+      <c r="BQ39" s="17"/>
+      <c r="BR39" s="17"/>
+      <c r="BS39" s="17"/>
+      <c r="BT39" s="17"/>
+      <c r="BU39" s="17"/>
+      <c r="BV39" s="17"/>
+      <c r="BW39" s="18"/>
+      <c r="BX39" s="16"/>
+      <c r="BY39" s="17"/>
+      <c r="BZ39" s="17"/>
+      <c r="CA39" s="17"/>
+      <c r="CB39" s="17"/>
+      <c r="CC39" s="17"/>
+      <c r="CD39" s="17"/>
+      <c r="CE39" s="18"/>
+      <c r="CF39" s="40"/>
+    </row>
+    <row r="40" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="17"/>
+      <c r="AO40" s="17"/>
+      <c r="AP40" s="17"/>
+      <c r="AQ40" s="18"/>
+      <c r="AR40" s="16"/>
+      <c r="AS40" s="17"/>
+      <c r="AT40" s="17"/>
+      <c r="AU40" s="17"/>
+      <c r="AV40" s="17"/>
+      <c r="AW40" s="17"/>
+      <c r="AX40" s="17"/>
+      <c r="AY40" s="18"/>
+      <c r="AZ40" s="16"/>
+      <c r="BA40" s="17"/>
+      <c r="BB40" s="17"/>
+      <c r="BC40" s="17"/>
+      <c r="BD40" s="17"/>
+      <c r="BE40" s="17"/>
+      <c r="BF40" s="17"/>
+      <c r="BG40" s="18"/>
+      <c r="BH40" s="16"/>
+      <c r="BI40" s="17"/>
+      <c r="BJ40" s="17"/>
+      <c r="BK40" s="17"/>
+      <c r="BL40" s="17"/>
+      <c r="BM40" s="17"/>
+      <c r="BN40" s="17"/>
+      <c r="BO40" s="18"/>
+      <c r="BP40" s="16"/>
+      <c r="BQ40" s="17"/>
+      <c r="BR40" s="17"/>
+      <c r="BS40" s="17"/>
+      <c r="BT40" s="17"/>
+      <c r="BU40" s="17"/>
+      <c r="BV40" s="17"/>
+      <c r="BW40" s="18"/>
+      <c r="BX40" s="16"/>
+      <c r="BY40" s="17"/>
+      <c r="BZ40" s="17"/>
+      <c r="CA40" s="17"/>
+      <c r="CB40" s="17"/>
+      <c r="CC40" s="17"/>
+      <c r="CD40" s="17"/>
+      <c r="CE40" s="18"/>
+      <c r="CF40" s="40"/>
+    </row>
+    <row r="41" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A41" s="14"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="17"/>
+      <c r="AN41" s="17"/>
+      <c r="AO41" s="17"/>
+      <c r="AP41" s="17"/>
+      <c r="AQ41" s="18"/>
+      <c r="AR41" s="16"/>
+      <c r="AS41" s="17"/>
+      <c r="AT41" s="17"/>
+      <c r="AU41" s="17"/>
+      <c r="AV41" s="17"/>
+      <c r="AW41" s="17"/>
+      <c r="AX41" s="17"/>
+      <c r="AY41" s="18"/>
+      <c r="AZ41" s="16"/>
+      <c r="BA41" s="17"/>
+      <c r="BB41" s="17"/>
+      <c r="BC41" s="17"/>
+      <c r="BD41" s="17"/>
+      <c r="BE41" s="17"/>
+      <c r="BF41" s="17"/>
+      <c r="BG41" s="18"/>
+      <c r="BH41" s="16"/>
+      <c r="BI41" s="17"/>
+      <c r="BJ41" s="17"/>
+      <c r="BK41" s="17"/>
+      <c r="BL41" s="17"/>
+      <c r="BM41" s="17"/>
+      <c r="BN41" s="17"/>
+      <c r="BO41" s="18"/>
+      <c r="BP41" s="16"/>
+      <c r="BQ41" s="17"/>
+      <c r="BR41" s="17"/>
+      <c r="BS41" s="17"/>
+      <c r="BT41" s="17"/>
+      <c r="BU41" s="17"/>
+      <c r="BV41" s="17"/>
+      <c r="BW41" s="18"/>
+      <c r="BX41" s="16"/>
+      <c r="BY41" s="17"/>
+      <c r="BZ41" s="17"/>
+      <c r="CA41" s="17"/>
+      <c r="CB41" s="17"/>
+      <c r="CC41" s="17"/>
+      <c r="CD41" s="17"/>
+      <c r="CE41" s="18"/>
+      <c r="CF41" s="40"/>
+    </row>
+    <row r="42" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="17"/>
+      <c r="AO42" s="17"/>
+      <c r="AP42" s="17"/>
+      <c r="AQ42" s="18"/>
+      <c r="AR42" s="16"/>
+      <c r="AS42" s="17"/>
+      <c r="AT42" s="17"/>
+      <c r="AU42" s="17"/>
+      <c r="AV42" s="17"/>
+      <c r="AW42" s="17"/>
+      <c r="AX42" s="17"/>
+      <c r="AY42" s="18"/>
+      <c r="AZ42" s="16"/>
+      <c r="BA42" s="17"/>
+      <c r="BB42" s="17"/>
+      <c r="BC42" s="17"/>
+      <c r="BD42" s="17"/>
+      <c r="BE42" s="17"/>
+      <c r="BF42" s="17"/>
+      <c r="BG42" s="18"/>
+      <c r="BH42" s="16"/>
+      <c r="BI42" s="17"/>
+      <c r="BJ42" s="17"/>
+      <c r="BK42" s="17"/>
+      <c r="BL42" s="17"/>
+      <c r="BM42" s="17"/>
+      <c r="BN42" s="17"/>
+      <c r="BO42" s="18"/>
+      <c r="BP42" s="16"/>
+      <c r="BQ42" s="17"/>
+      <c r="BR42" s="17"/>
+      <c r="BS42" s="17"/>
+      <c r="BT42" s="17"/>
+      <c r="BU42" s="17"/>
+      <c r="BV42" s="17"/>
+      <c r="BW42" s="18"/>
+      <c r="BX42" s="16"/>
+      <c r="BY42" s="17"/>
+      <c r="BZ42" s="17"/>
+      <c r="CA42" s="17"/>
+      <c r="CB42" s="17"/>
+      <c r="CC42" s="17"/>
+      <c r="CD42" s="17"/>
+      <c r="CE42" s="18"/>
+      <c r="CF42" s="40"/>
+    </row>
+    <row r="43" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A43" s="14"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="48"/>
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="18"/>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
+      <c r="AM43" s="17"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="17"/>
+      <c r="AP43" s="17"/>
+      <c r="AQ43" s="18"/>
+      <c r="AR43" s="16"/>
+      <c r="AS43" s="17"/>
+      <c r="AT43" s="17"/>
+      <c r="AU43" s="17"/>
+      <c r="AV43" s="17"/>
+      <c r="AW43" s="17"/>
+      <c r="AX43" s="17"/>
+      <c r="AY43" s="18"/>
+      <c r="AZ43" s="16"/>
+      <c r="BA43" s="17"/>
+      <c r="BB43" s="17"/>
+      <c r="BC43" s="17"/>
+      <c r="BD43" s="17"/>
+      <c r="BE43" s="17"/>
+      <c r="BF43" s="17"/>
+      <c r="BG43" s="18"/>
+      <c r="BH43" s="16"/>
+      <c r="BI43" s="17"/>
+      <c r="BJ43" s="17"/>
+      <c r="BK43" s="17"/>
+      <c r="BL43" s="17"/>
+      <c r="BM43" s="17"/>
+      <c r="BN43" s="17"/>
+      <c r="BO43" s="18"/>
+      <c r="BP43" s="16"/>
+      <c r="BQ43" s="17"/>
+      <c r="BR43" s="17"/>
+      <c r="BS43" s="17"/>
+      <c r="BT43" s="17"/>
+      <c r="BU43" s="17"/>
+      <c r="BV43" s="17"/>
+      <c r="BW43" s="18"/>
+      <c r="BX43" s="16"/>
+      <c r="BY43" s="17"/>
+      <c r="BZ43" s="17"/>
+      <c r="CA43" s="17"/>
+      <c r="CB43" s="17"/>
+      <c r="CC43" s="17"/>
+      <c r="CD43" s="17"/>
+      <c r="CE43" s="18"/>
+      <c r="CF43" s="40"/>
+    </row>
+    <row r="44" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="51"/>
+      <c r="W44" s="51"/>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="22"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="22"/>
+      <c r="AL44" s="22"/>
+      <c r="AM44" s="22"/>
+      <c r="AN44" s="22"/>
+      <c r="AO44" s="22"/>
+      <c r="AP44" s="22"/>
+      <c r="AQ44" s="23"/>
+      <c r="AR44" s="21"/>
+      <c r="AS44" s="22"/>
+      <c r="AT44" s="22"/>
+      <c r="AU44" s="22"/>
+      <c r="AV44" s="22"/>
+      <c r="AW44" s="22"/>
+      <c r="AX44" s="22"/>
+      <c r="AY44" s="23"/>
+      <c r="AZ44" s="21"/>
+      <c r="BA44" s="22"/>
+      <c r="BB44" s="22"/>
+      <c r="BC44" s="22"/>
+      <c r="BD44" s="22"/>
+      <c r="BE44" s="22"/>
+      <c r="BF44" s="22"/>
+      <c r="BG44" s="23"/>
+      <c r="BH44" s="21"/>
+      <c r="BI44" s="22"/>
+      <c r="BJ44" s="22"/>
+      <c r="BK44" s="22"/>
+      <c r="BL44" s="22"/>
+      <c r="BM44" s="22"/>
+      <c r="BN44" s="22"/>
+      <c r="BO44" s="23"/>
+      <c r="BP44" s="21"/>
+      <c r="BQ44" s="22"/>
+      <c r="BR44" s="22"/>
+      <c r="BS44" s="22"/>
+      <c r="BT44" s="22"/>
+      <c r="BU44" s="22"/>
+      <c r="BV44" s="22"/>
+      <c r="BW44" s="23"/>
+      <c r="BX44" s="21"/>
+      <c r="BY44" s="22"/>
+      <c r="BZ44" s="22"/>
+      <c r="CA44" s="22"/>
+      <c r="CB44" s="22"/>
+      <c r="CC44" s="22"/>
+      <c r="CD44" s="22"/>
+      <c r="CE44" s="23"/>
+      <c r="CF44" s="40"/>
+    </row>
+    <row r="45" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A45" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="45"/>
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="45"/>
-      <c r="AP37" s="45"/>
-      <c r="AQ37" s="45"/>
-      <c r="AR37" s="45"/>
-      <c r="AS37" s="45"/>
-      <c r="AT37" s="45"/>
-      <c r="AU37" s="45"/>
-      <c r="AV37" s="45"/>
-      <c r="AW37" s="45"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="45"/>
-      <c r="BA37" s="45"/>
-      <c r="BB37" s="45"/>
-      <c r="BC37" s="45"/>
-      <c r="BD37" s="45"/>
-      <c r="BE37" s="45"/>
-      <c r="BF37" s="45"/>
-      <c r="BG37" s="45"/>
-      <c r="BH37" s="45"/>
-      <c r="BI37" s="45"/>
-      <c r="BJ37" s="45"/>
-      <c r="BK37" s="45"/>
-      <c r="BL37" s="45"/>
-      <c r="BM37" s="45"/>
-      <c r="BN37" s="45"/>
-      <c r="BO37" s="45"/>
-      <c r="BP37" s="45"/>
-      <c r="BQ37" s="45"/>
-      <c r="BR37" s="45"/>
-      <c r="BS37" s="45"/>
-      <c r="BT37" s="45"/>
-      <c r="BU37" s="45"/>
-      <c r="BV37" s="45"/>
-      <c r="BW37" s="45"/>
-      <c r="BX37" s="45"/>
-      <c r="BY37" s="45"/>
-      <c r="BZ37" s="45"/>
-      <c r="CA37" s="45"/>
-      <c r="CB37" s="45"/>
-      <c r="CC37" s="45"/>
-      <c r="CD37" s="45"/>
-      <c r="CE37" s="45"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="41"/>
+      <c r="AG45" s="41"/>
+      <c r="AH45" s="41"/>
+      <c r="AI45" s="41"/>
+      <c r="AJ45" s="41"/>
+      <c r="AK45" s="41"/>
+      <c r="AL45" s="41"/>
+      <c r="AM45" s="41"/>
+      <c r="AN45" s="41"/>
+      <c r="AO45" s="41"/>
+      <c r="AP45" s="41"/>
+      <c r="AQ45" s="41"/>
+      <c r="AR45" s="41"/>
+      <c r="AS45" s="41"/>
+      <c r="AT45" s="41"/>
+      <c r="AU45" s="41"/>
+      <c r="AV45" s="41"/>
+      <c r="AW45" s="41"/>
+      <c r="AX45" s="41"/>
+      <c r="AY45" s="41"/>
+      <c r="AZ45" s="41"/>
+      <c r="BA45" s="41"/>
+      <c r="BB45" s="41"/>
+      <c r="BC45" s="41"/>
+      <c r="BD45" s="41"/>
+      <c r="BE45" s="41"/>
+      <c r="BF45" s="41"/>
+      <c r="BG45" s="41"/>
+      <c r="BH45" s="41"/>
+      <c r="BI45" s="41"/>
+      <c r="BJ45" s="41"/>
+      <c r="BK45" s="41"/>
+      <c r="BL45" s="41"/>
+      <c r="BM45" s="41"/>
+      <c r="BN45" s="41"/>
+      <c r="BO45" s="41"/>
+      <c r="BP45" s="41"/>
+      <c r="BQ45" s="41"/>
+      <c r="BR45" s="41"/>
+      <c r="BS45" s="41"/>
+      <c r="BT45" s="41"/>
+      <c r="BU45" s="41"/>
+      <c r="BV45" s="41"/>
+      <c r="BW45" s="41"/>
+      <c r="BX45" s="41"/>
+      <c r="BY45" s="41"/>
+      <c r="BZ45" s="41"/>
+      <c r="CA45" s="41"/>
+      <c r="CB45" s="41"/>
+      <c r="CC45" s="41"/>
+      <c r="CD45" s="41"/>
+      <c r="CE45" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF44"/>
+    <mergeCell ref="A45:CE45"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA44"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
     <mergeCell ref="AN4:AQ4"/>
@@ -4722,17 +5710,15 @@
     <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CF36"/>
-    <mergeCell ref="A37:CE37"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA36"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="D2:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B36">
+  <conditionalFormatting sqref="B6:B44">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>
@@ -4758,6 +5744,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4970,15 +5965,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4991,13 +5977,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximebardy/Github/Explorations-de-galeries-speleologiques/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C2DADA-F04E-BA42-AC8A-BD8CE0569CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{14C2DADA-F04E-BA42-AC8A-BD8CE0569CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1DA670E-3BF0-4783-ACC8-090CAFA202A5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="40">
   <si>
     <t>Tâches</t>
   </si>
@@ -123,21 +123,6 @@
     <t>Enregistrer un clip vidéo de la mission</t>
   </si>
   <si>
-    <t>Détecter obstacles</t>
-  </si>
-  <si>
-    <t>Détecter passages trop étroits</t>
-  </si>
-  <si>
-    <t>Détecter présence d’eau</t>
-  </si>
-  <si>
-    <t>Détecter stabilité apparente</t>
-  </si>
-  <si>
-    <t>Mettre en place exploration 50–300 m</t>
-  </si>
-  <si>
     <t>Créer mini-carte fil d’Ariane</t>
   </si>
   <si>
@@ -154,9 +139,6 @@
   </si>
   <si>
     <t>Implémenter vibrations manette (perte de signal, batterie faible, choc)</t>
-  </si>
-  <si>
-    <t>Programmer boutons latéraux (vitesses lente/normale, mode crabe)</t>
   </si>
   <si>
     <t>Programmer bouton B pour arrêt d'urgence</t>
@@ -229,6 +211,9 @@
   </si>
   <si>
     <t>Connection du rover au programme</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -809,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -923,6 +908,147 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -933,151 +1059,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1133,7 +1114,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1559,32 +1540,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF45"/>
+  <dimension ref="A1:CF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="AR2" sqref="AR2:CE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="83" width="2.1640625" style="2" customWidth="1"/>
-    <col min="84" max="84" width="3.1640625" style="3" customWidth="1"/>
-    <col min="85" max="297" width="9.1640625" style="3" customWidth="1"/>
-    <col min="298" max="16384" width="11.5" style="3"/>
+    <col min="1" max="1" width="57.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="83" width="2.140625" style="2" customWidth="1"/>
+    <col min="84" max="84" width="3.140625" style="3" customWidth="1"/>
+    <col min="85" max="297" width="9.140625" style="3" customWidth="1"/>
+    <col min="298" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+    <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1626,177 +1607,177 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="38"/>
-      <c r="BK2" s="38"/>
-      <c r="BL2" s="38"/>
-      <c r="BM2" s="38"/>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="38"/>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="38"/>
-      <c r="BR2" s="38"/>
-      <c r="BS2" s="38"/>
-      <c r="BT2" s="38"/>
-      <c r="BU2" s="38"/>
-      <c r="BV2" s="38"/>
-      <c r="BW2" s="38"/>
-      <c r="BX2" s="38"/>
-      <c r="BY2" s="38"/>
-      <c r="BZ2" s="38"/>
-      <c r="CA2" s="38"/>
-      <c r="CB2" s="38"/>
-      <c r="CC2" s="38"/>
-      <c r="CD2" s="38"/>
-      <c r="CE2" s="38"/>
+        <v>29</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68"/>
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="68"/>
+      <c r="BD2" s="68"/>
+      <c r="BE2" s="68"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="68"/>
+      <c r="BJ2" s="68"/>
+      <c r="BK2" s="68"/>
+      <c r="BL2" s="68"/>
+      <c r="BM2" s="68"/>
+      <c r="BN2" s="68"/>
+      <c r="BO2" s="68"/>
+      <c r="BP2" s="68"/>
+      <c r="BQ2" s="68"/>
+      <c r="BR2" s="68"/>
+      <c r="BS2" s="68"/>
+      <c r="BT2" s="68"/>
+      <c r="BU2" s="68"/>
+      <c r="BV2" s="68"/>
+      <c r="BW2" s="68"/>
+      <c r="BX2" s="68"/>
+      <c r="BY2" s="68"/>
+      <c r="BZ2" s="68"/>
+      <c r="CA2" s="68"/>
+      <c r="CB2" s="68"/>
+      <c r="CC2" s="68"/>
+      <c r="CD2" s="68"/>
+      <c r="CE2" s="68"/>
     </row>
-    <row r="3" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="39"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="39"/>
-      <c r="AZ3" s="39"/>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="39"/>
-      <c r="BC3" s="39"/>
-      <c r="BD3" s="39"/>
-      <c r="BE3" s="39"/>
-      <c r="BF3" s="39"/>
-      <c r="BG3" s="39"/>
-      <c r="BH3" s="39"/>
-      <c r="BI3" s="39"/>
-      <c r="BJ3" s="39"/>
-      <c r="BK3" s="39"/>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="39"/>
-      <c r="BO3" s="39"/>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="39"/>
-      <c r="BR3" s="39"/>
-      <c r="BS3" s="39"/>
-      <c r="BT3" s="39"/>
-      <c r="BU3" s="39"/>
-      <c r="BV3" s="39"/>
-      <c r="BW3" s="39"/>
-      <c r="BX3" s="39"/>
-      <c r="BY3" s="39"/>
-      <c r="BZ3" s="39"/>
-      <c r="CA3" s="39"/>
-      <c r="CB3" s="39"/>
-      <c r="CC3" s="39"/>
-      <c r="CD3" s="39"/>
-      <c r="CE3" s="39"/>
+    <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="69"/>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="69"/>
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="69"/>
+      <c r="BH3" s="69"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="69"/>
+      <c r="BK3" s="69"/>
+      <c r="BL3" s="69"/>
+      <c r="BM3" s="69"/>
+      <c r="BN3" s="69"/>
+      <c r="BO3" s="69"/>
+      <c r="BP3" s="69"/>
+      <c r="BQ3" s="69"/>
+      <c r="BR3" s="69"/>
+      <c r="BS3" s="69"/>
+      <c r="BT3" s="69"/>
+      <c r="BU3" s="69"/>
+      <c r="BV3" s="69"/>
+      <c r="BW3" s="69"/>
+      <c r="BX3" s="69"/>
+      <c r="BY3" s="69"/>
+      <c r="BZ3" s="69"/>
+      <c r="CA3" s="69"/>
+      <c r="CB3" s="69"/>
+      <c r="CC3" s="69"/>
+      <c r="CD3" s="69"/>
+      <c r="CE3" s="69"/>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -1805,132 +1786,132 @@
       <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="34">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66">
         <v>45992</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="34">
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66">
         <v>45993</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="36" t="s">
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="34">
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="66">
         <v>45999</v>
       </c>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36" t="s">
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="34">
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="66">
         <v>46000</v>
       </c>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="36" t="s">
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="34">
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="66">
         <v>46006</v>
       </c>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="36" t="s">
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="34">
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="66">
         <v>46007</v>
       </c>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="36" t="s">
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="67"/>
+      <c r="AZ4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37"/>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="34">
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="65"/>
+      <c r="BC4" s="65"/>
+      <c r="BD4" s="66">
         <v>46027</v>
       </c>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="36" t="s">
+      <c r="BE4" s="66"/>
+      <c r="BF4" s="66"/>
+      <c r="BG4" s="67"/>
+      <c r="BH4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="37"/>
-      <c r="BJ4" s="37"/>
-      <c r="BK4" s="37"/>
-      <c r="BL4" s="34">
+      <c r="BI4" s="65"/>
+      <c r="BJ4" s="65"/>
+      <c r="BK4" s="65"/>
+      <c r="BL4" s="66">
         <v>46028</v>
       </c>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="36" t="s">
+      <c r="BM4" s="66"/>
+      <c r="BN4" s="66"/>
+      <c r="BO4" s="67"/>
+      <c r="BP4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="34">
+      <c r="BQ4" s="65"/>
+      <c r="BR4" s="65"/>
+      <c r="BS4" s="65"/>
+      <c r="BT4" s="66">
         <v>46034</v>
       </c>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="36" t="s">
+      <c r="BU4" s="66"/>
+      <c r="BV4" s="66"/>
+      <c r="BW4" s="67"/>
+      <c r="BX4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="37"/>
-      <c r="BZ4" s="37"/>
-      <c r="CA4" s="37"/>
-      <c r="CB4" s="34">
+      <c r="BY4" s="65"/>
+      <c r="BZ4" s="65"/>
+      <c r="CA4" s="65"/>
+      <c r="CB4" s="66">
         <v>46035</v>
       </c>
-      <c r="CC4" s="34"/>
-      <c r="CD4" s="34"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="40" t="s">
+      <c r="CC4" s="66"/>
+      <c r="CD4" s="66"/>
+      <c r="CE4" s="67"/>
+      <c r="CF4" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+    <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
@@ -2177,9 +2158,9 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="40"/>
+      <c r="CF5" s="51"/>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="24"/>
       <c r="C6" s="9"/>
@@ -2199,16 +2180,16 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="44" t="s">
+      <c r="T6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="46"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -2265,13 +2246,13 @@
       <c r="CC6" s="11"/>
       <c r="CD6" s="11"/>
       <c r="CE6" s="12"/>
-      <c r="CF6" s="40"/>
+      <c r="CF6" s="51"/>
     </row>
-    <row r="7" spans="1:84" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="68"/>
+    <row r="7" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="46"/>
       <c r="C7" s="15"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -2289,14 +2270,14 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="49"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="60"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
@@ -2353,13 +2334,13 @@
       <c r="CC7" s="11"/>
       <c r="CD7" s="11"/>
       <c r="CE7" s="12"/>
-      <c r="CF7" s="40"/>
+      <c r="CF7" s="51"/>
     </row>
-    <row r="8" spans="1:84" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="68"/>
+    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="46"/>
       <c r="C8" s="15"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
@@ -2377,18 +2358,26 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
@@ -2441,13 +2430,13 @@
       <c r="CC8" s="11"/>
       <c r="CD8" s="11"/>
       <c r="CE8" s="12"/>
-      <c r="CF8" s="40"/>
+      <c r="CF8" s="51"/>
     </row>
-    <row r="9" spans="1:84" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="68"/>
+    <row r="9" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="46"/>
       <c r="C9" s="15"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
@@ -2465,14 +2454,14 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="49"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="60"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
@@ -2529,13 +2518,13 @@
       <c r="CC9" s="11"/>
       <c r="CD9" s="11"/>
       <c r="CE9" s="12"/>
-      <c r="CF9" s="40"/>
+      <c r="CF9" s="51"/>
     </row>
-    <row r="10" spans="1:84" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="68"/>
+    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="46"/>
       <c r="C10" s="15"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
@@ -2553,18 +2542,26 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
@@ -2617,11 +2614,11 @@
       <c r="CC10" s="11"/>
       <c r="CD10" s="11"/>
       <c r="CE10" s="12"/>
-      <c r="CF10" s="40"/>
+      <c r="CF10" s="51"/>
     </row>
-    <row r="11" spans="1:84" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
-        <v>36</v>
+    <row r="11" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="15"/>
@@ -2641,14 +2638,14 @@
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="49"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="60"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -2705,11 +2702,11 @@
       <c r="CC11" s="17"/>
       <c r="CD11" s="17"/>
       <c r="CE11" s="18"/>
-      <c r="CF11" s="40"/>
+      <c r="CF11" s="51"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A12" s="61" t="s">
-        <v>33</v>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="15"/>
@@ -2729,14 +2726,14 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="49"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="60"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -2745,11 +2742,21 @@
       <c r="AG12" s="17"/>
       <c r="AH12" s="17"/>
       <c r="AI12" s="18"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
+      <c r="AJ12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN12" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="AO12" s="17"/>
       <c r="AP12" s="17"/>
       <c r="AQ12" s="18"/>
@@ -2793,11 +2800,11 @@
       <c r="CC12" s="17"/>
       <c r="CD12" s="17"/>
       <c r="CE12" s="18"/>
-      <c r="CF12" s="40"/>
+      <c r="CF12" s="51"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A13" s="61" t="s">
-        <v>32</v>
+    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="15"/>
@@ -2817,14 +2824,14 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="49"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="60"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -2833,14 +2840,30 @@
       <c r="AG13" s="17"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="18"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="18"/>
+      <c r="AJ13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ13" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AR13" s="16"/>
       <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
@@ -2881,11 +2904,11 @@
       <c r="CC13" s="17"/>
       <c r="CD13" s="17"/>
       <c r="CE13" s="18"/>
-      <c r="CF13" s="40"/>
+      <c r="CF13" s="51"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A14" s="61" t="s">
-        <v>31</v>
+    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="15"/>
@@ -2905,14 +2928,14 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="49"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="60"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -2921,14 +2944,30 @@
       <c r="AG14" s="17"/>
       <c r="AH14" s="17"/>
       <c r="AI14" s="18"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="18"/>
+      <c r="AJ14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ14" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AR14" s="16"/>
       <c r="AS14" s="17"/>
       <c r="AT14" s="17"/>
@@ -2969,11 +3008,11 @@
       <c r="CC14" s="17"/>
       <c r="CD14" s="17"/>
       <c r="CE14" s="18"/>
-      <c r="CF14" s="40"/>
+      <c r="CF14" s="51"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A15" s="61" t="s">
-        <v>30</v>
+    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="15"/>
@@ -2993,14 +3032,14 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="49"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="60"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
@@ -3009,14 +3048,30 @@
       <c r="AG15" s="17"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="18"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="18"/>
+      <c r="AJ15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ15" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AR15" s="16"/>
       <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
@@ -3057,11 +3112,11 @@
       <c r="CC15" s="17"/>
       <c r="CD15" s="17"/>
       <c r="CE15" s="18"/>
-      <c r="CF15" s="40"/>
+      <c r="CF15" s="51"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A16" s="61" t="s">
-        <v>29</v>
+    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="15"/>
@@ -3081,14 +3136,14 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="49"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="60"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
@@ -3102,9 +3157,15 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="18"/>
+      <c r="AO16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ16" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AR16" s="16"/>
       <c r="AS16" s="17"/>
       <c r="AT16" s="17"/>
@@ -3145,11 +3206,11 @@
       <c r="CC16" s="17"/>
       <c r="CD16" s="17"/>
       <c r="CE16" s="18"/>
-      <c r="CF16" s="40"/>
+      <c r="CF16" s="51"/>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A17" s="61" t="s">
-        <v>28</v>
+    <row r="17" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="15"/>
@@ -3169,14 +3230,14 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="49"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="60"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
@@ -3233,11 +3294,11 @@
       <c r="CC17" s="17"/>
       <c r="CD17" s="17"/>
       <c r="CE17" s="18"/>
-      <c r="CF17" s="40"/>
+      <c r="CF17" s="51"/>
     </row>
-    <row r="18" spans="1:84" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
-        <v>37</v>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="15"/>
@@ -3257,14 +3318,14 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="49"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="60"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
@@ -3281,22 +3342,46 @@
       <c r="AO18" s="17"/>
       <c r="AP18" s="17"/>
       <c r="AQ18" s="18"/>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
+      <c r="AR18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU18" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="AV18" s="17"/>
       <c r="AW18" s="17"/>
       <c r="AX18" s="17"/>
       <c r="AY18" s="18"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="18"/>
+      <c r="AZ18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG18" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="BH18" s="16"/>
       <c r="BI18" s="17"/>
       <c r="BJ18" s="17"/>
@@ -3321,11 +3406,11 @@
       <c r="CC18" s="17"/>
       <c r="CD18" s="17"/>
       <c r="CE18" s="18"/>
-      <c r="CF18" s="40"/>
+      <c r="CF18" s="51"/>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A19" s="65" t="s">
-        <v>27</v>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="15"/>
@@ -3345,14 +3430,14 @@
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="49"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="60"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
@@ -3369,22 +3454,46 @@
       <c r="AO19" s="17"/>
       <c r="AP19" s="17"/>
       <c r="AQ19" s="18"/>
-      <c r="AR19" s="16"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
+      <c r="AR19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU19" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="AV19" s="17"/>
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
       <c r="AY19" s="18"/>
-      <c r="AZ19" s="16"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="18"/>
+      <c r="AZ19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG19" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="BH19" s="16"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="17"/>
@@ -3409,11 +3518,11 @@
       <c r="CC19" s="17"/>
       <c r="CD19" s="17"/>
       <c r="CE19" s="18"/>
-      <c r="CF19" s="40"/>
+      <c r="CF19" s="51"/>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A20" s="65" t="s">
-        <v>26</v>
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="15"/>
@@ -3433,14 +3542,14 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="49"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="60"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
@@ -3457,22 +3566,46 @@
       <c r="AO20" s="17"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="18"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
+      <c r="AR20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU20" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="AV20" s="17"/>
       <c r="AW20" s="17"/>
       <c r="AX20" s="17"/>
       <c r="AY20" s="18"/>
-      <c r="AZ20" s="16"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="18"/>
+      <c r="AZ20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG20" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="BH20" s="16"/>
       <c r="BI20" s="17"/>
       <c r="BJ20" s="17"/>
@@ -3497,11 +3630,11 @@
       <c r="CC20" s="17"/>
       <c r="CD20" s="17"/>
       <c r="CE20" s="18"/>
-      <c r="CF20" s="40"/>
+      <c r="CF20" s="51"/>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A21" s="65" t="s">
-        <v>25</v>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="15"/>
@@ -3521,14 +3654,14 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="49"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
@@ -3545,18 +3678,34 @@
       <c r="AO21" s="17"/>
       <c r="AP21" s="17"/>
       <c r="AQ21" s="18"/>
-      <c r="AR21" s="16"/>
-      <c r="AS21" s="17"/>
-      <c r="AT21" s="17"/>
-      <c r="AU21" s="17"/>
+      <c r="AR21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU21" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="AV21" s="17"/>
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
       <c r="AY21" s="18"/>
-      <c r="AZ21" s="16"/>
-      <c r="BA21" s="17"/>
-      <c r="BB21" s="17"/>
-      <c r="BC21" s="17"/>
+      <c r="AZ21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC21" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="BD21" s="17"/>
       <c r="BE21" s="17"/>
       <c r="BF21" s="17"/>
@@ -3585,11 +3734,11 @@
       <c r="CC21" s="17"/>
       <c r="CD21" s="17"/>
       <c r="CE21" s="18"/>
-      <c r="CF21" s="40"/>
+      <c r="CF21" s="51"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A22" s="65" t="s">
-        <v>24</v>
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="15"/>
@@ -3609,14 +3758,14 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="49"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="60"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
@@ -3644,15 +3793,33 @@
       <c r="AZ22" s="16"/>
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
-      <c r="BC22" s="17"/>
-      <c r="BD22" s="17"/>
-      <c r="BE22" s="17"/>
-      <c r="BF22" s="17"/>
-      <c r="BG22" s="18"/>
-      <c r="BH22" s="16"/>
-      <c r="BI22" s="17"/>
-      <c r="BJ22" s="17"/>
-      <c r="BK22" s="17"/>
+      <c r="BC22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK22" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="BL22" s="17"/>
       <c r="BM22" s="17"/>
       <c r="BN22" s="17"/>
@@ -3673,11 +3840,11 @@
       <c r="CC22" s="17"/>
       <c r="CD22" s="17"/>
       <c r="CE22" s="18"/>
-      <c r="CF22" s="40"/>
+      <c r="CF22" s="51"/>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A23" s="65" t="s">
-        <v>23</v>
+    <row r="23" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="15"/>
@@ -3697,14 +3864,14 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="49"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="60"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
@@ -3761,11 +3928,11 @@
       <c r="CC23" s="17"/>
       <c r="CD23" s="17"/>
       <c r="CE23" s="18"/>
-      <c r="CF23" s="40"/>
+      <c r="CF23" s="51"/>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A24" s="65" t="s">
-        <v>22</v>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="15"/>
@@ -3785,14 +3952,14 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="49"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="60"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
@@ -3825,17 +3992,31 @@
       <c r="BE24" s="17"/>
       <c r="BF24" s="17"/>
       <c r="BG24" s="18"/>
-      <c r="BH24" s="16"/>
-      <c r="BI24" s="17"/>
-      <c r="BJ24" s="17"/>
-      <c r="BK24" s="17"/>
+      <c r="BH24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK24" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="BL24" s="17"/>
       <c r="BM24" s="17"/>
       <c r="BN24" s="17"/>
       <c r="BO24" s="18"/>
-      <c r="BP24" s="16"/>
-      <c r="BQ24" s="17"/>
-      <c r="BR24" s="17"/>
+      <c r="BP24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR24" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="BS24" s="17"/>
       <c r="BT24" s="17"/>
       <c r="BU24" s="17"/>
@@ -3849,11 +4030,11 @@
       <c r="CC24" s="17"/>
       <c r="CD24" s="17"/>
       <c r="CE24" s="18"/>
-      <c r="CF24" s="40"/>
+      <c r="CF24" s="51"/>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A25" s="65" t="s">
-        <v>21</v>
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
+        <v>16</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="15"/>
@@ -3873,14 +4054,14 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="49"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="60"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
@@ -3913,17 +4094,31 @@
       <c r="BE25" s="17"/>
       <c r="BF25" s="17"/>
       <c r="BG25" s="18"/>
-      <c r="BH25" s="16"/>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="17"/>
-      <c r="BK25" s="17"/>
+      <c r="BH25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK25" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="BL25" s="17"/>
       <c r="BM25" s="17"/>
       <c r="BN25" s="17"/>
       <c r="BO25" s="18"/>
-      <c r="BP25" s="16"/>
-      <c r="BQ25" s="17"/>
-      <c r="BR25" s="17"/>
+      <c r="BP25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR25" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="BS25" s="17"/>
       <c r="BT25" s="17"/>
       <c r="BU25" s="17"/>
@@ -3937,11 +4132,11 @@
       <c r="CC25" s="17"/>
       <c r="CD25" s="17"/>
       <c r="CE25" s="18"/>
-      <c r="CF25" s="40"/>
+      <c r="CF25" s="51"/>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A26" s="65" t="s">
-        <v>20</v>
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="15"/>
@@ -3961,14 +4156,14 @@
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="18"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="49"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="60"/>
       <c r="AB26" s="16"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
@@ -4001,17 +4196,31 @@
       <c r="BE26" s="17"/>
       <c r="BF26" s="17"/>
       <c r="BG26" s="18"/>
-      <c r="BH26" s="16"/>
-      <c r="BI26" s="17"/>
-      <c r="BJ26" s="17"/>
-      <c r="BK26" s="17"/>
+      <c r="BH26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK26" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="BL26" s="17"/>
       <c r="BM26" s="17"/>
       <c r="BN26" s="17"/>
       <c r="BO26" s="18"/>
-      <c r="BP26" s="16"/>
-      <c r="BQ26" s="17"/>
-      <c r="BR26" s="17"/>
+      <c r="BP26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR26" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="BS26" s="17"/>
       <c r="BT26" s="17"/>
       <c r="BU26" s="17"/>
@@ -4025,187 +4234,331 @@
       <c r="CC26" s="17"/>
       <c r="CD26" s="17"/>
       <c r="CE26" s="18"/>
-      <c r="CF26" s="40"/>
+      <c r="CF26" s="51"/>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A27" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" s="18"/>
-      <c r="AR27" s="16"/>
-      <c r="AS27" s="17"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
-      <c r="AW27" s="17"/>
-      <c r="AX27" s="17"/>
-      <c r="AY27" s="18"/>
-      <c r="AZ27" s="16"/>
-      <c r="BA27" s="17"/>
-      <c r="BB27" s="17"/>
-      <c r="BC27" s="17"/>
-      <c r="BD27" s="17"/>
-      <c r="BE27" s="17"/>
-      <c r="BF27" s="17"/>
-      <c r="BG27" s="18"/>
-      <c r="BH27" s="16"/>
-      <c r="BI27" s="17"/>
-      <c r="BJ27" s="17"/>
-      <c r="BK27" s="17"/>
-      <c r="BL27" s="17"/>
-      <c r="BM27" s="17"/>
-      <c r="BN27" s="17"/>
-      <c r="BO27" s="18"/>
-      <c r="BP27" s="16"/>
-      <c r="BQ27" s="17"/>
-      <c r="BR27" s="17"/>
-      <c r="BS27" s="17"/>
-      <c r="BT27" s="17"/>
-      <c r="BU27" s="17"/>
-      <c r="BV27" s="17"/>
-      <c r="BW27" s="18"/>
-      <c r="BX27" s="16"/>
-      <c r="BY27" s="17"/>
-      <c r="BZ27" s="17"/>
-      <c r="CA27" s="17"/>
-      <c r="CB27" s="17"/>
-      <c r="CC27" s="17"/>
-      <c r="CD27" s="17"/>
-      <c r="CE27" s="18"/>
-      <c r="CF27" s="40"/>
+    <row r="27" spans="1:84" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
+      <c r="AW27" s="31"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="34"/>
+      <c r="AZ27" s="33"/>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="34"/>
+      <c r="BH27" s="33"/>
+      <c r="BI27" s="31"/>
+      <c r="BJ27" s="31"/>
+      <c r="BK27" s="31"/>
+      <c r="BL27" s="31"/>
+      <c r="BM27" s="31"/>
+      <c r="BN27" s="31"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="33"/>
+      <c r="BQ27" s="31"/>
+      <c r="BR27" s="31"/>
+      <c r="BS27" s="31"/>
+      <c r="BT27" s="31"/>
+      <c r="BU27" s="31"/>
+      <c r="BV27" s="31"/>
+      <c r="BW27" s="34"/>
+      <c r="BX27" s="33"/>
+      <c r="BY27" s="31"/>
+      <c r="BZ27" s="31"/>
+      <c r="CA27" s="31"/>
+      <c r="CB27" s="31"/>
+      <c r="CC27" s="31"/>
+      <c r="CD27" s="31"/>
+      <c r="CE27" s="34"/>
+      <c r="CF27" s="51"/>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A28" s="65" t="s">
-        <v>18</v>
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="16"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
-      <c r="AW28" s="17"/>
-      <c r="AX28" s="17"/>
-      <c r="AY28" s="18"/>
-      <c r="AZ28" s="16"/>
-      <c r="BA28" s="17"/>
-      <c r="BB28" s="17"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="17"/>
-      <c r="BE28" s="17"/>
-      <c r="BF28" s="17"/>
-      <c r="BG28" s="18"/>
-      <c r="BH28" s="16"/>
-      <c r="BI28" s="17"/>
-      <c r="BJ28" s="17"/>
-      <c r="BK28" s="17"/>
-      <c r="BL28" s="17"/>
-      <c r="BM28" s="17"/>
-      <c r="BN28" s="17"/>
-      <c r="BO28" s="18"/>
-      <c r="BP28" s="16"/>
-      <c r="BQ28" s="17"/>
-      <c r="BR28" s="17"/>
-      <c r="BS28" s="17"/>
-      <c r="BT28" s="17"/>
-      <c r="BU28" s="17"/>
-      <c r="BV28" s="17"/>
-      <c r="BW28" s="18"/>
-      <c r="BX28" s="16"/>
-      <c r="BY28" s="17"/>
-      <c r="BZ28" s="17"/>
-      <c r="CA28" s="17"/>
-      <c r="CB28" s="17"/>
-      <c r="CC28" s="17"/>
-      <c r="CD28" s="17"/>
-      <c r="CE28" s="18"/>
-      <c r="CF28" s="40"/>
+      <c r="D28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="58"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="BP28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BV28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BW28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BY28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="CB28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="CC28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="CD28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="CF28" s="51"/>
     </row>
-    <row r="29" spans="1:84" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
-        <v>38</v>
+    <row r="29" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="15"/>
@@ -4225,14 +4578,14 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="49"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="60"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
@@ -4289,11 +4642,11 @@
       <c r="CC29" s="17"/>
       <c r="CD29" s="17"/>
       <c r="CE29" s="18"/>
-      <c r="CF29" s="40"/>
+      <c r="CF29" s="51"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A30" s="63" t="s">
-        <v>17</v>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A30" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="15"/>
@@ -4313,14 +4666,14 @@
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="49"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="60"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
@@ -4377,11 +4730,11 @@
       <c r="CC30" s="17"/>
       <c r="CD30" s="17"/>
       <c r="CE30" s="18"/>
-      <c r="CF30" s="40"/>
+      <c r="CF30" s="51"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A31" s="63" t="s">
-        <v>16</v>
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A31" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="15"/>
@@ -4401,14 +4754,14 @@
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="49"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="60"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
@@ -4452,11 +4805,21 @@
       <c r="BP31" s="16"/>
       <c r="BQ31" s="17"/>
       <c r="BR31" s="17"/>
-      <c r="BS31" s="17"/>
-      <c r="BT31" s="17"/>
-      <c r="BU31" s="17"/>
-      <c r="BV31" s="17"/>
-      <c r="BW31" s="18"/>
+      <c r="BS31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BV31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BW31" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="BX31" s="16"/>
       <c r="BY31" s="17"/>
       <c r="BZ31" s="17"/>
@@ -4465,11 +4828,11 @@
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
       <c r="CE31" s="18"/>
-      <c r="CF31" s="40"/>
+      <c r="CF31" s="51"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A32" s="63" t="s">
-        <v>15</v>
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A32" s="45" t="s">
+        <v>11</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="15"/>
@@ -4489,14 +4852,14 @@
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="49"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="60"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
@@ -4540,11 +4903,21 @@
       <c r="BP32" s="16"/>
       <c r="BQ32" s="17"/>
       <c r="BR32" s="17"/>
-      <c r="BS32" s="17"/>
-      <c r="BT32" s="17"/>
-      <c r="BU32" s="17"/>
-      <c r="BV32" s="17"/>
-      <c r="BW32" s="18"/>
+      <c r="BS32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BV32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BW32" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="BX32" s="16"/>
       <c r="BY32" s="17"/>
       <c r="BZ32" s="17"/>
@@ -4553,100 +4926,106 @@
       <c r="CC32" s="17"/>
       <c r="CD32" s="17"/>
       <c r="CE32" s="18"/>
-      <c r="CF32" s="40"/>
+      <c r="CF32" s="51"/>
     </row>
-    <row r="33" spans="1:84" s="57" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="53"/>
-      <c r="AD33" s="53"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="53"/>
-      <c r="AN33" s="53"/>
-      <c r="AO33" s="53"/>
-      <c r="AP33" s="53"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="55"/>
-      <c r="AS33" s="53"/>
-      <c r="AT33" s="53"/>
-      <c r="AU33" s="53"/>
-      <c r="AV33" s="53"/>
-      <c r="AW33" s="53"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="55"/>
-      <c r="BA33" s="53"/>
-      <c r="BB33" s="53"/>
-      <c r="BC33" s="53"/>
-      <c r="BD33" s="53"/>
-      <c r="BE33" s="53"/>
-      <c r="BF33" s="53"/>
-      <c r="BG33" s="56"/>
-      <c r="BH33" s="55"/>
-      <c r="BI33" s="53"/>
-      <c r="BJ33" s="53"/>
-      <c r="BK33" s="53"/>
-      <c r="BL33" s="53"/>
-      <c r="BM33" s="53"/>
-      <c r="BN33" s="53"/>
-      <c r="BO33" s="56"/>
-      <c r="BP33" s="55"/>
-      <c r="BQ33" s="53"/>
-      <c r="BR33" s="53"/>
-      <c r="BS33" s="53"/>
-      <c r="BT33" s="53"/>
-      <c r="BU33" s="53"/>
-      <c r="BV33" s="53"/>
-      <c r="BW33" s="56"/>
-      <c r="BX33" s="55"/>
-      <c r="BY33" s="53"/>
-      <c r="BZ33" s="53"/>
-      <c r="CA33" s="53"/>
-      <c r="CB33" s="53"/>
-      <c r="CC33" s="53"/>
-      <c r="CD33" s="53"/>
-      <c r="CE33" s="56"/>
-      <c r="CF33" s="40"/>
+    <row r="33" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="18"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="18"/>
+      <c r="AR33" s="16"/>
+      <c r="AS33" s="17"/>
+      <c r="AT33" s="17"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="17"/>
+      <c r="AW33" s="17"/>
+      <c r="AX33" s="17"/>
+      <c r="AY33" s="18"/>
+      <c r="AZ33" s="16"/>
+      <c r="BA33" s="17"/>
+      <c r="BB33" s="17"/>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="17"/>
+      <c r="BE33" s="17"/>
+      <c r="BF33" s="17"/>
+      <c r="BG33" s="18"/>
+      <c r="BH33" s="16"/>
+      <c r="BI33" s="17"/>
+      <c r="BJ33" s="17"/>
+      <c r="BK33" s="17"/>
+      <c r="BL33" s="17"/>
+      <c r="BM33" s="17"/>
+      <c r="BN33" s="17"/>
+      <c r="BO33" s="18"/>
+      <c r="BP33" s="16"/>
+      <c r="BQ33" s="17"/>
+      <c r="BR33" s="17"/>
+      <c r="BS33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BV33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BW33" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX33" s="16"/>
+      <c r="BY33" s="17"/>
+      <c r="BZ33" s="17"/>
+      <c r="CA33" s="17"/>
+      <c r="CB33" s="17"/>
+      <c r="CC33" s="17"/>
+      <c r="CD33" s="17"/>
+      <c r="CE33" s="18"/>
+      <c r="CF33" s="51"/>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A34" s="59" t="s">
-        <v>14</v>
-      </c>
+    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
       <c r="B34" s="25"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -4665,14 +5044,14 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="49"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="60"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
@@ -4729,12 +5108,10 @@
       <c r="CC34" s="17"/>
       <c r="CD34" s="17"/>
       <c r="CE34" s="18"/>
-      <c r="CF34" s="40"/>
+      <c r="CF34" s="51"/>
     </row>
-    <row r="35" spans="1:84" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="66" t="s">
-        <v>39</v>
-      </c>
+    <row r="35" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
       <c r="B35" s="25"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -4753,14 +5130,14 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="49"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="60"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
@@ -4817,12 +5194,10 @@
       <c r="CC35" s="17"/>
       <c r="CD35" s="17"/>
       <c r="CE35" s="18"/>
-      <c r="CF35" s="40"/>
+      <c r="CF35" s="51"/>
     </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A36" s="67" t="s">
-        <v>13</v>
-      </c>
+    <row r="36" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
       <c r="B36" s="25"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -4841,14 +5216,14 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="49"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="60"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
@@ -4905,12 +5280,10 @@
       <c r="CC36" s="17"/>
       <c r="CD36" s="17"/>
       <c r="CE36" s="18"/>
-      <c r="CF36" s="40"/>
+      <c r="CF36" s="51"/>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A37" s="67" t="s">
-        <v>12</v>
-      </c>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
       <c r="B37" s="25"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -4929,14 +5302,14 @@
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
       <c r="S37" s="18"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="49"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="60"/>
       <c r="AB37" s="16"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
@@ -4993,709 +5366,189 @@
       <c r="CC37" s="17"/>
       <c r="CD37" s="17"/>
       <c r="CE37" s="18"/>
-      <c r="CF37" s="40"/>
+      <c r="CF37" s="51"/>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A38" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="49"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-      <c r="AN38" s="17"/>
-      <c r="AO38" s="17"/>
-      <c r="AP38" s="17"/>
-      <c r="AQ38" s="18"/>
-      <c r="AR38" s="16"/>
-      <c r="AS38" s="17"/>
-      <c r="AT38" s="17"/>
-      <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
-      <c r="AW38" s="17"/>
-      <c r="AX38" s="17"/>
-      <c r="AY38" s="18"/>
-      <c r="AZ38" s="16"/>
-      <c r="BA38" s="17"/>
-      <c r="BB38" s="17"/>
-      <c r="BC38" s="17"/>
-      <c r="BD38" s="17"/>
-      <c r="BE38" s="17"/>
-      <c r="BF38" s="17"/>
-      <c r="BG38" s="18"/>
-      <c r="BH38" s="16"/>
-      <c r="BI38" s="17"/>
-      <c r="BJ38" s="17"/>
-      <c r="BK38" s="17"/>
-      <c r="BL38" s="17"/>
-      <c r="BM38" s="17"/>
-      <c r="BN38" s="17"/>
-      <c r="BO38" s="18"/>
-      <c r="BP38" s="16"/>
-      <c r="BQ38" s="17"/>
-      <c r="BR38" s="17"/>
-      <c r="BS38" s="17"/>
-      <c r="BT38" s="17"/>
-      <c r="BU38" s="17"/>
-      <c r="BV38" s="17"/>
-      <c r="BW38" s="18"/>
-      <c r="BX38" s="16"/>
-      <c r="BY38" s="17"/>
-      <c r="BZ38" s="17"/>
-      <c r="CA38" s="17"/>
-      <c r="CB38" s="17"/>
-      <c r="CC38" s="17"/>
-      <c r="CD38" s="17"/>
-      <c r="CE38" s="18"/>
-      <c r="CF38" s="40"/>
+    <row r="38" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="22"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="22"/>
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="21"/>
+      <c r="AS38" s="22"/>
+      <c r="AT38" s="22"/>
+      <c r="AU38" s="22"/>
+      <c r="AV38" s="22"/>
+      <c r="AW38" s="22"/>
+      <c r="AX38" s="22"/>
+      <c r="AY38" s="23"/>
+      <c r="AZ38" s="21"/>
+      <c r="BA38" s="22"/>
+      <c r="BB38" s="22"/>
+      <c r="BC38" s="22"/>
+      <c r="BD38" s="22"/>
+      <c r="BE38" s="22"/>
+      <c r="BF38" s="22"/>
+      <c r="BG38" s="23"/>
+      <c r="BH38" s="21"/>
+      <c r="BI38" s="22"/>
+      <c r="BJ38" s="22"/>
+      <c r="BK38" s="22"/>
+      <c r="BL38" s="22"/>
+      <c r="BM38" s="22"/>
+      <c r="BN38" s="22"/>
+      <c r="BO38" s="23"/>
+      <c r="BP38" s="21"/>
+      <c r="BQ38" s="22"/>
+      <c r="BR38" s="22"/>
+      <c r="BS38" s="22"/>
+      <c r="BT38" s="22"/>
+      <c r="BU38" s="22"/>
+      <c r="BV38" s="22"/>
+      <c r="BW38" s="23"/>
+      <c r="BX38" s="21"/>
+      <c r="BY38" s="22"/>
+      <c r="BZ38" s="22"/>
+      <c r="CA38" s="22"/>
+      <c r="CB38" s="22"/>
+      <c r="CC38" s="22"/>
+      <c r="CD38" s="22"/>
+      <c r="CE38" s="23"/>
+      <c r="CF38" s="51"/>
     </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A39" s="14"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
-      <c r="AG39" s="17"/>
-      <c r="AH39" s="17"/>
-      <c r="AI39" s="18"/>
-      <c r="AJ39" s="16"/>
-      <c r="AK39" s="17"/>
-      <c r="AL39" s="17"/>
-      <c r="AM39" s="17"/>
-      <c r="AN39" s="17"/>
-      <c r="AO39" s="17"/>
-      <c r="AP39" s="17"/>
-      <c r="AQ39" s="18"/>
-      <c r="AR39" s="16"/>
-      <c r="AS39" s="17"/>
-      <c r="AT39" s="17"/>
-      <c r="AU39" s="17"/>
-      <c r="AV39" s="17"/>
-      <c r="AW39" s="17"/>
-      <c r="AX39" s="17"/>
-      <c r="AY39" s="18"/>
-      <c r="AZ39" s="16"/>
-      <c r="BA39" s="17"/>
-      <c r="BB39" s="17"/>
-      <c r="BC39" s="17"/>
-      <c r="BD39" s="17"/>
-      <c r="BE39" s="17"/>
-      <c r="BF39" s="17"/>
-      <c r="BG39" s="18"/>
-      <c r="BH39" s="16"/>
-      <c r="BI39" s="17"/>
-      <c r="BJ39" s="17"/>
-      <c r="BK39" s="17"/>
-      <c r="BL39" s="17"/>
-      <c r="BM39" s="17"/>
-      <c r="BN39" s="17"/>
-      <c r="BO39" s="18"/>
-      <c r="BP39" s="16"/>
-      <c r="BQ39" s="17"/>
-      <c r="BR39" s="17"/>
-      <c r="BS39" s="17"/>
-      <c r="BT39" s="17"/>
-      <c r="BU39" s="17"/>
-      <c r="BV39" s="17"/>
-      <c r="BW39" s="18"/>
-      <c r="BX39" s="16"/>
-      <c r="BY39" s="17"/>
-      <c r="BZ39" s="17"/>
-      <c r="CA39" s="17"/>
-      <c r="CB39" s="17"/>
-      <c r="CC39" s="17"/>
-      <c r="CD39" s="17"/>
-      <c r="CE39" s="18"/>
-      <c r="CF39" s="40"/>
-    </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="48"/>
-      <c r="AA40" s="49"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="18"/>
-      <c r="AJ40" s="16"/>
-      <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
-      <c r="AM40" s="17"/>
-      <c r="AN40" s="17"/>
-      <c r="AO40" s="17"/>
-      <c r="AP40" s="17"/>
-      <c r="AQ40" s="18"/>
-      <c r="AR40" s="16"/>
-      <c r="AS40" s="17"/>
-      <c r="AT40" s="17"/>
-      <c r="AU40" s="17"/>
-      <c r="AV40" s="17"/>
-      <c r="AW40" s="17"/>
-      <c r="AX40" s="17"/>
-      <c r="AY40" s="18"/>
-      <c r="AZ40" s="16"/>
-      <c r="BA40" s="17"/>
-      <c r="BB40" s="17"/>
-      <c r="BC40" s="17"/>
-      <c r="BD40" s="17"/>
-      <c r="BE40" s="17"/>
-      <c r="BF40" s="17"/>
-      <c r="BG40" s="18"/>
-      <c r="BH40" s="16"/>
-      <c r="BI40" s="17"/>
-      <c r="BJ40" s="17"/>
-      <c r="BK40" s="17"/>
-      <c r="BL40" s="17"/>
-      <c r="BM40" s="17"/>
-      <c r="BN40" s="17"/>
-      <c r="BO40" s="18"/>
-      <c r="BP40" s="16"/>
-      <c r="BQ40" s="17"/>
-      <c r="BR40" s="17"/>
-      <c r="BS40" s="17"/>
-      <c r="BT40" s="17"/>
-      <c r="BU40" s="17"/>
-      <c r="BV40" s="17"/>
-      <c r="BW40" s="18"/>
-      <c r="BX40" s="16"/>
-      <c r="BY40" s="17"/>
-      <c r="BZ40" s="17"/>
-      <c r="CA40" s="17"/>
-      <c r="CB40" s="17"/>
-      <c r="CC40" s="17"/>
-      <c r="CD40" s="17"/>
-      <c r="CE40" s="18"/>
-      <c r="CF40" s="40"/>
-    </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="48"/>
-      <c r="AA41" s="49"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="17"/>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="18"/>
-      <c r="AJ41" s="16"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-      <c r="AN41" s="17"/>
-      <c r="AO41" s="17"/>
-      <c r="AP41" s="17"/>
-      <c r="AQ41" s="18"/>
-      <c r="AR41" s="16"/>
-      <c r="AS41" s="17"/>
-      <c r="AT41" s="17"/>
-      <c r="AU41" s="17"/>
-      <c r="AV41" s="17"/>
-      <c r="AW41" s="17"/>
-      <c r="AX41" s="17"/>
-      <c r="AY41" s="18"/>
-      <c r="AZ41" s="16"/>
-      <c r="BA41" s="17"/>
-      <c r="BB41" s="17"/>
-      <c r="BC41" s="17"/>
-      <c r="BD41" s="17"/>
-      <c r="BE41" s="17"/>
-      <c r="BF41" s="17"/>
-      <c r="BG41" s="18"/>
-      <c r="BH41" s="16"/>
-      <c r="BI41" s="17"/>
-      <c r="BJ41" s="17"/>
-      <c r="BK41" s="17"/>
-      <c r="BL41" s="17"/>
-      <c r="BM41" s="17"/>
-      <c r="BN41" s="17"/>
-      <c r="BO41" s="18"/>
-      <c r="BP41" s="16"/>
-      <c r="BQ41" s="17"/>
-      <c r="BR41" s="17"/>
-      <c r="BS41" s="17"/>
-      <c r="BT41" s="17"/>
-      <c r="BU41" s="17"/>
-      <c r="BV41" s="17"/>
-      <c r="BW41" s="18"/>
-      <c r="BX41" s="16"/>
-      <c r="BY41" s="17"/>
-      <c r="BZ41" s="17"/>
-      <c r="CA41" s="17"/>
-      <c r="CB41" s="17"/>
-      <c r="CC41" s="17"/>
-      <c r="CD41" s="17"/>
-      <c r="CE41" s="18"/>
-      <c r="CF41" s="40"/>
-    </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="48"/>
-      <c r="AA42" s="49"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
-      <c r="AG42" s="17"/>
-      <c r="AH42" s="17"/>
-      <c r="AI42" s="18"/>
-      <c r="AJ42" s="16"/>
-      <c r="AK42" s="17"/>
-      <c r="AL42" s="17"/>
-      <c r="AM42" s="17"/>
-      <c r="AN42" s="17"/>
-      <c r="AO42" s="17"/>
-      <c r="AP42" s="17"/>
-      <c r="AQ42" s="18"/>
-      <c r="AR42" s="16"/>
-      <c r="AS42" s="17"/>
-      <c r="AT42" s="17"/>
-      <c r="AU42" s="17"/>
-      <c r="AV42" s="17"/>
-      <c r="AW42" s="17"/>
-      <c r="AX42" s="17"/>
-      <c r="AY42" s="18"/>
-      <c r="AZ42" s="16"/>
-      <c r="BA42" s="17"/>
-      <c r="BB42" s="17"/>
-      <c r="BC42" s="17"/>
-      <c r="BD42" s="17"/>
-      <c r="BE42" s="17"/>
-      <c r="BF42" s="17"/>
-      <c r="BG42" s="18"/>
-      <c r="BH42" s="16"/>
-      <c r="BI42" s="17"/>
-      <c r="BJ42" s="17"/>
-      <c r="BK42" s="17"/>
-      <c r="BL42" s="17"/>
-      <c r="BM42" s="17"/>
-      <c r="BN42" s="17"/>
-      <c r="BO42" s="18"/>
-      <c r="BP42" s="16"/>
-      <c r="BQ42" s="17"/>
-      <c r="BR42" s="17"/>
-      <c r="BS42" s="17"/>
-      <c r="BT42" s="17"/>
-      <c r="BU42" s="17"/>
-      <c r="BV42" s="17"/>
-      <c r="BW42" s="18"/>
-      <c r="BX42" s="16"/>
-      <c r="BY42" s="17"/>
-      <c r="BZ42" s="17"/>
-      <c r="CA42" s="17"/>
-      <c r="CB42" s="17"/>
-      <c r="CC42" s="17"/>
-      <c r="CD42" s="17"/>
-      <c r="CE42" s="18"/>
-      <c r="CF42" s="40"/>
-    </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="48"/>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AF43" s="17"/>
-      <c r="AG43" s="17"/>
-      <c r="AH43" s="17"/>
-      <c r="AI43" s="18"/>
-      <c r="AJ43" s="16"/>
-      <c r="AK43" s="17"/>
-      <c r="AL43" s="17"/>
-      <c r="AM43" s="17"/>
-      <c r="AN43" s="17"/>
-      <c r="AO43" s="17"/>
-      <c r="AP43" s="17"/>
-      <c r="AQ43" s="18"/>
-      <c r="AR43" s="16"/>
-      <c r="AS43" s="17"/>
-      <c r="AT43" s="17"/>
-      <c r="AU43" s="17"/>
-      <c r="AV43" s="17"/>
-      <c r="AW43" s="17"/>
-      <c r="AX43" s="17"/>
-      <c r="AY43" s="18"/>
-      <c r="AZ43" s="16"/>
-      <c r="BA43" s="17"/>
-      <c r="BB43" s="17"/>
-      <c r="BC43" s="17"/>
-      <c r="BD43" s="17"/>
-      <c r="BE43" s="17"/>
-      <c r="BF43" s="17"/>
-      <c r="BG43" s="18"/>
-      <c r="BH43" s="16"/>
-      <c r="BI43" s="17"/>
-      <c r="BJ43" s="17"/>
-      <c r="BK43" s="17"/>
-      <c r="BL43" s="17"/>
-      <c r="BM43" s="17"/>
-      <c r="BN43" s="17"/>
-      <c r="BO43" s="18"/>
-      <c r="BP43" s="16"/>
-      <c r="BQ43" s="17"/>
-      <c r="BR43" s="17"/>
-      <c r="BS43" s="17"/>
-      <c r="BT43" s="17"/>
-      <c r="BU43" s="17"/>
-      <c r="BV43" s="17"/>
-      <c r="BW43" s="18"/>
-      <c r="BX43" s="16"/>
-      <c r="BY43" s="17"/>
-      <c r="BZ43" s="17"/>
-      <c r="CA43" s="17"/>
-      <c r="CB43" s="17"/>
-      <c r="CC43" s="17"/>
-      <c r="CD43" s="17"/>
-      <c r="CE43" s="18"/>
-      <c r="CF43" s="40"/>
-    </row>
-    <row r="44" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="23"/>
-      <c r="AJ44" s="21"/>
-      <c r="AK44" s="22"/>
-      <c r="AL44" s="22"/>
-      <c r="AM44" s="22"/>
-      <c r="AN44" s="22"/>
-      <c r="AO44" s="22"/>
-      <c r="AP44" s="22"/>
-      <c r="AQ44" s="23"/>
-      <c r="AR44" s="21"/>
-      <c r="AS44" s="22"/>
-      <c r="AT44" s="22"/>
-      <c r="AU44" s="22"/>
-      <c r="AV44" s="22"/>
-      <c r="AW44" s="22"/>
-      <c r="AX44" s="22"/>
-      <c r="AY44" s="23"/>
-      <c r="AZ44" s="21"/>
-      <c r="BA44" s="22"/>
-      <c r="BB44" s="22"/>
-      <c r="BC44" s="22"/>
-      <c r="BD44" s="22"/>
-      <c r="BE44" s="22"/>
-      <c r="BF44" s="22"/>
-      <c r="BG44" s="23"/>
-      <c r="BH44" s="21"/>
-      <c r="BI44" s="22"/>
-      <c r="BJ44" s="22"/>
-      <c r="BK44" s="22"/>
-      <c r="BL44" s="22"/>
-      <c r="BM44" s="22"/>
-      <c r="BN44" s="22"/>
-      <c r="BO44" s="23"/>
-      <c r="BP44" s="21"/>
-      <c r="BQ44" s="22"/>
-      <c r="BR44" s="22"/>
-      <c r="BS44" s="22"/>
-      <c r="BT44" s="22"/>
-      <c r="BU44" s="22"/>
-      <c r="BV44" s="22"/>
-      <c r="BW44" s="23"/>
-      <c r="BX44" s="21"/>
-      <c r="BY44" s="22"/>
-      <c r="BZ44" s="22"/>
-      <c r="CA44" s="22"/>
-      <c r="CB44" s="22"/>
-      <c r="CC44" s="22"/>
-      <c r="CD44" s="22"/>
-      <c r="CE44" s="23"/>
-      <c r="CF44" s="40"/>
-    </row>
-    <row r="45" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A45" s="41" t="s">
+    <row r="39" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A39" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="41"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="41"/>
-      <c r="AF45" s="41"/>
-      <c r="AG45" s="41"/>
-      <c r="AH45" s="41"/>
-      <c r="AI45" s="41"/>
-      <c r="AJ45" s="41"/>
-      <c r="AK45" s="41"/>
-      <c r="AL45" s="41"/>
-      <c r="AM45" s="41"/>
-      <c r="AN45" s="41"/>
-      <c r="AO45" s="41"/>
-      <c r="AP45" s="41"/>
-      <c r="AQ45" s="41"/>
-      <c r="AR45" s="41"/>
-      <c r="AS45" s="41"/>
-      <c r="AT45" s="41"/>
-      <c r="AU45" s="41"/>
-      <c r="AV45" s="41"/>
-      <c r="AW45" s="41"/>
-      <c r="AX45" s="41"/>
-      <c r="AY45" s="41"/>
-      <c r="AZ45" s="41"/>
-      <c r="BA45" s="41"/>
-      <c r="BB45" s="41"/>
-      <c r="BC45" s="41"/>
-      <c r="BD45" s="41"/>
-      <c r="BE45" s="41"/>
-      <c r="BF45" s="41"/>
-      <c r="BG45" s="41"/>
-      <c r="BH45" s="41"/>
-      <c r="BI45" s="41"/>
-      <c r="BJ45" s="41"/>
-      <c r="BK45" s="41"/>
-      <c r="BL45" s="41"/>
-      <c r="BM45" s="41"/>
-      <c r="BN45" s="41"/>
-      <c r="BO45" s="41"/>
-      <c r="BP45" s="41"/>
-      <c r="BQ45" s="41"/>
-      <c r="BR45" s="41"/>
-      <c r="BS45" s="41"/>
-      <c r="BT45" s="41"/>
-      <c r="BU45" s="41"/>
-      <c r="BV45" s="41"/>
-      <c r="BW45" s="41"/>
-      <c r="BX45" s="41"/>
-      <c r="BY45" s="41"/>
-      <c r="BZ45" s="41"/>
-      <c r="CA45" s="41"/>
-      <c r="CB45" s="41"/>
-      <c r="CC45" s="41"/>
-      <c r="CD45" s="41"/>
-      <c r="CE45" s="41"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52"/>
+      <c r="AL39" s="52"/>
+      <c r="AM39" s="52"/>
+      <c r="AN39" s="52"/>
+      <c r="AO39" s="52"/>
+      <c r="AP39" s="52"/>
+      <c r="AQ39" s="52"/>
+      <c r="AR39" s="52"/>
+      <c r="AS39" s="52"/>
+      <c r="AT39" s="52"/>
+      <c r="AU39" s="52"/>
+      <c r="AV39" s="52"/>
+      <c r="AW39" s="52"/>
+      <c r="AX39" s="52"/>
+      <c r="AY39" s="52"/>
+      <c r="AZ39" s="52"/>
+      <c r="BA39" s="52"/>
+      <c r="BB39" s="52"/>
+      <c r="BC39" s="52"/>
+      <c r="BD39" s="52"/>
+      <c r="BE39" s="52"/>
+      <c r="BF39" s="52"/>
+      <c r="BG39" s="52"/>
+      <c r="BH39" s="52"/>
+      <c r="BI39" s="52"/>
+      <c r="BJ39" s="52"/>
+      <c r="BK39" s="52"/>
+      <c r="BL39" s="52"/>
+      <c r="BM39" s="52"/>
+      <c r="BN39" s="52"/>
+      <c r="BO39" s="52"/>
+      <c r="BP39" s="52"/>
+      <c r="BQ39" s="52"/>
+      <c r="BR39" s="52"/>
+      <c r="BS39" s="52"/>
+      <c r="BT39" s="52"/>
+      <c r="BU39" s="52"/>
+      <c r="BV39" s="52"/>
+      <c r="BW39" s="52"/>
+      <c r="BX39" s="52"/>
+      <c r="BY39" s="52"/>
+      <c r="BZ39" s="52"/>
+      <c r="CA39" s="52"/>
+      <c r="CB39" s="52"/>
+      <c r="CC39" s="52"/>
+      <c r="CD39" s="52"/>
+      <c r="CE39" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CF4:CF44"/>
-    <mergeCell ref="A45:CE45"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA44"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="D2:AQ3"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
     <mergeCell ref="AN4:AQ4"/>
@@ -5710,15 +5563,17 @@
     <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF38"/>
+    <mergeCell ref="A39:CE39"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA38"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B44">
+  <conditionalFormatting sqref="B6:B38">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>
@@ -5744,12 +5599,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5966,20 +5823,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6004,14 +5864,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{14C2DADA-F04E-BA42-AC8A-BD8CE0569CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1DA670E-3BF0-4783-ACC8-090CAFA202A5}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="13_ncr:1_{14C2DADA-F04E-BA42-AC8A-BD8CE0569CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836FE182-1105-4BE6-B04F-E4B82CF3122D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
   <si>
     <t>Tâches</t>
   </si>
@@ -114,13 +114,7 @@
     <t>Rédiger documentation technique</t>
   </si>
   <si>
-    <t>Enregistrer mission (logs &amp; vidéos)</t>
-  </si>
-  <si>
     <t>Générer mini-rapport de mission</t>
-  </si>
-  <si>
-    <t>Enregistrer un clip vidéo de la mission</t>
   </si>
   <si>
     <t>Créer mini-carte fil d’Ariane</t>
@@ -133,9 +127,6 @@
   </si>
   <si>
     <t>Afficher niveau de batterie</t>
-  </si>
-  <si>
-    <t>Intégrer flux vidéo live</t>
   </si>
   <si>
     <t>Implémenter vibrations manette (perte de signal, batterie faible, choc)</t>
@@ -186,25 +177,10 @@
     <t>Bardy Maxime, Kolly Romain, Lefort Julie, Hohl Cyril</t>
   </si>
   <si>
-    <t>Piloter le rover</t>
-  </si>
-  <si>
-    <t>Surveiller l'environnement(vidéo + capteurs + fil d’Ariane)</t>
-  </si>
-  <si>
-    <t>Enregistrer la mission(données + vidéo)</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
     <t>Documentation projet</t>
-  </si>
-  <si>
-    <t>Connecter le rover</t>
-  </si>
-  <si>
-    <t>Connecter la manette</t>
   </si>
   <si>
     <t>Connection de la manette au programme</t>
@@ -214,6 +190,45 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Romain:</t>
+  </si>
+  <si>
+    <t>Julie:</t>
+  </si>
+  <si>
+    <t>Maxime:</t>
+  </si>
+  <si>
+    <t>Cyril:</t>
+  </si>
+  <si>
+    <t>Connecter la manette - Version1</t>
+  </si>
+  <si>
+    <t>Connecter le rover - Version1</t>
+  </si>
+  <si>
+    <t>Piloter le rover - Version - Version1</t>
+  </si>
+  <si>
+    <t>Surveiller l'environnement(vidéo + capteurs + fil d’Ariane) - Version2</t>
+  </si>
+  <si>
+    <t>Enregistrer la mission(données + vidéo) - Version3</t>
+  </si>
+  <si>
+    <t>Intégrer Sonar</t>
+  </si>
+  <si>
+    <t>Enregistrer mission (logs)</t>
+  </si>
+  <si>
+    <t>Tout le groupe:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -340,7 +355,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +404,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -794,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -973,6 +1012,42 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -1025,40 +1100,162 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1114,7 +1311,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1189,7 +1386,224 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>52317</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Légende : encadrée 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC41C6D-C56B-4345-8094-59ECCB40BD80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="8482853"/>
+          <a:ext cx="1430641" cy="433917"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val -1192334"/>
+            <a:gd name="adj4" fmla="val -11059"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100"/>
+            <a:t>Rencontre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" baseline="0"/>
+            <a:t> Client </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>40341</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>29137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>14217</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Légende : encadrée 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EFB1E9-E431-4ECF-AF2D-78DDC5CBF377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13767547" y="8579225"/>
+          <a:ext cx="1430641" cy="433917"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val -1032220"/>
+            <a:gd name="adj4" fmla="val -11842"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100"/>
+            <a:t>Rencontre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" baseline="0"/>
+            <a:t> Client </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>74729</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Légende : encadrée 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22255F8B-1020-4BAB-9C2F-24F0F7B51A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15721853" y="8639736"/>
+          <a:ext cx="1430641" cy="433917"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val -1032220"/>
+            <a:gd name="adj4" fmla="val -11842"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100"/>
+            <a:t>Rencontre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" baseline="0"/>
+            <a:t> Client </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1540,32 +1954,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF39"/>
+  <dimension ref="A1:CH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AR2" sqref="AR2:CE3"/>
+      <selection pane="bottomRight" activeCell="AO16" sqref="AO16:AR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="83" width="2.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="63" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="2" customWidth="1"/>
+    <col min="7" max="83" width="2.140625" style="2" customWidth="1"/>
     <col min="84" max="84" width="3.140625" style="3" customWidth="1"/>
     <col min="85" max="297" width="9.140625" style="3" customWidth="1"/>
     <col min="298" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="A1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1609,175 +2026,175 @@
     </row>
     <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="68"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
-      <c r="BG2" s="68"/>
-      <c r="BH2" s="68"/>
-      <c r="BI2" s="68"/>
-      <c r="BJ2" s="68"/>
-      <c r="BK2" s="68"/>
-      <c r="BL2" s="68"/>
-      <c r="BM2" s="68"/>
-      <c r="BN2" s="68"/>
-      <c r="BO2" s="68"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="68"/>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="68"/>
-      <c r="BW2" s="68"/>
-      <c r="BX2" s="68"/>
-      <c r="BY2" s="68"/>
-      <c r="BZ2" s="68"/>
-      <c r="CA2" s="68"/>
-      <c r="CB2" s="68"/>
-      <c r="CC2" s="68"/>
-      <c r="CD2" s="68"/>
-      <c r="CE2" s="68"/>
+        <v>26</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58"/>
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="58"/>
+      <c r="BM2" s="58"/>
+      <c r="BN2" s="58"/>
+      <c r="BO2" s="58"/>
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58"/>
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58"/>
+      <c r="BX2" s="58"/>
+      <c r="BY2" s="58"/>
+      <c r="BZ2" s="58"/>
+      <c r="CA2" s="58"/>
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="58"/>
+      <c r="CD2" s="58"/>
+      <c r="CE2" s="58"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="69"/>
-      <c r="BD3" s="69"/>
-      <c r="BE3" s="69"/>
-      <c r="BF3" s="69"/>
-      <c r="BG3" s="69"/>
-      <c r="BH3" s="69"/>
-      <c r="BI3" s="69"/>
-      <c r="BJ3" s="69"/>
-      <c r="BK3" s="69"/>
-      <c r="BL3" s="69"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="69"/>
-      <c r="BP3" s="69"/>
-      <c r="BQ3" s="69"/>
-      <c r="BR3" s="69"/>
-      <c r="BS3" s="69"/>
-      <c r="BT3" s="69"/>
-      <c r="BU3" s="69"/>
-      <c r="BV3" s="69"/>
-      <c r="BW3" s="69"/>
-      <c r="BX3" s="69"/>
-      <c r="BY3" s="69"/>
-      <c r="BZ3" s="69"/>
-      <c r="CA3" s="69"/>
-      <c r="CB3" s="69"/>
-      <c r="CC3" s="69"/>
-      <c r="CD3" s="69"/>
-      <c r="CE3" s="69"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="59"/>
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59"/>
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="59"/>
+      <c r="BN3" s="59"/>
+      <c r="BO3" s="59"/>
+      <c r="BP3" s="59"/>
+      <c r="BQ3" s="59"/>
+      <c r="BR3" s="59"/>
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="59"/>
+      <c r="BU3" s="59"/>
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="59"/>
+      <c r="BX3" s="59"/>
+      <c r="BY3" s="59"/>
+      <c r="BZ3" s="59"/>
+      <c r="CA3" s="59"/>
+      <c r="CB3" s="59"/>
+      <c r="CC3" s="59"/>
+      <c r="CD3" s="59"/>
+      <c r="CE3" s="59"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -1786,132 +2203,132 @@
       <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="54">
         <v>45992</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="64" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="66">
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="54">
         <v>45993</v>
       </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="64" t="s">
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="66">
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="54">
         <v>45999</v>
       </c>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="64" t="s">
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="66">
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="54">
         <v>46000</v>
       </c>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="64" t="s">
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="66">
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="54">
         <v>46006</v>
       </c>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="64" t="s">
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="65"/>
-      <c r="AT4" s="65"/>
-      <c r="AU4" s="65"/>
-      <c r="AV4" s="66">
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="54">
         <v>46007</v>
       </c>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="64" t="s">
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="BA4" s="65"/>
-      <c r="BB4" s="65"/>
-      <c r="BC4" s="65"/>
-      <c r="BD4" s="66">
+      <c r="BA4" s="57"/>
+      <c r="BB4" s="57"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="54">
         <v>46027</v>
       </c>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="67"/>
-      <c r="BH4" s="64" t="s">
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="65"/>
-      <c r="BJ4" s="65"/>
-      <c r="BK4" s="65"/>
-      <c r="BL4" s="66">
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="54">
         <v>46028</v>
       </c>
-      <c r="BM4" s="66"/>
-      <c r="BN4" s="66"/>
-      <c r="BO4" s="67"/>
-      <c r="BP4" s="64" t="s">
+      <c r="BM4" s="54"/>
+      <c r="BN4" s="54"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="65"/>
-      <c r="BR4" s="65"/>
-      <c r="BS4" s="65"/>
-      <c r="BT4" s="66">
+      <c r="BQ4" s="57"/>
+      <c r="BR4" s="57"/>
+      <c r="BS4" s="57"/>
+      <c r="BT4" s="54">
         <v>46034</v>
       </c>
-      <c r="BU4" s="66"/>
-      <c r="BV4" s="66"/>
-      <c r="BW4" s="67"/>
-      <c r="BX4" s="64" t="s">
+      <c r="BU4" s="54"/>
+      <c r="BV4" s="54"/>
+      <c r="BW4" s="55"/>
+      <c r="BX4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="65"/>
-      <c r="BZ4" s="65"/>
-      <c r="CA4" s="65"/>
-      <c r="CB4" s="66">
+      <c r="BY4" s="57"/>
+      <c r="BZ4" s="57"/>
+      <c r="CA4" s="57"/>
+      <c r="CB4" s="54">
         <v>46035</v>
       </c>
-      <c r="CC4" s="66"/>
-      <c r="CD4" s="66"/>
-      <c r="CE4" s="67"/>
-      <c r="CF4" s="51" t="s">
+      <c r="CC4" s="54"/>
+      <c r="CD4" s="54"/>
+      <c r="CE4" s="55"/>
+      <c r="CF4" s="60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2575,7 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="51"/>
+      <c r="CF5" s="60"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
@@ -2180,16 +2597,16 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="55" t="s">
+      <c r="T6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="66"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -2246,7 +2663,7 @@
       <c r="CC6" s="11"/>
       <c r="CD6" s="11"/>
       <c r="CE6" s="12"/>
-      <c r="CF6" s="51"/>
+      <c r="CF6" s="60"/>
     </row>
     <row r="7" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
@@ -2270,18 +2687,18 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
       <c r="AH7" s="11"/>
@@ -2334,11 +2751,11 @@
       <c r="CC7" s="11"/>
       <c r="CD7" s="11"/>
       <c r="CE7" s="12"/>
-      <c r="CF7" s="51"/>
+      <c r="CF7" s="60"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="15"/>
@@ -2358,26 +2775,18 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE8" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="T8" s="67"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
@@ -2430,11 +2839,11 @@
       <c r="CC8" s="11"/>
       <c r="CD8" s="11"/>
       <c r="CE8" s="12"/>
-      <c r="CF8" s="51"/>
+      <c r="CF8" s="60"/>
     </row>
     <row r="9" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="15"/>
@@ -2454,18 +2863,18 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
       <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
@@ -2518,11 +2927,11 @@
       <c r="CC9" s="11"/>
       <c r="CD9" s="11"/>
       <c r="CE9" s="12"/>
-      <c r="CF9" s="51"/>
+      <c r="CF9" s="60"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="15"/>
@@ -2542,26 +2951,18 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="T10" s="67"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
@@ -2614,11 +3015,11 @@
       <c r="CC10" s="11"/>
       <c r="CD10" s="11"/>
       <c r="CE10" s="12"/>
-      <c r="CF10" s="51"/>
+      <c r="CF10" s="60"/>
     </row>
     <row r="11" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="15"/>
@@ -2638,14 +3039,14 @@
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="69"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -2702,11 +3103,11 @@
       <c r="CC11" s="17"/>
       <c r="CD11" s="17"/>
       <c r="CE11" s="18"/>
-      <c r="CF11" s="51"/>
+      <c r="CF11" s="60"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="15"/>
@@ -2726,14 +3127,14 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="60"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="69"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -2742,25 +3143,15 @@
       <c r="AG12" s="17"/>
       <c r="AH12" s="17"/>
       <c r="AI12" s="18"/>
-      <c r="AJ12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="16"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="88"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="92"/>
+      <c r="AR12" s="103"/>
       <c r="AS12" s="17"/>
       <c r="AT12" s="17"/>
       <c r="AU12" s="17"/>
@@ -2800,11 +3191,11 @@
       <c r="CC12" s="17"/>
       <c r="CD12" s="17"/>
       <c r="CE12" s="18"/>
-      <c r="CF12" s="51"/>
+      <c r="CF12" s="60"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="15"/>
@@ -2824,14 +3215,14 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="60"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="69"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -2840,31 +3231,15 @@
       <c r="AG13" s="17"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="18"/>
-      <c r="AJ13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR13" s="16"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="90"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="91"/>
+      <c r="AR13" s="112"/>
       <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
       <c r="AU13" s="17"/>
@@ -2904,11 +3279,11 @@
       <c r="CC13" s="17"/>
       <c r="CD13" s="17"/>
       <c r="CE13" s="18"/>
-      <c r="CF13" s="51"/>
+      <c r="CF13" s="60"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="15"/>
@@ -2928,14 +3303,14 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="60"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="69"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -2944,30 +3319,14 @@
       <c r="AG14" s="17"/>
       <c r="AH14" s="17"/>
       <c r="AI14" s="18"/>
-      <c r="AJ14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ14" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="96"/>
+      <c r="AM14" s="95"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="100"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="18"/>
       <c r="AR14" s="16"/>
       <c r="AS14" s="17"/>
       <c r="AT14" s="17"/>
@@ -3008,11 +3367,11 @@
       <c r="CC14" s="17"/>
       <c r="CD14" s="17"/>
       <c r="CE14" s="18"/>
-      <c r="CF14" s="51"/>
+      <c r="CF14" s="60"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="15"/>
@@ -3032,14 +3391,14 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="60"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="69"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
@@ -3048,30 +3407,14 @@
       <c r="AG15" s="17"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="18"/>
-      <c r="AJ15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ15" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="98"/>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="98"/>
+      <c r="AN15" s="98"/>
+      <c r="AO15" s="100"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="18"/>
       <c r="AR15" s="16"/>
       <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
@@ -3112,11 +3455,11 @@
       <c r="CC15" s="17"/>
       <c r="CD15" s="17"/>
       <c r="CE15" s="18"/>
-      <c r="CF15" s="51"/>
+      <c r="CF15" s="60"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="15"/>
@@ -3136,14 +3479,14 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="60"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="69"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
@@ -3157,16 +3500,10 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
-      <c r="AO16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR16" s="16"/>
+      <c r="AO16" s="98"/>
+      <c r="AP16" s="95"/>
+      <c r="AQ16" s="101"/>
+      <c r="AR16" s="94"/>
       <c r="AS16" s="17"/>
       <c r="AT16" s="17"/>
       <c r="AU16" s="17"/>
@@ -3206,11 +3543,11 @@
       <c r="CC16" s="17"/>
       <c r="CD16" s="17"/>
       <c r="CE16" s="18"/>
-      <c r="CF16" s="51"/>
+      <c r="CF16" s="60"/>
     </row>
-    <row r="17" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="15"/>
@@ -3230,14 +3567,14 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="60"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="69"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
@@ -3294,11 +3631,11 @@
       <c r="CC17" s="17"/>
       <c r="CD17" s="17"/>
       <c r="CE17" s="18"/>
-      <c r="CF17" s="51"/>
+      <c r="CF17" s="60"/>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
-        <v>22</v>
+    <row r="18" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A18" s="85" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="15"/>
@@ -3318,14 +3655,14 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="60"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="69"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
@@ -3342,46 +3679,22 @@
       <c r="AO18" s="17"/>
       <c r="AP18" s="17"/>
       <c r="AQ18" s="18"/>
-      <c r="AR18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU18" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="AR18" s="111"/>
+      <c r="AS18" s="100"/>
+      <c r="AT18" s="95"/>
+      <c r="AU18" s="95"/>
       <c r="AV18" s="17"/>
       <c r="AW18" s="17"/>
       <c r="AX18" s="17"/>
       <c r="AY18" s="18"/>
-      <c r="AZ18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG18" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="AZ18" s="94"/>
+      <c r="BA18" s="95"/>
+      <c r="BB18" s="95"/>
+      <c r="BC18" s="95"/>
+      <c r="BD18" s="95"/>
+      <c r="BE18" s="95"/>
+      <c r="BF18" s="95"/>
+      <c r="BG18" s="106"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="17"/>
       <c r="BJ18" s="17"/>
@@ -3406,11 +3719,11 @@
       <c r="CC18" s="17"/>
       <c r="CD18" s="17"/>
       <c r="CE18" s="18"/>
-      <c r="CF18" s="51"/>
+      <c r="CF18" s="60"/>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="15"/>
@@ -3430,14 +3743,14 @@
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="60"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="69"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
@@ -3454,46 +3767,22 @@
       <c r="AO19" s="17"/>
       <c r="AP19" s="17"/>
       <c r="AQ19" s="18"/>
-      <c r="AR19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU19" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="AR19" s="109"/>
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="98"/>
+      <c r="AU19" s="98"/>
       <c r="AV19" s="17"/>
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
       <c r="AY19" s="18"/>
-      <c r="AZ19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG19" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="AZ19" s="97"/>
+      <c r="BA19" s="98"/>
+      <c r="BB19" s="98"/>
+      <c r="BC19" s="98"/>
+      <c r="BD19" s="98"/>
+      <c r="BE19" s="98"/>
+      <c r="BF19" s="98"/>
+      <c r="BG19" s="101"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="17"/>
@@ -3518,11 +3807,11 @@
       <c r="CC19" s="17"/>
       <c r="CD19" s="17"/>
       <c r="CE19" s="18"/>
-      <c r="CF19" s="51"/>
+      <c r="CF19" s="60"/>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
-        <v>20</v>
+    <row r="20" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A20" s="85" t="s">
+        <v>18</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="15"/>
@@ -3542,14 +3831,14 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="60"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="69"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
@@ -3566,46 +3855,22 @@
       <c r="AO20" s="17"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="18"/>
-      <c r="AR20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU20" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="AR20" s="109"/>
+      <c r="AS20" s="100"/>
+      <c r="AT20" s="90"/>
+      <c r="AU20" s="90"/>
       <c r="AV20" s="17"/>
       <c r="AW20" s="17"/>
       <c r="AX20" s="17"/>
       <c r="AY20" s="18"/>
-      <c r="AZ20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG20" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="AZ20" s="89"/>
+      <c r="BA20" s="90"/>
+      <c r="BB20" s="90"/>
+      <c r="BC20" s="90"/>
+      <c r="BD20" s="90"/>
+      <c r="BE20" s="90"/>
+      <c r="BF20" s="90"/>
+      <c r="BG20" s="91"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="17"/>
       <c r="BJ20" s="17"/>
@@ -3630,11 +3895,14 @@
       <c r="CC20" s="17"/>
       <c r="CD20" s="17"/>
       <c r="CE20" s="18"/>
-      <c r="CF20" s="51"/>
+      <c r="CF20" s="60"/>
+      <c r="CH20" s="108" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A21" s="43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="15"/>
@@ -3654,14 +3922,14 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="60"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="69"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
@@ -3678,38 +3946,22 @@
       <c r="AO21" s="17"/>
       <c r="AP21" s="17"/>
       <c r="AQ21" s="18"/>
-      <c r="AR21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU21" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="AR21" s="111"/>
+      <c r="AS21" s="100"/>
+      <c r="AT21" s="87"/>
+      <c r="AU21" s="87"/>
       <c r="AV21" s="17"/>
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
       <c r="AY21" s="18"/>
-      <c r="AZ21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD21" s="17"/>
-      <c r="BE21" s="17"/>
-      <c r="BF21" s="17"/>
-      <c r="BG21" s="18"/>
+      <c r="AZ21" s="103"/>
+      <c r="BA21" s="87"/>
+      <c r="BB21" s="87"/>
+      <c r="BC21" s="87"/>
+      <c r="BD21" s="87"/>
+      <c r="BE21" s="87"/>
+      <c r="BF21" s="87"/>
+      <c r="BG21" s="92"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="17"/>
       <c r="BJ21" s="17"/>
@@ -3734,11 +3986,11 @@
       <c r="CC21" s="17"/>
       <c r="CD21" s="17"/>
       <c r="CE21" s="18"/>
-      <c r="CF21" s="51"/>
+      <c r="CF21" s="60"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="15"/>
@@ -3758,14 +4010,14 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="60"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="69"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
@@ -3793,40 +4045,22 @@
       <c r="AZ22" s="16"/>
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
-      <c r="BC22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG22" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL22" s="17"/>
-      <c r="BM22" s="17"/>
-      <c r="BN22" s="17"/>
-      <c r="BO22" s="18"/>
-      <c r="BP22" s="16"/>
-      <c r="BQ22" s="17"/>
-      <c r="BR22" s="17"/>
+      <c r="BC22" s="104"/>
+      <c r="BD22" s="100"/>
+      <c r="BE22" s="100"/>
+      <c r="BF22" s="100"/>
+      <c r="BG22" s="105"/>
+      <c r="BH22" s="109"/>
+      <c r="BI22" s="98"/>
+      <c r="BJ22" s="98"/>
+      <c r="BK22" s="98"/>
+      <c r="BL22" s="98"/>
+      <c r="BM22" s="98"/>
+      <c r="BN22" s="98"/>
+      <c r="BO22" s="101"/>
+      <c r="BP22" s="97"/>
+      <c r="BQ22" s="98"/>
+      <c r="BR22" s="98"/>
       <c r="BS22" s="17"/>
       <c r="BT22" s="17"/>
       <c r="BU22" s="17"/>
@@ -3840,11 +4074,11 @@
       <c r="CC22" s="17"/>
       <c r="CD22" s="17"/>
       <c r="CE22" s="18"/>
-      <c r="CF22" s="51"/>
+      <c r="CF22" s="60"/>
     </row>
-    <row r="23" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="15"/>
@@ -3864,14 +4098,14 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="60"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="69"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
@@ -3928,11 +4162,11 @@
       <c r="CC23" s="17"/>
       <c r="CD23" s="17"/>
       <c r="CE23" s="18"/>
-      <c r="CF23" s="51"/>
+      <c r="CF23" s="60"/>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="15"/>
@@ -3952,14 +4186,14 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="60"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="69"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
@@ -3992,31 +4226,17 @@
       <c r="BE24" s="17"/>
       <c r="BF24" s="17"/>
       <c r="BG24" s="18"/>
-      <c r="BH24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK24" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="BH24" s="109"/>
+      <c r="BI24" s="90"/>
+      <c r="BJ24" s="90"/>
+      <c r="BK24" s="90"/>
       <c r="BL24" s="17"/>
       <c r="BM24" s="17"/>
       <c r="BN24" s="17"/>
       <c r="BO24" s="18"/>
-      <c r="BP24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR24" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="BP24" s="89"/>
+      <c r="BQ24" s="90"/>
+      <c r="BR24" s="90"/>
       <c r="BS24" s="17"/>
       <c r="BT24" s="17"/>
       <c r="BU24" s="17"/>
@@ -4030,11 +4250,11 @@
       <c r="CC24" s="17"/>
       <c r="CD24" s="17"/>
       <c r="CE24" s="18"/>
-      <c r="CF24" s="51"/>
+      <c r="CF24" s="60"/>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="15"/>
@@ -4054,14 +4274,14 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="60"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="69"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
@@ -4094,31 +4314,17 @@
       <c r="BE25" s="17"/>
       <c r="BF25" s="17"/>
       <c r="BG25" s="18"/>
-      <c r="BH25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK25" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="BH25" s="109"/>
+      <c r="BI25" s="87"/>
+      <c r="BJ25" s="95"/>
+      <c r="BK25" s="87"/>
       <c r="BL25" s="17"/>
       <c r="BM25" s="17"/>
       <c r="BN25" s="17"/>
       <c r="BO25" s="18"/>
-      <c r="BP25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR25" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="BP25" s="94"/>
+      <c r="BQ25" s="87"/>
+      <c r="BR25" s="95"/>
       <c r="BS25" s="17"/>
       <c r="BT25" s="17"/>
       <c r="BU25" s="17"/>
@@ -4132,433 +4338,417 @@
       <c r="CC25" s="17"/>
       <c r="CD25" s="17"/>
       <c r="CE25" s="18"/>
-      <c r="CF25" s="51"/>
+      <c r="CF25" s="60"/>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="18"/>
-      <c r="AR26" s="16"/>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
-      <c r="AW26" s="17"/>
-      <c r="AX26" s="17"/>
-      <c r="AY26" s="18"/>
-      <c r="AZ26" s="16"/>
-      <c r="BA26" s="17"/>
-      <c r="BB26" s="17"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="17"/>
-      <c r="BE26" s="17"/>
-      <c r="BF26" s="17"/>
-      <c r="BG26" s="18"/>
-      <c r="BH26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI26" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ26" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK26" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL26" s="17"/>
-      <c r="BM26" s="17"/>
-      <c r="BN26" s="17"/>
-      <c r="BO26" s="18"/>
-      <c r="BP26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ26" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR26" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS26" s="17"/>
-      <c r="BT26" s="17"/>
-      <c r="BU26" s="17"/>
-      <c r="BV26" s="17"/>
-      <c r="BW26" s="18"/>
-      <c r="BX26" s="16"/>
-      <c r="BY26" s="17"/>
-      <c r="BZ26" s="17"/>
-      <c r="CA26" s="17"/>
-      <c r="CB26" s="17"/>
-      <c r="CC26" s="17"/>
-      <c r="CD26" s="17"/>
-      <c r="CE26" s="18"/>
-      <c r="CF26" s="51"/>
+    <row r="26" spans="1:86" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="33"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="31"/>
+      <c r="AX26" s="31"/>
+      <c r="AY26" s="34"/>
+      <c r="AZ26" s="33"/>
+      <c r="BA26" s="31"/>
+      <c r="BB26" s="31"/>
+      <c r="BC26" s="31"/>
+      <c r="BD26" s="31"/>
+      <c r="BE26" s="31"/>
+      <c r="BF26" s="31"/>
+      <c r="BG26" s="34"/>
+      <c r="BH26" s="33"/>
+      <c r="BI26" s="31"/>
+      <c r="BJ26" s="31"/>
+      <c r="BK26" s="31"/>
+      <c r="BL26" s="31"/>
+      <c r="BM26" s="31"/>
+      <c r="BN26" s="31"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="33"/>
+      <c r="BQ26" s="31"/>
+      <c r="BR26" s="31"/>
+      <c r="BS26" s="31"/>
+      <c r="BT26" s="31"/>
+      <c r="BU26" s="31"/>
+      <c r="BV26" s="31"/>
+      <c r="BW26" s="34"/>
+      <c r="BX26" s="33"/>
+      <c r="BY26" s="31"/>
+      <c r="BZ26" s="31"/>
+      <c r="CA26" s="31"/>
+      <c r="CB26" s="31"/>
+      <c r="CC26" s="31"/>
+      <c r="CD26" s="31"/>
+      <c r="CE26" s="34"/>
+      <c r="CF26" s="60"/>
     </row>
-    <row r="27" spans="1:84" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="31"/>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="31"/>
-      <c r="AN27" s="31"/>
-      <c r="AO27" s="31"/>
-      <c r="AP27" s="31"/>
-      <c r="AQ27" s="34"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31"/>
-      <c r="AU27" s="31"/>
-      <c r="AV27" s="31"/>
-      <c r="AW27" s="31"/>
-      <c r="AX27" s="31"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="31"/>
-      <c r="BB27" s="31"/>
-      <c r="BC27" s="31"/>
-      <c r="BD27" s="31"/>
-      <c r="BE27" s="31"/>
-      <c r="BF27" s="31"/>
-      <c r="BG27" s="34"/>
-      <c r="BH27" s="33"/>
-      <c r="BI27" s="31"/>
-      <c r="BJ27" s="31"/>
-      <c r="BK27" s="31"/>
-      <c r="BL27" s="31"/>
-      <c r="BM27" s="31"/>
-      <c r="BN27" s="31"/>
-      <c r="BO27" s="34"/>
-      <c r="BP27" s="33"/>
-      <c r="BQ27" s="31"/>
-      <c r="BR27" s="31"/>
-      <c r="BS27" s="31"/>
-      <c r="BT27" s="31"/>
-      <c r="BU27" s="31"/>
-      <c r="BV27" s="31"/>
-      <c r="BW27" s="34"/>
-      <c r="BX27" s="33"/>
-      <c r="BY27" s="31"/>
-      <c r="BZ27" s="31"/>
-      <c r="CA27" s="31"/>
-      <c r="CB27" s="31"/>
-      <c r="CC27" s="31"/>
-      <c r="CD27" s="31"/>
-      <c r="CE27" s="34"/>
-      <c r="CF27" s="51"/>
+    <row r="27" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" s="67"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU27" s="17"/>
+      <c r="BV27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF27" s="60"/>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
-        <v>14</v>
+    <row r="28" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="P28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="R28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="T28" s="58"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="60"/>
-      <c r="AB28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="BP28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BZ28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="CA28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="CB28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="CD28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="CF28" s="51"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="16"/>
+      <c r="AS28" s="17"/>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="17"/>
+      <c r="AV28" s="17"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="18"/>
+      <c r="AZ28" s="16"/>
+      <c r="BA28" s="17"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="17"/>
+      <c r="BD28" s="17"/>
+      <c r="BE28" s="17"/>
+      <c r="BF28" s="17"/>
+      <c r="BG28" s="18"/>
+      <c r="BH28" s="16"/>
+      <c r="BI28" s="17"/>
+      <c r="BJ28" s="17"/>
+      <c r="BK28" s="17"/>
+      <c r="BL28" s="17"/>
+      <c r="BM28" s="17"/>
+      <c r="BN28" s="17"/>
+      <c r="BO28" s="18"/>
+      <c r="BP28" s="16"/>
+      <c r="BQ28" s="17"/>
+      <c r="BR28" s="17"/>
+      <c r="BS28" s="17"/>
+      <c r="BT28" s="17"/>
+      <c r="BU28" s="17"/>
+      <c r="BV28" s="17"/>
+      <c r="BW28" s="18"/>
+      <c r="BX28" s="16"/>
+      <c r="BY28" s="17"/>
+      <c r="BZ28" s="17"/>
+      <c r="CA28" s="17"/>
+      <c r="CB28" s="17"/>
+      <c r="CC28" s="17"/>
+      <c r="CD28" s="17"/>
+      <c r="CE28" s="18"/>
+      <c r="CF28" s="60"/>
     </row>
-    <row r="29" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>33</v>
+    <row r="29" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A29" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="15"/>
@@ -4578,14 +4768,14 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="60"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="69"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
@@ -4629,11 +4819,19 @@
       <c r="BP29" s="16"/>
       <c r="BQ29" s="17"/>
       <c r="BR29" s="17"/>
-      <c r="BS29" s="17"/>
-      <c r="BT29" s="17"/>
-      <c r="BU29" s="17"/>
-      <c r="BV29" s="17"/>
-      <c r="BW29" s="18"/>
+      <c r="BS29" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT29" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU29" s="102"/>
+      <c r="BV29" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW29" s="110" t="s">
+        <v>31</v>
+      </c>
       <c r="BX29" s="16"/>
       <c r="BY29" s="17"/>
       <c r="BZ29" s="17"/>
@@ -4642,11 +4840,11 @@
       <c r="CC29" s="17"/>
       <c r="CD29" s="17"/>
       <c r="CE29" s="18"/>
-      <c r="CF29" s="51"/>
+      <c r="CF29" s="60"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="15"/>
@@ -4666,14 +4864,14 @@
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="60"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="69"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
@@ -4717,11 +4915,19 @@
       <c r="BP30" s="16"/>
       <c r="BQ30" s="17"/>
       <c r="BR30" s="17"/>
-      <c r="BS30" s="17"/>
-      <c r="BT30" s="17"/>
+      <c r="BS30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT30" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="BU30" s="17"/>
-      <c r="BV30" s="17"/>
-      <c r="BW30" s="18"/>
+      <c r="BV30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW30" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="BX30" s="16"/>
       <c r="BY30" s="17"/>
       <c r="BZ30" s="17"/>
@@ -4730,11 +4936,11 @@
       <c r="CC30" s="17"/>
       <c r="CD30" s="17"/>
       <c r="CE30" s="18"/>
-      <c r="CF30" s="51"/>
+      <c r="CF30" s="60"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="15"/>
@@ -4754,14 +4960,14 @@
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="60"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="69"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
@@ -4806,19 +5012,17 @@
       <c r="BQ31" s="17"/>
       <c r="BR31" s="17"/>
       <c r="BS31" s="17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="BT31" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU31" s="17" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="BU31" s="17"/>
       <c r="BV31" s="17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="BW31" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="BX31" s="16"/>
       <c r="BY31" s="17"/>
@@ -4828,12 +5032,10 @@
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
       <c r="CE31" s="18"/>
-      <c r="CF31" s="51"/>
+      <c r="CF31" s="60"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
-        <v>11</v>
-      </c>
+    <row r="32" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
       <c r="B32" s="25"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -4852,14 +5054,14 @@
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="60"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="69"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
@@ -4903,21 +5105,11 @@
       <c r="BP32" s="16"/>
       <c r="BQ32" s="17"/>
       <c r="BR32" s="17"/>
-      <c r="BS32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW32" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="BS32" s="17"/>
+      <c r="BT32" s="17"/>
+      <c r="BU32" s="17"/>
+      <c r="BV32" s="17"/>
+      <c r="BW32" s="18"/>
       <c r="BX32" s="16"/>
       <c r="BY32" s="17"/>
       <c r="BZ32" s="17"/>
@@ -4926,7 +5118,7 @@
       <c r="CC32" s="17"/>
       <c r="CD32" s="17"/>
       <c r="CE32" s="18"/>
-      <c r="CF32" s="51"/>
+      <c r="CF32" s="60"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
@@ -4948,14 +5140,14 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="60"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="69"/>
       <c r="AB33" s="16"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
@@ -4999,21 +5191,11 @@
       <c r="BP33" s="16"/>
       <c r="BQ33" s="17"/>
       <c r="BR33" s="17"/>
-      <c r="BS33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW33" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="BS33" s="17"/>
+      <c r="BT33" s="17"/>
+      <c r="BU33" s="17"/>
+      <c r="BV33" s="17"/>
+      <c r="BW33" s="18"/>
       <c r="BX33" s="16"/>
       <c r="BY33" s="17"/>
       <c r="BZ33" s="17"/>
@@ -5022,7 +5204,7 @@
       <c r="CC33" s="17"/>
       <c r="CD33" s="17"/>
       <c r="CE33" s="18"/>
-      <c r="CF33" s="51"/>
+      <c r="CF33" s="60"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
@@ -5044,14 +5226,14 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="60"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="69"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
@@ -5108,7 +5290,7 @@
       <c r="CC34" s="17"/>
       <c r="CD34" s="17"/>
       <c r="CE34" s="18"/>
-      <c r="CF34" s="51"/>
+      <c r="CF34" s="60"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
@@ -5130,14 +5312,14 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="60"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="69"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
@@ -5194,7 +5376,7 @@
       <c r="CC35" s="17"/>
       <c r="CD35" s="17"/>
       <c r="CE35" s="18"/>
-      <c r="CF35" s="51"/>
+      <c r="CF35" s="60"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
@@ -5216,14 +5398,14 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="60"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="69"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
@@ -5280,275 +5462,223 @@
       <c r="CC36" s="17"/>
       <c r="CD36" s="17"/>
       <c r="CE36" s="18"/>
-      <c r="CF36" s="51"/>
+      <c r="CF36" s="60"/>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="16"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
-      <c r="AN37" s="17"/>
-      <c r="AO37" s="17"/>
-      <c r="AP37" s="17"/>
-      <c r="AQ37" s="18"/>
-      <c r="AR37" s="16"/>
-      <c r="AS37" s="17"/>
-      <c r="AT37" s="17"/>
-      <c r="AU37" s="17"/>
-      <c r="AV37" s="17"/>
-      <c r="AW37" s="17"/>
-      <c r="AX37" s="17"/>
-      <c r="AY37" s="18"/>
-      <c r="AZ37" s="16"/>
-      <c r="BA37" s="17"/>
-      <c r="BB37" s="17"/>
-      <c r="BC37" s="17"/>
-      <c r="BD37" s="17"/>
-      <c r="BE37" s="17"/>
-      <c r="BF37" s="17"/>
-      <c r="BG37" s="18"/>
-      <c r="BH37" s="16"/>
-      <c r="BI37" s="17"/>
-      <c r="BJ37" s="17"/>
-      <c r="BK37" s="17"/>
-      <c r="BL37" s="17"/>
-      <c r="BM37" s="17"/>
-      <c r="BN37" s="17"/>
-      <c r="BO37" s="18"/>
-      <c r="BP37" s="16"/>
-      <c r="BQ37" s="17"/>
-      <c r="BR37" s="17"/>
-      <c r="BS37" s="17"/>
-      <c r="BT37" s="17"/>
-      <c r="BU37" s="17"/>
-      <c r="BV37" s="17"/>
-      <c r="BW37" s="18"/>
-      <c r="BX37" s="16"/>
-      <c r="BY37" s="17"/>
-      <c r="BZ37" s="17"/>
-      <c r="CA37" s="17"/>
-      <c r="CB37" s="17"/>
-      <c r="CC37" s="17"/>
-      <c r="CD37" s="17"/>
-      <c r="CE37" s="18"/>
-      <c r="CF37" s="51"/>
+    <row r="37" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="71"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="22"/>
+      <c r="AQ37" s="23"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
+      <c r="AU37" s="22"/>
+      <c r="AV37" s="22"/>
+      <c r="AW37" s="22"/>
+      <c r="AX37" s="22"/>
+      <c r="AY37" s="23"/>
+      <c r="AZ37" s="21"/>
+      <c r="BA37" s="22"/>
+      <c r="BB37" s="22"/>
+      <c r="BC37" s="22"/>
+      <c r="BD37" s="22"/>
+      <c r="BE37" s="22"/>
+      <c r="BF37" s="22"/>
+      <c r="BG37" s="23"/>
+      <c r="BH37" s="21"/>
+      <c r="BI37" s="22"/>
+      <c r="BJ37" s="22"/>
+      <c r="BK37" s="22"/>
+      <c r="BL37" s="22"/>
+      <c r="BM37" s="22"/>
+      <c r="BN37" s="22"/>
+      <c r="BO37" s="23"/>
+      <c r="BP37" s="21"/>
+      <c r="BQ37" s="22"/>
+      <c r="BR37" s="22"/>
+      <c r="BS37" s="22"/>
+      <c r="BT37" s="22"/>
+      <c r="BU37" s="22"/>
+      <c r="BV37" s="22"/>
+      <c r="BW37" s="23"/>
+      <c r="BX37" s="21"/>
+      <c r="BY37" s="22"/>
+      <c r="BZ37" s="22"/>
+      <c r="CA37" s="22"/>
+      <c r="CB37" s="22"/>
+      <c r="CC37" s="22"/>
+      <c r="CD37" s="22"/>
+      <c r="CE37" s="23"/>
+      <c r="CF37" s="60"/>
     </row>
-    <row r="38" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="23"/>
+    <row r="38" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A38" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
       <c r="T38" s="61"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="23"/>
-      <c r="AJ38" s="21"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-      <c r="AP38" s="22"/>
-      <c r="AQ38" s="23"/>
-      <c r="AR38" s="21"/>
-      <c r="AS38" s="22"/>
-      <c r="AT38" s="22"/>
-      <c r="AU38" s="22"/>
-      <c r="AV38" s="22"/>
-      <c r="AW38" s="22"/>
-      <c r="AX38" s="22"/>
-      <c r="AY38" s="23"/>
-      <c r="AZ38" s="21"/>
-      <c r="BA38" s="22"/>
-      <c r="BB38" s="22"/>
-      <c r="BC38" s="22"/>
-      <c r="BD38" s="22"/>
-      <c r="BE38" s="22"/>
-      <c r="BF38" s="22"/>
-      <c r="BG38" s="23"/>
-      <c r="BH38" s="21"/>
-      <c r="BI38" s="22"/>
-      <c r="BJ38" s="22"/>
-      <c r="BK38" s="22"/>
-      <c r="BL38" s="22"/>
-      <c r="BM38" s="22"/>
-      <c r="BN38" s="22"/>
-      <c r="BO38" s="23"/>
-      <c r="BP38" s="21"/>
-      <c r="BQ38" s="22"/>
-      <c r="BR38" s="22"/>
-      <c r="BS38" s="22"/>
-      <c r="BT38" s="22"/>
-      <c r="BU38" s="22"/>
-      <c r="BV38" s="22"/>
-      <c r="BW38" s="23"/>
-      <c r="BX38" s="21"/>
-      <c r="BY38" s="22"/>
-      <c r="BZ38" s="22"/>
-      <c r="CA38" s="22"/>
-      <c r="CB38" s="22"/>
-      <c r="CC38" s="22"/>
-      <c r="CD38" s="22"/>
-      <c r="CE38" s="23"/>
-      <c r="CF38" s="51"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="61"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="61"/>
+      <c r="AO38" s="61"/>
+      <c r="AP38" s="61"/>
+      <c r="AQ38" s="61"/>
+      <c r="AR38" s="61"/>
+      <c r="AS38" s="61"/>
+      <c r="AT38" s="61"/>
+      <c r="AU38" s="61"/>
+      <c r="AV38" s="61"/>
+      <c r="AW38" s="61"/>
+      <c r="AX38" s="61"/>
+      <c r="AY38" s="61"/>
+      <c r="AZ38" s="61"/>
+      <c r="BA38" s="61"/>
+      <c r="BB38" s="61"/>
+      <c r="BC38" s="61"/>
+      <c r="BD38" s="61"/>
+      <c r="BE38" s="61"/>
+      <c r="BF38" s="61"/>
+      <c r="BG38" s="61"/>
+      <c r="BH38" s="61"/>
+      <c r="BI38" s="61"/>
+      <c r="BJ38" s="61"/>
+      <c r="BK38" s="61"/>
+      <c r="BL38" s="61"/>
+      <c r="BM38" s="61"/>
+      <c r="BN38" s="61"/>
+      <c r="BO38" s="61"/>
+      <c r="BP38" s="61"/>
+      <c r="BQ38" s="61"/>
+      <c r="BR38" s="61"/>
+      <c r="BS38" s="61"/>
+      <c r="BT38" s="61"/>
+      <c r="BU38" s="61"/>
+      <c r="BV38" s="61"/>
+      <c r="BW38" s="61"/>
+      <c r="BX38" s="61"/>
+      <c r="BY38" s="61"/>
+      <c r="BZ38" s="61"/>
+      <c r="CA38" s="61"/>
+      <c r="CB38" s="61"/>
+      <c r="CC38" s="61"/>
+      <c r="CD38" s="61"/>
+      <c r="CE38" s="61"/>
     </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="52"/>
-      <c r="AL39" s="52"/>
-      <c r="AM39" s="52"/>
-      <c r="AN39" s="52"/>
-      <c r="AO39" s="52"/>
-      <c r="AP39" s="52"/>
-      <c r="AQ39" s="52"/>
-      <c r="AR39" s="52"/>
-      <c r="AS39" s="52"/>
-      <c r="AT39" s="52"/>
-      <c r="AU39" s="52"/>
-      <c r="AV39" s="52"/>
-      <c r="AW39" s="52"/>
-      <c r="AX39" s="52"/>
-      <c r="AY39" s="52"/>
-      <c r="AZ39" s="52"/>
-      <c r="BA39" s="52"/>
-      <c r="BB39" s="52"/>
-      <c r="BC39" s="52"/>
-      <c r="BD39" s="52"/>
-      <c r="BE39" s="52"/>
-      <c r="BF39" s="52"/>
-      <c r="BG39" s="52"/>
-      <c r="BH39" s="52"/>
-      <c r="BI39" s="52"/>
-      <c r="BJ39" s="52"/>
-      <c r="BK39" s="52"/>
-      <c r="BL39" s="52"/>
-      <c r="BM39" s="52"/>
-      <c r="BN39" s="52"/>
-      <c r="BO39" s="52"/>
-      <c r="BP39" s="52"/>
-      <c r="BQ39" s="52"/>
-      <c r="BR39" s="52"/>
-      <c r="BS39" s="52"/>
-      <c r="BT39" s="52"/>
-      <c r="BU39" s="52"/>
-      <c r="BV39" s="52"/>
-      <c r="BW39" s="52"/>
-      <c r="BX39" s="52"/>
-      <c r="BY39" s="52"/>
-      <c r="BZ39" s="52"/>
-      <c r="CA39" s="52"/>
-      <c r="CB39" s="52"/>
-      <c r="CC39" s="52"/>
-      <c r="CD39" s="52"/>
-      <c r="CE39" s="52"/>
+    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="F42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="73"/>
+    </row>
+    <row r="44" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="F44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="74"/>
+    </row>
+    <row r="46" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="F46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="75"/>
+    </row>
+    <row r="48" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="F48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="76"/>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F50" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" s="107" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF37"/>
+    <mergeCell ref="A38:CE38"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA37"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
     <mergeCell ref="AN4:AQ4"/>
@@ -5563,17 +5693,15 @@
     <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CF38"/>
-    <mergeCell ref="A39:CE39"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA38"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="D2:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B38">
+  <conditionalFormatting sqref="B6:B37">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>
@@ -5599,14 +5727,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5823,23 +5949,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5864,9 +5987,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="13_ncr:1_{14C2DADA-F04E-BA42-AC8A-BD8CE0569CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836FE182-1105-4BE6-B04F-E4B82CF3122D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6244D0BB-5D30-449E-8614-F99100DAF958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>Tâches</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Programmer bouton B pour arrêt d'urgence</t>
-  </si>
-  <si>
-    <t>Programmer bouton A pour éclairage LED</t>
   </si>
   <si>
     <t>Programmer joystick droit (vitesse + progressif)</t>
@@ -229,6 +226,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lancement du module</t>
+  </si>
+  <si>
+    <t>Analyse et conception</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +431,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA8EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -833,7 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1012,6 +1021,232 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1024,237 +1259,50 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1288,6 +1336,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFAA8EA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1490,8 +1543,8 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 18750"/>
             <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val -1032220"/>
-            <a:gd name="adj4" fmla="val -11842"/>
+            <a:gd name="adj3" fmla="val -1039968"/>
+            <a:gd name="adj4" fmla="val -6359"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1600,10 +1653,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1956,11 +2005,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AO16" sqref="AO16:AR16"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1968,9 +2017,9 @@
     <col min="1" max="1" width="63" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="2.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="2" customWidth="1"/>
     <col min="7" max="83" width="2.140625" style="2" customWidth="1"/>
     <col min="84" max="84" width="3.140625" style="3" customWidth="1"/>
     <col min="85" max="297" width="9.140625" style="3" customWidth="1"/>
@@ -1978,11 +2027,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="A1" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2026,175 +2075,175 @@
     </row>
     <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="58"/>
-      <c r="BM2" s="58"/>
-      <c r="BN2" s="58"/>
-      <c r="BO2" s="58"/>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="58"/>
-      <c r="BR2" s="58"/>
-      <c r="BS2" s="58"/>
-      <c r="BT2" s="58"/>
-      <c r="BU2" s="58"/>
-      <c r="BV2" s="58"/>
-      <c r="BW2" s="58"/>
-      <c r="BX2" s="58"/>
-      <c r="BY2" s="58"/>
-      <c r="BZ2" s="58"/>
-      <c r="CA2" s="58"/>
-      <c r="CB2" s="58"/>
-      <c r="CC2" s="58"/>
-      <c r="CD2" s="58"/>
-      <c r="CE2" s="58"/>
+        <v>25</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="106"/>
+      <c r="AM2" s="106"/>
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="106"/>
+      <c r="AP2" s="106"/>
+      <c r="AQ2" s="106"/>
+      <c r="AR2" s="106"/>
+      <c r="AS2" s="106"/>
+      <c r="AT2" s="106"/>
+      <c r="AU2" s="106"/>
+      <c r="AV2" s="106"/>
+      <c r="AW2" s="106"/>
+      <c r="AX2" s="106"/>
+      <c r="AY2" s="106"/>
+      <c r="AZ2" s="106"/>
+      <c r="BA2" s="106"/>
+      <c r="BB2" s="106"/>
+      <c r="BC2" s="106"/>
+      <c r="BD2" s="106"/>
+      <c r="BE2" s="106"/>
+      <c r="BF2" s="106"/>
+      <c r="BG2" s="106"/>
+      <c r="BH2" s="106"/>
+      <c r="BI2" s="106"/>
+      <c r="BJ2" s="106"/>
+      <c r="BK2" s="106"/>
+      <c r="BL2" s="106"/>
+      <c r="BM2" s="106"/>
+      <c r="BN2" s="106"/>
+      <c r="BO2" s="106"/>
+      <c r="BP2" s="106"/>
+      <c r="BQ2" s="106"/>
+      <c r="BR2" s="106"/>
+      <c r="BS2" s="106"/>
+      <c r="BT2" s="106"/>
+      <c r="BU2" s="106"/>
+      <c r="BV2" s="106"/>
+      <c r="BW2" s="106"/>
+      <c r="BX2" s="106"/>
+      <c r="BY2" s="106"/>
+      <c r="BZ2" s="106"/>
+      <c r="CA2" s="106"/>
+      <c r="CB2" s="106"/>
+      <c r="CC2" s="106"/>
+      <c r="CD2" s="106"/>
+      <c r="CE2" s="106"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="59"/>
-      <c r="BM3" s="59"/>
-      <c r="BN3" s="59"/>
-      <c r="BO3" s="59"/>
-      <c r="BP3" s="59"/>
-      <c r="BQ3" s="59"/>
-      <c r="BR3" s="59"/>
-      <c r="BS3" s="59"/>
-      <c r="BT3" s="59"/>
-      <c r="BU3" s="59"/>
-      <c r="BV3" s="59"/>
-      <c r="BW3" s="59"/>
-      <c r="BX3" s="59"/>
-      <c r="BY3" s="59"/>
-      <c r="BZ3" s="59"/>
-      <c r="CA3" s="59"/>
-      <c r="CB3" s="59"/>
-      <c r="CC3" s="59"/>
-      <c r="CD3" s="59"/>
-      <c r="CE3" s="59"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="107"/>
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="107"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="107"/>
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="107"/>
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="107"/>
+      <c r="BF3" s="107"/>
+      <c r="BG3" s="107"/>
+      <c r="BH3" s="107"/>
+      <c r="BI3" s="107"/>
+      <c r="BJ3" s="107"/>
+      <c r="BK3" s="107"/>
+      <c r="BL3" s="107"/>
+      <c r="BM3" s="107"/>
+      <c r="BN3" s="107"/>
+      <c r="BO3" s="107"/>
+      <c r="BP3" s="107"/>
+      <c r="BQ3" s="107"/>
+      <c r="BR3" s="107"/>
+      <c r="BS3" s="107"/>
+      <c r="BT3" s="107"/>
+      <c r="BU3" s="107"/>
+      <c r="BV3" s="107"/>
+      <c r="BW3" s="107"/>
+      <c r="BX3" s="107"/>
+      <c r="BY3" s="107"/>
+      <c r="BZ3" s="107"/>
+      <c r="CA3" s="107"/>
+      <c r="CB3" s="107"/>
+      <c r="CC3" s="107"/>
+      <c r="CD3" s="107"/>
+      <c r="CE3" s="107"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -2203,132 +2252,132 @@
       <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="54">
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="104">
         <v>45992</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56" t="s">
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="54">
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104">
         <v>45993</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="56" t="s">
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="54">
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="104">
         <v>45999</v>
       </c>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="56" t="s">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="54">
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="104">
         <v>46000</v>
       </c>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="56" t="s">
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="54">
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="104">
         <v>46006</v>
       </c>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="56" t="s">
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="105"/>
+      <c r="AR4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="54">
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="104">
         <v>46007</v>
       </c>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="56" t="s">
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="57"/>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="54">
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="104">
         <v>46027</v>
       </c>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="56" t="s">
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="104"/>
+      <c r="BG4" s="105"/>
+      <c r="BH4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="54">
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="103"/>
+      <c r="BL4" s="104">
         <v>46028</v>
       </c>
-      <c r="BM4" s="54"/>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="55"/>
-      <c r="BP4" s="56" t="s">
+      <c r="BM4" s="104"/>
+      <c r="BN4" s="104"/>
+      <c r="BO4" s="105"/>
+      <c r="BP4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="57"/>
-      <c r="BR4" s="57"/>
-      <c r="BS4" s="57"/>
-      <c r="BT4" s="54">
+      <c r="BQ4" s="103"/>
+      <c r="BR4" s="103"/>
+      <c r="BS4" s="103"/>
+      <c r="BT4" s="104">
         <v>46034</v>
       </c>
-      <c r="BU4" s="54"/>
-      <c r="BV4" s="54"/>
-      <c r="BW4" s="55"/>
-      <c r="BX4" s="56" t="s">
+      <c r="BU4" s="104"/>
+      <c r="BV4" s="104"/>
+      <c r="BW4" s="105"/>
+      <c r="BX4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="57"/>
-      <c r="BZ4" s="57"/>
-      <c r="CA4" s="57"/>
-      <c r="CB4" s="54">
+      <c r="BY4" s="103"/>
+      <c r="BZ4" s="103"/>
+      <c r="CA4" s="103"/>
+      <c r="CB4" s="104">
         <v>46035</v>
       </c>
-      <c r="CC4" s="54"/>
-      <c r="CD4" s="54"/>
-      <c r="CE4" s="55"/>
-      <c r="CF4" s="60" t="s">
+      <c r="CC4" s="104"/>
+      <c r="CD4" s="104"/>
+      <c r="CE4" s="105"/>
+      <c r="CF4" s="89" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
@@ -2575,18 +2624,32 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="60"/>
+      <c r="CF5" s="89"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="24"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="D6" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="119" t="s">
+        <v>30</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="12"/>
       <c r="L6" s="13"/>
@@ -2597,16 +2660,16 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="64" t="s">
+      <c r="T6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="66"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="95"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -2663,11 +2726,11 @@
       <c r="CC6" s="11"/>
       <c r="CD6" s="11"/>
       <c r="CE6" s="12"/>
-      <c r="CF6" s="60"/>
+      <c r="CF6" s="89"/>
     </row>
-    <row r="7" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>36</v>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A7" s="111" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="15"/>
@@ -2677,28 +2740,48 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
+      <c r="J7" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="96"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
       <c r="AH7" s="11"/>
@@ -2751,11 +2834,11 @@
       <c r="CC7" s="11"/>
       <c r="CD7" s="11"/>
       <c r="CE7" s="12"/>
-      <c r="CF7" s="60"/>
+      <c r="CF7" s="89"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>29</v>
+    <row r="8" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="15"/>
@@ -2775,24 +2858,36 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD8" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="60" t="s">
+        <v>30</v>
+      </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
       <c r="AI8" s="12"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="11"/>
+      <c r="AJ8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK8" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="AL8" s="11"/>
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
@@ -2839,11 +2934,11 @@
       <c r="CC8" s="11"/>
       <c r="CD8" s="11"/>
       <c r="CE8" s="12"/>
-      <c r="CF8" s="60"/>
+      <c r="CF8" s="89"/>
     </row>
-    <row r="9" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>37</v>
+    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="15"/>
@@ -2863,24 +2958,36 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="62" t="s">
+        <v>30</v>
+      </c>
       <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
       <c r="AI9" s="12"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="11"/>
+      <c r="AJ9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -2927,11 +3034,11 @@
       <c r="CC9" s="11"/>
       <c r="CD9" s="11"/>
       <c r="CE9" s="12"/>
-      <c r="CF9" s="60"/>
+      <c r="CF9" s="89"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>30</v>
+    <row r="10" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="15"/>
@@ -2951,24 +3058,36 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="80"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="57" t="s">
+        <v>30</v>
+      </c>
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="12"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="11"/>
+      <c r="AJ10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -3015,99 +3134,111 @@
       <c r="CC10" s="11"/>
       <c r="CD10" s="11"/>
       <c r="CE10" s="12"/>
-      <c r="CF10" s="60"/>
+      <c r="CF10" s="89"/>
     </row>
-    <row r="11" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="46"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="16"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="18"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="18"/>
-      <c r="BH11" s="16"/>
-      <c r="BI11" s="17"/>
-      <c r="BJ11" s="17"/>
-      <c r="BK11" s="17"/>
-      <c r="BL11" s="17"/>
-      <c r="BM11" s="17"/>
-      <c r="BN11" s="17"/>
-      <c r="BO11" s="18"/>
-      <c r="BP11" s="16"/>
-      <c r="BQ11" s="17"/>
-      <c r="BR11" s="17"/>
-      <c r="BS11" s="17"/>
-      <c r="BT11" s="17"/>
-      <c r="BU11" s="17"/>
-      <c r="BV11" s="17"/>
-      <c r="BW11" s="18"/>
-      <c r="BX11" s="16"/>
-      <c r="BY11" s="17"/>
-      <c r="BZ11" s="17"/>
-      <c r="CA11" s="17"/>
-      <c r="CB11" s="17"/>
-      <c r="CC11" s="17"/>
-      <c r="CD11" s="17"/>
-      <c r="CE11" s="18"/>
-      <c r="CF11" s="60"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="11"/>
+      <c r="BJ11" s="11"/>
+      <c r="BK11" s="11"/>
+      <c r="BL11" s="11"/>
+      <c r="BM11" s="11"/>
+      <c r="BN11" s="11"/>
+      <c r="BO11" s="12"/>
+      <c r="BP11" s="13"/>
+      <c r="BQ11" s="11"/>
+      <c r="BR11" s="11"/>
+      <c r="BS11" s="11"/>
+      <c r="BT11" s="11"/>
+      <c r="BU11" s="11"/>
+      <c r="BV11" s="11"/>
+      <c r="BW11" s="12"/>
+      <c r="BX11" s="13"/>
+      <c r="BY11" s="11"/>
+      <c r="BZ11" s="11"/>
+      <c r="CA11" s="11"/>
+      <c r="CB11" s="11"/>
+      <c r="CC11" s="11"/>
+      <c r="CD11" s="11"/>
+      <c r="CE11" s="12"/>
+      <c r="CF11" s="89"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>24</v>
+    <row r="12" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="15"/>
@@ -3127,14 +3258,14 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="69"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="98"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -3143,15 +3274,15 @@
       <c r="AG12" s="17"/>
       <c r="AH12" s="17"/>
       <c r="AI12" s="18"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="88"/>
-      <c r="AN12" s="87"/>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="92"/>
-      <c r="AR12" s="103"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="16"/>
       <c r="AS12" s="17"/>
       <c r="AT12" s="17"/>
       <c r="AU12" s="17"/>
@@ -3191,7 +3322,7 @@
       <c r="CC12" s="17"/>
       <c r="CD12" s="17"/>
       <c r="CE12" s="18"/>
-      <c r="CF12" s="60"/>
+      <c r="CF12" s="89"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
@@ -3215,14 +3346,14 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="69"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="98"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -3231,15 +3362,21 @@
       <c r="AG13" s="17"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="18"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="90"/>
-      <c r="AN13" s="90"/>
-      <c r="AO13" s="90"/>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="91"/>
-      <c r="AR13" s="112"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM13" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN13" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="80"/>
       <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
       <c r="AU13" s="17"/>
@@ -3279,7 +3416,7 @@
       <c r="CC13" s="17"/>
       <c r="CD13" s="17"/>
       <c r="CE13" s="18"/>
-      <c r="CF13" s="60"/>
+      <c r="CF13" s="89"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
@@ -3303,14 +3440,14 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="69"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="98"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -3319,15 +3456,21 @@
       <c r="AG14" s="17"/>
       <c r="AH14" s="17"/>
       <c r="AI14" s="18"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="100"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="16"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM14" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN14" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="88"/>
       <c r="AS14" s="17"/>
       <c r="AT14" s="17"/>
       <c r="AU14" s="17"/>
@@ -3367,7 +3510,7 @@
       <c r="CC14" s="17"/>
       <c r="CD14" s="17"/>
       <c r="CE14" s="18"/>
-      <c r="CF14" s="60"/>
+      <c r="CF14" s="89"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
@@ -3391,14 +3534,14 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="69"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="98"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
@@ -3407,12 +3550,18 @@
       <c r="AG15" s="17"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="18"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="98"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="98"/>
-      <c r="AN15" s="98"/>
-      <c r="AO15" s="100"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM15" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN15" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO15" s="77"/>
       <c r="AP15" s="17"/>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="16"/>
@@ -3455,7 +3604,7 @@
       <c r="CC15" s="17"/>
       <c r="CD15" s="17"/>
       <c r="CE15" s="18"/>
-      <c r="CF15" s="60"/>
+      <c r="CF15" s="89"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -3479,14 +3628,14 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="69"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="98"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
@@ -3500,10 +3649,10 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
-      <c r="AO16" s="98"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="101"/>
-      <c r="AR16" s="94"/>
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="72"/>
       <c r="AS16" s="17"/>
       <c r="AT16" s="17"/>
       <c r="AU16" s="17"/>
@@ -3543,11 +3692,11 @@
       <c r="CC16" s="17"/>
       <c r="CD16" s="17"/>
       <c r="CE16" s="18"/>
-      <c r="CF16" s="60"/>
+      <c r="CF16" s="89"/>
     </row>
     <row r="17" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="15"/>
@@ -3567,14 +3716,14 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="69"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="98"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
@@ -3631,11 +3780,11 @@
       <c r="CC17" s="17"/>
       <c r="CD17" s="17"/>
       <c r="CE17" s="18"/>
-      <c r="CF17" s="60"/>
+      <c r="CF17" s="89"/>
     </row>
     <row r="18" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
-        <v>41</v>
+      <c r="A18" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="15"/>
@@ -3655,14 +3804,14 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="69"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="98"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
@@ -3679,22 +3828,22 @@
       <c r="AO18" s="17"/>
       <c r="AP18" s="17"/>
       <c r="AQ18" s="18"/>
-      <c r="AR18" s="111"/>
-      <c r="AS18" s="100"/>
-      <c r="AT18" s="95"/>
-      <c r="AU18" s="95"/>
+      <c r="AR18" s="87"/>
+      <c r="AS18" s="77"/>
+      <c r="AT18" s="73"/>
+      <c r="AU18" s="73"/>
       <c r="AV18" s="17"/>
       <c r="AW18" s="17"/>
       <c r="AX18" s="17"/>
       <c r="AY18" s="18"/>
-      <c r="AZ18" s="94"/>
-      <c r="BA18" s="95"/>
-      <c r="BB18" s="95"/>
-      <c r="BC18" s="95"/>
-      <c r="BD18" s="95"/>
-      <c r="BE18" s="95"/>
-      <c r="BF18" s="95"/>
-      <c r="BG18" s="106"/>
+      <c r="AZ18" s="72"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="73"/>
+      <c r="BC18" s="73"/>
+      <c r="BD18" s="73"/>
+      <c r="BE18" s="73"/>
+      <c r="BF18" s="73"/>
+      <c r="BG18" s="83"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="17"/>
       <c r="BJ18" s="17"/>
@@ -3719,7 +3868,7 @@
       <c r="CC18" s="17"/>
       <c r="CD18" s="17"/>
       <c r="CE18" s="18"/>
-      <c r="CF18" s="60"/>
+      <c r="CF18" s="89"/>
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
@@ -3743,14 +3892,14 @@
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="69"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="98"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
@@ -3767,22 +3916,22 @@
       <c r="AO19" s="17"/>
       <c r="AP19" s="17"/>
       <c r="AQ19" s="18"/>
-      <c r="AR19" s="109"/>
-      <c r="AS19" s="100"/>
-      <c r="AT19" s="98"/>
-      <c r="AU19" s="98"/>
+      <c r="AR19" s="86"/>
+      <c r="AS19" s="77"/>
+      <c r="AT19" s="75"/>
+      <c r="AU19" s="75"/>
       <c r="AV19" s="17"/>
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
       <c r="AY19" s="18"/>
-      <c r="AZ19" s="97"/>
-      <c r="BA19" s="98"/>
-      <c r="BB19" s="98"/>
-      <c r="BC19" s="98"/>
-      <c r="BD19" s="98"/>
-      <c r="BE19" s="98"/>
-      <c r="BF19" s="98"/>
-      <c r="BG19" s="101"/>
+      <c r="AZ19" s="74"/>
+      <c r="BA19" s="75"/>
+      <c r="BB19" s="75"/>
+      <c r="BC19" s="75"/>
+      <c r="BD19" s="75"/>
+      <c r="BE19" s="75"/>
+      <c r="BF19" s="75"/>
+      <c r="BG19" s="78"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="17"/>
@@ -3807,10 +3956,10 @@
       <c r="CC19" s="17"/>
       <c r="CD19" s="17"/>
       <c r="CE19" s="18"/>
-      <c r="CF19" s="60"/>
+      <c r="CF19" s="89"/>
     </row>
     <row r="20" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="63" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="25"/>
@@ -3831,14 +3980,14 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="69"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="98"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
@@ -3855,22 +4004,22 @@
       <c r="AO20" s="17"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="18"/>
-      <c r="AR20" s="109"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="90"/>
-      <c r="AU20" s="90"/>
+      <c r="AR20" s="86"/>
+      <c r="AS20" s="77"/>
+      <c r="AT20" s="68"/>
+      <c r="AU20" s="68"/>
       <c r="AV20" s="17"/>
       <c r="AW20" s="17"/>
       <c r="AX20" s="17"/>
       <c r="AY20" s="18"/>
-      <c r="AZ20" s="89"/>
-      <c r="BA20" s="90"/>
-      <c r="BB20" s="90"/>
-      <c r="BC20" s="90"/>
-      <c r="BD20" s="90"/>
-      <c r="BE20" s="90"/>
-      <c r="BF20" s="90"/>
-      <c r="BG20" s="91"/>
+      <c r="AZ20" s="67"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="68"/>
+      <c r="BF20" s="68"/>
+      <c r="BG20" s="69"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="17"/>
       <c r="BJ20" s="17"/>
@@ -3895,9 +4044,9 @@
       <c r="CC20" s="17"/>
       <c r="CD20" s="17"/>
       <c r="CE20" s="18"/>
-      <c r="CF20" s="60"/>
-      <c r="CH20" s="108" t="s">
-        <v>44</v>
+      <c r="CF20" s="89"/>
+      <c r="CH20" s="85" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:86" x14ac:dyDescent="0.2">
@@ -3922,14 +4071,14 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="69"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="98"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
@@ -3946,22 +4095,22 @@
       <c r="AO21" s="17"/>
       <c r="AP21" s="17"/>
       <c r="AQ21" s="18"/>
-      <c r="AR21" s="111"/>
-      <c r="AS21" s="100"/>
-      <c r="AT21" s="87"/>
-      <c r="AU21" s="87"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
       <c r="AV21" s="17"/>
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
       <c r="AY21" s="18"/>
-      <c r="AZ21" s="103"/>
-      <c r="BA21" s="87"/>
-      <c r="BB21" s="87"/>
-      <c r="BC21" s="87"/>
-      <c r="BD21" s="87"/>
-      <c r="BE21" s="87"/>
-      <c r="BF21" s="87"/>
-      <c r="BG21" s="92"/>
+      <c r="AZ21" s="80"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="65"/>
+      <c r="BC21" s="65"/>
+      <c r="BD21" s="65"/>
+      <c r="BE21" s="65"/>
+      <c r="BF21" s="65"/>
+      <c r="BG21" s="70"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="17"/>
       <c r="BJ21" s="17"/>
@@ -3986,7 +4135,7 @@
       <c r="CC21" s="17"/>
       <c r="CD21" s="17"/>
       <c r="CE21" s="18"/>
-      <c r="CF21" s="60"/>
+      <c r="CF21" s="89"/>
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
@@ -4010,14 +4159,14 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="69"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="98"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
@@ -4045,22 +4194,22 @@
       <c r="AZ22" s="16"/>
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
-      <c r="BC22" s="104"/>
-      <c r="BD22" s="100"/>
-      <c r="BE22" s="100"/>
-      <c r="BF22" s="100"/>
-      <c r="BG22" s="105"/>
-      <c r="BH22" s="109"/>
-      <c r="BI22" s="98"/>
-      <c r="BJ22" s="98"/>
-      <c r="BK22" s="98"/>
-      <c r="BL22" s="98"/>
-      <c r="BM22" s="98"/>
-      <c r="BN22" s="98"/>
-      <c r="BO22" s="101"/>
-      <c r="BP22" s="97"/>
-      <c r="BQ22" s="98"/>
-      <c r="BR22" s="98"/>
+      <c r="BC22" s="81"/>
+      <c r="BD22" s="77"/>
+      <c r="BE22" s="77"/>
+      <c r="BF22" s="77"/>
+      <c r="BG22" s="82"/>
+      <c r="BH22" s="86"/>
+      <c r="BI22" s="75"/>
+      <c r="BJ22" s="75"/>
+      <c r="BK22" s="75"/>
+      <c r="BL22" s="75"/>
+      <c r="BM22" s="75"/>
+      <c r="BN22" s="75"/>
+      <c r="BO22" s="78"/>
+      <c r="BP22" s="74"/>
+      <c r="BQ22" s="75"/>
+      <c r="BR22" s="75"/>
       <c r="BS22" s="17"/>
       <c r="BT22" s="17"/>
       <c r="BU22" s="17"/>
@@ -4074,11 +4223,11 @@
       <c r="CC22" s="17"/>
       <c r="CD22" s="17"/>
       <c r="CE22" s="18"/>
-      <c r="CF22" s="60"/>
+      <c r="CF22" s="89"/>
     </row>
     <row r="23" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="15"/>
@@ -4098,14 +4247,14 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="69"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="98"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
@@ -4162,7 +4311,7 @@
       <c r="CC23" s="17"/>
       <c r="CD23" s="17"/>
       <c r="CE23" s="18"/>
-      <c r="CF23" s="60"/>
+      <c r="CF23" s="89"/>
     </row>
     <row r="24" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
@@ -4186,14 +4335,14 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="69"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="98"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
@@ -4226,17 +4375,17 @@
       <c r="BE24" s="17"/>
       <c r="BF24" s="17"/>
       <c r="BG24" s="18"/>
-      <c r="BH24" s="109"/>
-      <c r="BI24" s="90"/>
-      <c r="BJ24" s="90"/>
-      <c r="BK24" s="90"/>
+      <c r="BH24" s="86"/>
+      <c r="BI24" s="68"/>
+      <c r="BJ24" s="68"/>
+      <c r="BK24" s="68"/>
       <c r="BL24" s="17"/>
       <c r="BM24" s="17"/>
       <c r="BN24" s="17"/>
       <c r="BO24" s="18"/>
-      <c r="BP24" s="89"/>
-      <c r="BQ24" s="90"/>
-      <c r="BR24" s="90"/>
+      <c r="BP24" s="67"/>
+      <c r="BQ24" s="68"/>
+      <c r="BR24" s="68"/>
       <c r="BS24" s="17"/>
       <c r="BT24" s="17"/>
       <c r="BU24" s="17"/>
@@ -4250,11 +4399,11 @@
       <c r="CC24" s="17"/>
       <c r="CD24" s="17"/>
       <c r="CE24" s="18"/>
-      <c r="CF24" s="60"/>
+      <c r="CF24" s="89"/>
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="15"/>
@@ -4274,14 +4423,14 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="69"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="97"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="98"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
@@ -4314,17 +4463,17 @@
       <c r="BE25" s="17"/>
       <c r="BF25" s="17"/>
       <c r="BG25" s="18"/>
-      <c r="BH25" s="109"/>
-      <c r="BI25" s="87"/>
-      <c r="BJ25" s="95"/>
-      <c r="BK25" s="87"/>
+      <c r="BH25" s="86"/>
+      <c r="BI25" s="65"/>
+      <c r="BJ25" s="73"/>
+      <c r="BK25" s="65"/>
       <c r="BL25" s="17"/>
       <c r="BM25" s="17"/>
       <c r="BN25" s="17"/>
       <c r="BO25" s="18"/>
-      <c r="BP25" s="94"/>
-      <c r="BQ25" s="87"/>
-      <c r="BR25" s="95"/>
+      <c r="BP25" s="72"/>
+      <c r="BQ25" s="65"/>
+      <c r="BR25" s="73"/>
       <c r="BS25" s="17"/>
       <c r="BT25" s="17"/>
       <c r="BU25" s="17"/>
@@ -4338,11 +4487,11 @@
       <c r="CC25" s="17"/>
       <c r="CD25" s="17"/>
       <c r="CE25" s="18"/>
-      <c r="CF25" s="60"/>
+      <c r="CF25" s="89"/>
     </row>
     <row r="26" spans="1:86" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="32"/>
@@ -4362,14 +4511,14 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
       <c r="S26" s="34"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="69"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="97"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="98"/>
       <c r="AB26" s="33"/>
       <c r="AC26" s="31"/>
       <c r="AD26" s="31"/>
@@ -4426,7 +4575,7 @@
       <c r="CC26" s="31"/>
       <c r="CD26" s="31"/>
       <c r="CE26" s="34"/>
-      <c r="CF26" s="60"/>
+      <c r="CF26" s="89"/>
     </row>
     <row r="27" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
@@ -4434,233 +4583,99 @@
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="S27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T27" s="67"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="68"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BL27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BN27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BO27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="BP27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BR27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU27" s="17"/>
-      <c r="BV27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="BX27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="BY27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BZ27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="CA27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="CB27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="CC27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="CD27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="CE27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="CF27" s="60"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="114"/>
+      <c r="AC27" s="115"/>
+      <c r="AD27" s="115"/>
+      <c r="AE27" s="115"/>
+      <c r="AF27" s="115"/>
+      <c r="AG27" s="115"/>
+      <c r="AH27" s="115"/>
+      <c r="AI27" s="116"/>
+      <c r="AJ27" s="114"/>
+      <c r="AK27" s="115"/>
+      <c r="AL27" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM27" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN27" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO27" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP27" s="115"/>
+      <c r="AQ27" s="116"/>
+      <c r="AR27" s="114"/>
+      <c r="AS27" s="115"/>
+      <c r="AT27" s="115"/>
+      <c r="AU27" s="115"/>
+      <c r="AV27" s="115"/>
+      <c r="AW27" s="115"/>
+      <c r="AX27" s="115"/>
+      <c r="AY27" s="116"/>
+      <c r="AZ27" s="114"/>
+      <c r="BA27" s="115"/>
+      <c r="BB27" s="115"/>
+      <c r="BC27" s="115"/>
+      <c r="BD27" s="115"/>
+      <c r="BE27" s="115"/>
+      <c r="BF27" s="115"/>
+      <c r="BG27" s="116"/>
+      <c r="BH27" s="114"/>
+      <c r="BI27" s="115"/>
+      <c r="BJ27" s="115"/>
+      <c r="BK27" s="115"/>
+      <c r="BL27" s="115"/>
+      <c r="BM27" s="115"/>
+      <c r="BN27" s="115"/>
+      <c r="BO27" s="116"/>
+      <c r="BP27" s="114"/>
+      <c r="BQ27" s="115"/>
+      <c r="BR27" s="115"/>
+      <c r="BS27" s="115"/>
+      <c r="BT27" s="115"/>
+      <c r="BU27" s="115"/>
+      <c r="BV27" s="115"/>
+      <c r="BW27" s="116"/>
+      <c r="BX27" s="114"/>
+      <c r="BY27" s="115"/>
+      <c r="BZ27" s="115"/>
+      <c r="CA27" s="115"/>
+      <c r="CB27" s="115"/>
+      <c r="CC27" s="115"/>
+      <c r="CD27" s="115"/>
+      <c r="CE27" s="116"/>
+      <c r="CF27" s="89"/>
     </row>
     <row r="28" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="15"/>
@@ -4680,14 +4695,14 @@
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="18"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="69"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="97"/>
+      <c r="V28" s="97"/>
+      <c r="W28" s="97"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="97"/>
+      <c r="Z28" s="97"/>
+      <c r="AA28" s="98"/>
       <c r="AB28" s="16"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
@@ -4744,7 +4759,7 @@
       <c r="CC28" s="17"/>
       <c r="CD28" s="17"/>
       <c r="CE28" s="18"/>
-      <c r="CF28" s="60"/>
+      <c r="CF28" s="89"/>
     </row>
     <row r="29" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
@@ -4768,14 +4783,14 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="69"/>
+      <c r="T29" s="96"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="97"/>
+      <c r="Z29" s="97"/>
+      <c r="AA29" s="98"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
@@ -4819,19 +4834,11 @@
       <c r="BP29" s="16"/>
       <c r="BQ29" s="17"/>
       <c r="BR29" s="17"/>
-      <c r="BS29" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT29" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU29" s="102"/>
-      <c r="BV29" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW29" s="110" t="s">
-        <v>31</v>
-      </c>
+      <c r="BS29" s="117"/>
+      <c r="BT29" s="117"/>
+      <c r="BU29" s="79"/>
+      <c r="BV29" s="117"/>
+      <c r="BW29" s="118"/>
       <c r="BX29" s="16"/>
       <c r="BY29" s="17"/>
       <c r="BZ29" s="17"/>
@@ -4840,7 +4847,7 @@
       <c r="CC29" s="17"/>
       <c r="CD29" s="17"/>
       <c r="CE29" s="18"/>
-      <c r="CF29" s="60"/>
+      <c r="CF29" s="89"/>
     </row>
     <row r="30" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
@@ -4864,14 +4871,14 @@
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="69"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="97"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="98"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
@@ -4915,19 +4922,11 @@
       <c r="BP30" s="16"/>
       <c r="BQ30" s="17"/>
       <c r="BR30" s="17"/>
-      <c r="BS30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT30" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="BS30" s="115"/>
+      <c r="BT30" s="115"/>
       <c r="BU30" s="17"/>
-      <c r="BV30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW30" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="BV30" s="115"/>
+      <c r="BW30" s="116"/>
       <c r="BX30" s="16"/>
       <c r="BY30" s="17"/>
       <c r="BZ30" s="17"/>
@@ -4936,7 +4935,7 @@
       <c r="CC30" s="17"/>
       <c r="CD30" s="17"/>
       <c r="CE30" s="18"/>
-      <c r="CF30" s="60"/>
+      <c r="CF30" s="89"/>
     </row>
     <row r="31" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
@@ -4960,14 +4959,14 @@
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="69"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="97"/>
+      <c r="V31" s="97"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="97"/>
+      <c r="Z31" s="97"/>
+      <c r="AA31" s="98"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
@@ -5011,19 +5010,11 @@
       <c r="BP31" s="16"/>
       <c r="BQ31" s="17"/>
       <c r="BR31" s="17"/>
-      <c r="BS31" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT31" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="BS31" s="115"/>
+      <c r="BT31" s="115"/>
       <c r="BU31" s="17"/>
-      <c r="BV31" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW31" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="BV31" s="115"/>
+      <c r="BW31" s="116"/>
       <c r="BX31" s="16"/>
       <c r="BY31" s="17"/>
       <c r="BZ31" s="17"/>
@@ -5032,7 +5023,7 @@
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
       <c r="CE31" s="18"/>
-      <c r="CF31" s="60"/>
+      <c r="CF31" s="89"/>
     </row>
     <row r="32" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
@@ -5054,14 +5045,14 @@
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="69"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="97"/>
+      <c r="V32" s="97"/>
+      <c r="W32" s="97"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="97"/>
+      <c r="Z32" s="97"/>
+      <c r="AA32" s="98"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
@@ -5118,7 +5109,7 @@
       <c r="CC32" s="17"/>
       <c r="CD32" s="17"/>
       <c r="CE32" s="18"/>
-      <c r="CF32" s="60"/>
+      <c r="CF32" s="89"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
@@ -5140,14 +5131,14 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="69"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="97"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="98"/>
       <c r="AB33" s="16"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
@@ -5204,7 +5195,7 @@
       <c r="CC33" s="17"/>
       <c r="CD33" s="17"/>
       <c r="CE33" s="18"/>
-      <c r="CF33" s="60"/>
+      <c r="CF33" s="89"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
@@ -5226,14 +5217,14 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="69"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="98"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
@@ -5290,7 +5281,7 @@
       <c r="CC34" s="17"/>
       <c r="CD34" s="17"/>
       <c r="CE34" s="18"/>
-      <c r="CF34" s="60"/>
+      <c r="CF34" s="89"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
@@ -5312,14 +5303,14 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="69"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="97"/>
+      <c r="V35" s="97"/>
+      <c r="W35" s="97"/>
+      <c r="X35" s="97"/>
+      <c r="Y35" s="97"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="98"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
@@ -5376,7 +5367,7 @@
       <c r="CC35" s="17"/>
       <c r="CD35" s="17"/>
       <c r="CE35" s="18"/>
-      <c r="CF35" s="60"/>
+      <c r="CF35" s="89"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
@@ -5398,14 +5389,14 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="69"/>
+      <c r="T36" s="96"/>
+      <c r="U36" s="97"/>
+      <c r="V36" s="97"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="98"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
@@ -5462,7 +5453,7 @@
       <c r="CC36" s="17"/>
       <c r="CD36" s="17"/>
       <c r="CE36" s="18"/>
-      <c r="CF36" s="60"/>
+      <c r="CF36" s="89"/>
     </row>
     <row r="37" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
@@ -5484,14 +5475,14 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="23"/>
-      <c r="T37" s="70"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="71"/>
-      <c r="AA37" s="72"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="100"/>
+      <c r="V37" s="100"/>
+      <c r="W37" s="100"/>
+      <c r="X37" s="100"/>
+      <c r="Y37" s="100"/>
+      <c r="Z37" s="100"/>
+      <c r="AA37" s="101"/>
       <c r="AB37" s="21"/>
       <c r="AC37" s="22"/>
       <c r="AD37" s="22"/>
@@ -5548,137 +5539,133 @@
       <c r="CC37" s="22"/>
       <c r="CD37" s="22"/>
       <c r="CE37" s="23"/>
-      <c r="CF37" s="60"/>
+      <c r="CF37" s="89"/>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="61"/>
-      <c r="Y38" s="61"/>
-      <c r="Z38" s="61"/>
-      <c r="AA38" s="61"/>
-      <c r="AB38" s="61"/>
-      <c r="AC38" s="61"/>
-      <c r="AD38" s="61"/>
-      <c r="AE38" s="61"/>
-      <c r="AF38" s="61"/>
-      <c r="AG38" s="61"/>
-      <c r="AH38" s="61"/>
-      <c r="AI38" s="61"/>
-      <c r="AJ38" s="61"/>
-      <c r="AK38" s="61"/>
-      <c r="AL38" s="61"/>
-      <c r="AM38" s="61"/>
-      <c r="AN38" s="61"/>
-      <c r="AO38" s="61"/>
-      <c r="AP38" s="61"/>
-      <c r="AQ38" s="61"/>
-      <c r="AR38" s="61"/>
-      <c r="AS38" s="61"/>
-      <c r="AT38" s="61"/>
-      <c r="AU38" s="61"/>
-      <c r="AV38" s="61"/>
-      <c r="AW38" s="61"/>
-      <c r="AX38" s="61"/>
-      <c r="AY38" s="61"/>
-      <c r="AZ38" s="61"/>
-      <c r="BA38" s="61"/>
-      <c r="BB38" s="61"/>
-      <c r="BC38" s="61"/>
-      <c r="BD38" s="61"/>
-      <c r="BE38" s="61"/>
-      <c r="BF38" s="61"/>
-      <c r="BG38" s="61"/>
-      <c r="BH38" s="61"/>
-      <c r="BI38" s="61"/>
-      <c r="BJ38" s="61"/>
-      <c r="BK38" s="61"/>
-      <c r="BL38" s="61"/>
-      <c r="BM38" s="61"/>
-      <c r="BN38" s="61"/>
-      <c r="BO38" s="61"/>
-      <c r="BP38" s="61"/>
-      <c r="BQ38" s="61"/>
-      <c r="BR38" s="61"/>
-      <c r="BS38" s="61"/>
-      <c r="BT38" s="61"/>
-      <c r="BU38" s="61"/>
-      <c r="BV38" s="61"/>
-      <c r="BW38" s="61"/>
-      <c r="BX38" s="61"/>
-      <c r="BY38" s="61"/>
-      <c r="BZ38" s="61"/>
-      <c r="CA38" s="61"/>
-      <c r="CB38" s="61"/>
-      <c r="CC38" s="61"/>
-      <c r="CD38" s="61"/>
-      <c r="CE38" s="61"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="90"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="90"/>
+      <c r="AF38" s="90"/>
+      <c r="AG38" s="90"/>
+      <c r="AH38" s="90"/>
+      <c r="AI38" s="90"/>
+      <c r="AJ38" s="90"/>
+      <c r="AK38" s="90"/>
+      <c r="AL38" s="90"/>
+      <c r="AM38" s="90"/>
+      <c r="AN38" s="90"/>
+      <c r="AO38" s="90"/>
+      <c r="AP38" s="90"/>
+      <c r="AQ38" s="90"/>
+      <c r="AR38" s="90"/>
+      <c r="AS38" s="90"/>
+      <c r="AT38" s="90"/>
+      <c r="AU38" s="90"/>
+      <c r="AV38" s="90"/>
+      <c r="AW38" s="90"/>
+      <c r="AX38" s="90"/>
+      <c r="AY38" s="90"/>
+      <c r="AZ38" s="90"/>
+      <c r="BA38" s="90"/>
+      <c r="BB38" s="90"/>
+      <c r="BC38" s="90"/>
+      <c r="BD38" s="90"/>
+      <c r="BE38" s="90"/>
+      <c r="BF38" s="90"/>
+      <c r="BG38" s="90"/>
+      <c r="BH38" s="90"/>
+      <c r="BI38" s="90"/>
+      <c r="BJ38" s="90"/>
+      <c r="BK38" s="90"/>
+      <c r="BL38" s="90"/>
+      <c r="BM38" s="90"/>
+      <c r="BN38" s="90"/>
+      <c r="BO38" s="90"/>
+      <c r="BP38" s="90"/>
+      <c r="BQ38" s="90"/>
+      <c r="BR38" s="90"/>
+      <c r="BS38" s="90"/>
+      <c r="BT38" s="90"/>
+      <c r="BU38" s="90"/>
+      <c r="BV38" s="90"/>
+      <c r="BW38" s="90"/>
+      <c r="BX38" s="90"/>
+      <c r="BY38" s="90"/>
+      <c r="BZ38" s="90"/>
+      <c r="CA38" s="90"/>
+      <c r="CB38" s="90"/>
+      <c r="CC38" s="90"/>
+      <c r="CD38" s="90"/>
+      <c r="CE38" s="90"/>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="73"/>
+        <v>31</v>
+      </c>
+      <c r="I42" s="51"/>
     </row>
     <row r="44" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" s="74"/>
+        <v>32</v>
+      </c>
+      <c r="I44" s="52"/>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="75"/>
+        <v>33</v>
+      </c>
+      <c r="I46" s="53"/>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="76"/>
+        <v>34</v>
+      </c>
+      <c r="I48" s="54"/>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F50" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="I50" s="107" t="s">
-        <v>31</v>
-      </c>
+      <c r="F50" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CF4:CF37"/>
-    <mergeCell ref="A38:CE38"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA37"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="D2:AQ3"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
     <mergeCell ref="AN4:AQ4"/>
@@ -5693,12 +5680,14 @@
     <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF37"/>
+    <mergeCell ref="A38:CE38"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA37"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B6:B37">
@@ -5736,6 +5725,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5948,17 +5948,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
@@ -5968,6 +5957,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5984,17 +5986,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -8,23 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6244D0BB-5D30-449E-8614-F99100DAF958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A659C-2004-4AFA-BEA1-8C7714D368F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -67,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>Tâches</t>
   </si>
@@ -232,6 +237,9 @@
   </si>
   <si>
     <t>Analyse et conception</t>
+  </si>
+  <si>
+    <t>Créer un interface utilisateur</t>
   </si>
 </sst>
 </file>
@@ -842,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1306,6 +1314,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,7 +1373,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1443,13 +1452,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>52317</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>52917</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1514,13 +1523,13 @@
     <xdr:from>
       <xdr:col>60</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>29137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>14217</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>149289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1585,13 +1594,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>83</xdr:col>
       <xdr:colOff>74729</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>52918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2003,13 +2012,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH50"/>
+  <dimension ref="A1:CH51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3373,7 +3382,9 @@
       <c r="AN13" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="AO13" s="65"/>
+      <c r="AO13" s="65" t="s">
+        <v>30</v>
+      </c>
       <c r="AP13" s="65"/>
       <c r="AQ13" s="70"/>
       <c r="AR13" s="80"/>
@@ -3467,7 +3478,9 @@
       <c r="AN14" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AO14" s="68"/>
+      <c r="AO14" s="68" t="s">
+        <v>30</v>
+      </c>
       <c r="AP14" s="68"/>
       <c r="AQ14" s="69"/>
       <c r="AR14" s="88"/>
@@ -3552,15 +3565,9 @@
       <c r="AI15" s="18"/>
       <c r="AJ15" s="74"/>
       <c r="AK15" s="75"/>
-      <c r="AL15" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM15" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN15" s="75" t="s">
-        <v>30</v>
-      </c>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
       <c r="AO15" s="77"/>
       <c r="AP15" s="17"/>
       <c r="AQ15" s="18"/>
@@ -3652,7 +3659,7 @@
       <c r="AO16" s="75"/>
       <c r="AP16" s="73"/>
       <c r="AQ16" s="78"/>
-      <c r="AR16" s="72"/>
+      <c r="AR16" s="74"/>
       <c r="AS16" s="17"/>
       <c r="AT16" s="17"/>
       <c r="AU16" s="17"/>
@@ -3783,8 +3790,8 @@
       <c r="CF17" s="89"/>
     </row>
     <row r="18" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
-        <v>40</v>
+      <c r="A18" s="123" t="s">
+        <v>46</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="15"/>
@@ -3822,28 +3829,32 @@
       <c r="AI18" s="18"/>
       <c r="AJ18" s="16"/>
       <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
+      <c r="AL18" s="79"/>
+      <c r="AM18" s="79"/>
+      <c r="AN18" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO18" s="79" t="s">
+        <v>30</v>
+      </c>
       <c r="AP18" s="17"/>
       <c r="AQ18" s="18"/>
-      <c r="AR18" s="87"/>
-      <c r="AS18" s="77"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="17"/>
       <c r="AV18" s="17"/>
       <c r="AW18" s="17"/>
       <c r="AX18" s="17"/>
       <c r="AY18" s="18"/>
-      <c r="AZ18" s="72"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="73"/>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="73"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="83"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="17"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="17"/>
+      <c r="BD18" s="17"/>
+      <c r="BE18" s="17"/>
+      <c r="BF18" s="17"/>
+      <c r="BG18" s="18"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="17"/>
       <c r="BJ18" s="17"/>
@@ -3871,8 +3882,8 @@
       <c r="CF18" s="89"/>
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
-        <v>19</v>
+      <c r="A19" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="15"/>
@@ -3916,22 +3927,22 @@
       <c r="AO19" s="17"/>
       <c r="AP19" s="17"/>
       <c r="AQ19" s="18"/>
-      <c r="AR19" s="86"/>
+      <c r="AR19" s="87"/>
       <c r="AS19" s="77"/>
-      <c r="AT19" s="75"/>
-      <c r="AU19" s="75"/>
+      <c r="AT19" s="73"/>
+      <c r="AU19" s="73"/>
       <c r="AV19" s="17"/>
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
       <c r="AY19" s="18"/>
-      <c r="AZ19" s="74"/>
-      <c r="BA19" s="75"/>
-      <c r="BB19" s="75"/>
-      <c r="BC19" s="75"/>
-      <c r="BD19" s="75"/>
-      <c r="BE19" s="75"/>
-      <c r="BF19" s="75"/>
-      <c r="BG19" s="78"/>
+      <c r="AZ19" s="72"/>
+      <c r="BA19" s="73"/>
+      <c r="BB19" s="73"/>
+      <c r="BC19" s="73"/>
+      <c r="BD19" s="73"/>
+      <c r="BE19" s="73"/>
+      <c r="BF19" s="73"/>
+      <c r="BG19" s="83"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="17"/>
@@ -3959,8 +3970,8 @@
       <c r="CF19" s="89"/>
     </row>
     <row r="20" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
-        <v>18</v>
+      <c r="A20" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="15"/>
@@ -4006,20 +4017,20 @@
       <c r="AQ20" s="18"/>
       <c r="AR20" s="86"/>
       <c r="AS20" s="77"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68"/>
+      <c r="AT20" s="75"/>
+      <c r="AU20" s="75"/>
       <c r="AV20" s="17"/>
       <c r="AW20" s="17"/>
       <c r="AX20" s="17"/>
       <c r="AY20" s="18"/>
-      <c r="AZ20" s="67"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="68"/>
-      <c r="BF20" s="68"/>
-      <c r="BG20" s="69"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="75"/>
+      <c r="BB20" s="75"/>
+      <c r="BC20" s="75"/>
+      <c r="BD20" s="75"/>
+      <c r="BE20" s="75"/>
+      <c r="BF20" s="75"/>
+      <c r="BG20" s="78"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="17"/>
       <c r="BJ20" s="17"/>
@@ -4045,13 +4056,10 @@
       <c r="CD20" s="17"/>
       <c r="CE20" s="18"/>
       <c r="CF20" s="89"/>
-      <c r="CH20" s="85" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="21" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
-        <v>17</v>
+      <c r="A21" s="63" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="15"/>
@@ -4095,22 +4103,22 @@
       <c r="AO21" s="17"/>
       <c r="AP21" s="17"/>
       <c r="AQ21" s="18"/>
-      <c r="AR21" s="87"/>
+      <c r="AR21" s="86"/>
       <c r="AS21" s="77"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
+      <c r="AT21" s="68"/>
+      <c r="AU21" s="68"/>
       <c r="AV21" s="17"/>
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
       <c r="AY21" s="18"/>
-      <c r="AZ21" s="80"/>
-      <c r="BA21" s="65"/>
-      <c r="BB21" s="65"/>
-      <c r="BC21" s="65"/>
-      <c r="BD21" s="65"/>
-      <c r="BE21" s="65"/>
-      <c r="BF21" s="65"/>
-      <c r="BG21" s="70"/>
+      <c r="AZ21" s="67"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="68"/>
+      <c r="BE21" s="68"/>
+      <c r="BF21" s="68"/>
+      <c r="BG21" s="69"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="17"/>
       <c r="BJ21" s="17"/>
@@ -4136,10 +4144,13 @@
       <c r="CD21" s="17"/>
       <c r="CE21" s="18"/>
       <c r="CF21" s="89"/>
+      <c r="CH21" s="85" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="15"/>
@@ -4183,33 +4194,33 @@
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="18"/>
-      <c r="AR22" s="16"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
+      <c r="AR22" s="87"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
       <c r="AV22" s="17"/>
       <c r="AW22" s="17"/>
       <c r="AX22" s="17"/>
       <c r="AY22" s="18"/>
-      <c r="AZ22" s="16"/>
-      <c r="BA22" s="17"/>
-      <c r="BB22" s="17"/>
-      <c r="BC22" s="81"/>
-      <c r="BD22" s="77"/>
-      <c r="BE22" s="77"/>
-      <c r="BF22" s="77"/>
-      <c r="BG22" s="82"/>
-      <c r="BH22" s="86"/>
-      <c r="BI22" s="75"/>
-      <c r="BJ22" s="75"/>
-      <c r="BK22" s="75"/>
-      <c r="BL22" s="75"/>
-      <c r="BM22" s="75"/>
-      <c r="BN22" s="75"/>
-      <c r="BO22" s="78"/>
-      <c r="BP22" s="74"/>
-      <c r="BQ22" s="75"/>
-      <c r="BR22" s="75"/>
+      <c r="AZ22" s="80"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65"/>
+      <c r="BC22" s="65"/>
+      <c r="BD22" s="65"/>
+      <c r="BE22" s="65"/>
+      <c r="BF22" s="65"/>
+      <c r="BG22" s="70"/>
+      <c r="BH22" s="16"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
+      <c r="BO22" s="18"/>
+      <c r="BP22" s="16"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
       <c r="BS22" s="17"/>
       <c r="BT22" s="17"/>
       <c r="BU22" s="17"/>
@@ -4225,9 +4236,9 @@
       <c r="CE22" s="18"/>
       <c r="CF22" s="89"/>
     </row>
-    <row r="23" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>39</v>
+    <row r="23" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="15"/>
@@ -4282,22 +4293,22 @@
       <c r="AZ23" s="16"/>
       <c r="BA23" s="17"/>
       <c r="BB23" s="17"/>
-      <c r="BC23" s="17"/>
-      <c r="BD23" s="17"/>
-      <c r="BE23" s="17"/>
-      <c r="BF23" s="17"/>
-      <c r="BG23" s="18"/>
-      <c r="BH23" s="16"/>
-      <c r="BI23" s="17"/>
-      <c r="BJ23" s="17"/>
-      <c r="BK23" s="17"/>
-      <c r="BL23" s="17"/>
-      <c r="BM23" s="17"/>
-      <c r="BN23" s="17"/>
-      <c r="BO23" s="18"/>
-      <c r="BP23" s="16"/>
-      <c r="BQ23" s="17"/>
-      <c r="BR23" s="17"/>
+      <c r="BC23" s="81"/>
+      <c r="BD23" s="77"/>
+      <c r="BE23" s="77"/>
+      <c r="BF23" s="77"/>
+      <c r="BG23" s="82"/>
+      <c r="BH23" s="86"/>
+      <c r="BI23" s="75"/>
+      <c r="BJ23" s="75"/>
+      <c r="BK23" s="75"/>
+      <c r="BL23" s="75"/>
+      <c r="BM23" s="75"/>
+      <c r="BN23" s="75"/>
+      <c r="BO23" s="78"/>
+      <c r="BP23" s="74"/>
+      <c r="BQ23" s="75"/>
+      <c r="BR23" s="75"/>
       <c r="BS23" s="17"/>
       <c r="BT23" s="17"/>
       <c r="BU23" s="17"/>
@@ -4313,9 +4324,9 @@
       <c r="CE23" s="18"/>
       <c r="CF23" s="89"/>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
-        <v>15</v>
+    <row r="24" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="15"/>
@@ -4375,17 +4386,17 @@
       <c r="BE24" s="17"/>
       <c r="BF24" s="17"/>
       <c r="BG24" s="18"/>
-      <c r="BH24" s="86"/>
-      <c r="BI24" s="68"/>
-      <c r="BJ24" s="68"/>
-      <c r="BK24" s="68"/>
+      <c r="BH24" s="16"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="17"/>
       <c r="BL24" s="17"/>
       <c r="BM24" s="17"/>
       <c r="BN24" s="17"/>
       <c r="BO24" s="18"/>
-      <c r="BP24" s="67"/>
-      <c r="BQ24" s="68"/>
-      <c r="BR24" s="68"/>
+      <c r="BP24" s="16"/>
+      <c r="BQ24" s="17"/>
+      <c r="BR24" s="17"/>
       <c r="BS24" s="17"/>
       <c r="BT24" s="17"/>
       <c r="BU24" s="17"/>
@@ -4403,7 +4414,7 @@
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="15"/>
@@ -4464,16 +4475,16 @@
       <c r="BF25" s="17"/>
       <c r="BG25" s="18"/>
       <c r="BH25" s="86"/>
-      <c r="BI25" s="65"/>
-      <c r="BJ25" s="73"/>
-      <c r="BK25" s="65"/>
+      <c r="BI25" s="68"/>
+      <c r="BJ25" s="68"/>
+      <c r="BK25" s="68"/>
       <c r="BL25" s="17"/>
       <c r="BM25" s="17"/>
       <c r="BN25" s="17"/>
       <c r="BO25" s="18"/>
-      <c r="BP25" s="72"/>
-      <c r="BQ25" s="65"/>
-      <c r="BR25" s="73"/>
+      <c r="BP25" s="67"/>
+      <c r="BQ25" s="68"/>
+      <c r="BR25" s="68"/>
       <c r="BS25" s="17"/>
       <c r="BT25" s="17"/>
       <c r="BU25" s="17"/>
@@ -4489,28 +4500,28 @@
       <c r="CE25" s="18"/>
       <c r="CF25" s="89"/>
     </row>
-    <row r="26" spans="1:86" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="34"/>
+    <row r="26" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="18"/>
       <c r="T26" s="96"/>
       <c r="U26" s="97"/>
       <c r="V26" s="97"/>
@@ -4519,86 +4530,86 @@
       <c r="Y26" s="97"/>
       <c r="Z26" s="97"/>
       <c r="AA26" s="98"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="33"/>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
-      <c r="AV26" s="31"/>
-      <c r="AW26" s="31"/>
-      <c r="AX26" s="31"/>
-      <c r="AY26" s="34"/>
-      <c r="AZ26" s="33"/>
-      <c r="BA26" s="31"/>
-      <c r="BB26" s="31"/>
-      <c r="BC26" s="31"/>
-      <c r="BD26" s="31"/>
-      <c r="BE26" s="31"/>
-      <c r="BF26" s="31"/>
-      <c r="BG26" s="34"/>
-      <c r="BH26" s="33"/>
-      <c r="BI26" s="31"/>
-      <c r="BJ26" s="31"/>
-      <c r="BK26" s="31"/>
-      <c r="BL26" s="31"/>
-      <c r="BM26" s="31"/>
-      <c r="BN26" s="31"/>
-      <c r="BO26" s="34"/>
-      <c r="BP26" s="33"/>
-      <c r="BQ26" s="31"/>
-      <c r="BR26" s="31"/>
-      <c r="BS26" s="31"/>
-      <c r="BT26" s="31"/>
-      <c r="BU26" s="31"/>
-      <c r="BV26" s="31"/>
-      <c r="BW26" s="34"/>
-      <c r="BX26" s="33"/>
-      <c r="BY26" s="31"/>
-      <c r="BZ26" s="31"/>
-      <c r="CA26" s="31"/>
-      <c r="CB26" s="31"/>
-      <c r="CC26" s="31"/>
-      <c r="CD26" s="31"/>
-      <c r="CE26" s="34"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="17"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="18"/>
+      <c r="BH26" s="86"/>
+      <c r="BI26" s="65"/>
+      <c r="BJ26" s="73"/>
+      <c r="BK26" s="65"/>
+      <c r="BL26" s="17"/>
+      <c r="BM26" s="17"/>
+      <c r="BN26" s="17"/>
+      <c r="BO26" s="18"/>
+      <c r="BP26" s="72"/>
+      <c r="BQ26" s="65"/>
+      <c r="BR26" s="73"/>
+      <c r="BS26" s="17"/>
+      <c r="BT26" s="17"/>
+      <c r="BU26" s="17"/>
+      <c r="BV26" s="17"/>
+      <c r="BW26" s="18"/>
+      <c r="BX26" s="16"/>
+      <c r="BY26" s="17"/>
+      <c r="BZ26" s="17"/>
+      <c r="CA26" s="17"/>
+      <c r="CB26" s="17"/>
+      <c r="CC26" s="17"/>
+      <c r="CD26" s="17"/>
+      <c r="CE26" s="18"/>
       <c r="CF26" s="89"/>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="116"/>
+    <row r="27" spans="1:86" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="34"/>
       <c r="T27" s="96"/>
       <c r="U27" s="97"/>
       <c r="V27" s="97"/>
@@ -4607,94 +4618,86 @@
       <c r="Y27" s="97"/>
       <c r="Z27" s="97"/>
       <c r="AA27" s="98"/>
-      <c r="AB27" s="114"/>
-      <c r="AC27" s="115"/>
-      <c r="AD27" s="115"/>
-      <c r="AE27" s="115"/>
-      <c r="AF27" s="115"/>
-      <c r="AG27" s="115"/>
-      <c r="AH27" s="115"/>
-      <c r="AI27" s="116"/>
-      <c r="AJ27" s="114"/>
-      <c r="AK27" s="115"/>
-      <c r="AL27" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM27" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN27" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO27" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP27" s="115"/>
-      <c r="AQ27" s="116"/>
-      <c r="AR27" s="114"/>
-      <c r="AS27" s="115"/>
-      <c r="AT27" s="115"/>
-      <c r="AU27" s="115"/>
-      <c r="AV27" s="115"/>
-      <c r="AW27" s="115"/>
-      <c r="AX27" s="115"/>
-      <c r="AY27" s="116"/>
-      <c r="AZ27" s="114"/>
-      <c r="BA27" s="115"/>
-      <c r="BB27" s="115"/>
-      <c r="BC27" s="115"/>
-      <c r="BD27" s="115"/>
-      <c r="BE27" s="115"/>
-      <c r="BF27" s="115"/>
-      <c r="BG27" s="116"/>
-      <c r="BH27" s="114"/>
-      <c r="BI27" s="115"/>
-      <c r="BJ27" s="115"/>
-      <c r="BK27" s="115"/>
-      <c r="BL27" s="115"/>
-      <c r="BM27" s="115"/>
-      <c r="BN27" s="115"/>
-      <c r="BO27" s="116"/>
-      <c r="BP27" s="114"/>
-      <c r="BQ27" s="115"/>
-      <c r="BR27" s="115"/>
-      <c r="BS27" s="115"/>
-      <c r="BT27" s="115"/>
-      <c r="BU27" s="115"/>
-      <c r="BV27" s="115"/>
-      <c r="BW27" s="116"/>
-      <c r="BX27" s="114"/>
-      <c r="BY27" s="115"/>
-      <c r="BZ27" s="115"/>
-      <c r="CA27" s="115"/>
-      <c r="CB27" s="115"/>
-      <c r="CC27" s="115"/>
-      <c r="CD27" s="115"/>
-      <c r="CE27" s="116"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
+      <c r="AW27" s="31"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="34"/>
+      <c r="AZ27" s="33"/>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="34"/>
+      <c r="BH27" s="33"/>
+      <c r="BI27" s="31"/>
+      <c r="BJ27" s="31"/>
+      <c r="BK27" s="31"/>
+      <c r="BL27" s="31"/>
+      <c r="BM27" s="31"/>
+      <c r="BN27" s="31"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="33"/>
+      <c r="BQ27" s="31"/>
+      <c r="BR27" s="31"/>
+      <c r="BS27" s="31"/>
+      <c r="BT27" s="31"/>
+      <c r="BU27" s="31"/>
+      <c r="BV27" s="31"/>
+      <c r="BW27" s="34"/>
+      <c r="BX27" s="33"/>
+      <c r="BY27" s="31"/>
+      <c r="BZ27" s="31"/>
+      <c r="CA27" s="31"/>
+      <c r="CB27" s="31"/>
+      <c r="CC27" s="31"/>
+      <c r="CD27" s="31"/>
+      <c r="CE27" s="34"/>
       <c r="CF27" s="89"/>
     </row>
-    <row r="28" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>26</v>
+    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="18"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="116"/>
       <c r="T28" s="96"/>
       <c r="U28" s="97"/>
       <c r="V28" s="97"/>
@@ -4703,67 +4706,75 @@
       <c r="Y28" s="97"/>
       <c r="Z28" s="97"/>
       <c r="AA28" s="98"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="16"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
-      <c r="AW28" s="17"/>
-      <c r="AX28" s="17"/>
-      <c r="AY28" s="18"/>
-      <c r="AZ28" s="16"/>
-      <c r="BA28" s="17"/>
-      <c r="BB28" s="17"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="17"/>
-      <c r="BE28" s="17"/>
-      <c r="BF28" s="17"/>
-      <c r="BG28" s="18"/>
-      <c r="BH28" s="16"/>
-      <c r="BI28" s="17"/>
-      <c r="BJ28" s="17"/>
-      <c r="BK28" s="17"/>
-      <c r="BL28" s="17"/>
-      <c r="BM28" s="17"/>
-      <c r="BN28" s="17"/>
-      <c r="BO28" s="18"/>
-      <c r="BP28" s="16"/>
-      <c r="BQ28" s="17"/>
-      <c r="BR28" s="17"/>
-      <c r="BS28" s="17"/>
-      <c r="BT28" s="17"/>
-      <c r="BU28" s="17"/>
-      <c r="BV28" s="17"/>
-      <c r="BW28" s="18"/>
-      <c r="BX28" s="16"/>
-      <c r="BY28" s="17"/>
-      <c r="BZ28" s="17"/>
-      <c r="CA28" s="17"/>
-      <c r="CB28" s="17"/>
-      <c r="CC28" s="17"/>
-      <c r="CD28" s="17"/>
-      <c r="CE28" s="18"/>
+      <c r="AB28" s="114"/>
+      <c r="AC28" s="115"/>
+      <c r="AD28" s="115"/>
+      <c r="AE28" s="115"/>
+      <c r="AF28" s="115"/>
+      <c r="AG28" s="115"/>
+      <c r="AH28" s="115"/>
+      <c r="AI28" s="116"/>
+      <c r="AJ28" s="114"/>
+      <c r="AK28" s="115"/>
+      <c r="AL28" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM28" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN28" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO28" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP28" s="115"/>
+      <c r="AQ28" s="116"/>
+      <c r="AR28" s="114"/>
+      <c r="AS28" s="115"/>
+      <c r="AT28" s="115"/>
+      <c r="AU28" s="115"/>
+      <c r="AV28" s="115"/>
+      <c r="AW28" s="115"/>
+      <c r="AX28" s="115"/>
+      <c r="AY28" s="116"/>
+      <c r="AZ28" s="114"/>
+      <c r="BA28" s="115"/>
+      <c r="BB28" s="115"/>
+      <c r="BC28" s="115"/>
+      <c r="BD28" s="115"/>
+      <c r="BE28" s="115"/>
+      <c r="BF28" s="115"/>
+      <c r="BG28" s="116"/>
+      <c r="BH28" s="114"/>
+      <c r="BI28" s="115"/>
+      <c r="BJ28" s="115"/>
+      <c r="BK28" s="115"/>
+      <c r="BL28" s="115"/>
+      <c r="BM28" s="115"/>
+      <c r="BN28" s="115"/>
+      <c r="BO28" s="116"/>
+      <c r="BP28" s="114"/>
+      <c r="BQ28" s="115"/>
+      <c r="BR28" s="115"/>
+      <c r="BS28" s="115"/>
+      <c r="BT28" s="115"/>
+      <c r="BU28" s="115"/>
+      <c r="BV28" s="115"/>
+      <c r="BW28" s="116"/>
+      <c r="BX28" s="114"/>
+      <c r="BY28" s="115"/>
+      <c r="BZ28" s="115"/>
+      <c r="CA28" s="115"/>
+      <c r="CB28" s="115"/>
+      <c r="CC28" s="115"/>
+      <c r="CD28" s="115"/>
+      <c r="CE28" s="116"/>
       <c r="CF28" s="89"/>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
-        <v>13</v>
+    <row r="29" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>26</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="15"/>
@@ -4834,11 +4845,11 @@
       <c r="BP29" s="16"/>
       <c r="BQ29" s="17"/>
       <c r="BR29" s="17"/>
-      <c r="BS29" s="117"/>
-      <c r="BT29" s="117"/>
-      <c r="BU29" s="79"/>
-      <c r="BV29" s="117"/>
-      <c r="BW29" s="118"/>
+      <c r="BS29" s="17"/>
+      <c r="BT29" s="17"/>
+      <c r="BU29" s="17"/>
+      <c r="BV29" s="17"/>
+      <c r="BW29" s="18"/>
       <c r="BX29" s="16"/>
       <c r="BY29" s="17"/>
       <c r="BZ29" s="17"/>
@@ -4851,7 +4862,7 @@
     </row>
     <row r="30" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="15"/>
@@ -4922,11 +4933,11 @@
       <c r="BP30" s="16"/>
       <c r="BQ30" s="17"/>
       <c r="BR30" s="17"/>
-      <c r="BS30" s="115"/>
-      <c r="BT30" s="115"/>
-      <c r="BU30" s="17"/>
-      <c r="BV30" s="115"/>
-      <c r="BW30" s="116"/>
+      <c r="BS30" s="117"/>
+      <c r="BT30" s="117"/>
+      <c r="BU30" s="79"/>
+      <c r="BV30" s="117"/>
+      <c r="BW30" s="118"/>
       <c r="BX30" s="16"/>
       <c r="BY30" s="17"/>
       <c r="BZ30" s="17"/>
@@ -4939,7 +4950,7 @@
     </row>
     <row r="31" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="15"/>
@@ -5026,7 +5037,9 @@
       <c r="CF31" s="89"/>
     </row>
     <row r="32" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="45" t="s">
+        <v>11</v>
+      </c>
       <c r="B32" s="25"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -5096,11 +5109,11 @@
       <c r="BP32" s="16"/>
       <c r="BQ32" s="17"/>
       <c r="BR32" s="17"/>
-      <c r="BS32" s="17"/>
-      <c r="BT32" s="17"/>
+      <c r="BS32" s="115"/>
+      <c r="BT32" s="115"/>
       <c r="BU32" s="17"/>
-      <c r="BV32" s="17"/>
-      <c r="BW32" s="18"/>
+      <c r="BV32" s="115"/>
+      <c r="BW32" s="116"/>
       <c r="BX32" s="16"/>
       <c r="BY32" s="17"/>
       <c r="BZ32" s="17"/>
@@ -5455,208 +5468,294 @@
       <c r="CE36" s="18"/>
       <c r="CF36" s="89"/>
     </row>
-    <row r="37" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="99"/>
-      <c r="U37" s="100"/>
-      <c r="V37" s="100"/>
-      <c r="W37" s="100"/>
-      <c r="X37" s="100"/>
-      <c r="Y37" s="100"/>
-      <c r="Z37" s="100"/>
-      <c r="AA37" s="101"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="23"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="22"/>
-      <c r="AT37" s="22"/>
-      <c r="AU37" s="22"/>
-      <c r="AV37" s="22"/>
-      <c r="AW37" s="22"/>
-      <c r="AX37" s="22"/>
-      <c r="AY37" s="23"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="22"/>
-      <c r="BB37" s="22"/>
-      <c r="BC37" s="22"/>
-      <c r="BD37" s="22"/>
-      <c r="BE37" s="22"/>
-      <c r="BF37" s="22"/>
-      <c r="BG37" s="23"/>
-      <c r="BH37" s="21"/>
-      <c r="BI37" s="22"/>
-      <c r="BJ37" s="22"/>
-      <c r="BK37" s="22"/>
-      <c r="BL37" s="22"/>
-      <c r="BM37" s="22"/>
-      <c r="BN37" s="22"/>
-      <c r="BO37" s="23"/>
-      <c r="BP37" s="21"/>
-      <c r="BQ37" s="22"/>
-      <c r="BR37" s="22"/>
-      <c r="BS37" s="22"/>
-      <c r="BT37" s="22"/>
-      <c r="BU37" s="22"/>
-      <c r="BV37" s="22"/>
-      <c r="BW37" s="23"/>
-      <c r="BX37" s="21"/>
-      <c r="BY37" s="22"/>
-      <c r="BZ37" s="22"/>
-      <c r="CA37" s="22"/>
-      <c r="CB37" s="22"/>
-      <c r="CC37" s="22"/>
-      <c r="CD37" s="22"/>
-      <c r="CE37" s="23"/>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="97"/>
+      <c r="V37" s="97"/>
+      <c r="W37" s="97"/>
+      <c r="X37" s="97"/>
+      <c r="Y37" s="97"/>
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="98"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="16"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="17"/>
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="18"/>
+      <c r="AZ37" s="16"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="17"/>
+      <c r="BE37" s="17"/>
+      <c r="BF37" s="17"/>
+      <c r="BG37" s="18"/>
+      <c r="BH37" s="16"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="17"/>
+      <c r="BK37" s="17"/>
+      <c r="BL37" s="17"/>
+      <c r="BM37" s="17"/>
+      <c r="BN37" s="17"/>
+      <c r="BO37" s="18"/>
+      <c r="BP37" s="16"/>
+      <c r="BQ37" s="17"/>
+      <c r="BR37" s="17"/>
+      <c r="BS37" s="17"/>
+      <c r="BT37" s="17"/>
+      <c r="BU37" s="17"/>
+      <c r="BV37" s="17"/>
+      <c r="BW37" s="18"/>
+      <c r="BX37" s="16"/>
+      <c r="BY37" s="17"/>
+      <c r="BZ37" s="17"/>
+      <c r="CA37" s="17"/>
+      <c r="CB37" s="17"/>
+      <c r="CC37" s="17"/>
+      <c r="CD37" s="17"/>
+      <c r="CE37" s="18"/>
       <c r="CF37" s="89"/>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A38" s="90" t="s">
+    <row r="38" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="99"/>
+      <c r="U38" s="100"/>
+      <c r="V38" s="100"/>
+      <c r="W38" s="100"/>
+      <c r="X38" s="100"/>
+      <c r="Y38" s="100"/>
+      <c r="Z38" s="100"/>
+      <c r="AA38" s="101"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="22"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="22"/>
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="21"/>
+      <c r="AS38" s="22"/>
+      <c r="AT38" s="22"/>
+      <c r="AU38" s="22"/>
+      <c r="AV38" s="22"/>
+      <c r="AW38" s="22"/>
+      <c r="AX38" s="22"/>
+      <c r="AY38" s="23"/>
+      <c r="AZ38" s="21"/>
+      <c r="BA38" s="22"/>
+      <c r="BB38" s="22"/>
+      <c r="BC38" s="22"/>
+      <c r="BD38" s="22"/>
+      <c r="BE38" s="22"/>
+      <c r="BF38" s="22"/>
+      <c r="BG38" s="23"/>
+      <c r="BH38" s="21"/>
+      <c r="BI38" s="22"/>
+      <c r="BJ38" s="22"/>
+      <c r="BK38" s="22"/>
+      <c r="BL38" s="22"/>
+      <c r="BM38" s="22"/>
+      <c r="BN38" s="22"/>
+      <c r="BO38" s="23"/>
+      <c r="BP38" s="21"/>
+      <c r="BQ38" s="22"/>
+      <c r="BR38" s="22"/>
+      <c r="BS38" s="22"/>
+      <c r="BT38" s="22"/>
+      <c r="BU38" s="22"/>
+      <c r="BV38" s="22"/>
+      <c r="BW38" s="23"/>
+      <c r="BX38" s="21"/>
+      <c r="BY38" s="22"/>
+      <c r="BZ38" s="22"/>
+      <c r="CA38" s="22"/>
+      <c r="CB38" s="22"/>
+      <c r="CC38" s="22"/>
+      <c r="CD38" s="22"/>
+      <c r="CE38" s="23"/>
+      <c r="CF38" s="89"/>
+    </row>
+    <row r="39" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A39" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="90"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="90"/>
-      <c r="Z38" s="90"/>
-      <c r="AA38" s="90"/>
-      <c r="AB38" s="90"/>
-      <c r="AC38" s="90"/>
-      <c r="AD38" s="90"/>
-      <c r="AE38" s="90"/>
-      <c r="AF38" s="90"/>
-      <c r="AG38" s="90"/>
-      <c r="AH38" s="90"/>
-      <c r="AI38" s="90"/>
-      <c r="AJ38" s="90"/>
-      <c r="AK38" s="90"/>
-      <c r="AL38" s="90"/>
-      <c r="AM38" s="90"/>
-      <c r="AN38" s="90"/>
-      <c r="AO38" s="90"/>
-      <c r="AP38" s="90"/>
-      <c r="AQ38" s="90"/>
-      <c r="AR38" s="90"/>
-      <c r="AS38" s="90"/>
-      <c r="AT38" s="90"/>
-      <c r="AU38" s="90"/>
-      <c r="AV38" s="90"/>
-      <c r="AW38" s="90"/>
-      <c r="AX38" s="90"/>
-      <c r="AY38" s="90"/>
-      <c r="AZ38" s="90"/>
-      <c r="BA38" s="90"/>
-      <c r="BB38" s="90"/>
-      <c r="BC38" s="90"/>
-      <c r="BD38" s="90"/>
-      <c r="BE38" s="90"/>
-      <c r="BF38" s="90"/>
-      <c r="BG38" s="90"/>
-      <c r="BH38" s="90"/>
-      <c r="BI38" s="90"/>
-      <c r="BJ38" s="90"/>
-      <c r="BK38" s="90"/>
-      <c r="BL38" s="90"/>
-      <c r="BM38" s="90"/>
-      <c r="BN38" s="90"/>
-      <c r="BO38" s="90"/>
-      <c r="BP38" s="90"/>
-      <c r="BQ38" s="90"/>
-      <c r="BR38" s="90"/>
-      <c r="BS38" s="90"/>
-      <c r="BT38" s="90"/>
-      <c r="BU38" s="90"/>
-      <c r="BV38" s="90"/>
-      <c r="BW38" s="90"/>
-      <c r="BX38" s="90"/>
-      <c r="BY38" s="90"/>
-      <c r="BZ38" s="90"/>
-      <c r="CA38" s="90"/>
-      <c r="CB38" s="90"/>
-      <c r="CC38" s="90"/>
-      <c r="CD38" s="90"/>
-      <c r="CE38" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="90"/>
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="90"/>
+      <c r="AE39" s="90"/>
+      <c r="AF39" s="90"/>
+      <c r="AG39" s="90"/>
+      <c r="AH39" s="90"/>
+      <c r="AI39" s="90"/>
+      <c r="AJ39" s="90"/>
+      <c r="AK39" s="90"/>
+      <c r="AL39" s="90"/>
+      <c r="AM39" s="90"/>
+      <c r="AN39" s="90"/>
+      <c r="AO39" s="90"/>
+      <c r="AP39" s="90"/>
+      <c r="AQ39" s="90"/>
+      <c r="AR39" s="90"/>
+      <c r="AS39" s="90"/>
+      <c r="AT39" s="90"/>
+      <c r="AU39" s="90"/>
+      <c r="AV39" s="90"/>
+      <c r="AW39" s="90"/>
+      <c r="AX39" s="90"/>
+      <c r="AY39" s="90"/>
+      <c r="AZ39" s="90"/>
+      <c r="BA39" s="90"/>
+      <c r="BB39" s="90"/>
+      <c r="BC39" s="90"/>
+      <c r="BD39" s="90"/>
+      <c r="BE39" s="90"/>
+      <c r="BF39" s="90"/>
+      <c r="BG39" s="90"/>
+      <c r="BH39" s="90"/>
+      <c r="BI39" s="90"/>
+      <c r="BJ39" s="90"/>
+      <c r="BK39" s="90"/>
+      <c r="BL39" s="90"/>
+      <c r="BM39" s="90"/>
+      <c r="BN39" s="90"/>
+      <c r="BO39" s="90"/>
+      <c r="BP39" s="90"/>
+      <c r="BQ39" s="90"/>
+      <c r="BR39" s="90"/>
+      <c r="BS39" s="90"/>
+      <c r="BT39" s="90"/>
+      <c r="BU39" s="90"/>
+      <c r="BV39" s="90"/>
+      <c r="BW39" s="90"/>
+      <c r="BX39" s="90"/>
+      <c r="BY39" s="90"/>
+      <c r="BZ39" s="90"/>
+      <c r="CA39" s="90"/>
+      <c r="CB39" s="90"/>
+      <c r="CC39" s="90"/>
+      <c r="CD39" s="90"/>
+      <c r="CE39" s="90"/>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="F42" s="2" t="s">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="F43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="51"/>
+      <c r="I43" s="51"/>
     </row>
-    <row r="44" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="F44" s="2" t="s">
+    <row r="45" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="F45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I44" s="52"/>
+      <c r="I45" s="52"/>
     </row>
-    <row r="46" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="F46" s="2" t="s">
+    <row r="47" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="F47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="53"/>
+      <c r="I47" s="53"/>
     </row>
-    <row r="48" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="F48" s="2" t="s">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="54"/>
+      <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F50" s="84" t="s">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F51" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="113"/>
+      <c r="I51" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -5680,17 +5779,17 @@
     <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CF37"/>
-    <mergeCell ref="A38:CE38"/>
+    <mergeCell ref="CF4:CF38"/>
+    <mergeCell ref="A39:CE39"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA37"/>
+    <mergeCell ref="T6:AA38"/>
     <mergeCell ref="AZ4:BC4"/>
     <mergeCell ref="BD4:BG4"/>
     <mergeCell ref="BH4:BK4"/>
     <mergeCell ref="BL4:BO4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B37">
+  <conditionalFormatting sqref="B6:B38">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>

--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306\Explorations-de-galeries-speleologiques\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A659C-2004-4AFA-BEA1-8C7714D368F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C80B6B-AFB0-4438-B8BE-A80B03CBC62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
   <si>
     <t>Tâches</t>
   </si>
@@ -249,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -365,6 +365,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -850,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1088,10 +1112,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1179,6 +1199,86 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -1231,90 +1331,70 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,8 +1554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11620500" y="8482853"/>
-          <a:ext cx="1430641" cy="433917"/>
+          <a:off x="11136966" y="8843122"/>
+          <a:ext cx="1402626" cy="449045"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2014,11 +2094,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA42" sqref="AA42"/>
+      <selection pane="bottomRight" activeCell="AV13" sqref="AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2036,11 +2116,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2086,173 +2166,173 @@
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="106"/>
-      <c r="AP2" s="106"/>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="106"/>
-      <c r="AS2" s="106"/>
-      <c r="AT2" s="106"/>
-      <c r="AU2" s="106"/>
-      <c r="AV2" s="106"/>
-      <c r="AW2" s="106"/>
-      <c r="AX2" s="106"/>
-      <c r="AY2" s="106"/>
-      <c r="AZ2" s="106"/>
-      <c r="BA2" s="106"/>
-      <c r="BB2" s="106"/>
-      <c r="BC2" s="106"/>
-      <c r="BD2" s="106"/>
-      <c r="BE2" s="106"/>
-      <c r="BF2" s="106"/>
-      <c r="BG2" s="106"/>
-      <c r="BH2" s="106"/>
-      <c r="BI2" s="106"/>
-      <c r="BJ2" s="106"/>
-      <c r="BK2" s="106"/>
-      <c r="BL2" s="106"/>
-      <c r="BM2" s="106"/>
-      <c r="BN2" s="106"/>
-      <c r="BO2" s="106"/>
-      <c r="BP2" s="106"/>
-      <c r="BQ2" s="106"/>
-      <c r="BR2" s="106"/>
-      <c r="BS2" s="106"/>
-      <c r="BT2" s="106"/>
-      <c r="BU2" s="106"/>
-      <c r="BV2" s="106"/>
-      <c r="BW2" s="106"/>
-      <c r="BX2" s="106"/>
-      <c r="BY2" s="106"/>
-      <c r="BZ2" s="106"/>
-      <c r="CA2" s="106"/>
-      <c r="CB2" s="106"/>
-      <c r="CC2" s="106"/>
-      <c r="CD2" s="106"/>
-      <c r="CE2" s="106"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="107"/>
+      <c r="BA2" s="107"/>
+      <c r="BB2" s="107"/>
+      <c r="BC2" s="107"/>
+      <c r="BD2" s="107"/>
+      <c r="BE2" s="107"/>
+      <c r="BF2" s="107"/>
+      <c r="BG2" s="107"/>
+      <c r="BH2" s="107"/>
+      <c r="BI2" s="107"/>
+      <c r="BJ2" s="107"/>
+      <c r="BK2" s="107"/>
+      <c r="BL2" s="107"/>
+      <c r="BM2" s="107"/>
+      <c r="BN2" s="107"/>
+      <c r="BO2" s="107"/>
+      <c r="BP2" s="107"/>
+      <c r="BQ2" s="107"/>
+      <c r="BR2" s="107"/>
+      <c r="BS2" s="107"/>
+      <c r="BT2" s="107"/>
+      <c r="BU2" s="107"/>
+      <c r="BV2" s="107"/>
+      <c r="BW2" s="107"/>
+      <c r="BX2" s="107"/>
+      <c r="BY2" s="107"/>
+      <c r="BZ2" s="107"/>
+      <c r="CA2" s="107"/>
+      <c r="CB2" s="107"/>
+      <c r="CC2" s="107"/>
+      <c r="CD2" s="107"/>
+      <c r="CE2" s="107"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
-      <c r="AL3" s="107"/>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="107"/>
-      <c r="AO3" s="107"/>
-      <c r="AP3" s="107"/>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="107"/>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="107"/>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="107"/>
-      <c r="AW3" s="107"/>
-      <c r="AX3" s="107"/>
-      <c r="AY3" s="107"/>
-      <c r="AZ3" s="107"/>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="107"/>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="107"/>
-      <c r="BE3" s="107"/>
-      <c r="BF3" s="107"/>
-      <c r="BG3" s="107"/>
-      <c r="BH3" s="107"/>
-      <c r="BI3" s="107"/>
-      <c r="BJ3" s="107"/>
-      <c r="BK3" s="107"/>
-      <c r="BL3" s="107"/>
-      <c r="BM3" s="107"/>
-      <c r="BN3" s="107"/>
-      <c r="BO3" s="107"/>
-      <c r="BP3" s="107"/>
-      <c r="BQ3" s="107"/>
-      <c r="BR3" s="107"/>
-      <c r="BS3" s="107"/>
-      <c r="BT3" s="107"/>
-      <c r="BU3" s="107"/>
-      <c r="BV3" s="107"/>
-      <c r="BW3" s="107"/>
-      <c r="BX3" s="107"/>
-      <c r="BY3" s="107"/>
-      <c r="BZ3" s="107"/>
-      <c r="CA3" s="107"/>
-      <c r="CB3" s="107"/>
-      <c r="CC3" s="107"/>
-      <c r="CD3" s="107"/>
-      <c r="CE3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="108"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108"/>
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="108"/>
+      <c r="BG3" s="108"/>
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="108"/>
+      <c r="BJ3" s="108"/>
+      <c r="BK3" s="108"/>
+      <c r="BL3" s="108"/>
+      <c r="BM3" s="108"/>
+      <c r="BN3" s="108"/>
+      <c r="BO3" s="108"/>
+      <c r="BP3" s="108"/>
+      <c r="BQ3" s="108"/>
+      <c r="BR3" s="108"/>
+      <c r="BS3" s="108"/>
+      <c r="BT3" s="108"/>
+      <c r="BU3" s="108"/>
+      <c r="BV3" s="108"/>
+      <c r="BW3" s="108"/>
+      <c r="BX3" s="108"/>
+      <c r="BY3" s="108"/>
+      <c r="BZ3" s="108"/>
+      <c r="CA3" s="108"/>
+      <c r="CB3" s="108"/>
+      <c r="CC3" s="108"/>
+      <c r="CD3" s="108"/>
+      <c r="CE3" s="108"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -2261,132 +2341,132 @@
       <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104">
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="103">
         <v>45992</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="102" t="s">
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="104">
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="103">
         <v>45993</v>
       </c>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="102" t="s">
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="104">
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="103">
         <v>45999</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="102" t="s">
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="104">
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="103">
         <v>46000</v>
       </c>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="102" t="s">
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="104">
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="103">
         <v>46006</v>
       </c>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="102" t="s">
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="104">
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="103">
         <v>46007</v>
       </c>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="102" t="s">
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="104">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="103">
         <v>46027</v>
       </c>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="105"/>
-      <c r="BH4" s="102" t="s">
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="103"/>
-      <c r="BK4" s="103"/>
-      <c r="BL4" s="104">
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="103">
         <v>46028</v>
       </c>
-      <c r="BM4" s="104"/>
-      <c r="BN4" s="104"/>
-      <c r="BO4" s="105"/>
-      <c r="BP4" s="102" t="s">
+      <c r="BM4" s="103"/>
+      <c r="BN4" s="103"/>
+      <c r="BO4" s="104"/>
+      <c r="BP4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="103"/>
-      <c r="BR4" s="103"/>
-      <c r="BS4" s="103"/>
-      <c r="BT4" s="104">
+      <c r="BQ4" s="106"/>
+      <c r="BR4" s="106"/>
+      <c r="BS4" s="106"/>
+      <c r="BT4" s="103">
         <v>46034</v>
       </c>
-      <c r="BU4" s="104"/>
-      <c r="BV4" s="104"/>
-      <c r="BW4" s="105"/>
-      <c r="BX4" s="102" t="s">
+      <c r="BU4" s="103"/>
+      <c r="BV4" s="103"/>
+      <c r="BW4" s="104"/>
+      <c r="BX4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="103"/>
-      <c r="BZ4" s="103"/>
-      <c r="CA4" s="103"/>
-      <c r="CB4" s="104">
+      <c r="BY4" s="106"/>
+      <c r="BZ4" s="106"/>
+      <c r="CA4" s="106"/>
+      <c r="CB4" s="103">
         <v>46035</v>
       </c>
-      <c r="CC4" s="104"/>
-      <c r="CD4" s="104"/>
-      <c r="CE4" s="105"/>
-      <c r="CF4" s="89" t="s">
+      <c r="CC4" s="103"/>
+      <c r="CD4" s="103"/>
+      <c r="CE4" s="104"/>
+      <c r="CF4" s="109" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
@@ -2633,7 +2713,7 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="89"/>
+      <c r="CF5" s="109"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -2641,22 +2721,22 @@
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="119" t="s">
+      <c r="D6" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="95" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="11"/>
@@ -2669,16 +2749,16 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="93" t="s">
+      <c r="T6" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="95"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="115"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -2735,10 +2815,10 @@
       <c r="CC6" s="11"/>
       <c r="CD6" s="11"/>
       <c r="CE6" s="12"/>
-      <c r="CF6" s="89"/>
+      <c r="CF6" s="109"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="88" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="46"/>
@@ -2749,44 +2829,44 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="96"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="98"/>
+      <c r="J7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="116"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="118"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
@@ -2843,7 +2923,7 @@
       <c r="CC7" s="11"/>
       <c r="CD7" s="11"/>
       <c r="CE7" s="12"/>
-      <c r="CF7" s="89"/>
+      <c r="CF7" s="109"/>
     </row>
     <row r="8" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
@@ -2867,14 +2947,14 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="97"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="98"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="118"/>
       <c r="AB8" s="59" t="s">
         <v>30</v>
       </c>
@@ -2891,10 +2971,10 @@
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
       <c r="AI8" s="12"/>
-      <c r="AJ8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK8" s="11" t="s">
+      <c r="AJ8" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK8" s="125" t="s">
         <v>30</v>
       </c>
       <c r="AL8" s="11"/>
@@ -2943,7 +3023,7 @@
       <c r="CC8" s="11"/>
       <c r="CD8" s="11"/>
       <c r="CE8" s="12"/>
-      <c r="CF8" s="89"/>
+      <c r="CF8" s="109"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
@@ -2967,14 +3047,14 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="98"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="118"/>
       <c r="AB9" s="61" t="s">
         <v>30</v>
       </c>
@@ -2991,10 +3071,10 @@
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
       <c r="AI9" s="12"/>
-      <c r="AJ9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK9" s="11" t="s">
+      <c r="AJ9" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="123" t="s">
         <v>30</v>
       </c>
       <c r="AL9" s="11"/>
@@ -3043,7 +3123,7 @@
       <c r="CC9" s="11"/>
       <c r="CD9" s="11"/>
       <c r="CE9" s="12"/>
-      <c r="CF9" s="89"/>
+      <c r="CF9" s="109"/>
     </row>
     <row r="10" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
@@ -3067,14 +3147,14 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="98"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="118"/>
       <c r="AB10" s="56" t="s">
         <v>30</v>
       </c>
@@ -3091,10 +3171,10 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="12"/>
-      <c r="AJ10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK10" s="11" t="s">
+      <c r="AJ10" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="127" t="s">
         <v>30</v>
       </c>
       <c r="AL10" s="11"/>
@@ -3143,7 +3223,7 @@
       <c r="CC10" s="11"/>
       <c r="CD10" s="11"/>
       <c r="CE10" s="12"/>
-      <c r="CF10" s="89"/>
+      <c r="CF10" s="109"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
@@ -3167,14 +3247,14 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="98"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="118"/>
       <c r="AB11" s="55" t="s">
         <v>30</v>
       </c>
@@ -3191,10 +3271,10 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
       <c r="AI11" s="12"/>
-      <c r="AJ11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK11" s="11" t="s">
+      <c r="AJ11" s="128" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK11" s="129" t="s">
         <v>30</v>
       </c>
       <c r="AL11" s="11"/>
@@ -3243,7 +3323,7 @@
       <c r="CC11" s="11"/>
       <c r="CD11" s="11"/>
       <c r="CE11" s="12"/>
-      <c r="CF11" s="89"/>
+      <c r="CF11" s="109"/>
     </row>
     <row r="12" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
@@ -3267,14 +3347,14 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="98"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="118"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -3331,7 +3411,7 @@
       <c r="CC12" s="17"/>
       <c r="CD12" s="17"/>
       <c r="CE12" s="18"/>
-      <c r="CF12" s="89"/>
+      <c r="CF12" s="109"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
@@ -3355,14 +3435,14 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="98"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="118"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -3373,21 +3453,17 @@
       <c r="AI13" s="18"/>
       <c r="AJ13" s="64"/>
       <c r="AK13" s="65"/>
-      <c r="AL13" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM13" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN13" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO13" s="65" t="s">
-        <v>30</v>
-      </c>
+      <c r="AL13" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM13" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
       <c r="AP13" s="65"/>
-      <c r="AQ13" s="70"/>
-      <c r="AR13" s="80"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="79"/>
       <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
       <c r="AU13" s="17"/>
@@ -3427,7 +3503,7 @@
       <c r="CC13" s="17"/>
       <c r="CD13" s="17"/>
       <c r="CE13" s="18"/>
-      <c r="CF13" s="89"/>
+      <c r="CF13" s="109"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
@@ -3451,14 +3527,14 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="98"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="118"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -3467,23 +3543,19 @@
       <c r="AG14" s="17"/>
       <c r="AH14" s="17"/>
       <c r="AI14" s="18"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="68"/>
-      <c r="AL14" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM14" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN14" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO14" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP14" s="68"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="88"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="70"/>
+      <c r="AM14" s="67"/>
+      <c r="AN14" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO14" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="87"/>
       <c r="AS14" s="17"/>
       <c r="AT14" s="17"/>
       <c r="AU14" s="17"/>
@@ -3523,7 +3595,7 @@
       <c r="CC14" s="17"/>
       <c r="CD14" s="17"/>
       <c r="CE14" s="18"/>
-      <c r="CF14" s="89"/>
+      <c r="CF14" s="109"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
@@ -3547,14 +3619,14 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="98"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="118"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
@@ -3563,12 +3635,14 @@
       <c r="AG15" s="17"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="18"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="77"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="133" t="s">
+        <v>30</v>
+      </c>
       <c r="AP15" s="17"/>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="16"/>
@@ -3611,7 +3685,7 @@
       <c r="CC15" s="17"/>
       <c r="CD15" s="17"/>
       <c r="CE15" s="18"/>
-      <c r="CF15" s="89"/>
+      <c r="CF15" s="109"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -3635,14 +3709,14 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="98"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="118"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
@@ -3656,10 +3730,12 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
-      <c r="AO16" s="75"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="73"/>
       <c r="AS16" s="17"/>
       <c r="AT16" s="17"/>
       <c r="AU16" s="17"/>
@@ -3699,7 +3775,7 @@
       <c r="CC16" s="17"/>
       <c r="CD16" s="17"/>
       <c r="CE16" s="18"/>
-      <c r="CF16" s="89"/>
+      <c r="CF16" s="109"/>
     </row>
     <row r="17" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
@@ -3723,14 +3799,14 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="98"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="118"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
@@ -3787,10 +3863,10 @@
       <c r="CC17" s="17"/>
       <c r="CD17" s="17"/>
       <c r="CE17" s="18"/>
-      <c r="CF17" s="89"/>
+      <c r="CF17" s="109"/>
     </row>
     <row r="18" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="99" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="25"/>
@@ -3811,14 +3887,14 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="98"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="118"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
@@ -3829,17 +3905,25 @@
       <c r="AI18" s="18"/>
       <c r="AJ18" s="16"/>
       <c r="AK18" s="17"/>
-      <c r="AL18" s="79"/>
-      <c r="AM18" s="79"/>
-      <c r="AN18" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO18" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="72"/>
+      <c r="AL18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR18" s="71"/>
       <c r="AS18" s="17"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="17"/>
@@ -3879,7 +3963,7 @@
       <c r="CC18" s="17"/>
       <c r="CD18" s="17"/>
       <c r="CE18" s="18"/>
-      <c r="CF18" s="89"/>
+      <c r="CF18" s="109"/>
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
@@ -3903,14 +3987,14 @@
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="98"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="118"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
@@ -3921,28 +4005,40 @@
       <c r="AI19" s="18"/>
       <c r="AJ19" s="16"/>
       <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="77"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
+      <c r="AL19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR19" s="86"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
       <c r="AV19" s="17"/>
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
       <c r="AY19" s="18"/>
-      <c r="AZ19" s="72"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
-      <c r="BC19" s="73"/>
-      <c r="BD19" s="73"/>
-      <c r="BE19" s="73"/>
-      <c r="BF19" s="73"/>
-      <c r="BG19" s="83"/>
+      <c r="AZ19" s="71"/>
+      <c r="BA19" s="72"/>
+      <c r="BB19" s="72"/>
+      <c r="BC19" s="72"/>
+      <c r="BD19" s="72"/>
+      <c r="BE19" s="72"/>
+      <c r="BF19" s="72"/>
+      <c r="BG19" s="82"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="17"/>
@@ -3967,7 +4063,7 @@
       <c r="CC19" s="17"/>
       <c r="CD19" s="17"/>
       <c r="CE19" s="18"/>
-      <c r="CF19" s="89"/>
+      <c r="CF19" s="109"/>
     </row>
     <row r="20" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
@@ -3991,14 +4087,14 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="98"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="118"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
@@ -4015,22 +4111,22 @@
       <c r="AO20" s="17"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="18"/>
-      <c r="AR20" s="86"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="75"/>
-      <c r="AU20" s="75"/>
+      <c r="AR20" s="85"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
       <c r="AV20" s="17"/>
       <c r="AW20" s="17"/>
       <c r="AX20" s="17"/>
       <c r="AY20" s="18"/>
-      <c r="AZ20" s="74"/>
-      <c r="BA20" s="75"/>
-      <c r="BB20" s="75"/>
-      <c r="BC20" s="75"/>
-      <c r="BD20" s="75"/>
-      <c r="BE20" s="75"/>
-      <c r="BF20" s="75"/>
-      <c r="BG20" s="78"/>
+      <c r="AZ20" s="73"/>
+      <c r="BA20" s="74"/>
+      <c r="BB20" s="74"/>
+      <c r="BC20" s="74"/>
+      <c r="BD20" s="74"/>
+      <c r="BE20" s="74"/>
+      <c r="BF20" s="74"/>
+      <c r="BG20" s="77"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="17"/>
       <c r="BJ20" s="17"/>
@@ -4055,7 +4151,7 @@
       <c r="CC20" s="17"/>
       <c r="CD20" s="17"/>
       <c r="CE20" s="18"/>
-      <c r="CF20" s="89"/>
+      <c r="CF20" s="109"/>
     </row>
     <row r="21" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
@@ -4079,14 +4175,14 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="98"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="118"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
@@ -4103,22 +4199,22 @@
       <c r="AO21" s="17"/>
       <c r="AP21" s="17"/>
       <c r="AQ21" s="18"/>
-      <c r="AR21" s="86"/>
-      <c r="AS21" s="77"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
+      <c r="AR21" s="85"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="67"/>
+      <c r="AU21" s="67"/>
       <c r="AV21" s="17"/>
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
       <c r="AY21" s="18"/>
-      <c r="AZ21" s="67"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="69"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="67"/>
+      <c r="BB21" s="67"/>
+      <c r="BC21" s="67"/>
+      <c r="BD21" s="67"/>
+      <c r="BE21" s="67"/>
+      <c r="BF21" s="67"/>
+      <c r="BG21" s="68"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="17"/>
       <c r="BJ21" s="17"/>
@@ -4143,8 +4239,8 @@
       <c r="CC21" s="17"/>
       <c r="CD21" s="17"/>
       <c r="CE21" s="18"/>
-      <c r="CF21" s="89"/>
-      <c r="CH21" s="85" t="s">
+      <c r="CF21" s="109"/>
+      <c r="CH21" s="84" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4170,14 +4266,14 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="98"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="118"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
@@ -4194,22 +4290,22 @@
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="18"/>
-      <c r="AR22" s="87"/>
-      <c r="AS22" s="77"/>
+      <c r="AR22" s="86"/>
+      <c r="AS22" s="76"/>
       <c r="AT22" s="65"/>
       <c r="AU22" s="65"/>
       <c r="AV22" s="17"/>
       <c r="AW22" s="17"/>
       <c r="AX22" s="17"/>
       <c r="AY22" s="18"/>
-      <c r="AZ22" s="80"/>
+      <c r="AZ22" s="79"/>
       <c r="BA22" s="65"/>
       <c r="BB22" s="65"/>
       <c r="BC22" s="65"/>
       <c r="BD22" s="65"/>
       <c r="BE22" s="65"/>
       <c r="BF22" s="65"/>
-      <c r="BG22" s="70"/>
+      <c r="BG22" s="69"/>
       <c r="BH22" s="16"/>
       <c r="BI22" s="17"/>
       <c r="BJ22" s="17"/>
@@ -4234,7 +4330,7 @@
       <c r="CC22" s="17"/>
       <c r="CD22" s="17"/>
       <c r="CE22" s="18"/>
-      <c r="CF22" s="89"/>
+      <c r="CF22" s="109"/>
     </row>
     <row r="23" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A23" s="43" t="s">
@@ -4258,14 +4354,14 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="98"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="118"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
@@ -4293,22 +4389,22 @@
       <c r="AZ23" s="16"/>
       <c r="BA23" s="17"/>
       <c r="BB23" s="17"/>
-      <c r="BC23" s="81"/>
-      <c r="BD23" s="77"/>
-      <c r="BE23" s="77"/>
-      <c r="BF23" s="77"/>
-      <c r="BG23" s="82"/>
-      <c r="BH23" s="86"/>
-      <c r="BI23" s="75"/>
-      <c r="BJ23" s="75"/>
-      <c r="BK23" s="75"/>
-      <c r="BL23" s="75"/>
-      <c r="BM23" s="75"/>
-      <c r="BN23" s="75"/>
-      <c r="BO23" s="78"/>
-      <c r="BP23" s="74"/>
-      <c r="BQ23" s="75"/>
-      <c r="BR23" s="75"/>
+      <c r="BC23" s="80"/>
+      <c r="BD23" s="76"/>
+      <c r="BE23" s="76"/>
+      <c r="BF23" s="76"/>
+      <c r="BG23" s="81"/>
+      <c r="BH23" s="85"/>
+      <c r="BI23" s="74"/>
+      <c r="BJ23" s="74"/>
+      <c r="BK23" s="74"/>
+      <c r="BL23" s="74"/>
+      <c r="BM23" s="74"/>
+      <c r="BN23" s="74"/>
+      <c r="BO23" s="77"/>
+      <c r="BP23" s="73"/>
+      <c r="BQ23" s="74"/>
+      <c r="BR23" s="74"/>
       <c r="BS23" s="17"/>
       <c r="BT23" s="17"/>
       <c r="BU23" s="17"/>
@@ -4322,7 +4418,7 @@
       <c r="CC23" s="17"/>
       <c r="CD23" s="17"/>
       <c r="CE23" s="18"/>
-      <c r="CF23" s="89"/>
+      <c r="CF23" s="109"/>
     </row>
     <row r="24" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
@@ -4346,14 +4442,14 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="98"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="118"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
@@ -4410,7 +4506,7 @@
       <c r="CC24" s="17"/>
       <c r="CD24" s="17"/>
       <c r="CE24" s="18"/>
-      <c r="CF24" s="89"/>
+      <c r="CF24" s="109"/>
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
@@ -4434,14 +4530,14 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="98"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="118"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
@@ -4474,17 +4570,17 @@
       <c r="BE25" s="17"/>
       <c r="BF25" s="17"/>
       <c r="BG25" s="18"/>
-      <c r="BH25" s="86"/>
-      <c r="BI25" s="68"/>
-      <c r="BJ25" s="68"/>
-      <c r="BK25" s="68"/>
+      <c r="BH25" s="85"/>
+      <c r="BI25" s="67"/>
+      <c r="BJ25" s="67"/>
+      <c r="BK25" s="67"/>
       <c r="BL25" s="17"/>
       <c r="BM25" s="17"/>
       <c r="BN25" s="17"/>
       <c r="BO25" s="18"/>
-      <c r="BP25" s="67"/>
-      <c r="BQ25" s="68"/>
-      <c r="BR25" s="68"/>
+      <c r="BP25" s="66"/>
+      <c r="BQ25" s="67"/>
+      <c r="BR25" s="67"/>
       <c r="BS25" s="17"/>
       <c r="BT25" s="17"/>
       <c r="BU25" s="17"/>
@@ -4498,7 +4594,7 @@
       <c r="CC25" s="17"/>
       <c r="CD25" s="17"/>
       <c r="CE25" s="18"/>
-      <c r="CF25" s="89"/>
+      <c r="CF25" s="109"/>
     </row>
     <row r="26" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
@@ -4522,14 +4618,14 @@
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="18"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="98"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="118"/>
       <c r="AB26" s="16"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
@@ -4562,17 +4658,17 @@
       <c r="BE26" s="17"/>
       <c r="BF26" s="17"/>
       <c r="BG26" s="18"/>
-      <c r="BH26" s="86"/>
+      <c r="BH26" s="85"/>
       <c r="BI26" s="65"/>
-      <c r="BJ26" s="73"/>
+      <c r="BJ26" s="72"/>
       <c r="BK26" s="65"/>
       <c r="BL26" s="17"/>
       <c r="BM26" s="17"/>
       <c r="BN26" s="17"/>
       <c r="BO26" s="18"/>
-      <c r="BP26" s="72"/>
+      <c r="BP26" s="71"/>
       <c r="BQ26" s="65"/>
-      <c r="BR26" s="73"/>
+      <c r="BR26" s="72"/>
       <c r="BS26" s="17"/>
       <c r="BT26" s="17"/>
       <c r="BU26" s="17"/>
@@ -4586,7 +4682,7 @@
       <c r="CC26" s="17"/>
       <c r="CD26" s="17"/>
       <c r="CE26" s="18"/>
-      <c r="CF26" s="89"/>
+      <c r="CF26" s="109"/>
     </row>
     <row r="27" spans="1:86" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
@@ -4610,14 +4706,14 @@
       <c r="Q27" s="31"/>
       <c r="R27" s="31"/>
       <c r="S27" s="34"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="98"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="117"/>
+      <c r="AA27" s="118"/>
       <c r="AB27" s="33"/>
       <c r="AC27" s="31"/>
       <c r="AD27" s="31"/>
@@ -4674,7 +4770,7 @@
       <c r="CC27" s="31"/>
       <c r="CD27" s="31"/>
       <c r="CE27" s="34"/>
-      <c r="CF27" s="89"/>
+      <c r="CF27" s="109"/>
     </row>
     <row r="28" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
@@ -4682,95 +4778,99 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="115"/>
-      <c r="S28" s="116"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="114"/>
-      <c r="AC28" s="115"/>
-      <c r="AD28" s="115"/>
-      <c r="AE28" s="115"/>
-      <c r="AF28" s="115"/>
-      <c r="AG28" s="115"/>
-      <c r="AH28" s="115"/>
-      <c r="AI28" s="116"/>
-      <c r="AJ28" s="114"/>
-      <c r="AK28" s="115"/>
-      <c r="AL28" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM28" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN28" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO28" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP28" s="115"/>
-      <c r="AQ28" s="116"/>
-      <c r="AR28" s="114"/>
-      <c r="AS28" s="115"/>
-      <c r="AT28" s="115"/>
-      <c r="AU28" s="115"/>
-      <c r="AV28" s="115"/>
-      <c r="AW28" s="115"/>
-      <c r="AX28" s="115"/>
-      <c r="AY28" s="116"/>
-      <c r="AZ28" s="114"/>
-      <c r="BA28" s="115"/>
-      <c r="BB28" s="115"/>
-      <c r="BC28" s="115"/>
-      <c r="BD28" s="115"/>
-      <c r="BE28" s="115"/>
-      <c r="BF28" s="115"/>
-      <c r="BG28" s="116"/>
-      <c r="BH28" s="114"/>
-      <c r="BI28" s="115"/>
-      <c r="BJ28" s="115"/>
-      <c r="BK28" s="115"/>
-      <c r="BL28" s="115"/>
-      <c r="BM28" s="115"/>
-      <c r="BN28" s="115"/>
-      <c r="BO28" s="116"/>
-      <c r="BP28" s="114"/>
-      <c r="BQ28" s="115"/>
-      <c r="BR28" s="115"/>
-      <c r="BS28" s="115"/>
-      <c r="BT28" s="115"/>
-      <c r="BU28" s="115"/>
-      <c r="BV28" s="115"/>
-      <c r="BW28" s="116"/>
-      <c r="BX28" s="114"/>
-      <c r="BY28" s="115"/>
-      <c r="BZ28" s="115"/>
-      <c r="CA28" s="115"/>
-      <c r="CB28" s="115"/>
-      <c r="CC28" s="115"/>
-      <c r="CD28" s="115"/>
-      <c r="CE28" s="116"/>
-      <c r="CF28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="91"/>
+      <c r="AD28" s="91"/>
+      <c r="AE28" s="91"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="91"/>
+      <c r="AH28" s="91"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="90"/>
+      <c r="AK28" s="91"/>
+      <c r="AL28" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM28" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN28" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO28" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP28" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ28" s="135" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="91"/>
+      <c r="AU28" s="91"/>
+      <c r="AV28" s="91"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="91"/>
+      <c r="AY28" s="92"/>
+      <c r="AZ28" s="90"/>
+      <c r="BA28" s="91"/>
+      <c r="BB28" s="91"/>
+      <c r="BC28" s="91"/>
+      <c r="BD28" s="91"/>
+      <c r="BE28" s="91"/>
+      <c r="BF28" s="91"/>
+      <c r="BG28" s="92"/>
+      <c r="BH28" s="90"/>
+      <c r="BI28" s="91"/>
+      <c r="BJ28" s="91"/>
+      <c r="BK28" s="91"/>
+      <c r="BL28" s="91"/>
+      <c r="BM28" s="91"/>
+      <c r="BN28" s="91"/>
+      <c r="BO28" s="92"/>
+      <c r="BP28" s="90"/>
+      <c r="BQ28" s="91"/>
+      <c r="BR28" s="91"/>
+      <c r="BS28" s="91"/>
+      <c r="BT28" s="91"/>
+      <c r="BU28" s="91"/>
+      <c r="BV28" s="91"/>
+      <c r="BW28" s="92"/>
+      <c r="BX28" s="90"/>
+      <c r="BY28" s="91"/>
+      <c r="BZ28" s="91"/>
+      <c r="CA28" s="91"/>
+      <c r="CB28" s="91"/>
+      <c r="CC28" s="91"/>
+      <c r="CD28" s="91"/>
+      <c r="CE28" s="92"/>
+      <c r="CF28" s="109"/>
     </row>
     <row r="29" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
@@ -4794,14 +4894,14 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="97"/>
-      <c r="AA29" s="98"/>
+      <c r="T29" s="116"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="118"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
@@ -4858,7 +4958,7 @@
       <c r="CC29" s="17"/>
       <c r="CD29" s="17"/>
       <c r="CE29" s="18"/>
-      <c r="CF29" s="89"/>
+      <c r="CF29" s="109"/>
     </row>
     <row r="30" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
@@ -4882,14 +4982,14 @@
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="97"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="97"/>
-      <c r="AA30" s="98"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="118"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
@@ -4933,11 +5033,11 @@
       <c r="BP30" s="16"/>
       <c r="BQ30" s="17"/>
       <c r="BR30" s="17"/>
-      <c r="BS30" s="117"/>
-      <c r="BT30" s="117"/>
-      <c r="BU30" s="79"/>
-      <c r="BV30" s="117"/>
-      <c r="BW30" s="118"/>
+      <c r="BS30" s="93"/>
+      <c r="BT30" s="93"/>
+      <c r="BU30" s="78"/>
+      <c r="BV30" s="93"/>
+      <c r="BW30" s="94"/>
       <c r="BX30" s="16"/>
       <c r="BY30" s="17"/>
       <c r="BZ30" s="17"/>
@@ -4946,7 +5046,7 @@
       <c r="CC30" s="17"/>
       <c r="CD30" s="17"/>
       <c r="CE30" s="18"/>
-      <c r="CF30" s="89"/>
+      <c r="CF30" s="109"/>
     </row>
     <row r="31" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
@@ -4970,14 +5070,14 @@
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="97"/>
-      <c r="V31" s="97"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="97"/>
-      <c r="Y31" s="97"/>
-      <c r="Z31" s="97"/>
-      <c r="AA31" s="98"/>
+      <c r="T31" s="116"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="118"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
@@ -5021,11 +5121,11 @@
       <c r="BP31" s="16"/>
       <c r="BQ31" s="17"/>
       <c r="BR31" s="17"/>
-      <c r="BS31" s="115"/>
-      <c r="BT31" s="115"/>
+      <c r="BS31" s="91"/>
+      <c r="BT31" s="91"/>
       <c r="BU31" s="17"/>
-      <c r="BV31" s="115"/>
-      <c r="BW31" s="116"/>
+      <c r="BV31" s="91"/>
+      <c r="BW31" s="92"/>
       <c r="BX31" s="16"/>
       <c r="BY31" s="17"/>
       <c r="BZ31" s="17"/>
@@ -5034,7 +5134,7 @@
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
       <c r="CE31" s="18"/>
-      <c r="CF31" s="89"/>
+      <c r="CF31" s="109"/>
     </row>
     <row r="32" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
@@ -5058,14 +5158,14 @@
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="97"/>
-      <c r="V32" s="97"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="97"/>
-      <c r="Y32" s="97"/>
-      <c r="Z32" s="97"/>
-      <c r="AA32" s="98"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="118"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
@@ -5109,11 +5209,11 @@
       <c r="BP32" s="16"/>
       <c r="BQ32" s="17"/>
       <c r="BR32" s="17"/>
-      <c r="BS32" s="115"/>
-      <c r="BT32" s="115"/>
+      <c r="BS32" s="91"/>
+      <c r="BT32" s="91"/>
       <c r="BU32" s="17"/>
-      <c r="BV32" s="115"/>
-      <c r="BW32" s="116"/>
+      <c r="BV32" s="91"/>
+      <c r="BW32" s="92"/>
       <c r="BX32" s="16"/>
       <c r="BY32" s="17"/>
       <c r="BZ32" s="17"/>
@@ -5122,7 +5222,7 @@
       <c r="CC32" s="17"/>
       <c r="CD32" s="17"/>
       <c r="CE32" s="18"/>
-      <c r="CF32" s="89"/>
+      <c r="CF32" s="109"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
@@ -5144,14 +5244,14 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="97"/>
-      <c r="V33" s="97"/>
-      <c r="W33" s="97"/>
-      <c r="X33" s="97"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="98"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="118"/>
       <c r="AB33" s="16"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
@@ -5208,7 +5308,7 @@
       <c r="CC33" s="17"/>
       <c r="CD33" s="17"/>
       <c r="CE33" s="18"/>
-      <c r="CF33" s="89"/>
+      <c r="CF33" s="109"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
@@ -5230,14 +5330,14 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="97"/>
-      <c r="W34" s="97"/>
-      <c r="X34" s="97"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="98"/>
+      <c r="T34" s="116"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="117"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="118"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
@@ -5294,7 +5394,7 @@
       <c r="CC34" s="17"/>
       <c r="CD34" s="17"/>
       <c r="CE34" s="18"/>
-      <c r="CF34" s="89"/>
+      <c r="CF34" s="109"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
@@ -5316,14 +5416,14 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="97"/>
-      <c r="V35" s="97"/>
-      <c r="W35" s="97"/>
-      <c r="X35" s="97"/>
-      <c r="Y35" s="97"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="98"/>
+      <c r="T35" s="116"/>
+      <c r="U35" s="117"/>
+      <c r="V35" s="117"/>
+      <c r="W35" s="117"/>
+      <c r="X35" s="117"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="117"/>
+      <c r="AA35" s="118"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
@@ -5380,7 +5480,7 @@
       <c r="CC35" s="17"/>
       <c r="CD35" s="17"/>
       <c r="CE35" s="18"/>
-      <c r="CF35" s="89"/>
+      <c r="CF35" s="109"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
@@ -5402,14 +5502,14 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="97"/>
-      <c r="V36" s="97"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="98"/>
+      <c r="T36" s="116"/>
+      <c r="U36" s="117"/>
+      <c r="V36" s="117"/>
+      <c r="W36" s="117"/>
+      <c r="X36" s="117"/>
+      <c r="Y36" s="117"/>
+      <c r="Z36" s="117"/>
+      <c r="AA36" s="118"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
@@ -5466,7 +5566,7 @@
       <c r="CC36" s="17"/>
       <c r="CD36" s="17"/>
       <c r="CE36" s="18"/>
-      <c r="CF36" s="89"/>
+      <c r="CF36" s="109"/>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
@@ -5488,14 +5588,14 @@
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
       <c r="S37" s="18"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="97"/>
-      <c r="V37" s="97"/>
-      <c r="W37" s="97"/>
-      <c r="X37" s="97"/>
-      <c r="Y37" s="97"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="98"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="117"/>
+      <c r="W37" s="117"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="117"/>
+      <c r="AA37" s="118"/>
       <c r="AB37" s="16"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
@@ -5552,7 +5652,7 @@
       <c r="CC37" s="17"/>
       <c r="CD37" s="17"/>
       <c r="CE37" s="18"/>
-      <c r="CF37" s="89"/>
+      <c r="CF37" s="109"/>
     </row>
     <row r="38" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
@@ -5574,14 +5674,14 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="23"/>
-      <c r="T38" s="99"/>
-      <c r="U38" s="100"/>
-      <c r="V38" s="100"/>
-      <c r="W38" s="100"/>
-      <c r="X38" s="100"/>
-      <c r="Y38" s="100"/>
-      <c r="Z38" s="100"/>
-      <c r="AA38" s="101"/>
+      <c r="T38" s="119"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="120"/>
+      <c r="W38" s="120"/>
+      <c r="X38" s="120"/>
+      <c r="Y38" s="120"/>
+      <c r="Z38" s="120"/>
+      <c r="AA38" s="121"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="22"/>
       <c r="AD38" s="22"/>
@@ -5638,94 +5738,94 @@
       <c r="CC38" s="22"/>
       <c r="CD38" s="22"/>
       <c r="CE38" s="23"/>
-      <c r="CF38" s="89"/>
+      <c r="CF38" s="109"/>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="90"/>
-      <c r="V39" s="90"/>
-      <c r="W39" s="90"/>
-      <c r="X39" s="90"/>
-      <c r="Y39" s="90"/>
-      <c r="Z39" s="90"/>
-      <c r="AA39" s="90"/>
-      <c r="AB39" s="90"/>
-      <c r="AC39" s="90"/>
-      <c r="AD39" s="90"/>
-      <c r="AE39" s="90"/>
-      <c r="AF39" s="90"/>
-      <c r="AG39" s="90"/>
-      <c r="AH39" s="90"/>
-      <c r="AI39" s="90"/>
-      <c r="AJ39" s="90"/>
-      <c r="AK39" s="90"/>
-      <c r="AL39" s="90"/>
-      <c r="AM39" s="90"/>
-      <c r="AN39" s="90"/>
-      <c r="AO39" s="90"/>
-      <c r="AP39" s="90"/>
-      <c r="AQ39" s="90"/>
-      <c r="AR39" s="90"/>
-      <c r="AS39" s="90"/>
-      <c r="AT39" s="90"/>
-      <c r="AU39" s="90"/>
-      <c r="AV39" s="90"/>
-      <c r="AW39" s="90"/>
-      <c r="AX39" s="90"/>
-      <c r="AY39" s="90"/>
-      <c r="AZ39" s="90"/>
-      <c r="BA39" s="90"/>
-      <c r="BB39" s="90"/>
-      <c r="BC39" s="90"/>
-      <c r="BD39" s="90"/>
-      <c r="BE39" s="90"/>
-      <c r="BF39" s="90"/>
-      <c r="BG39" s="90"/>
-      <c r="BH39" s="90"/>
-      <c r="BI39" s="90"/>
-      <c r="BJ39" s="90"/>
-      <c r="BK39" s="90"/>
-      <c r="BL39" s="90"/>
-      <c r="BM39" s="90"/>
-      <c r="BN39" s="90"/>
-      <c r="BO39" s="90"/>
-      <c r="BP39" s="90"/>
-      <c r="BQ39" s="90"/>
-      <c r="BR39" s="90"/>
-      <c r="BS39" s="90"/>
-      <c r="BT39" s="90"/>
-      <c r="BU39" s="90"/>
-      <c r="BV39" s="90"/>
-      <c r="BW39" s="90"/>
-      <c r="BX39" s="90"/>
-      <c r="BY39" s="90"/>
-      <c r="BZ39" s="90"/>
-      <c r="CA39" s="90"/>
-      <c r="CB39" s="90"/>
-      <c r="CC39" s="90"/>
-      <c r="CD39" s="90"/>
-      <c r="CE39" s="90"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="110"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110"/>
+      <c r="S39" s="110"/>
+      <c r="T39" s="110"/>
+      <c r="U39" s="110"/>
+      <c r="V39" s="110"/>
+      <c r="W39" s="110"/>
+      <c r="X39" s="110"/>
+      <c r="Y39" s="110"/>
+      <c r="Z39" s="110"/>
+      <c r="AA39" s="110"/>
+      <c r="AB39" s="110"/>
+      <c r="AC39" s="110"/>
+      <c r="AD39" s="110"/>
+      <c r="AE39" s="110"/>
+      <c r="AF39" s="110"/>
+      <c r="AG39" s="110"/>
+      <c r="AH39" s="110"/>
+      <c r="AI39" s="110"/>
+      <c r="AJ39" s="110"/>
+      <c r="AK39" s="110"/>
+      <c r="AL39" s="110"/>
+      <c r="AM39" s="110"/>
+      <c r="AN39" s="110"/>
+      <c r="AO39" s="110"/>
+      <c r="AP39" s="110"/>
+      <c r="AQ39" s="110"/>
+      <c r="AR39" s="110"/>
+      <c r="AS39" s="110"/>
+      <c r="AT39" s="110"/>
+      <c r="AU39" s="110"/>
+      <c r="AV39" s="110"/>
+      <c r="AW39" s="110"/>
+      <c r="AX39" s="110"/>
+      <c r="AY39" s="110"/>
+      <c r="AZ39" s="110"/>
+      <c r="BA39" s="110"/>
+      <c r="BB39" s="110"/>
+      <c r="BC39" s="110"/>
+      <c r="BD39" s="110"/>
+      <c r="BE39" s="110"/>
+      <c r="BF39" s="110"/>
+      <c r="BG39" s="110"/>
+      <c r="BH39" s="110"/>
+      <c r="BI39" s="110"/>
+      <c r="BJ39" s="110"/>
+      <c r="BK39" s="110"/>
+      <c r="BL39" s="110"/>
+      <c r="BM39" s="110"/>
+      <c r="BN39" s="110"/>
+      <c r="BO39" s="110"/>
+      <c r="BP39" s="110"/>
+      <c r="BQ39" s="110"/>
+      <c r="BR39" s="110"/>
+      <c r="BS39" s="110"/>
+      <c r="BT39" s="110"/>
+      <c r="BU39" s="110"/>
+      <c r="BV39" s="110"/>
+      <c r="BW39" s="110"/>
+      <c r="BX39" s="110"/>
+      <c r="BY39" s="110"/>
+      <c r="BZ39" s="110"/>
+      <c r="CA39" s="110"/>
+      <c r="CB39" s="110"/>
+      <c r="CC39" s="110"/>
+      <c r="CD39" s="110"/>
+      <c r="CE39" s="110"/>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.2">
       <c r="F43" s="2" t="s">
@@ -5752,19 +5852,21 @@
       <c r="I49" s="54"/>
     </row>
     <row r="51" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F51" s="84" t="s">
+      <c r="F51" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="113"/>
+      <c r="I51" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF38"/>
+    <mergeCell ref="A39:CE39"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA38"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
     <mergeCell ref="AN4:AQ4"/>
@@ -5779,14 +5881,12 @@
     <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CF38"/>
-    <mergeCell ref="A39:CE39"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA38"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="D2:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B6:B38">
@@ -5815,26 +5915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -6047,10 +6127,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6069,20 +6180,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/cyril_hohl_studentfr_ch/Documents/EMF/CFC/Modules/3ème année/Module 306/Explorations-de-galeries-speleologiques/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="13_ncr:1_{14C2DADA-F04E-BA42-AC8A-BD8CE0569CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836FE182-1105-4BE6-B04F-E4B82CF3122D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C80B6B-AFB0-4438-B8BE-A80B03CBC62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -67,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
   <si>
     <t>Tâches</t>
   </si>
@@ -133,9 +138,6 @@
   </si>
   <si>
     <t>Programmer bouton B pour arrêt d'urgence</t>
-  </si>
-  <si>
-    <t>Programmer bouton A pour éclairage LED</t>
   </si>
   <si>
     <t>Programmer joystick droit (vitesse + progressif)</t>
@@ -230,6 +232,15 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Lancement du module</t>
+  </si>
+  <si>
+    <t>Analyse et conception</t>
+  </si>
+  <si>
+    <t>Créer un interface utilisateur</t>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -354,8 +365,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +463,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA8EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -833,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1012,6 +1053,196 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1100,161 +1331,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1288,6 +1425,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFAA8EA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1311,7 +1453,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1390,13 +1532,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>52317</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>52917</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1412,8 +1554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11620500" y="8482853"/>
-          <a:ext cx="1430641" cy="433917"/>
+          <a:off x="11136966" y="8843122"/>
+          <a:ext cx="1402626" cy="449045"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1461,13 +1603,13 @@
     <xdr:from>
       <xdr:col>60</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>29137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>14217</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>149289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1490,8 +1632,8 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 18750"/>
             <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val -1032220"/>
-            <a:gd name="adj4" fmla="val -11842"/>
+            <a:gd name="adj3" fmla="val -1039968"/>
+            <a:gd name="adj4" fmla="val -6359"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1532,13 +1674,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>83</xdr:col>
       <xdr:colOff>74729</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>52918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1600,10 +1742,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1954,13 +2092,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH50"/>
+  <dimension ref="A1:CH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AO16" sqref="AO16:AR16"/>
+      <selection pane="bottomRight" activeCell="AV13" sqref="AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1968,9 +2106,9 @@
     <col min="1" max="1" width="63" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="2.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="2" customWidth="1"/>
     <col min="7" max="83" width="2.140625" style="2" customWidth="1"/>
     <col min="84" max="84" width="3.140625" style="3" customWidth="1"/>
     <col min="85" max="297" width="9.140625" style="3" customWidth="1"/>
@@ -1978,11 +2116,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="A1" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2026,175 +2164,175 @@
     </row>
     <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="58"/>
-      <c r="BM2" s="58"/>
-      <c r="BN2" s="58"/>
-      <c r="BO2" s="58"/>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="58"/>
-      <c r="BR2" s="58"/>
-      <c r="BS2" s="58"/>
-      <c r="BT2" s="58"/>
-      <c r="BU2" s="58"/>
-      <c r="BV2" s="58"/>
-      <c r="BW2" s="58"/>
-      <c r="BX2" s="58"/>
-      <c r="BY2" s="58"/>
-      <c r="BZ2" s="58"/>
-      <c r="CA2" s="58"/>
-      <c r="CB2" s="58"/>
-      <c r="CC2" s="58"/>
-      <c r="CD2" s="58"/>
-      <c r="CE2" s="58"/>
+        <v>25</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="107"/>
+      <c r="BA2" s="107"/>
+      <c r="BB2" s="107"/>
+      <c r="BC2" s="107"/>
+      <c r="BD2" s="107"/>
+      <c r="BE2" s="107"/>
+      <c r="BF2" s="107"/>
+      <c r="BG2" s="107"/>
+      <c r="BH2" s="107"/>
+      <c r="BI2" s="107"/>
+      <c r="BJ2" s="107"/>
+      <c r="BK2" s="107"/>
+      <c r="BL2" s="107"/>
+      <c r="BM2" s="107"/>
+      <c r="BN2" s="107"/>
+      <c r="BO2" s="107"/>
+      <c r="BP2" s="107"/>
+      <c r="BQ2" s="107"/>
+      <c r="BR2" s="107"/>
+      <c r="BS2" s="107"/>
+      <c r="BT2" s="107"/>
+      <c r="BU2" s="107"/>
+      <c r="BV2" s="107"/>
+      <c r="BW2" s="107"/>
+      <c r="BX2" s="107"/>
+      <c r="BY2" s="107"/>
+      <c r="BZ2" s="107"/>
+      <c r="CA2" s="107"/>
+      <c r="CB2" s="107"/>
+      <c r="CC2" s="107"/>
+      <c r="CD2" s="107"/>
+      <c r="CE2" s="107"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="59"/>
-      <c r="BM3" s="59"/>
-      <c r="BN3" s="59"/>
-      <c r="BO3" s="59"/>
-      <c r="BP3" s="59"/>
-      <c r="BQ3" s="59"/>
-      <c r="BR3" s="59"/>
-      <c r="BS3" s="59"/>
-      <c r="BT3" s="59"/>
-      <c r="BU3" s="59"/>
-      <c r="BV3" s="59"/>
-      <c r="BW3" s="59"/>
-      <c r="BX3" s="59"/>
-      <c r="BY3" s="59"/>
-      <c r="BZ3" s="59"/>
-      <c r="CA3" s="59"/>
-      <c r="CB3" s="59"/>
-      <c r="CC3" s="59"/>
-      <c r="CD3" s="59"/>
-      <c r="CE3" s="59"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="108"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108"/>
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="108"/>
+      <c r="BG3" s="108"/>
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="108"/>
+      <c r="BJ3" s="108"/>
+      <c r="BK3" s="108"/>
+      <c r="BL3" s="108"/>
+      <c r="BM3" s="108"/>
+      <c r="BN3" s="108"/>
+      <c r="BO3" s="108"/>
+      <c r="BP3" s="108"/>
+      <c r="BQ3" s="108"/>
+      <c r="BR3" s="108"/>
+      <c r="BS3" s="108"/>
+      <c r="BT3" s="108"/>
+      <c r="BU3" s="108"/>
+      <c r="BV3" s="108"/>
+      <c r="BW3" s="108"/>
+      <c r="BX3" s="108"/>
+      <c r="BY3" s="108"/>
+      <c r="BZ3" s="108"/>
+      <c r="CA3" s="108"/>
+      <c r="CB3" s="108"/>
+      <c r="CC3" s="108"/>
+      <c r="CD3" s="108"/>
+      <c r="CE3" s="108"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -2203,132 +2341,132 @@
       <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="54">
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="103">
         <v>45992</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56" t="s">
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="54">
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="103">
         <v>45993</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="56" t="s">
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="54">
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="103">
         <v>45999</v>
       </c>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="56" t="s">
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="54">
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="103">
         <v>46000</v>
       </c>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="56" t="s">
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="54">
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="103">
         <v>46006</v>
       </c>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="56" t="s">
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="54">
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="103">
         <v>46007</v>
       </c>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="56" t="s">
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="57"/>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="54">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="103">
         <v>46027</v>
       </c>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="56" t="s">
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="54">
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="103">
         <v>46028</v>
       </c>
-      <c r="BM4" s="54"/>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="55"/>
-      <c r="BP4" s="56" t="s">
+      <c r="BM4" s="103"/>
+      <c r="BN4" s="103"/>
+      <c r="BO4" s="104"/>
+      <c r="BP4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="57"/>
-      <c r="BR4" s="57"/>
-      <c r="BS4" s="57"/>
-      <c r="BT4" s="54">
+      <c r="BQ4" s="106"/>
+      <c r="BR4" s="106"/>
+      <c r="BS4" s="106"/>
+      <c r="BT4" s="103">
         <v>46034</v>
       </c>
-      <c r="BU4" s="54"/>
-      <c r="BV4" s="54"/>
-      <c r="BW4" s="55"/>
-      <c r="BX4" s="56" t="s">
+      <c r="BU4" s="103"/>
+      <c r="BV4" s="103"/>
+      <c r="BW4" s="104"/>
+      <c r="BX4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="57"/>
-      <c r="BZ4" s="57"/>
-      <c r="CA4" s="57"/>
-      <c r="CB4" s="54">
+      <c r="BY4" s="106"/>
+      <c r="BZ4" s="106"/>
+      <c r="CA4" s="106"/>
+      <c r="CB4" s="103">
         <v>46035</v>
       </c>
-      <c r="CC4" s="54"/>
-      <c r="CD4" s="54"/>
-      <c r="CE4" s="55"/>
-      <c r="CF4" s="60" t="s">
+      <c r="CC4" s="103"/>
+      <c r="CD4" s="103"/>
+      <c r="CE4" s="104"/>
+      <c r="CF4" s="109" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
@@ -2575,18 +2713,32 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="60"/>
+      <c r="CF5" s="109"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="24"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="D6" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="95" t="s">
+        <v>30</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="12"/>
       <c r="L6" s="13"/>
@@ -2597,16 +2749,16 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="64" t="s">
+      <c r="T6" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="66"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="115"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -2663,11 +2815,11 @@
       <c r="CC6" s="11"/>
       <c r="CD6" s="11"/>
       <c r="CE6" s="12"/>
-      <c r="CF6" s="60"/>
+      <c r="CF6" s="109"/>
     </row>
-    <row r="7" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>36</v>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A7" s="88" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="15"/>
@@ -2677,28 +2829,48 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
+      <c r="J7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="116"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="118"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
       <c r="AH7" s="11"/>
@@ -2751,11 +2923,11 @@
       <c r="CC7" s="11"/>
       <c r="CD7" s="11"/>
       <c r="CE7" s="12"/>
-      <c r="CF7" s="60"/>
+      <c r="CF7" s="109"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>29</v>
+    <row r="8" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="15"/>
@@ -2775,24 +2947,36 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="118"/>
+      <c r="AB8" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD8" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="60" t="s">
+        <v>30</v>
+      </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
       <c r="AI8" s="12"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="11"/>
+      <c r="AJ8" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK8" s="125" t="s">
+        <v>30</v>
+      </c>
       <c r="AL8" s="11"/>
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
@@ -2839,11 +3023,11 @@
       <c r="CC8" s="11"/>
       <c r="CD8" s="11"/>
       <c r="CE8" s="12"/>
-      <c r="CF8" s="60"/>
+      <c r="CF8" s="109"/>
     </row>
-    <row r="9" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>37</v>
+    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="15"/>
@@ -2863,24 +3047,36 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="118"/>
+      <c r="AB9" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="62" t="s">
+        <v>30</v>
+      </c>
       <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
       <c r="AI9" s="12"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="11"/>
+      <c r="AJ9" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="123" t="s">
+        <v>30</v>
+      </c>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -2927,11 +3123,11 @@
       <c r="CC9" s="11"/>
       <c r="CD9" s="11"/>
       <c r="CE9" s="12"/>
-      <c r="CF9" s="60"/>
+      <c r="CF9" s="109"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>30</v>
+    <row r="10" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="15"/>
@@ -2951,24 +3147,36 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="80"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="57" t="s">
+        <v>30</v>
+      </c>
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="12"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="11"/>
+      <c r="AJ10" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="127" t="s">
+        <v>30</v>
+      </c>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -3015,99 +3223,111 @@
       <c r="CC10" s="11"/>
       <c r="CD10" s="11"/>
       <c r="CE10" s="12"/>
-      <c r="CF10" s="60"/>
+      <c r="CF10" s="109"/>
     </row>
-    <row r="11" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="46"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="16"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="18"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="18"/>
-      <c r="BH11" s="16"/>
-      <c r="BI11" s="17"/>
-      <c r="BJ11" s="17"/>
-      <c r="BK11" s="17"/>
-      <c r="BL11" s="17"/>
-      <c r="BM11" s="17"/>
-      <c r="BN11" s="17"/>
-      <c r="BO11" s="18"/>
-      <c r="BP11" s="16"/>
-      <c r="BQ11" s="17"/>
-      <c r="BR11" s="17"/>
-      <c r="BS11" s="17"/>
-      <c r="BT11" s="17"/>
-      <c r="BU11" s="17"/>
-      <c r="BV11" s="17"/>
-      <c r="BW11" s="18"/>
-      <c r="BX11" s="16"/>
-      <c r="BY11" s="17"/>
-      <c r="BZ11" s="17"/>
-      <c r="CA11" s="17"/>
-      <c r="CB11" s="17"/>
-      <c r="CC11" s="17"/>
-      <c r="CD11" s="17"/>
-      <c r="CE11" s="18"/>
-      <c r="CF11" s="60"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="128" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK11" s="129" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="11"/>
+      <c r="BJ11" s="11"/>
+      <c r="BK11" s="11"/>
+      <c r="BL11" s="11"/>
+      <c r="BM11" s="11"/>
+      <c r="BN11" s="11"/>
+      <c r="BO11" s="12"/>
+      <c r="BP11" s="13"/>
+      <c r="BQ11" s="11"/>
+      <c r="BR11" s="11"/>
+      <c r="BS11" s="11"/>
+      <c r="BT11" s="11"/>
+      <c r="BU11" s="11"/>
+      <c r="BV11" s="11"/>
+      <c r="BW11" s="12"/>
+      <c r="BX11" s="13"/>
+      <c r="BY11" s="11"/>
+      <c r="BZ11" s="11"/>
+      <c r="CA11" s="11"/>
+      <c r="CB11" s="11"/>
+      <c r="CC11" s="11"/>
+      <c r="CD11" s="11"/>
+      <c r="CE11" s="12"/>
+      <c r="CF11" s="109"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>24</v>
+    <row r="12" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="15"/>
@@ -3127,14 +3347,14 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="69"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="118"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -3143,15 +3363,15 @@
       <c r="AG12" s="17"/>
       <c r="AH12" s="17"/>
       <c r="AI12" s="18"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="88"/>
-      <c r="AN12" s="87"/>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="92"/>
-      <c r="AR12" s="103"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="16"/>
       <c r="AS12" s="17"/>
       <c r="AT12" s="17"/>
       <c r="AU12" s="17"/>
@@ -3191,7 +3411,7 @@
       <c r="CC12" s="17"/>
       <c r="CD12" s="17"/>
       <c r="CE12" s="18"/>
-      <c r="CF12" s="60"/>
+      <c r="CF12" s="109"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
@@ -3215,14 +3435,14 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="69"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="118"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -3231,15 +3451,19 @@
       <c r="AG13" s="17"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="18"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="90"/>
-      <c r="AN13" s="90"/>
-      <c r="AO13" s="90"/>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="91"/>
-      <c r="AR13" s="112"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM13" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="79"/>
       <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
       <c r="AU13" s="17"/>
@@ -3279,7 +3503,7 @@
       <c r="CC13" s="17"/>
       <c r="CD13" s="17"/>
       <c r="CE13" s="18"/>
-      <c r="CF13" s="60"/>
+      <c r="CF13" s="109"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
@@ -3303,14 +3527,14 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="69"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="118"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -3319,15 +3543,19 @@
       <c r="AG14" s="17"/>
       <c r="AH14" s="17"/>
       <c r="AI14" s="18"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="100"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="16"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="70"/>
+      <c r="AM14" s="67"/>
+      <c r="AN14" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO14" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="87"/>
       <c r="AS14" s="17"/>
       <c r="AT14" s="17"/>
       <c r="AU14" s="17"/>
@@ -3367,7 +3595,7 @@
       <c r="CC14" s="17"/>
       <c r="CD14" s="17"/>
       <c r="CE14" s="18"/>
-      <c r="CF14" s="60"/>
+      <c r="CF14" s="109"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
@@ -3391,14 +3619,14 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="69"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="118"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
@@ -3407,12 +3635,14 @@
       <c r="AG15" s="17"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="18"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="98"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="98"/>
-      <c r="AN15" s="98"/>
-      <c r="AO15" s="100"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="133" t="s">
+        <v>30</v>
+      </c>
       <c r="AP15" s="17"/>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="16"/>
@@ -3455,7 +3685,7 @@
       <c r="CC15" s="17"/>
       <c r="CD15" s="17"/>
       <c r="CE15" s="18"/>
-      <c r="CF15" s="60"/>
+      <c r="CF15" s="109"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -3479,14 +3709,14 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="69"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="118"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
@@ -3500,10 +3730,12 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
-      <c r="AO16" s="98"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="101"/>
-      <c r="AR16" s="94"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="73"/>
       <c r="AS16" s="17"/>
       <c r="AT16" s="17"/>
       <c r="AU16" s="17"/>
@@ -3543,11 +3775,11 @@
       <c r="CC16" s="17"/>
       <c r="CD16" s="17"/>
       <c r="CE16" s="18"/>
-      <c r="CF16" s="60"/>
+      <c r="CF16" s="109"/>
     </row>
     <row r="17" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="15"/>
@@ -3567,14 +3799,14 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="69"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="118"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
@@ -3631,11 +3863,11 @@
       <c r="CC17" s="17"/>
       <c r="CD17" s="17"/>
       <c r="CE17" s="18"/>
-      <c r="CF17" s="60"/>
+      <c r="CF17" s="109"/>
     </row>
     <row r="18" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
-        <v>41</v>
+      <c r="A18" s="99" t="s">
+        <v>46</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="15"/>
@@ -3655,14 +3887,14 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="69"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="118"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
@@ -3673,28 +3905,40 @@
       <c r="AI18" s="18"/>
       <c r="AJ18" s="16"/>
       <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="111"/>
-      <c r="AS18" s="100"/>
-      <c r="AT18" s="95"/>
-      <c r="AU18" s="95"/>
+      <c r="AL18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ18" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="17"/>
       <c r="AV18" s="17"/>
       <c r="AW18" s="17"/>
       <c r="AX18" s="17"/>
       <c r="AY18" s="18"/>
-      <c r="AZ18" s="94"/>
-      <c r="BA18" s="95"/>
-      <c r="BB18" s="95"/>
-      <c r="BC18" s="95"/>
-      <c r="BD18" s="95"/>
-      <c r="BE18" s="95"/>
-      <c r="BF18" s="95"/>
-      <c r="BG18" s="106"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="17"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="17"/>
+      <c r="BD18" s="17"/>
+      <c r="BE18" s="17"/>
+      <c r="BF18" s="17"/>
+      <c r="BG18" s="18"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="17"/>
       <c r="BJ18" s="17"/>
@@ -3719,11 +3963,11 @@
       <c r="CC18" s="17"/>
       <c r="CD18" s="17"/>
       <c r="CE18" s="18"/>
-      <c r="CF18" s="60"/>
+      <c r="CF18" s="109"/>
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
-        <v>19</v>
+      <c r="A19" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="15"/>
@@ -3743,14 +3987,14 @@
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="69"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="118"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
@@ -3761,28 +4005,40 @@
       <c r="AI19" s="18"/>
       <c r="AJ19" s="16"/>
       <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="109"/>
-      <c r="AS19" s="100"/>
-      <c r="AT19" s="98"/>
-      <c r="AU19" s="98"/>
+      <c r="AL19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ19" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR19" s="86"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
       <c r="AV19" s="17"/>
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
       <c r="AY19" s="18"/>
-      <c r="AZ19" s="97"/>
-      <c r="BA19" s="98"/>
-      <c r="BB19" s="98"/>
-      <c r="BC19" s="98"/>
-      <c r="BD19" s="98"/>
-      <c r="BE19" s="98"/>
-      <c r="BF19" s="98"/>
-      <c r="BG19" s="101"/>
+      <c r="AZ19" s="71"/>
+      <c r="BA19" s="72"/>
+      <c r="BB19" s="72"/>
+      <c r="BC19" s="72"/>
+      <c r="BD19" s="72"/>
+      <c r="BE19" s="72"/>
+      <c r="BF19" s="72"/>
+      <c r="BG19" s="82"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="17"/>
@@ -3807,11 +4063,11 @@
       <c r="CC19" s="17"/>
       <c r="CD19" s="17"/>
       <c r="CE19" s="18"/>
-      <c r="CF19" s="60"/>
+      <c r="CF19" s="109"/>
     </row>
     <row r="20" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A20" s="85" t="s">
-        <v>18</v>
+      <c r="A20" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="15"/>
@@ -3831,14 +4087,14 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="69"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="118"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
@@ -3855,22 +4111,22 @@
       <c r="AO20" s="17"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="18"/>
-      <c r="AR20" s="109"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="90"/>
-      <c r="AU20" s="90"/>
+      <c r="AR20" s="85"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
       <c r="AV20" s="17"/>
       <c r="AW20" s="17"/>
       <c r="AX20" s="17"/>
       <c r="AY20" s="18"/>
-      <c r="AZ20" s="89"/>
-      <c r="BA20" s="90"/>
-      <c r="BB20" s="90"/>
-      <c r="BC20" s="90"/>
-      <c r="BD20" s="90"/>
-      <c r="BE20" s="90"/>
-      <c r="BF20" s="90"/>
-      <c r="BG20" s="91"/>
+      <c r="AZ20" s="73"/>
+      <c r="BA20" s="74"/>
+      <c r="BB20" s="74"/>
+      <c r="BC20" s="74"/>
+      <c r="BD20" s="74"/>
+      <c r="BE20" s="74"/>
+      <c r="BF20" s="74"/>
+      <c r="BG20" s="77"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="17"/>
       <c r="BJ20" s="17"/>
@@ -3895,14 +4151,11 @@
       <c r="CC20" s="17"/>
       <c r="CD20" s="17"/>
       <c r="CE20" s="18"/>
-      <c r="CF20" s="60"/>
-      <c r="CH20" s="108" t="s">
-        <v>44</v>
-      </c>
+      <c r="CF20" s="109"/>
     </row>
     <row r="21" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
-        <v>17</v>
+      <c r="A21" s="63" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="15"/>
@@ -3922,14 +4175,14 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="69"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="118"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
@@ -3946,22 +4199,22 @@
       <c r="AO21" s="17"/>
       <c r="AP21" s="17"/>
       <c r="AQ21" s="18"/>
-      <c r="AR21" s="111"/>
-      <c r="AS21" s="100"/>
-      <c r="AT21" s="87"/>
-      <c r="AU21" s="87"/>
+      <c r="AR21" s="85"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="67"/>
+      <c r="AU21" s="67"/>
       <c r="AV21" s="17"/>
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
       <c r="AY21" s="18"/>
-      <c r="AZ21" s="103"/>
-      <c r="BA21" s="87"/>
-      <c r="BB21" s="87"/>
-      <c r="BC21" s="87"/>
-      <c r="BD21" s="87"/>
-      <c r="BE21" s="87"/>
-      <c r="BF21" s="87"/>
-      <c r="BG21" s="92"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="67"/>
+      <c r="BB21" s="67"/>
+      <c r="BC21" s="67"/>
+      <c r="BD21" s="67"/>
+      <c r="BE21" s="67"/>
+      <c r="BF21" s="67"/>
+      <c r="BG21" s="68"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="17"/>
       <c r="BJ21" s="17"/>
@@ -3986,11 +4239,14 @@
       <c r="CC21" s="17"/>
       <c r="CD21" s="17"/>
       <c r="CE21" s="18"/>
-      <c r="CF21" s="60"/>
+      <c r="CF21" s="109"/>
+      <c r="CH21" s="84" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="15"/>
@@ -4010,14 +4266,14 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="69"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="118"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
@@ -4034,33 +4290,33 @@
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="18"/>
-      <c r="AR22" s="16"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
+      <c r="AR22" s="86"/>
+      <c r="AS22" s="76"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
       <c r="AV22" s="17"/>
       <c r="AW22" s="17"/>
       <c r="AX22" s="17"/>
       <c r="AY22" s="18"/>
-      <c r="AZ22" s="16"/>
-      <c r="BA22" s="17"/>
-      <c r="BB22" s="17"/>
-      <c r="BC22" s="104"/>
-      <c r="BD22" s="100"/>
-      <c r="BE22" s="100"/>
-      <c r="BF22" s="100"/>
-      <c r="BG22" s="105"/>
-      <c r="BH22" s="109"/>
-      <c r="BI22" s="98"/>
-      <c r="BJ22" s="98"/>
-      <c r="BK22" s="98"/>
-      <c r="BL22" s="98"/>
-      <c r="BM22" s="98"/>
-      <c r="BN22" s="98"/>
-      <c r="BO22" s="101"/>
-      <c r="BP22" s="97"/>
-      <c r="BQ22" s="98"/>
-      <c r="BR22" s="98"/>
+      <c r="AZ22" s="79"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65"/>
+      <c r="BC22" s="65"/>
+      <c r="BD22" s="65"/>
+      <c r="BE22" s="65"/>
+      <c r="BF22" s="65"/>
+      <c r="BG22" s="69"/>
+      <c r="BH22" s="16"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
+      <c r="BO22" s="18"/>
+      <c r="BP22" s="16"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
       <c r="BS22" s="17"/>
       <c r="BT22" s="17"/>
       <c r="BU22" s="17"/>
@@ -4074,11 +4330,11 @@
       <c r="CC22" s="17"/>
       <c r="CD22" s="17"/>
       <c r="CE22" s="18"/>
-      <c r="CF22" s="60"/>
+      <c r="CF22" s="109"/>
     </row>
-    <row r="23" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>40</v>
+    <row r="23" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="15"/>
@@ -4098,14 +4354,14 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="69"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="118"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
@@ -4133,22 +4389,22 @@
       <c r="AZ23" s="16"/>
       <c r="BA23" s="17"/>
       <c r="BB23" s="17"/>
-      <c r="BC23" s="17"/>
-      <c r="BD23" s="17"/>
-      <c r="BE23" s="17"/>
-      <c r="BF23" s="17"/>
-      <c r="BG23" s="18"/>
-      <c r="BH23" s="16"/>
-      <c r="BI23" s="17"/>
-      <c r="BJ23" s="17"/>
-      <c r="BK23" s="17"/>
-      <c r="BL23" s="17"/>
-      <c r="BM23" s="17"/>
-      <c r="BN23" s="17"/>
-      <c r="BO23" s="18"/>
-      <c r="BP23" s="16"/>
-      <c r="BQ23" s="17"/>
-      <c r="BR23" s="17"/>
+      <c r="BC23" s="80"/>
+      <c r="BD23" s="76"/>
+      <c r="BE23" s="76"/>
+      <c r="BF23" s="76"/>
+      <c r="BG23" s="81"/>
+      <c r="BH23" s="85"/>
+      <c r="BI23" s="74"/>
+      <c r="BJ23" s="74"/>
+      <c r="BK23" s="74"/>
+      <c r="BL23" s="74"/>
+      <c r="BM23" s="74"/>
+      <c r="BN23" s="74"/>
+      <c r="BO23" s="77"/>
+      <c r="BP23" s="73"/>
+      <c r="BQ23" s="74"/>
+      <c r="BR23" s="74"/>
       <c r="BS23" s="17"/>
       <c r="BT23" s="17"/>
       <c r="BU23" s="17"/>
@@ -4162,11 +4418,11 @@
       <c r="CC23" s="17"/>
       <c r="CD23" s="17"/>
       <c r="CE23" s="18"/>
-      <c r="CF23" s="60"/>
+      <c r="CF23" s="109"/>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
-        <v>15</v>
+    <row r="24" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="15"/>
@@ -4186,14 +4442,14 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="69"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="118"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
@@ -4226,17 +4482,17 @@
       <c r="BE24" s="17"/>
       <c r="BF24" s="17"/>
       <c r="BG24" s="18"/>
-      <c r="BH24" s="109"/>
-      <c r="BI24" s="90"/>
-      <c r="BJ24" s="90"/>
-      <c r="BK24" s="90"/>
+      <c r="BH24" s="16"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="17"/>
       <c r="BL24" s="17"/>
       <c r="BM24" s="17"/>
       <c r="BN24" s="17"/>
       <c r="BO24" s="18"/>
-      <c r="BP24" s="89"/>
-      <c r="BQ24" s="90"/>
-      <c r="BR24" s="90"/>
+      <c r="BP24" s="16"/>
+      <c r="BQ24" s="17"/>
+      <c r="BR24" s="17"/>
       <c r="BS24" s="17"/>
       <c r="BT24" s="17"/>
       <c r="BU24" s="17"/>
@@ -4250,11 +4506,11 @@
       <c r="CC24" s="17"/>
       <c r="CD24" s="17"/>
       <c r="CE24" s="18"/>
-      <c r="CF24" s="60"/>
+      <c r="CF24" s="109"/>
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="15"/>
@@ -4274,14 +4530,14 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="69"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="118"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
@@ -4314,17 +4570,17 @@
       <c r="BE25" s="17"/>
       <c r="BF25" s="17"/>
       <c r="BG25" s="18"/>
-      <c r="BH25" s="109"/>
-      <c r="BI25" s="87"/>
-      <c r="BJ25" s="95"/>
-      <c r="BK25" s="87"/>
+      <c r="BH25" s="85"/>
+      <c r="BI25" s="67"/>
+      <c r="BJ25" s="67"/>
+      <c r="BK25" s="67"/>
       <c r="BL25" s="17"/>
       <c r="BM25" s="17"/>
       <c r="BN25" s="17"/>
       <c r="BO25" s="18"/>
-      <c r="BP25" s="94"/>
-      <c r="BQ25" s="87"/>
-      <c r="BR25" s="95"/>
+      <c r="BP25" s="66"/>
+      <c r="BQ25" s="67"/>
+      <c r="BR25" s="67"/>
       <c r="BS25" s="17"/>
       <c r="BT25" s="17"/>
       <c r="BU25" s="17"/>
@@ -4338,417 +4594,287 @@
       <c r="CC25" s="17"/>
       <c r="CD25" s="17"/>
       <c r="CE25" s="18"/>
-      <c r="CF25" s="60"/>
+      <c r="CF25" s="109"/>
     </row>
-    <row r="26" spans="1:86" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="33"/>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
-      <c r="AV26" s="31"/>
-      <c r="AW26" s="31"/>
-      <c r="AX26" s="31"/>
-      <c r="AY26" s="34"/>
-      <c r="AZ26" s="33"/>
-      <c r="BA26" s="31"/>
-      <c r="BB26" s="31"/>
-      <c r="BC26" s="31"/>
-      <c r="BD26" s="31"/>
-      <c r="BE26" s="31"/>
-      <c r="BF26" s="31"/>
-      <c r="BG26" s="34"/>
-      <c r="BH26" s="33"/>
-      <c r="BI26" s="31"/>
-      <c r="BJ26" s="31"/>
-      <c r="BK26" s="31"/>
-      <c r="BL26" s="31"/>
-      <c r="BM26" s="31"/>
-      <c r="BN26" s="31"/>
-      <c r="BO26" s="34"/>
-      <c r="BP26" s="33"/>
-      <c r="BQ26" s="31"/>
-      <c r="BR26" s="31"/>
-      <c r="BS26" s="31"/>
-      <c r="BT26" s="31"/>
-      <c r="BU26" s="31"/>
-      <c r="BV26" s="31"/>
-      <c r="BW26" s="34"/>
-      <c r="BX26" s="33"/>
-      <c r="BY26" s="31"/>
-      <c r="BZ26" s="31"/>
-      <c r="CA26" s="31"/>
-      <c r="CB26" s="31"/>
-      <c r="CC26" s="31"/>
-      <c r="CD26" s="31"/>
-      <c r="CE26" s="34"/>
-      <c r="CF26" s="60"/>
+    <row r="26" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="17"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="18"/>
+      <c r="BH26" s="85"/>
+      <c r="BI26" s="65"/>
+      <c r="BJ26" s="72"/>
+      <c r="BK26" s="65"/>
+      <c r="BL26" s="17"/>
+      <c r="BM26" s="17"/>
+      <c r="BN26" s="17"/>
+      <c r="BO26" s="18"/>
+      <c r="BP26" s="71"/>
+      <c r="BQ26" s="65"/>
+      <c r="BR26" s="72"/>
+      <c r="BS26" s="17"/>
+      <c r="BT26" s="17"/>
+      <c r="BU26" s="17"/>
+      <c r="BV26" s="17"/>
+      <c r="BW26" s="18"/>
+      <c r="BX26" s="16"/>
+      <c r="BY26" s="17"/>
+      <c r="BZ26" s="17"/>
+      <c r="CA26" s="17"/>
+      <c r="CB26" s="17"/>
+      <c r="CC26" s="17"/>
+      <c r="CD26" s="17"/>
+      <c r="CE26" s="18"/>
+      <c r="CF26" s="109"/>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:86" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="117"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
+      <c r="AW27" s="31"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="34"/>
+      <c r="AZ27" s="33"/>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="34"/>
+      <c r="BH27" s="33"/>
+      <c r="BI27" s="31"/>
+      <c r="BJ27" s="31"/>
+      <c r="BK27" s="31"/>
+      <c r="BL27" s="31"/>
+      <c r="BM27" s="31"/>
+      <c r="BN27" s="31"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="33"/>
+      <c r="BQ27" s="31"/>
+      <c r="BR27" s="31"/>
+      <c r="BS27" s="31"/>
+      <c r="BT27" s="31"/>
+      <c r="BU27" s="31"/>
+      <c r="BV27" s="31"/>
+      <c r="BW27" s="34"/>
+      <c r="BX27" s="33"/>
+      <c r="BY27" s="31"/>
+      <c r="BZ27" s="31"/>
+      <c r="CA27" s="31"/>
+      <c r="CB27" s="31"/>
+      <c r="CC27" s="31"/>
+      <c r="CD27" s="31"/>
+      <c r="CE27" s="34"/>
+      <c r="CF27" s="109"/>
+    </row>
+    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
         <v>14</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="S27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T27" s="67"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="68"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BL27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BN27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BO27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="BP27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BR27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU27" s="17"/>
-      <c r="BV27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="BX27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="BY27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BZ27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="CA27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="CB27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="CC27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="CD27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="CE27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="CF27" s="60"/>
-    </row>
-    <row r="28" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>27</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="16"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
-      <c r="AW28" s="17"/>
-      <c r="AX28" s="17"/>
-      <c r="AY28" s="18"/>
-      <c r="AZ28" s="16"/>
-      <c r="BA28" s="17"/>
-      <c r="BB28" s="17"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="17"/>
-      <c r="BE28" s="17"/>
-      <c r="BF28" s="17"/>
-      <c r="BG28" s="18"/>
-      <c r="BH28" s="16"/>
-      <c r="BI28" s="17"/>
-      <c r="BJ28" s="17"/>
-      <c r="BK28" s="17"/>
-      <c r="BL28" s="17"/>
-      <c r="BM28" s="17"/>
-      <c r="BN28" s="17"/>
-      <c r="BO28" s="18"/>
-      <c r="BP28" s="16"/>
-      <c r="BQ28" s="17"/>
-      <c r="BR28" s="17"/>
-      <c r="BS28" s="17"/>
-      <c r="BT28" s="17"/>
-      <c r="BU28" s="17"/>
-      <c r="BV28" s="17"/>
-      <c r="BW28" s="18"/>
-      <c r="BX28" s="16"/>
-      <c r="BY28" s="17"/>
-      <c r="BZ28" s="17"/>
-      <c r="CA28" s="17"/>
-      <c r="CB28" s="17"/>
-      <c r="CC28" s="17"/>
-      <c r="CD28" s="17"/>
-      <c r="CE28" s="18"/>
-      <c r="CF28" s="60"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="91"/>
+      <c r="AD28" s="91"/>
+      <c r="AE28" s="91"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="91"/>
+      <c r="AH28" s="91"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="90"/>
+      <c r="AK28" s="91"/>
+      <c r="AL28" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM28" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN28" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO28" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP28" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ28" s="135" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="91"/>
+      <c r="AU28" s="91"/>
+      <c r="AV28" s="91"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="91"/>
+      <c r="AY28" s="92"/>
+      <c r="AZ28" s="90"/>
+      <c r="BA28" s="91"/>
+      <c r="BB28" s="91"/>
+      <c r="BC28" s="91"/>
+      <c r="BD28" s="91"/>
+      <c r="BE28" s="91"/>
+      <c r="BF28" s="91"/>
+      <c r="BG28" s="92"/>
+      <c r="BH28" s="90"/>
+      <c r="BI28" s="91"/>
+      <c r="BJ28" s="91"/>
+      <c r="BK28" s="91"/>
+      <c r="BL28" s="91"/>
+      <c r="BM28" s="91"/>
+      <c r="BN28" s="91"/>
+      <c r="BO28" s="92"/>
+      <c r="BP28" s="90"/>
+      <c r="BQ28" s="91"/>
+      <c r="BR28" s="91"/>
+      <c r="BS28" s="91"/>
+      <c r="BT28" s="91"/>
+      <c r="BU28" s="91"/>
+      <c r="BV28" s="91"/>
+      <c r="BW28" s="92"/>
+      <c r="BX28" s="90"/>
+      <c r="BY28" s="91"/>
+      <c r="BZ28" s="91"/>
+      <c r="CA28" s="91"/>
+      <c r="CB28" s="91"/>
+      <c r="CC28" s="91"/>
+      <c r="CD28" s="91"/>
+      <c r="CE28" s="92"/>
+      <c r="CF28" s="109"/>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
-        <v>13</v>
+    <row r="29" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>26</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="15"/>
@@ -4768,14 +4894,14 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="69"/>
+      <c r="T29" s="116"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="118"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
@@ -4819,19 +4945,11 @@
       <c r="BP29" s="16"/>
       <c r="BQ29" s="17"/>
       <c r="BR29" s="17"/>
-      <c r="BS29" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT29" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU29" s="102"/>
-      <c r="BV29" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW29" s="110" t="s">
-        <v>31</v>
-      </c>
+      <c r="BS29" s="17"/>
+      <c r="BT29" s="17"/>
+      <c r="BU29" s="17"/>
+      <c r="BV29" s="17"/>
+      <c r="BW29" s="18"/>
       <c r="BX29" s="16"/>
       <c r="BY29" s="17"/>
       <c r="BZ29" s="17"/>
@@ -4840,11 +4958,11 @@
       <c r="CC29" s="17"/>
       <c r="CD29" s="17"/>
       <c r="CE29" s="18"/>
-      <c r="CF29" s="60"/>
+      <c r="CF29" s="109"/>
     </row>
     <row r="30" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="15"/>
@@ -4864,14 +4982,14 @@
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="69"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="118"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
@@ -4915,19 +5033,11 @@
       <c r="BP30" s="16"/>
       <c r="BQ30" s="17"/>
       <c r="BR30" s="17"/>
-      <c r="BS30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU30" s="17"/>
-      <c r="BV30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW30" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="BS30" s="93"/>
+      <c r="BT30" s="93"/>
+      <c r="BU30" s="78"/>
+      <c r="BV30" s="93"/>
+      <c r="BW30" s="94"/>
       <c r="BX30" s="16"/>
       <c r="BY30" s="17"/>
       <c r="BZ30" s="17"/>
@@ -4936,11 +5046,11 @@
       <c r="CC30" s="17"/>
       <c r="CD30" s="17"/>
       <c r="CE30" s="18"/>
-      <c r="CF30" s="60"/>
+      <c r="CF30" s="109"/>
     </row>
     <row r="31" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="15"/>
@@ -4960,14 +5070,14 @@
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="69"/>
+      <c r="T31" s="116"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="118"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
@@ -5011,19 +5121,11 @@
       <c r="BP31" s="16"/>
       <c r="BQ31" s="17"/>
       <c r="BR31" s="17"/>
-      <c r="BS31" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT31" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="BS31" s="91"/>
+      <c r="BT31" s="91"/>
       <c r="BU31" s="17"/>
-      <c r="BV31" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW31" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="BV31" s="91"/>
+      <c r="BW31" s="92"/>
       <c r="BX31" s="16"/>
       <c r="BY31" s="17"/>
       <c r="BZ31" s="17"/>
@@ -5032,10 +5134,12 @@
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
       <c r="CE31" s="18"/>
-      <c r="CF31" s="60"/>
+      <c r="CF31" s="109"/>
     </row>
     <row r="32" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="45" t="s">
+        <v>11</v>
+      </c>
       <c r="B32" s="25"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -5054,14 +5158,14 @@
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="69"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="118"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
@@ -5105,11 +5209,11 @@
       <c r="BP32" s="16"/>
       <c r="BQ32" s="17"/>
       <c r="BR32" s="17"/>
-      <c r="BS32" s="17"/>
-      <c r="BT32" s="17"/>
+      <c r="BS32" s="91"/>
+      <c r="BT32" s="91"/>
       <c r="BU32" s="17"/>
-      <c r="BV32" s="17"/>
-      <c r="BW32" s="18"/>
+      <c r="BV32" s="91"/>
+      <c r="BW32" s="92"/>
       <c r="BX32" s="16"/>
       <c r="BY32" s="17"/>
       <c r="BZ32" s="17"/>
@@ -5118,7 +5222,7 @@
       <c r="CC32" s="17"/>
       <c r="CD32" s="17"/>
       <c r="CE32" s="18"/>
-      <c r="CF32" s="60"/>
+      <c r="CF32" s="109"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
@@ -5140,14 +5244,14 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="69"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="118"/>
       <c r="AB33" s="16"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
@@ -5204,7 +5308,7 @@
       <c r="CC33" s="17"/>
       <c r="CD33" s="17"/>
       <c r="CE33" s="18"/>
-      <c r="CF33" s="60"/>
+      <c r="CF33" s="109"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
@@ -5226,14 +5330,14 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="69"/>
+      <c r="T34" s="116"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="117"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="118"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
@@ -5290,7 +5394,7 @@
       <c r="CC34" s="17"/>
       <c r="CD34" s="17"/>
       <c r="CE34" s="18"/>
-      <c r="CF34" s="60"/>
+      <c r="CF34" s="109"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
@@ -5312,14 +5416,14 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="69"/>
+      <c r="T35" s="116"/>
+      <c r="U35" s="117"/>
+      <c r="V35" s="117"/>
+      <c r="W35" s="117"/>
+      <c r="X35" s="117"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="117"/>
+      <c r="AA35" s="118"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
@@ -5376,7 +5480,7 @@
       <c r="CC35" s="17"/>
       <c r="CD35" s="17"/>
       <c r="CE35" s="18"/>
-      <c r="CF35" s="60"/>
+      <c r="CF35" s="109"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
@@ -5398,14 +5502,14 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="69"/>
+      <c r="T36" s="116"/>
+      <c r="U36" s="117"/>
+      <c r="V36" s="117"/>
+      <c r="W36" s="117"/>
+      <c r="X36" s="117"/>
+      <c r="Y36" s="117"/>
+      <c r="Z36" s="117"/>
+      <c r="AA36" s="118"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
@@ -5462,219 +5566,303 @@
       <c r="CC36" s="17"/>
       <c r="CD36" s="17"/>
       <c r="CE36" s="18"/>
-      <c r="CF36" s="60"/>
+      <c r="CF36" s="109"/>
     </row>
-    <row r="37" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="70"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="71"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="23"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="22"/>
-      <c r="AT37" s="22"/>
-      <c r="AU37" s="22"/>
-      <c r="AV37" s="22"/>
-      <c r="AW37" s="22"/>
-      <c r="AX37" s="22"/>
-      <c r="AY37" s="23"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="22"/>
-      <c r="BB37" s="22"/>
-      <c r="BC37" s="22"/>
-      <c r="BD37" s="22"/>
-      <c r="BE37" s="22"/>
-      <c r="BF37" s="22"/>
-      <c r="BG37" s="23"/>
-      <c r="BH37" s="21"/>
-      <c r="BI37" s="22"/>
-      <c r="BJ37" s="22"/>
-      <c r="BK37" s="22"/>
-      <c r="BL37" s="22"/>
-      <c r="BM37" s="22"/>
-      <c r="BN37" s="22"/>
-      <c r="BO37" s="23"/>
-      <c r="BP37" s="21"/>
-      <c r="BQ37" s="22"/>
-      <c r="BR37" s="22"/>
-      <c r="BS37" s="22"/>
-      <c r="BT37" s="22"/>
-      <c r="BU37" s="22"/>
-      <c r="BV37" s="22"/>
-      <c r="BW37" s="23"/>
-      <c r="BX37" s="21"/>
-      <c r="BY37" s="22"/>
-      <c r="BZ37" s="22"/>
-      <c r="CA37" s="22"/>
-      <c r="CB37" s="22"/>
-      <c r="CC37" s="22"/>
-      <c r="CD37" s="22"/>
-      <c r="CE37" s="23"/>
-      <c r="CF37" s="60"/>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="117"/>
+      <c r="W37" s="117"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="117"/>
+      <c r="AA37" s="118"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="16"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="17"/>
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="18"/>
+      <c r="AZ37" s="16"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="17"/>
+      <c r="BE37" s="17"/>
+      <c r="BF37" s="17"/>
+      <c r="BG37" s="18"/>
+      <c r="BH37" s="16"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="17"/>
+      <c r="BK37" s="17"/>
+      <c r="BL37" s="17"/>
+      <c r="BM37" s="17"/>
+      <c r="BN37" s="17"/>
+      <c r="BO37" s="18"/>
+      <c r="BP37" s="16"/>
+      <c r="BQ37" s="17"/>
+      <c r="BR37" s="17"/>
+      <c r="BS37" s="17"/>
+      <c r="BT37" s="17"/>
+      <c r="BU37" s="17"/>
+      <c r="BV37" s="17"/>
+      <c r="BW37" s="18"/>
+      <c r="BX37" s="16"/>
+      <c r="BY37" s="17"/>
+      <c r="BZ37" s="17"/>
+      <c r="CA37" s="17"/>
+      <c r="CB37" s="17"/>
+      <c r="CC37" s="17"/>
+      <c r="CD37" s="17"/>
+      <c r="CE37" s="18"/>
+      <c r="CF37" s="109"/>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A38" s="61" t="s">
+    <row r="38" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="119"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="120"/>
+      <c r="W38" s="120"/>
+      <c r="X38" s="120"/>
+      <c r="Y38" s="120"/>
+      <c r="Z38" s="120"/>
+      <c r="AA38" s="121"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="22"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="22"/>
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="21"/>
+      <c r="AS38" s="22"/>
+      <c r="AT38" s="22"/>
+      <c r="AU38" s="22"/>
+      <c r="AV38" s="22"/>
+      <c r="AW38" s="22"/>
+      <c r="AX38" s="22"/>
+      <c r="AY38" s="23"/>
+      <c r="AZ38" s="21"/>
+      <c r="BA38" s="22"/>
+      <c r="BB38" s="22"/>
+      <c r="BC38" s="22"/>
+      <c r="BD38" s="22"/>
+      <c r="BE38" s="22"/>
+      <c r="BF38" s="22"/>
+      <c r="BG38" s="23"/>
+      <c r="BH38" s="21"/>
+      <c r="BI38" s="22"/>
+      <c r="BJ38" s="22"/>
+      <c r="BK38" s="22"/>
+      <c r="BL38" s="22"/>
+      <c r="BM38" s="22"/>
+      <c r="BN38" s="22"/>
+      <c r="BO38" s="23"/>
+      <c r="BP38" s="21"/>
+      <c r="BQ38" s="22"/>
+      <c r="BR38" s="22"/>
+      <c r="BS38" s="22"/>
+      <c r="BT38" s="22"/>
+      <c r="BU38" s="22"/>
+      <c r="BV38" s="22"/>
+      <c r="BW38" s="23"/>
+      <c r="BX38" s="21"/>
+      <c r="BY38" s="22"/>
+      <c r="BZ38" s="22"/>
+      <c r="CA38" s="22"/>
+      <c r="CB38" s="22"/>
+      <c r="CC38" s="22"/>
+      <c r="CD38" s="22"/>
+      <c r="CE38" s="23"/>
+      <c r="CF38" s="109"/>
+    </row>
+    <row r="39" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A39" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="61"/>
-      <c r="Y38" s="61"/>
-      <c r="Z38" s="61"/>
-      <c r="AA38" s="61"/>
-      <c r="AB38" s="61"/>
-      <c r="AC38" s="61"/>
-      <c r="AD38" s="61"/>
-      <c r="AE38" s="61"/>
-      <c r="AF38" s="61"/>
-      <c r="AG38" s="61"/>
-      <c r="AH38" s="61"/>
-      <c r="AI38" s="61"/>
-      <c r="AJ38" s="61"/>
-      <c r="AK38" s="61"/>
-      <c r="AL38" s="61"/>
-      <c r="AM38" s="61"/>
-      <c r="AN38" s="61"/>
-      <c r="AO38" s="61"/>
-      <c r="AP38" s="61"/>
-      <c r="AQ38" s="61"/>
-      <c r="AR38" s="61"/>
-      <c r="AS38" s="61"/>
-      <c r="AT38" s="61"/>
-      <c r="AU38" s="61"/>
-      <c r="AV38" s="61"/>
-      <c r="AW38" s="61"/>
-      <c r="AX38" s="61"/>
-      <c r="AY38" s="61"/>
-      <c r="AZ38" s="61"/>
-      <c r="BA38" s="61"/>
-      <c r="BB38" s="61"/>
-      <c r="BC38" s="61"/>
-      <c r="BD38" s="61"/>
-      <c r="BE38" s="61"/>
-      <c r="BF38" s="61"/>
-      <c r="BG38" s="61"/>
-      <c r="BH38" s="61"/>
-      <c r="BI38" s="61"/>
-      <c r="BJ38" s="61"/>
-      <c r="BK38" s="61"/>
-      <c r="BL38" s="61"/>
-      <c r="BM38" s="61"/>
-      <c r="BN38" s="61"/>
-      <c r="BO38" s="61"/>
-      <c r="BP38" s="61"/>
-      <c r="BQ38" s="61"/>
-      <c r="BR38" s="61"/>
-      <c r="BS38" s="61"/>
-      <c r="BT38" s="61"/>
-      <c r="BU38" s="61"/>
-      <c r="BV38" s="61"/>
-      <c r="BW38" s="61"/>
-      <c r="BX38" s="61"/>
-      <c r="BY38" s="61"/>
-      <c r="BZ38" s="61"/>
-      <c r="CA38" s="61"/>
-      <c r="CB38" s="61"/>
-      <c r="CC38" s="61"/>
-      <c r="CD38" s="61"/>
-      <c r="CE38" s="61"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="110"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110"/>
+      <c r="S39" s="110"/>
+      <c r="T39" s="110"/>
+      <c r="U39" s="110"/>
+      <c r="V39" s="110"/>
+      <c r="W39" s="110"/>
+      <c r="X39" s="110"/>
+      <c r="Y39" s="110"/>
+      <c r="Z39" s="110"/>
+      <c r="AA39" s="110"/>
+      <c r="AB39" s="110"/>
+      <c r="AC39" s="110"/>
+      <c r="AD39" s="110"/>
+      <c r="AE39" s="110"/>
+      <c r="AF39" s="110"/>
+      <c r="AG39" s="110"/>
+      <c r="AH39" s="110"/>
+      <c r="AI39" s="110"/>
+      <c r="AJ39" s="110"/>
+      <c r="AK39" s="110"/>
+      <c r="AL39" s="110"/>
+      <c r="AM39" s="110"/>
+      <c r="AN39" s="110"/>
+      <c r="AO39" s="110"/>
+      <c r="AP39" s="110"/>
+      <c r="AQ39" s="110"/>
+      <c r="AR39" s="110"/>
+      <c r="AS39" s="110"/>
+      <c r="AT39" s="110"/>
+      <c r="AU39" s="110"/>
+      <c r="AV39" s="110"/>
+      <c r="AW39" s="110"/>
+      <c r="AX39" s="110"/>
+      <c r="AY39" s="110"/>
+      <c r="AZ39" s="110"/>
+      <c r="BA39" s="110"/>
+      <c r="BB39" s="110"/>
+      <c r="BC39" s="110"/>
+      <c r="BD39" s="110"/>
+      <c r="BE39" s="110"/>
+      <c r="BF39" s="110"/>
+      <c r="BG39" s="110"/>
+      <c r="BH39" s="110"/>
+      <c r="BI39" s="110"/>
+      <c r="BJ39" s="110"/>
+      <c r="BK39" s="110"/>
+      <c r="BL39" s="110"/>
+      <c r="BM39" s="110"/>
+      <c r="BN39" s="110"/>
+      <c r="BO39" s="110"/>
+      <c r="BP39" s="110"/>
+      <c r="BQ39" s="110"/>
+      <c r="BR39" s="110"/>
+      <c r="BS39" s="110"/>
+      <c r="BT39" s="110"/>
+      <c r="BU39" s="110"/>
+      <c r="BV39" s="110"/>
+      <c r="BW39" s="110"/>
+      <c r="BX39" s="110"/>
+      <c r="BY39" s="110"/>
+      <c r="BZ39" s="110"/>
+      <c r="CA39" s="110"/>
+      <c r="CB39" s="110"/>
+      <c r="CC39" s="110"/>
+      <c r="CD39" s="110"/>
+      <c r="CE39" s="110"/>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="F42" s="2" t="s">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="F43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="51"/>
+    </row>
+    <row r="45" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="F45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="73"/>
+      <c r="I45" s="52"/>
     </row>
-    <row r="44" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="F44" s="2" t="s">
+    <row r="47" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="F47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="74"/>
+      <c r="I47" s="53"/>
     </row>
-    <row r="46" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="F46" s="2" t="s">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I46" s="75"/>
+      <c r="I49" s="54"/>
     </row>
-    <row r="48" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="F48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="76"/>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F50" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="I50" s="107" t="s">
-        <v>31</v>
-      </c>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F51" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CF4:CF37"/>
-    <mergeCell ref="A38:CE38"/>
+    <mergeCell ref="CF4:CF38"/>
+    <mergeCell ref="A39:CE39"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA37"/>
+    <mergeCell ref="T6:AA38"/>
     <mergeCell ref="AZ4:BC4"/>
     <mergeCell ref="BD4:BG4"/>
     <mergeCell ref="BH4:BK4"/>
@@ -5701,7 +5889,7 @@
     <mergeCell ref="D2:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B37">
+  <conditionalFormatting sqref="B6:B38">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>
@@ -5727,15 +5915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5948,7 +6127,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -5959,15 +6138,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5986,7 +6166,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5997,4 +6177,12 @@
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11214"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Explorations-de-galeries-speleologiques\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximebardy/Github/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C80B6B-AFB0-4438-B8BE-A80B03CBC62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675951CF-88CA-B743-858C-3EAFCA5FEC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="46">
   <si>
     <t>Tâches</t>
   </si>
@@ -123,12 +123,6 @@
   </si>
   <si>
     <t>Créer mini-carte fil d’Ariane</t>
-  </si>
-  <si>
-    <t>Intégrer capteurs (température, humidité, pente)</t>
-  </si>
-  <si>
-    <t>Afficher intensité du signal radio</t>
   </si>
   <si>
     <t>Afficher niveau de batterie</t>
@@ -230,9 +224,6 @@
     <t>Tout le groupe:</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Lancement du module</t>
   </si>
   <si>
@@ -240,6 +231,12 @@
   </si>
   <si>
     <t>Créer un interface utilisateur</t>
+  </si>
+  <si>
+    <t>Intégrer capteurs (température, humidité)</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -874,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1172,10 +1169,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1184,9 +1177,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1243,6 +1233,146 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1255,143 +1385,35 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1453,7 +1475,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1532,13 +1554,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>52317</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>52917</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1603,13 +1625,13 @@
     <xdr:from>
       <xdr:col>60</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>29137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>14217</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>149289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1674,13 +1696,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>83</xdr:col>
       <xdr:colOff>74729</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>52918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2092,35 +2114,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH51"/>
+  <dimension ref="A1:CF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AV13" sqref="AV13"/>
+      <selection pane="bottomRight" activeCell="BS18" sqref="BS18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="63" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="3" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" style="2" customWidth="1"/>
-    <col min="7" max="83" width="2.140625" style="2" customWidth="1"/>
-    <col min="84" max="84" width="3.140625" style="3" customWidth="1"/>
-    <col min="85" max="297" width="9.140625" style="3" customWidth="1"/>
-    <col min="298" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="6" width="3.5" style="2" customWidth="1"/>
+    <col min="7" max="83" width="2.1640625" style="2" customWidth="1"/>
+    <col min="84" max="84" width="3.1640625" style="3" customWidth="1"/>
+    <col min="85" max="297" width="9.1640625" style="3" customWidth="1"/>
+    <col min="298" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2162,177 +2184,177 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="107"/>
-      <c r="BC2" s="107"/>
-      <c r="BD2" s="107"/>
-      <c r="BE2" s="107"/>
-      <c r="BF2" s="107"/>
-      <c r="BG2" s="107"/>
-      <c r="BH2" s="107"/>
-      <c r="BI2" s="107"/>
-      <c r="BJ2" s="107"/>
-      <c r="BK2" s="107"/>
-      <c r="BL2" s="107"/>
-      <c r="BM2" s="107"/>
-      <c r="BN2" s="107"/>
-      <c r="BO2" s="107"/>
-      <c r="BP2" s="107"/>
-      <c r="BQ2" s="107"/>
-      <c r="BR2" s="107"/>
-      <c r="BS2" s="107"/>
-      <c r="BT2" s="107"/>
-      <c r="BU2" s="107"/>
-      <c r="BV2" s="107"/>
-      <c r="BW2" s="107"/>
-      <c r="BX2" s="107"/>
-      <c r="BY2" s="107"/>
-      <c r="BZ2" s="107"/>
-      <c r="CA2" s="107"/>
-      <c r="CB2" s="107"/>
-      <c r="CC2" s="107"/>
-      <c r="CD2" s="107"/>
-      <c r="CE2" s="107"/>
+        <v>23</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="131"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="131"/>
+      <c r="AV2" s="131"/>
+      <c r="AW2" s="131"/>
+      <c r="AX2" s="131"/>
+      <c r="AY2" s="131"/>
+      <c r="AZ2" s="131"/>
+      <c r="BA2" s="131"/>
+      <c r="BB2" s="131"/>
+      <c r="BC2" s="131"/>
+      <c r="BD2" s="131"/>
+      <c r="BE2" s="131"/>
+      <c r="BF2" s="131"/>
+      <c r="BG2" s="131"/>
+      <c r="BH2" s="131"/>
+      <c r="BI2" s="131"/>
+      <c r="BJ2" s="131"/>
+      <c r="BK2" s="131"/>
+      <c r="BL2" s="131"/>
+      <c r="BM2" s="131"/>
+      <c r="BN2" s="131"/>
+      <c r="BO2" s="131"/>
+      <c r="BP2" s="131"/>
+      <c r="BQ2" s="131"/>
+      <c r="BR2" s="131"/>
+      <c r="BS2" s="131"/>
+      <c r="BT2" s="131"/>
+      <c r="BU2" s="131"/>
+      <c r="BV2" s="131"/>
+      <c r="BW2" s="131"/>
+      <c r="BX2" s="131"/>
+      <c r="BY2" s="131"/>
+      <c r="BZ2" s="131"/>
+      <c r="CA2" s="131"/>
+      <c r="CB2" s="131"/>
+      <c r="CC2" s="131"/>
+      <c r="CD2" s="131"/>
+      <c r="CE2" s="131"/>
     </row>
-    <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108"/>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="108"/>
-      <c r="BB3" s="108"/>
-      <c r="BC3" s="108"/>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="108"/>
-      <c r="BG3" s="108"/>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="108"/>
-      <c r="BK3" s="108"/>
-      <c r="BL3" s="108"/>
-      <c r="BM3" s="108"/>
-      <c r="BN3" s="108"/>
-      <c r="BO3" s="108"/>
-      <c r="BP3" s="108"/>
-      <c r="BQ3" s="108"/>
-      <c r="BR3" s="108"/>
-      <c r="BS3" s="108"/>
-      <c r="BT3" s="108"/>
-      <c r="BU3" s="108"/>
-      <c r="BV3" s="108"/>
-      <c r="BW3" s="108"/>
-      <c r="BX3" s="108"/>
-      <c r="BY3" s="108"/>
-      <c r="BZ3" s="108"/>
-      <c r="CA3" s="108"/>
-      <c r="CB3" s="108"/>
-      <c r="CC3" s="108"/>
-      <c r="CD3" s="108"/>
-      <c r="CE3" s="108"/>
+    <row r="3" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="132"/>
+      <c r="AH3" s="132"/>
+      <c r="AI3" s="132"/>
+      <c r="AJ3" s="132"/>
+      <c r="AK3" s="132"/>
+      <c r="AL3" s="132"/>
+      <c r="AM3" s="132"/>
+      <c r="AN3" s="132"/>
+      <c r="AO3" s="132"/>
+      <c r="AP3" s="132"/>
+      <c r="AQ3" s="132"/>
+      <c r="AR3" s="132"/>
+      <c r="AS3" s="132"/>
+      <c r="AT3" s="132"/>
+      <c r="AU3" s="132"/>
+      <c r="AV3" s="132"/>
+      <c r="AW3" s="132"/>
+      <c r="AX3" s="132"/>
+      <c r="AY3" s="132"/>
+      <c r="AZ3" s="132"/>
+      <c r="BA3" s="132"/>
+      <c r="BB3" s="132"/>
+      <c r="BC3" s="132"/>
+      <c r="BD3" s="132"/>
+      <c r="BE3" s="132"/>
+      <c r="BF3" s="132"/>
+      <c r="BG3" s="132"/>
+      <c r="BH3" s="132"/>
+      <c r="BI3" s="132"/>
+      <c r="BJ3" s="132"/>
+      <c r="BK3" s="132"/>
+      <c r="BL3" s="132"/>
+      <c r="BM3" s="132"/>
+      <c r="BN3" s="132"/>
+      <c r="BO3" s="132"/>
+      <c r="BP3" s="132"/>
+      <c r="BQ3" s="132"/>
+      <c r="BR3" s="132"/>
+      <c r="BS3" s="132"/>
+      <c r="BT3" s="132"/>
+      <c r="BU3" s="132"/>
+      <c r="BV3" s="132"/>
+      <c r="BW3" s="132"/>
+      <c r="BX3" s="132"/>
+      <c r="BY3" s="132"/>
+      <c r="BZ3" s="132"/>
+      <c r="CA3" s="132"/>
+      <c r="CB3" s="132"/>
+      <c r="CC3" s="132"/>
+      <c r="CD3" s="132"/>
+      <c r="CE3" s="132"/>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A4" s="111" t="s">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A4" s="116" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -2341,132 +2363,132 @@
       <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="103">
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="129">
         <v>45992</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="103">
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="129">
         <v>45993</v>
       </c>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="105" t="s">
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="103">
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="129">
         <v>45999</v>
       </c>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="105" t="s">
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="103">
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="129">
         <v>46000</v>
       </c>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="105" t="s">
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="103">
+      <c r="AK4" s="128"/>
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="129">
         <v>46006</v>
       </c>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="105" t="s">
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="103">
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="128"/>
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="129">
         <v>46007</v>
       </c>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="105" t="s">
+      <c r="AW4" s="129"/>
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="130"/>
+      <c r="AZ4" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="103">
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="128"/>
+      <c r="BD4" s="129">
         <v>46027</v>
       </c>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="105" t="s">
+      <c r="BE4" s="129"/>
+      <c r="BF4" s="129"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="103">
+      <c r="BI4" s="128"/>
+      <c r="BJ4" s="128"/>
+      <c r="BK4" s="128"/>
+      <c r="BL4" s="129">
         <v>46028</v>
       </c>
-      <c r="BM4" s="103"/>
-      <c r="BN4" s="103"/>
-      <c r="BO4" s="104"/>
-      <c r="BP4" s="105" t="s">
+      <c r="BM4" s="129"/>
+      <c r="BN4" s="129"/>
+      <c r="BO4" s="130"/>
+      <c r="BP4" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="106"/>
-      <c r="BR4" s="106"/>
-      <c r="BS4" s="106"/>
-      <c r="BT4" s="103">
+      <c r="BQ4" s="128"/>
+      <c r="BR4" s="128"/>
+      <c r="BS4" s="128"/>
+      <c r="BT4" s="129">
         <v>46034</v>
       </c>
-      <c r="BU4" s="103"/>
-      <c r="BV4" s="103"/>
-      <c r="BW4" s="104"/>
-      <c r="BX4" s="105" t="s">
+      <c r="BU4" s="129"/>
+      <c r="BV4" s="129"/>
+      <c r="BW4" s="130"/>
+      <c r="BX4" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="106"/>
-      <c r="BZ4" s="106"/>
-      <c r="CA4" s="106"/>
-      <c r="CB4" s="103">
+      <c r="BY4" s="128"/>
+      <c r="BZ4" s="128"/>
+      <c r="CA4" s="128"/>
+      <c r="CB4" s="129">
         <v>46035</v>
       </c>
-      <c r="CC4" s="103"/>
-      <c r="CD4" s="103"/>
-      <c r="CE4" s="104"/>
-      <c r="CF4" s="109" t="s">
+      <c r="CC4" s="129"/>
+      <c r="CD4" s="129"/>
+      <c r="CE4" s="130"/>
+      <c r="CF4" s="114" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+    <row r="5" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="117"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
@@ -2713,31 +2735,31 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="109"/>
+      <c r="CF5" s="114"/>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="95" t="s">
-        <v>30</v>
+      <c r="D6" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="93" t="s">
+        <v>28</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="12"/>
@@ -2749,16 +2771,16 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="113" t="s">
+      <c r="T6" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="114"/>
-      <c r="AA6" s="115"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="120"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -2815,11 +2837,11 @@
       <c r="CC6" s="11"/>
       <c r="CD6" s="11"/>
       <c r="CE6" s="12"/>
-      <c r="CF6" s="109"/>
+      <c r="CF6" s="114"/>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="88" t="s">
-        <v>45</v>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A7" s="86" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="15"/>
@@ -2829,44 +2851,44 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="116"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="118"/>
+      <c r="J7" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="121"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="123"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
@@ -2923,11 +2945,11 @@
       <c r="CC7" s="11"/>
       <c r="CD7" s="11"/>
       <c r="CE7" s="12"/>
-      <c r="CF7" s="109"/>
+      <c r="CF7" s="114"/>
     </row>
-    <row r="8" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="15"/>
@@ -2947,35 +2969,35 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="118"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="123"/>
       <c r="AB8" s="59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC8" s="60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD8" s="60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE8" s="60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
       <c r="AI8" s="12"/>
-      <c r="AJ8" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK8" s="125" t="s">
-        <v>30</v>
+      <c r="AJ8" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK8" s="101" t="s">
+        <v>28</v>
       </c>
       <c r="AL8" s="11"/>
       <c r="AM8" s="11"/>
@@ -3023,11 +3045,11 @@
       <c r="CC8" s="11"/>
       <c r="CD8" s="11"/>
       <c r="CE8" s="12"/>
-      <c r="CF8" s="109"/>
+      <c r="CF8" s="114"/>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="15"/>
@@ -3047,35 +3069,35 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="117"/>
-      <c r="AA9" s="118"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="123"/>
       <c r="AB9" s="61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC9" s="62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD9" s="62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE9" s="62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
       <c r="AI9" s="12"/>
-      <c r="AJ9" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK9" s="123" t="s">
-        <v>30</v>
+      <c r="AJ9" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="99" t="s">
+        <v>28</v>
       </c>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
@@ -3123,11 +3145,11 @@
       <c r="CC9" s="11"/>
       <c r="CD9" s="11"/>
       <c r="CE9" s="12"/>
-      <c r="CF9" s="109"/>
+      <c r="CF9" s="114"/>
     </row>
-    <row r="10" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="15"/>
@@ -3147,35 +3169,35 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="118"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="123"/>
       <c r="AB10" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC10" s="57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD10" s="57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE10" s="57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="12"/>
-      <c r="AJ10" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK10" s="127" t="s">
-        <v>30</v>
+      <c r="AJ10" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK10" s="103" t="s">
+        <v>28</v>
       </c>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
@@ -3223,11 +3245,11 @@
       <c r="CC10" s="11"/>
       <c r="CD10" s="11"/>
       <c r="CE10" s="12"/>
-      <c r="CF10" s="109"/>
+      <c r="CF10" s="114"/>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="15"/>
@@ -3247,35 +3269,35 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="117"/>
-      <c r="AA11" s="118"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="123"/>
       <c r="AB11" s="55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC11" s="58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD11" s="58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE11" s="58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF11" s="11"/>
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
       <c r="AI11" s="12"/>
-      <c r="AJ11" s="128" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK11" s="129" t="s">
-        <v>30</v>
+      <c r="AJ11" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK11" s="105" t="s">
+        <v>28</v>
       </c>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
@@ -3323,11 +3345,11 @@
       <c r="CC11" s="11"/>
       <c r="CD11" s="11"/>
       <c r="CE11" s="12"/>
-      <c r="CF11" s="109"/>
+      <c r="CF11" s="114"/>
     </row>
-    <row r="12" spans="1:84" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="15"/>
@@ -3347,14 +3369,14 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="118"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="123"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -3411,11 +3433,11 @@
       <c r="CC12" s="17"/>
       <c r="CD12" s="17"/>
       <c r="CE12" s="18"/>
-      <c r="CF12" s="109"/>
+      <c r="CF12" s="114"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="15"/>
@@ -3435,14 +3457,14 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="118"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="123"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -3453,11 +3475,11 @@
       <c r="AI13" s="18"/>
       <c r="AJ13" s="64"/>
       <c r="AK13" s="65"/>
-      <c r="AL13" s="131" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM13" s="131" t="s">
-        <v>30</v>
+      <c r="AL13" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM13" s="107" t="s">
+        <v>28</v>
       </c>
       <c r="AN13" s="65"/>
       <c r="AO13" s="65"/>
@@ -3503,11 +3525,11 @@
       <c r="CC13" s="17"/>
       <c r="CD13" s="17"/>
       <c r="CE13" s="18"/>
-      <c r="CF13" s="109"/>
+      <c r="CF13" s="114"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A14" s="39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="15"/>
@@ -3527,14 +3549,14 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="118"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="123"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -3547,15 +3569,15 @@
       <c r="AK14" s="67"/>
       <c r="AL14" s="70"/>
       <c r="AM14" s="67"/>
-      <c r="AN14" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO14" s="132" t="s">
-        <v>30</v>
+      <c r="AN14" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO14" s="108" t="s">
+        <v>28</v>
       </c>
       <c r="AP14" s="67"/>
       <c r="AQ14" s="68"/>
-      <c r="AR14" s="87"/>
+      <c r="AR14" s="85"/>
       <c r="AS14" s="17"/>
       <c r="AT14" s="17"/>
       <c r="AU14" s="17"/>
@@ -3595,11 +3617,11 @@
       <c r="CC14" s="17"/>
       <c r="CD14" s="17"/>
       <c r="CE14" s="18"/>
-      <c r="CF14" s="109"/>
+      <c r="CF14" s="114"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="15"/>
@@ -3619,14 +3641,14 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="118"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="122"/>
+      <c r="X15" s="122"/>
+      <c r="Y15" s="122"/>
+      <c r="Z15" s="122"/>
+      <c r="AA15" s="123"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
@@ -3640,8 +3662,8 @@
       <c r="AL15" s="75"/>
       <c r="AM15" s="74"/>
       <c r="AN15" s="74"/>
-      <c r="AO15" s="133" t="s">
-        <v>30</v>
+      <c r="AO15" s="109" t="s">
+        <v>28</v>
       </c>
       <c r="AP15" s="17"/>
       <c r="AQ15" s="18"/>
@@ -3685,11 +3707,11 @@
       <c r="CC15" s="17"/>
       <c r="CD15" s="17"/>
       <c r="CE15" s="18"/>
-      <c r="CF15" s="109"/>
+      <c r="CF15" s="114"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="15"/>
@@ -3709,14 +3731,14 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="118"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="123"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
@@ -3731,8 +3753,8 @@
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
       <c r="AO16" s="74"/>
-      <c r="AP16" s="134" t="s">
-        <v>30</v>
+      <c r="AP16" s="110" t="s">
+        <v>28</v>
       </c>
       <c r="AQ16" s="77"/>
       <c r="AR16" s="73"/>
@@ -3775,11 +3797,11 @@
       <c r="CC16" s="17"/>
       <c r="CD16" s="17"/>
       <c r="CE16" s="18"/>
-      <c r="CF16" s="109"/>
+      <c r="CF16" s="114"/>
     </row>
-    <row r="17" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="15"/>
@@ -3799,14 +3821,14 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="118"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="122"/>
+      <c r="Y17" s="122"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="123"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
@@ -3863,11 +3885,11 @@
       <c r="CC17" s="17"/>
       <c r="CD17" s="17"/>
       <c r="CE17" s="18"/>
-      <c r="CF17" s="109"/>
+      <c r="CF17" s="114"/>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A18" s="99" t="s">
-        <v>46</v>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A18" s="97" t="s">
+        <v>43</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="15"/>
@@ -3887,14 +3909,14 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="118"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="123"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
@@ -3905,23 +3927,23 @@
       <c r="AI18" s="18"/>
       <c r="AJ18" s="16"/>
       <c r="AK18" s="17"/>
-      <c r="AL18" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM18" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN18" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO18" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP18" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ18" s="130" t="s">
-        <v>30</v>
+      <c r="AL18" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM18" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN18" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO18" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP18" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ18" s="106" t="s">
+        <v>28</v>
       </c>
       <c r="AR18" s="71"/>
       <c r="AS18" s="17"/>
@@ -3931,18 +3953,28 @@
       <c r="AW18" s="17"/>
       <c r="AX18" s="17"/>
       <c r="AY18" s="18"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
+      <c r="AZ18" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA18" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB18" s="78"/>
       <c r="BC18" s="17"/>
       <c r="BD18" s="17"/>
       <c r="BE18" s="17"/>
       <c r="BF18" s="17"/>
       <c r="BG18" s="18"/>
-      <c r="BH18" s="16"/>
-      <c r="BI18" s="17"/>
-      <c r="BJ18" s="17"/>
-      <c r="BK18" s="17"/>
+      <c r="BH18" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI18" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ18" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK18" s="78"/>
       <c r="BL18" s="17"/>
       <c r="BM18" s="17"/>
       <c r="BN18" s="17"/>
@@ -3963,11 +3995,11 @@
       <c r="CC18" s="17"/>
       <c r="CD18" s="17"/>
       <c r="CE18" s="18"/>
-      <c r="CF18" s="109"/>
+      <c r="CF18" s="114"/>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A19" s="63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="15"/>
@@ -3987,14 +4019,14 @@
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="118"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="122"/>
+      <c r="X19" s="122"/>
+      <c r="Y19" s="122"/>
+      <c r="Z19" s="122"/>
+      <c r="AA19" s="123"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
@@ -4005,40 +4037,52 @@
       <c r="AI19" s="18"/>
       <c r="AJ19" s="16"/>
       <c r="AK19" s="17"/>
-      <c r="AL19" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM19" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN19" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO19" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP19" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ19" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR19" s="86"/>
+      <c r="AL19" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM19" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN19" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO19" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP19" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ19" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR19" s="84"/>
       <c r="AS19" s="76"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="17"/>
+      <c r="AT19" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU19" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV19" s="78"/>
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
       <c r="AY19" s="18"/>
-      <c r="AZ19" s="71"/>
-      <c r="BA19" s="72"/>
-      <c r="BB19" s="72"/>
-      <c r="BC19" s="72"/>
+      <c r="AZ19" s="143" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA19" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB19" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC19" s="139" t="s">
+        <v>45</v>
+      </c>
       <c r="BD19" s="72"/>
       <c r="BE19" s="72"/>
       <c r="BF19" s="72"/>
-      <c r="BG19" s="82"/>
+      <c r="BG19" s="81"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="17"/>
@@ -4063,11 +4107,11 @@
       <c r="CC19" s="17"/>
       <c r="CD19" s="17"/>
       <c r="CE19" s="18"/>
-      <c r="CF19" s="109"/>
+      <c r="CF19" s="114"/>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A20" s="43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="15"/>
@@ -4087,14 +4131,14 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="118"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="123"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
@@ -4111,7 +4155,7 @@
       <c r="AO20" s="17"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="18"/>
-      <c r="AR20" s="85"/>
+      <c r="AR20" s="83"/>
       <c r="AS20" s="76"/>
       <c r="AT20" s="74"/>
       <c r="AU20" s="74"/>
@@ -4130,19 +4174,25 @@
       <c r="BH20" s="16"/>
       <c r="BI20" s="17"/>
       <c r="BJ20" s="17"/>
-      <c r="BK20" s="17"/>
-      <c r="BL20" s="17"/>
-      <c r="BM20" s="17"/>
-      <c r="BN20" s="17"/>
-      <c r="BO20" s="18"/>
+      <c r="BK20" s="78"/>
+      <c r="BL20" s="78"/>
+      <c r="BM20" s="78"/>
+      <c r="BN20" s="78"/>
+      <c r="BO20" s="138"/>
       <c r="BP20" s="16"/>
       <c r="BQ20" s="17"/>
       <c r="BR20" s="17"/>
       <c r="BS20" s="17"/>
       <c r="BT20" s="17"/>
-      <c r="BU20" s="17"/>
-      <c r="BV20" s="17"/>
-      <c r="BW20" s="18"/>
+      <c r="BU20" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV20" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW20" s="138" t="s">
+        <v>45</v>
+      </c>
       <c r="BX20" s="16"/>
       <c r="BY20" s="17"/>
       <c r="BZ20" s="17"/>
@@ -4151,11 +4201,11 @@
       <c r="CC20" s="17"/>
       <c r="CD20" s="17"/>
       <c r="CE20" s="18"/>
-      <c r="CF20" s="109"/>
+      <c r="CF20" s="114"/>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A21" s="63" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="15"/>
@@ -4175,14 +4225,14 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="118"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="123"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
@@ -4199,34 +4249,62 @@
       <c r="AO21" s="17"/>
       <c r="AP21" s="17"/>
       <c r="AQ21" s="18"/>
-      <c r="AR21" s="85"/>
-      <c r="AS21" s="76"/>
-      <c r="AT21" s="67"/>
-      <c r="AU21" s="67"/>
-      <c r="AV21" s="17"/>
-      <c r="AW21" s="17"/>
-      <c r="AX21" s="17"/>
-      <c r="AY21" s="18"/>
-      <c r="AZ21" s="66"/>
-      <c r="BA21" s="67"/>
-      <c r="BB21" s="67"/>
-      <c r="BC21" s="67"/>
-      <c r="BD21" s="67"/>
-      <c r="BE21" s="67"/>
-      <c r="BF21" s="67"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="16"/>
-      <c r="BI21" s="17"/>
-      <c r="BJ21" s="17"/>
-      <c r="BK21" s="17"/>
-      <c r="BL21" s="17"/>
+      <c r="AR21" s="84"/>
+      <c r="AS21" s="80"/>
+      <c r="AT21" s="136"/>
+      <c r="AU21" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="78"/>
+      <c r="AX21" s="78"/>
+      <c r="AY21" s="138"/>
+      <c r="AZ21" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA21" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB21" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC21" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD21" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE21" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF21" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG21" s="69"/>
+      <c r="BH21" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI21" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ21" s="78"/>
+      <c r="BK21" s="78"/>
+      <c r="BL21" s="78"/>
       <c r="BM21" s="17"/>
       <c r="BN21" s="17"/>
       <c r="BO21" s="18"/>
-      <c r="BP21" s="16"/>
-      <c r="BQ21" s="17"/>
-      <c r="BR21" s="17"/>
-      <c r="BS21" s="17"/>
+      <c r="BP21" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="BQ21" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR21" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS21" s="78" t="s">
+        <v>45</v>
+      </c>
       <c r="BT21" s="17"/>
       <c r="BU21" s="17"/>
       <c r="BV21" s="17"/>
@@ -4239,14 +4317,11 @@
       <c r="CC21" s="17"/>
       <c r="CD21" s="17"/>
       <c r="CE21" s="18"/>
-      <c r="CF21" s="109"/>
-      <c r="CH21" s="84" t="s">
-        <v>43</v>
-      </c>
+      <c r="CF21" s="114"/>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A22" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="15"/>
@@ -4266,14 +4341,14 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="118"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="122"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="122"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="123"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
@@ -4290,33 +4365,41 @@
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="18"/>
-      <c r="AR22" s="86"/>
-      <c r="AS22" s="76"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="65"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
       <c r="AV22" s="17"/>
       <c r="AW22" s="17"/>
       <c r="AX22" s="17"/>
       <c r="AY22" s="18"/>
-      <c r="AZ22" s="79"/>
-      <c r="BA22" s="65"/>
-      <c r="BB22" s="65"/>
-      <c r="BC22" s="65"/>
-      <c r="BD22" s="65"/>
-      <c r="BE22" s="65"/>
-      <c r="BF22" s="65"/>
-      <c r="BG22" s="69"/>
-      <c r="BH22" s="16"/>
-      <c r="BI22" s="17"/>
-      <c r="BJ22" s="17"/>
-      <c r="BK22" s="17"/>
-      <c r="BL22" s="17"/>
-      <c r="BM22" s="17"/>
-      <c r="BN22" s="17"/>
-      <c r="BO22" s="18"/>
-      <c r="BP22" s="16"/>
-      <c r="BQ22" s="17"/>
-      <c r="BR22" s="17"/>
+      <c r="AZ22" s="137"/>
+      <c r="BA22" s="78"/>
+      <c r="BB22" s="78"/>
+      <c r="BC22" s="80"/>
+      <c r="BD22" s="80"/>
+      <c r="BE22" s="80"/>
+      <c r="BF22" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG22" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH22" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI22" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ22" s="74"/>
+      <c r="BK22" s="74"/>
+      <c r="BL22" s="74"/>
+      <c r="BM22" s="74"/>
+      <c r="BN22" s="74"/>
+      <c r="BO22" s="77"/>
+      <c r="BP22" s="73"/>
+      <c r="BQ22" s="74"/>
+      <c r="BR22" s="74"/>
       <c r="BS22" s="17"/>
       <c r="BT22" s="17"/>
       <c r="BU22" s="17"/>
@@ -4330,11 +4413,11 @@
       <c r="CC22" s="17"/>
       <c r="CD22" s="17"/>
       <c r="CE22" s="18"/>
-      <c r="CF22" s="109"/>
+      <c r="CF22" s="114"/>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
-        <v>16</v>
+    <row r="23" spans="1:84" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="15"/>
@@ -4354,14 +4437,14 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="118"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="122"/>
+      <c r="X23" s="122"/>
+      <c r="Y23" s="122"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="123"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
@@ -4389,22 +4472,22 @@
       <c r="AZ23" s="16"/>
       <c r="BA23" s="17"/>
       <c r="BB23" s="17"/>
-      <c r="BC23" s="80"/>
-      <c r="BD23" s="76"/>
-      <c r="BE23" s="76"/>
-      <c r="BF23" s="76"/>
-      <c r="BG23" s="81"/>
-      <c r="BH23" s="85"/>
-      <c r="BI23" s="74"/>
-      <c r="BJ23" s="74"/>
-      <c r="BK23" s="74"/>
-      <c r="BL23" s="74"/>
-      <c r="BM23" s="74"/>
-      <c r="BN23" s="74"/>
-      <c r="BO23" s="77"/>
-      <c r="BP23" s="73"/>
-      <c r="BQ23" s="74"/>
-      <c r="BR23" s="74"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="18"/>
+      <c r="BH23" s="16"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17"/>
+      <c r="BK23" s="17"/>
+      <c r="BL23" s="17"/>
+      <c r="BM23" s="17"/>
+      <c r="BN23" s="17"/>
+      <c r="BO23" s="18"/>
+      <c r="BP23" s="16"/>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="17"/>
       <c r="BS23" s="17"/>
       <c r="BT23" s="17"/>
       <c r="BU23" s="17"/>
@@ -4418,11 +4501,11 @@
       <c r="CC23" s="17"/>
       <c r="CD23" s="17"/>
       <c r="CE23" s="18"/>
-      <c r="CF23" s="109"/>
+      <c r="CF23" s="114"/>
     </row>
-    <row r="24" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>39</v>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A24" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="15"/>
@@ -4442,14 +4525,14 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="118"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="122"/>
+      <c r="W24" s="122"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="123"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
@@ -4474,30 +4557,44 @@
       <c r="AW24" s="17"/>
       <c r="AX24" s="17"/>
       <c r="AY24" s="18"/>
-      <c r="AZ24" s="16"/>
-      <c r="BA24" s="17"/>
-      <c r="BB24" s="17"/>
+      <c r="AZ24" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA24" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB24" s="78"/>
       <c r="BC24" s="17"/>
       <c r="BD24" s="17"/>
-      <c r="BE24" s="17"/>
-      <c r="BF24" s="17"/>
-      <c r="BG24" s="18"/>
-      <c r="BH24" s="16"/>
-      <c r="BI24" s="17"/>
-      <c r="BJ24" s="17"/>
-      <c r="BK24" s="17"/>
+      <c r="BE24" s="78"/>
+      <c r="BF24" s="78"/>
+      <c r="BG24" s="138"/>
+      <c r="BH24" s="83"/>
+      <c r="BI24" s="70"/>
+      <c r="BJ24" s="70"/>
+      <c r="BK24" s="67"/>
       <c r="BL24" s="17"/>
       <c r="BM24" s="17"/>
-      <c r="BN24" s="17"/>
+      <c r="BN24" s="78"/>
       <c r="BO24" s="18"/>
-      <c r="BP24" s="16"/>
-      <c r="BQ24" s="17"/>
-      <c r="BR24" s="17"/>
+      <c r="BP24" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="BQ24" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR24" s="70" t="s">
+        <v>45</v>
+      </c>
       <c r="BS24" s="17"/>
-      <c r="BT24" s="17"/>
-      <c r="BU24" s="17"/>
-      <c r="BV24" s="17"/>
-      <c r="BW24" s="18"/>
+      <c r="BT24" s="78"/>
+      <c r="BU24" s="78"/>
+      <c r="BV24" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW24" s="138" t="s">
+        <v>45</v>
+      </c>
       <c r="BX24" s="16"/>
       <c r="BY24" s="17"/>
       <c r="BZ24" s="17"/>
@@ -4506,11 +4603,11 @@
       <c r="CC24" s="17"/>
       <c r="CD24" s="17"/>
       <c r="CE24" s="18"/>
-      <c r="CF24" s="109"/>
+      <c r="CF24" s="114"/>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A25" s="41" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="15"/>
@@ -4530,14 +4627,14 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="116"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="118"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="123"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
@@ -4563,24 +4660,32 @@
       <c r="AX25" s="17"/>
       <c r="AY25" s="18"/>
       <c r="AZ25" s="16"/>
-      <c r="BA25" s="17"/>
-      <c r="BB25" s="17"/>
+      <c r="BA25" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB25" s="78" t="s">
+        <v>45</v>
+      </c>
       <c r="BC25" s="17"/>
       <c r="BD25" s="17"/>
       <c r="BE25" s="17"/>
       <c r="BF25" s="17"/>
       <c r="BG25" s="18"/>
-      <c r="BH25" s="85"/>
-      <c r="BI25" s="67"/>
-      <c r="BJ25" s="67"/>
-      <c r="BK25" s="67"/>
+      <c r="BH25" s="83"/>
+      <c r="BI25" s="65"/>
+      <c r="BJ25" s="139"/>
+      <c r="BK25" s="136"/>
       <c r="BL25" s="17"/>
       <c r="BM25" s="17"/>
       <c r="BN25" s="17"/>
       <c r="BO25" s="18"/>
-      <c r="BP25" s="66"/>
-      <c r="BQ25" s="67"/>
-      <c r="BR25" s="67"/>
+      <c r="BP25" s="71"/>
+      <c r="BQ25" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR25" s="139" t="s">
+        <v>45</v>
+      </c>
       <c r="BS25" s="17"/>
       <c r="BT25" s="17"/>
       <c r="BU25" s="17"/>
@@ -4594,287 +4699,311 @@
       <c r="CC25" s="17"/>
       <c r="CD25" s="17"/>
       <c r="CE25" s="18"/>
-      <c r="CF25" s="109"/>
+      <c r="CF25" s="114"/>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="116"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="118"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="18"/>
-      <c r="AR26" s="16"/>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
-      <c r="AW26" s="17"/>
-      <c r="AX26" s="17"/>
-      <c r="AY26" s="18"/>
-      <c r="AZ26" s="16"/>
-      <c r="BA26" s="17"/>
-      <c r="BB26" s="17"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="17"/>
-      <c r="BE26" s="17"/>
-      <c r="BF26" s="17"/>
-      <c r="BG26" s="18"/>
-      <c r="BH26" s="85"/>
-      <c r="BI26" s="65"/>
-      <c r="BJ26" s="72"/>
-      <c r="BK26" s="65"/>
-      <c r="BL26" s="17"/>
-      <c r="BM26" s="17"/>
-      <c r="BN26" s="17"/>
-      <c r="BO26" s="18"/>
-      <c r="BP26" s="71"/>
-      <c r="BQ26" s="65"/>
-      <c r="BR26" s="72"/>
-      <c r="BS26" s="17"/>
-      <c r="BT26" s="17"/>
-      <c r="BU26" s="17"/>
-      <c r="BV26" s="17"/>
-      <c r="BW26" s="18"/>
-      <c r="BX26" s="16"/>
-      <c r="BY26" s="17"/>
-      <c r="BZ26" s="17"/>
-      <c r="CA26" s="17"/>
-      <c r="CB26" s="17"/>
-      <c r="CC26" s="17"/>
-      <c r="CD26" s="17"/>
-      <c r="CE26" s="18"/>
-      <c r="CF26" s="109"/>
+    <row r="26" spans="1:84" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="122"/>
+      <c r="W26" s="122"/>
+      <c r="X26" s="122"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="122"/>
+      <c r="AA26" s="123"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="33"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="31"/>
+      <c r="AX26" s="31"/>
+      <c r="AY26" s="34"/>
+      <c r="AZ26" s="33"/>
+      <c r="BA26" s="31"/>
+      <c r="BB26" s="31"/>
+      <c r="BC26" s="31"/>
+      <c r="BD26" s="31"/>
+      <c r="BE26" s="31"/>
+      <c r="BF26" s="31"/>
+      <c r="BG26" s="34"/>
+      <c r="BH26" s="33"/>
+      <c r="BI26" s="31"/>
+      <c r="BJ26" s="31"/>
+      <c r="BK26" s="31"/>
+      <c r="BL26" s="31"/>
+      <c r="BM26" s="31"/>
+      <c r="BN26" s="31"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="33"/>
+      <c r="BQ26" s="31"/>
+      <c r="BR26" s="31"/>
+      <c r="BS26" s="31"/>
+      <c r="BT26" s="31"/>
+      <c r="BU26" s="31"/>
+      <c r="BV26" s="31"/>
+      <c r="BW26" s="34"/>
+      <c r="BX26" s="33"/>
+      <c r="BY26" s="31"/>
+      <c r="BZ26" s="31"/>
+      <c r="CA26" s="31"/>
+      <c r="CB26" s="31"/>
+      <c r="CC26" s="31"/>
+      <c r="CD26" s="31"/>
+      <c r="CE26" s="34"/>
+      <c r="CF26" s="114"/>
     </row>
-    <row r="27" spans="1:86" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="116"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="117"/>
-      <c r="Y27" s="117"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="31"/>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="31"/>
-      <c r="AN27" s="31"/>
-      <c r="AO27" s="31"/>
-      <c r="AP27" s="31"/>
-      <c r="AQ27" s="34"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31"/>
-      <c r="AU27" s="31"/>
-      <c r="AV27" s="31"/>
-      <c r="AW27" s="31"/>
-      <c r="AX27" s="31"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="31"/>
-      <c r="BB27" s="31"/>
-      <c r="BC27" s="31"/>
-      <c r="BD27" s="31"/>
-      <c r="BE27" s="31"/>
-      <c r="BF27" s="31"/>
-      <c r="BG27" s="34"/>
-      <c r="BH27" s="33"/>
-      <c r="BI27" s="31"/>
-      <c r="BJ27" s="31"/>
-      <c r="BK27" s="31"/>
-      <c r="BL27" s="31"/>
-      <c r="BM27" s="31"/>
-      <c r="BN27" s="31"/>
-      <c r="BO27" s="34"/>
-      <c r="BP27" s="33"/>
-      <c r="BQ27" s="31"/>
-      <c r="BR27" s="31"/>
-      <c r="BS27" s="31"/>
-      <c r="BT27" s="31"/>
-      <c r="BU27" s="31"/>
-      <c r="BV27" s="31"/>
-      <c r="BW27" s="34"/>
-      <c r="BX27" s="33"/>
-      <c r="BY27" s="31"/>
-      <c r="BZ27" s="31"/>
-      <c r="CA27" s="31"/>
-      <c r="CB27" s="31"/>
-      <c r="CC27" s="31"/>
-      <c r="CD27" s="31"/>
-      <c r="CE27" s="34"/>
-      <c r="CF27" s="109"/>
+    <row r="27" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A27" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="122"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="123"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="89"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="88"/>
+      <c r="AK27" s="89"/>
+      <c r="AL27" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM27" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN27" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO27" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP27" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ27" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR27" s="88"/>
+      <c r="AS27" s="89"/>
+      <c r="AT27" s="89"/>
+      <c r="AU27" s="89"/>
+      <c r="AV27" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="88"/>
+      <c r="BA27" s="89"/>
+      <c r="BB27" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC27" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD27" s="89"/>
+      <c r="BE27" s="91"/>
+      <c r="BF27" s="91"/>
+      <c r="BG27" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH27" s="141"/>
+      <c r="BI27" s="89"/>
+      <c r="BJ27" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK27" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL27" s="89"/>
+      <c r="BM27" s="91"/>
+      <c r="BN27" s="91"/>
+      <c r="BO27" s="92"/>
+      <c r="BP27" s="88"/>
+      <c r="BQ27" s="89"/>
+      <c r="BR27" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS27" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="BT27" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="BU27" s="89"/>
+      <c r="BV27" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW27" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="BX27" s="88"/>
+      <c r="BY27" s="89"/>
+      <c r="BZ27" s="89"/>
+      <c r="CA27" s="89"/>
+      <c r="CB27" s="89"/>
+      <c r="CC27" s="89"/>
+      <c r="CD27" s="89"/>
+      <c r="CE27" s="90"/>
+      <c r="CF27" s="114"/>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
-        <v>14</v>
+    <row r="28" spans="1:84" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="117"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="118"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="91"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="90"/>
-      <c r="AK28" s="91"/>
-      <c r="AL28" s="136" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM28" s="136" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN28" s="136" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO28" s="136" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP28" s="136" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ28" s="135" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR28" s="90"/>
-      <c r="AS28" s="91"/>
-      <c r="AT28" s="91"/>
-      <c r="AU28" s="91"/>
-      <c r="AV28" s="91"/>
-      <c r="AW28" s="91"/>
-      <c r="AX28" s="91"/>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="90"/>
-      <c r="BA28" s="91"/>
-      <c r="BB28" s="91"/>
-      <c r="BC28" s="91"/>
-      <c r="BD28" s="91"/>
-      <c r="BE28" s="91"/>
-      <c r="BF28" s="91"/>
-      <c r="BG28" s="92"/>
-      <c r="BH28" s="90"/>
-      <c r="BI28" s="91"/>
-      <c r="BJ28" s="91"/>
-      <c r="BK28" s="91"/>
-      <c r="BL28" s="91"/>
-      <c r="BM28" s="91"/>
-      <c r="BN28" s="91"/>
-      <c r="BO28" s="92"/>
-      <c r="BP28" s="90"/>
-      <c r="BQ28" s="91"/>
-      <c r="BR28" s="91"/>
-      <c r="BS28" s="91"/>
-      <c r="BT28" s="91"/>
-      <c r="BU28" s="91"/>
-      <c r="BV28" s="91"/>
-      <c r="BW28" s="92"/>
-      <c r="BX28" s="90"/>
-      <c r="BY28" s="91"/>
-      <c r="BZ28" s="91"/>
-      <c r="CA28" s="91"/>
-      <c r="CB28" s="91"/>
-      <c r="CC28" s="91"/>
-      <c r="CD28" s="91"/>
-      <c r="CE28" s="92"/>
-      <c r="CF28" s="109"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="122"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="123"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="16"/>
+      <c r="AS28" s="17"/>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="17"/>
+      <c r="AV28" s="17"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="18"/>
+      <c r="AZ28" s="16"/>
+      <c r="BA28" s="17"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="17"/>
+      <c r="BD28" s="17"/>
+      <c r="BE28" s="17"/>
+      <c r="BF28" s="17"/>
+      <c r="BG28" s="18"/>
+      <c r="BH28" s="16"/>
+      <c r="BI28" s="17"/>
+      <c r="BJ28" s="17"/>
+      <c r="BK28" s="17"/>
+      <c r="BL28" s="17"/>
+      <c r="BM28" s="17"/>
+      <c r="BN28" s="17"/>
+      <c r="BO28" s="18"/>
+      <c r="BP28" s="16"/>
+      <c r="BQ28" s="17"/>
+      <c r="BR28" s="17"/>
+      <c r="BS28" s="17"/>
+      <c r="BT28" s="17"/>
+      <c r="BU28" s="17"/>
+      <c r="BV28" s="17"/>
+      <c r="BW28" s="18"/>
+      <c r="BX28" s="16"/>
+      <c r="BY28" s="17"/>
+      <c r="BZ28" s="17"/>
+      <c r="CA28" s="17"/>
+      <c r="CB28" s="17"/>
+      <c r="CC28" s="17"/>
+      <c r="CD28" s="17"/>
+      <c r="CE28" s="18"/>
+      <c r="CF28" s="114"/>
     </row>
-    <row r="29" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>26</v>
+    <row r="29" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A29" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="15"/>
@@ -4894,14 +5023,14 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="118"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="122"/>
+      <c r="X29" s="122"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="123"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
@@ -4945,11 +5074,11 @@
       <c r="BP29" s="16"/>
       <c r="BQ29" s="17"/>
       <c r="BR29" s="17"/>
-      <c r="BS29" s="17"/>
-      <c r="BT29" s="17"/>
-      <c r="BU29" s="17"/>
-      <c r="BV29" s="17"/>
-      <c r="BW29" s="18"/>
+      <c r="BS29" s="91"/>
+      <c r="BT29" s="91"/>
+      <c r="BU29" s="78"/>
+      <c r="BV29" s="91"/>
+      <c r="BW29" s="92"/>
       <c r="BX29" s="16"/>
       <c r="BY29" s="17"/>
       <c r="BZ29" s="17"/>
@@ -4958,11 +5087,11 @@
       <c r="CC29" s="17"/>
       <c r="CD29" s="17"/>
       <c r="CE29" s="18"/>
-      <c r="CF29" s="109"/>
+      <c r="CF29" s="114"/>
     </row>
-    <row r="30" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A30" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="15"/>
@@ -4982,14 +5111,14 @@
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="118"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="122"/>
+      <c r="AA30" s="123"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
@@ -5033,11 +5162,11 @@
       <c r="BP30" s="16"/>
       <c r="BQ30" s="17"/>
       <c r="BR30" s="17"/>
-      <c r="BS30" s="93"/>
-      <c r="BT30" s="93"/>
-      <c r="BU30" s="78"/>
-      <c r="BV30" s="93"/>
-      <c r="BW30" s="94"/>
+      <c r="BS30" s="89"/>
+      <c r="BT30" s="89"/>
+      <c r="BU30" s="17"/>
+      <c r="BV30" s="89"/>
+      <c r="BW30" s="90"/>
       <c r="BX30" s="16"/>
       <c r="BY30" s="17"/>
       <c r="BZ30" s="17"/>
@@ -5046,11 +5175,11 @@
       <c r="CC30" s="17"/>
       <c r="CD30" s="17"/>
       <c r="CE30" s="18"/>
-      <c r="CF30" s="109"/>
+      <c r="CF30" s="114"/>
     </row>
-    <row r="31" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A31" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="15"/>
@@ -5070,14 +5199,14 @@
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="118"/>
+      <c r="T31" s="121"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="123"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
@@ -5121,11 +5250,11 @@
       <c r="BP31" s="16"/>
       <c r="BQ31" s="17"/>
       <c r="BR31" s="17"/>
-      <c r="BS31" s="91"/>
-      <c r="BT31" s="91"/>
+      <c r="BS31" s="89"/>
+      <c r="BT31" s="89"/>
       <c r="BU31" s="17"/>
-      <c r="BV31" s="91"/>
-      <c r="BW31" s="92"/>
+      <c r="BV31" s="89"/>
+      <c r="BW31" s="90"/>
       <c r="BX31" s="16"/>
       <c r="BY31" s="17"/>
       <c r="BZ31" s="17"/>
@@ -5134,12 +5263,10 @@
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
       <c r="CE31" s="18"/>
-      <c r="CF31" s="109"/>
+      <c r="CF31" s="114"/>
     </row>
-    <row r="32" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
-        <v>11</v>
-      </c>
+    <row r="32" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
       <c r="B32" s="25"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -5158,14 +5285,14 @@
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="117"/>
-      <c r="X32" s="117"/>
-      <c r="Y32" s="117"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="118"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="123"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
@@ -5209,11 +5336,11 @@
       <c r="BP32" s="16"/>
       <c r="BQ32" s="17"/>
       <c r="BR32" s="17"/>
-      <c r="BS32" s="91"/>
-      <c r="BT32" s="91"/>
+      <c r="BS32" s="17"/>
+      <c r="BT32" s="17"/>
       <c r="BU32" s="17"/>
-      <c r="BV32" s="91"/>
-      <c r="BW32" s="92"/>
+      <c r="BV32" s="17"/>
+      <c r="BW32" s="18"/>
       <c r="BX32" s="16"/>
       <c r="BY32" s="17"/>
       <c r="BZ32" s="17"/>
@@ -5222,9 +5349,9 @@
       <c r="CC32" s="17"/>
       <c r="CD32" s="17"/>
       <c r="CE32" s="18"/>
-      <c r="CF32" s="109"/>
+      <c r="CF32" s="114"/>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="25"/>
       <c r="C33" s="15"/>
@@ -5244,14 +5371,14 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="118"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="122"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
+      <c r="AA33" s="123"/>
       <c r="AB33" s="16"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
@@ -5308,9 +5435,9 @@
       <c r="CC33" s="17"/>
       <c r="CD33" s="17"/>
       <c r="CE33" s="18"/>
-      <c r="CF33" s="109"/>
+      <c r="CF33" s="114"/>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="25"/>
       <c r="C34" s="15"/>
@@ -5330,14 +5457,14 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="118"/>
+      <c r="T34" s="121"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="122"/>
+      <c r="W34" s="122"/>
+      <c r="X34" s="122"/>
+      <c r="Y34" s="122"/>
+      <c r="Z34" s="122"/>
+      <c r="AA34" s="123"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
@@ -5394,9 +5521,9 @@
       <c r="CC34" s="17"/>
       <c r="CD34" s="17"/>
       <c r="CE34" s="18"/>
-      <c r="CF34" s="109"/>
+      <c r="CF34" s="114"/>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="25"/>
       <c r="C35" s="15"/>
@@ -5416,14 +5543,14 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="116"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="117"/>
-      <c r="W35" s="117"/>
-      <c r="X35" s="117"/>
-      <c r="Y35" s="117"/>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="118"/>
+      <c r="T35" s="121"/>
+      <c r="U35" s="122"/>
+      <c r="V35" s="122"/>
+      <c r="W35" s="122"/>
+      <c r="X35" s="122"/>
+      <c r="Y35" s="122"/>
+      <c r="Z35" s="122"/>
+      <c r="AA35" s="123"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
@@ -5480,9 +5607,9 @@
       <c r="CC35" s="17"/>
       <c r="CD35" s="17"/>
       <c r="CE35" s="18"/>
-      <c r="CF35" s="109"/>
+      <c r="CF35" s="114"/>
     </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="25"/>
       <c r="C36" s="15"/>
@@ -5502,14 +5629,14 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="117"/>
-      <c r="W36" s="117"/>
-      <c r="X36" s="117"/>
-      <c r="Y36" s="117"/>
-      <c r="Z36" s="117"/>
-      <c r="AA36" s="118"/>
+      <c r="T36" s="121"/>
+      <c r="U36" s="122"/>
+      <c r="V36" s="122"/>
+      <c r="W36" s="122"/>
+      <c r="X36" s="122"/>
+      <c r="Y36" s="122"/>
+      <c r="Z36" s="122"/>
+      <c r="AA36" s="123"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
@@ -5566,307 +5693,219 @@
       <c r="CC36" s="17"/>
       <c r="CD36" s="17"/>
       <c r="CE36" s="18"/>
-      <c r="CF36" s="109"/>
+      <c r="CF36" s="114"/>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="116"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="117"/>
-      <c r="W37" s="117"/>
-      <c r="X37" s="117"/>
-      <c r="Y37" s="117"/>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="118"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="16"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
-      <c r="AN37" s="17"/>
-      <c r="AO37" s="17"/>
-      <c r="AP37" s="17"/>
-      <c r="AQ37" s="18"/>
-      <c r="AR37" s="16"/>
-      <c r="AS37" s="17"/>
-      <c r="AT37" s="17"/>
-      <c r="AU37" s="17"/>
-      <c r="AV37" s="17"/>
-      <c r="AW37" s="17"/>
-      <c r="AX37" s="17"/>
-      <c r="AY37" s="18"/>
-      <c r="AZ37" s="16"/>
-      <c r="BA37" s="17"/>
-      <c r="BB37" s="17"/>
-      <c r="BC37" s="17"/>
-      <c r="BD37" s="17"/>
-      <c r="BE37" s="17"/>
-      <c r="BF37" s="17"/>
-      <c r="BG37" s="18"/>
-      <c r="BH37" s="16"/>
-      <c r="BI37" s="17"/>
-      <c r="BJ37" s="17"/>
-      <c r="BK37" s="17"/>
-      <c r="BL37" s="17"/>
-      <c r="BM37" s="17"/>
-      <c r="BN37" s="17"/>
-      <c r="BO37" s="18"/>
-      <c r="BP37" s="16"/>
-      <c r="BQ37" s="17"/>
-      <c r="BR37" s="17"/>
-      <c r="BS37" s="17"/>
-      <c r="BT37" s="17"/>
-      <c r="BU37" s="17"/>
-      <c r="BV37" s="17"/>
-      <c r="BW37" s="18"/>
-      <c r="BX37" s="16"/>
-      <c r="BY37" s="17"/>
-      <c r="BZ37" s="17"/>
-      <c r="CA37" s="17"/>
-      <c r="CB37" s="17"/>
-      <c r="CC37" s="17"/>
-      <c r="CD37" s="17"/>
-      <c r="CE37" s="18"/>
-      <c r="CF37" s="109"/>
+    <row r="37" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="124"/>
+      <c r="U37" s="125"/>
+      <c r="V37" s="125"/>
+      <c r="W37" s="125"/>
+      <c r="X37" s="125"/>
+      <c r="Y37" s="125"/>
+      <c r="Z37" s="125"/>
+      <c r="AA37" s="126"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="22"/>
+      <c r="AQ37" s="23"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
+      <c r="AU37" s="22"/>
+      <c r="AV37" s="22"/>
+      <c r="AW37" s="22"/>
+      <c r="AX37" s="22"/>
+      <c r="AY37" s="23"/>
+      <c r="AZ37" s="21"/>
+      <c r="BA37" s="22"/>
+      <c r="BB37" s="22"/>
+      <c r="BC37" s="22"/>
+      <c r="BD37" s="22"/>
+      <c r="BE37" s="22"/>
+      <c r="BF37" s="22"/>
+      <c r="BG37" s="23"/>
+      <c r="BH37" s="21"/>
+      <c r="BI37" s="22"/>
+      <c r="BJ37" s="22"/>
+      <c r="BK37" s="22"/>
+      <c r="BL37" s="22"/>
+      <c r="BM37" s="22"/>
+      <c r="BN37" s="22"/>
+      <c r="BO37" s="23"/>
+      <c r="BP37" s="21"/>
+      <c r="BQ37" s="22"/>
+      <c r="BR37" s="22"/>
+      <c r="BS37" s="22"/>
+      <c r="BT37" s="22"/>
+      <c r="BU37" s="22"/>
+      <c r="BV37" s="22"/>
+      <c r="BW37" s="23"/>
+      <c r="BX37" s="21"/>
+      <c r="BY37" s="22"/>
+      <c r="BZ37" s="22"/>
+      <c r="CA37" s="22"/>
+      <c r="CB37" s="22"/>
+      <c r="CC37" s="22"/>
+      <c r="CD37" s="22"/>
+      <c r="CE37" s="23"/>
+      <c r="CF37" s="114"/>
     </row>
-    <row r="38" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="119"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120"/>
-      <c r="W38" s="120"/>
-      <c r="X38" s="120"/>
-      <c r="Y38" s="120"/>
-      <c r="Z38" s="120"/>
-      <c r="AA38" s="121"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="23"/>
-      <c r="AJ38" s="21"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-      <c r="AP38" s="22"/>
-      <c r="AQ38" s="23"/>
-      <c r="AR38" s="21"/>
-      <c r="AS38" s="22"/>
-      <c r="AT38" s="22"/>
-      <c r="AU38" s="22"/>
-      <c r="AV38" s="22"/>
-      <c r="AW38" s="22"/>
-      <c r="AX38" s="22"/>
-      <c r="AY38" s="23"/>
-      <c r="AZ38" s="21"/>
-      <c r="BA38" s="22"/>
-      <c r="BB38" s="22"/>
-      <c r="BC38" s="22"/>
-      <c r="BD38" s="22"/>
-      <c r="BE38" s="22"/>
-      <c r="BF38" s="22"/>
-      <c r="BG38" s="23"/>
-      <c r="BH38" s="21"/>
-      <c r="BI38" s="22"/>
-      <c r="BJ38" s="22"/>
-      <c r="BK38" s="22"/>
-      <c r="BL38" s="22"/>
-      <c r="BM38" s="22"/>
-      <c r="BN38" s="22"/>
-      <c r="BO38" s="23"/>
-      <c r="BP38" s="21"/>
-      <c r="BQ38" s="22"/>
-      <c r="BR38" s="22"/>
-      <c r="BS38" s="22"/>
-      <c r="BT38" s="22"/>
-      <c r="BU38" s="22"/>
-      <c r="BV38" s="22"/>
-      <c r="BW38" s="23"/>
-      <c r="BX38" s="21"/>
-      <c r="BY38" s="22"/>
-      <c r="BZ38" s="22"/>
-      <c r="CA38" s="22"/>
-      <c r="CB38" s="22"/>
-      <c r="CC38" s="22"/>
-      <c r="CD38" s="22"/>
-      <c r="CE38" s="23"/>
-      <c r="CF38" s="109"/>
+    <row r="38" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A38" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="115"/>
+      <c r="R38" s="115"/>
+      <c r="S38" s="115"/>
+      <c r="T38" s="115"/>
+      <c r="U38" s="115"/>
+      <c r="V38" s="115"/>
+      <c r="W38" s="115"/>
+      <c r="X38" s="115"/>
+      <c r="Y38" s="115"/>
+      <c r="Z38" s="115"/>
+      <c r="AA38" s="115"/>
+      <c r="AB38" s="115"/>
+      <c r="AC38" s="115"/>
+      <c r="AD38" s="115"/>
+      <c r="AE38" s="115"/>
+      <c r="AF38" s="115"/>
+      <c r="AG38" s="115"/>
+      <c r="AH38" s="115"/>
+      <c r="AI38" s="115"/>
+      <c r="AJ38" s="115"/>
+      <c r="AK38" s="115"/>
+      <c r="AL38" s="115"/>
+      <c r="AM38" s="115"/>
+      <c r="AN38" s="115"/>
+      <c r="AO38" s="115"/>
+      <c r="AP38" s="115"/>
+      <c r="AQ38" s="115"/>
+      <c r="AR38" s="115"/>
+      <c r="AS38" s="115"/>
+      <c r="AT38" s="115"/>
+      <c r="AU38" s="115"/>
+      <c r="AV38" s="115"/>
+      <c r="AW38" s="115"/>
+      <c r="AX38" s="115"/>
+      <c r="AY38" s="115"/>
+      <c r="AZ38" s="115"/>
+      <c r="BA38" s="115"/>
+      <c r="BB38" s="115"/>
+      <c r="BC38" s="115"/>
+      <c r="BD38" s="115"/>
+      <c r="BE38" s="115"/>
+      <c r="BF38" s="115"/>
+      <c r="BG38" s="115"/>
+      <c r="BH38" s="115"/>
+      <c r="BI38" s="115"/>
+      <c r="BJ38" s="115"/>
+      <c r="BK38" s="115"/>
+      <c r="BL38" s="115"/>
+      <c r="BM38" s="115"/>
+      <c r="BN38" s="115"/>
+      <c r="BO38" s="115"/>
+      <c r="BP38" s="115"/>
+      <c r="BQ38" s="115"/>
+      <c r="BR38" s="115"/>
+      <c r="BS38" s="115"/>
+      <c r="BT38" s="115"/>
+      <c r="BU38" s="115"/>
+      <c r="BV38" s="115"/>
+      <c r="BW38" s="115"/>
+      <c r="BX38" s="115"/>
+      <c r="BY38" s="115"/>
+      <c r="BZ38" s="115"/>
+      <c r="CA38" s="115"/>
+      <c r="CB38" s="115"/>
+      <c r="CC38" s="115"/>
+      <c r="CD38" s="115"/>
+      <c r="CE38" s="115"/>
     </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A39" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="110"/>
-      <c r="S39" s="110"/>
-      <c r="T39" s="110"/>
-      <c r="U39" s="110"/>
-      <c r="V39" s="110"/>
-      <c r="W39" s="110"/>
-      <c r="X39" s="110"/>
-      <c r="Y39" s="110"/>
-      <c r="Z39" s="110"/>
-      <c r="AA39" s="110"/>
-      <c r="AB39" s="110"/>
-      <c r="AC39" s="110"/>
-      <c r="AD39" s="110"/>
-      <c r="AE39" s="110"/>
-      <c r="AF39" s="110"/>
-      <c r="AG39" s="110"/>
-      <c r="AH39" s="110"/>
-      <c r="AI39" s="110"/>
-      <c r="AJ39" s="110"/>
-      <c r="AK39" s="110"/>
-      <c r="AL39" s="110"/>
-      <c r="AM39" s="110"/>
-      <c r="AN39" s="110"/>
-      <c r="AO39" s="110"/>
-      <c r="AP39" s="110"/>
-      <c r="AQ39" s="110"/>
-      <c r="AR39" s="110"/>
-      <c r="AS39" s="110"/>
-      <c r="AT39" s="110"/>
-      <c r="AU39" s="110"/>
-      <c r="AV39" s="110"/>
-      <c r="AW39" s="110"/>
-      <c r="AX39" s="110"/>
-      <c r="AY39" s="110"/>
-      <c r="AZ39" s="110"/>
-      <c r="BA39" s="110"/>
-      <c r="BB39" s="110"/>
-      <c r="BC39" s="110"/>
-      <c r="BD39" s="110"/>
-      <c r="BE39" s="110"/>
-      <c r="BF39" s="110"/>
-      <c r="BG39" s="110"/>
-      <c r="BH39" s="110"/>
-      <c r="BI39" s="110"/>
-      <c r="BJ39" s="110"/>
-      <c r="BK39" s="110"/>
-      <c r="BL39" s="110"/>
-      <c r="BM39" s="110"/>
-      <c r="BN39" s="110"/>
-      <c r="BO39" s="110"/>
-      <c r="BP39" s="110"/>
-      <c r="BQ39" s="110"/>
-      <c r="BR39" s="110"/>
-      <c r="BS39" s="110"/>
-      <c r="BT39" s="110"/>
-      <c r="BU39" s="110"/>
-      <c r="BV39" s="110"/>
-      <c r="BW39" s="110"/>
-      <c r="BX39" s="110"/>
-      <c r="BY39" s="110"/>
-      <c r="BZ39" s="110"/>
-      <c r="CA39" s="110"/>
-      <c r="CB39" s="110"/>
-      <c r="CC39" s="110"/>
-      <c r="CD39" s="110"/>
-      <c r="CE39" s="110"/>
+    <row r="42" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="F42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="51"/>
     </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="F43" s="2" t="s">
+    <row r="44" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="F44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="52"/>
+    </row>
+    <row r="46" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="F46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="51"/>
+      <c r="I46" s="53"/>
     </row>
-    <row r="45" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="F45" s="2" t="s">
+    <row r="48" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="F48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="52"/>
+      <c r="I48" s="54"/>
     </row>
-    <row r="47" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="F47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" s="53"/>
-    </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="54"/>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F51" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="89"/>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F50" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CF4:CF38"/>
-    <mergeCell ref="A39:CE39"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA38"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="D2:AQ3"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
     <mergeCell ref="AN4:AQ4"/>
@@ -5881,15 +5920,17 @@
     <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF37"/>
+    <mergeCell ref="A38:CE38"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA37"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B38">
+  <conditionalFormatting sqref="B6:B37">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>
@@ -6128,6 +6169,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -6136,15 +6186,6 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6167,6 +6208,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6177,12 +6226,4 @@
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximebardy/Github/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675951CF-88CA-B743-858C-3EAFCA5FEC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F98F2-8E26-5F4B-B9D9-DD35B376D1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -246,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -362,30 +362,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFC000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -871,7 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1066,110 +1042,18 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1177,18 +1061,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1216,84 +1088,56 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1349,71 +1193,151 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2116,11 +2040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D11" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BS18" sqref="BS18"/>
+      <selection pane="bottomRight" activeCell="BC23" sqref="BC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2138,11 +2062,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2188,173 +2112,173 @@
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="131"/>
-      <c r="AH2" s="131"/>
-      <c r="AI2" s="131"/>
-      <c r="AJ2" s="131"/>
-      <c r="AK2" s="131"/>
-      <c r="AL2" s="131"/>
-      <c r="AM2" s="131"/>
-      <c r="AN2" s="131"/>
-      <c r="AO2" s="131"/>
-      <c r="AP2" s="131"/>
-      <c r="AQ2" s="131"/>
-      <c r="AR2" s="131"/>
-      <c r="AS2" s="131"/>
-      <c r="AT2" s="131"/>
-      <c r="AU2" s="131"/>
-      <c r="AV2" s="131"/>
-      <c r="AW2" s="131"/>
-      <c r="AX2" s="131"/>
-      <c r="AY2" s="131"/>
-      <c r="AZ2" s="131"/>
-      <c r="BA2" s="131"/>
-      <c r="BB2" s="131"/>
-      <c r="BC2" s="131"/>
-      <c r="BD2" s="131"/>
-      <c r="BE2" s="131"/>
-      <c r="BF2" s="131"/>
-      <c r="BG2" s="131"/>
-      <c r="BH2" s="131"/>
-      <c r="BI2" s="131"/>
-      <c r="BJ2" s="131"/>
-      <c r="BK2" s="131"/>
-      <c r="BL2" s="131"/>
-      <c r="BM2" s="131"/>
-      <c r="BN2" s="131"/>
-      <c r="BO2" s="131"/>
-      <c r="BP2" s="131"/>
-      <c r="BQ2" s="131"/>
-      <c r="BR2" s="131"/>
-      <c r="BS2" s="131"/>
-      <c r="BT2" s="131"/>
-      <c r="BU2" s="131"/>
-      <c r="BV2" s="131"/>
-      <c r="BW2" s="131"/>
-      <c r="BX2" s="131"/>
-      <c r="BY2" s="131"/>
-      <c r="BZ2" s="131"/>
-      <c r="CA2" s="131"/>
-      <c r="CB2" s="131"/>
-      <c r="CC2" s="131"/>
-      <c r="CD2" s="131"/>
-      <c r="CE2" s="131"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="79"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="79"/>
+      <c r="BF2" s="79"/>
+      <c r="BG2" s="79"/>
+      <c r="BH2" s="79"/>
+      <c r="BI2" s="79"/>
+      <c r="BJ2" s="79"/>
+      <c r="BK2" s="79"/>
+      <c r="BL2" s="79"/>
+      <c r="BM2" s="79"/>
+      <c r="BN2" s="79"/>
+      <c r="BO2" s="79"/>
+      <c r="BP2" s="79"/>
+      <c r="BQ2" s="79"/>
+      <c r="BR2" s="79"/>
+      <c r="BS2" s="79"/>
+      <c r="BT2" s="79"/>
+      <c r="BU2" s="79"/>
+      <c r="BV2" s="79"/>
+      <c r="BW2" s="79"/>
+      <c r="BX2" s="79"/>
+      <c r="BY2" s="79"/>
+      <c r="BZ2" s="79"/>
+      <c r="CA2" s="79"/>
+      <c r="CB2" s="79"/>
+      <c r="CC2" s="79"/>
+      <c r="CD2" s="79"/>
+      <c r="CE2" s="79"/>
     </row>
     <row r="3" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="132"/>
-      <c r="AL3" s="132"/>
-      <c r="AM3" s="132"/>
-      <c r="AN3" s="132"/>
-      <c r="AO3" s="132"/>
-      <c r="AP3" s="132"/>
-      <c r="AQ3" s="132"/>
-      <c r="AR3" s="132"/>
-      <c r="AS3" s="132"/>
-      <c r="AT3" s="132"/>
-      <c r="AU3" s="132"/>
-      <c r="AV3" s="132"/>
-      <c r="AW3" s="132"/>
-      <c r="AX3" s="132"/>
-      <c r="AY3" s="132"/>
-      <c r="AZ3" s="132"/>
-      <c r="BA3" s="132"/>
-      <c r="BB3" s="132"/>
-      <c r="BC3" s="132"/>
-      <c r="BD3" s="132"/>
-      <c r="BE3" s="132"/>
-      <c r="BF3" s="132"/>
-      <c r="BG3" s="132"/>
-      <c r="BH3" s="132"/>
-      <c r="BI3" s="132"/>
-      <c r="BJ3" s="132"/>
-      <c r="BK3" s="132"/>
-      <c r="BL3" s="132"/>
-      <c r="BM3" s="132"/>
-      <c r="BN3" s="132"/>
-      <c r="BO3" s="132"/>
-      <c r="BP3" s="132"/>
-      <c r="BQ3" s="132"/>
-      <c r="BR3" s="132"/>
-      <c r="BS3" s="132"/>
-      <c r="BT3" s="132"/>
-      <c r="BU3" s="132"/>
-      <c r="BV3" s="132"/>
-      <c r="BW3" s="132"/>
-      <c r="BX3" s="132"/>
-      <c r="BY3" s="132"/>
-      <c r="BZ3" s="132"/>
-      <c r="CA3" s="132"/>
-      <c r="CB3" s="132"/>
-      <c r="CC3" s="132"/>
-      <c r="CD3" s="132"/>
-      <c r="CE3" s="132"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="80"/>
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80"/>
+      <c r="BJ3" s="80"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="80"/>
+      <c r="BM3" s="80"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="80"/>
+      <c r="BP3" s="80"/>
+      <c r="BQ3" s="80"/>
+      <c r="BR3" s="80"/>
+      <c r="BS3" s="80"/>
+      <c r="BT3" s="80"/>
+      <c r="BU3" s="80"/>
+      <c r="BV3" s="80"/>
+      <c r="BW3" s="80"/>
+      <c r="BX3" s="80"/>
+      <c r="BY3" s="80"/>
+      <c r="BZ3" s="80"/>
+      <c r="CA3" s="80"/>
+      <c r="CB3" s="80"/>
+      <c r="CC3" s="80"/>
+      <c r="CD3" s="80"/>
+      <c r="CE3" s="80"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -2363,132 +2287,132 @@
       <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="129">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="75">
         <v>45992</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="127" t="s">
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="129">
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="75">
         <v>45993</v>
       </c>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="127" t="s">
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="129">
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="75">
         <v>45999</v>
       </c>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="127" t="s">
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="129">
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="75">
         <v>46000</v>
       </c>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="127" t="s">
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="128"/>
-      <c r="AL4" s="128"/>
-      <c r="AM4" s="128"/>
-      <c r="AN4" s="129">
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="75">
         <v>46006</v>
       </c>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="127" t="s">
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="128"/>
-      <c r="AT4" s="128"/>
-      <c r="AU4" s="128"/>
-      <c r="AV4" s="129">
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="75">
         <v>46007</v>
       </c>
-      <c r="AW4" s="129"/>
-      <c r="AX4" s="129"/>
-      <c r="AY4" s="130"/>
-      <c r="AZ4" s="127" t="s">
+      <c r="AW4" s="75"/>
+      <c r="AX4" s="75"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="BA4" s="128"/>
-      <c r="BB4" s="128"/>
-      <c r="BC4" s="128"/>
-      <c r="BD4" s="129">
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="75">
         <v>46027</v>
       </c>
-      <c r="BE4" s="129"/>
-      <c r="BF4" s="129"/>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="127" t="s">
+      <c r="BE4" s="75"/>
+      <c r="BF4" s="75"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="128"/>
-      <c r="BJ4" s="128"/>
-      <c r="BK4" s="128"/>
-      <c r="BL4" s="129">
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="75">
         <v>46028</v>
       </c>
-      <c r="BM4" s="129"/>
-      <c r="BN4" s="129"/>
-      <c r="BO4" s="130"/>
-      <c r="BP4" s="127" t="s">
+      <c r="BM4" s="75"/>
+      <c r="BN4" s="75"/>
+      <c r="BO4" s="76"/>
+      <c r="BP4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="128"/>
-      <c r="BR4" s="128"/>
-      <c r="BS4" s="128"/>
-      <c r="BT4" s="129">
+      <c r="BQ4" s="78"/>
+      <c r="BR4" s="78"/>
+      <c r="BS4" s="78"/>
+      <c r="BT4" s="75">
         <v>46034</v>
       </c>
-      <c r="BU4" s="129"/>
-      <c r="BV4" s="129"/>
-      <c r="BW4" s="130"/>
-      <c r="BX4" s="127" t="s">
+      <c r="BU4" s="75"/>
+      <c r="BV4" s="75"/>
+      <c r="BW4" s="76"/>
+      <c r="BX4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="128"/>
-      <c r="BZ4" s="128"/>
-      <c r="CA4" s="128"/>
-      <c r="CB4" s="129">
+      <c r="BY4" s="78"/>
+      <c r="BZ4" s="78"/>
+      <c r="CA4" s="78"/>
+      <c r="CB4" s="75">
         <v>46035</v>
       </c>
-      <c r="CC4" s="129"/>
-      <c r="CD4" s="129"/>
-      <c r="CE4" s="130"/>
-      <c r="CF4" s="114" t="s">
+      <c r="CC4" s="75"/>
+      <c r="CD4" s="75"/>
+      <c r="CE4" s="76"/>
+      <c r="CF4" s="81" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="117"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
@@ -2735,7 +2659,7 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="114"/>
+      <c r="CF5" s="81"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -2743,23 +2667,23 @@
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="93" t="s">
-        <v>28</v>
+      <c r="D6" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="95" t="s">
+        <v>45</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="12"/>
@@ -2771,16 +2695,16 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="118" t="s">
+      <c r="T6" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="120"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="87"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -2837,10 +2761,10 @@
       <c r="CC6" s="11"/>
       <c r="CD6" s="11"/>
       <c r="CE6" s="12"/>
-      <c r="CF6" s="114"/>
+      <c r="CF6" s="81"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="60" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="46"/>
@@ -2851,85 +2775,85 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="121"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="13"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="11"/>
-      <c r="BN7" s="11"/>
-      <c r="BO7" s="12"/>
-      <c r="BP7" s="13"/>
+      <c r="J7" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="88"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="94"/>
+      <c r="AM7" s="94"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="94"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="98"/>
+      <c r="AR7" s="97"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="94"/>
+      <c r="AU7" s="94"/>
+      <c r="AV7" s="94"/>
+      <c r="AW7" s="94"/>
+      <c r="AX7" s="94"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="97"/>
+      <c r="BA7" s="94"/>
+      <c r="BB7" s="94"/>
+      <c r="BC7" s="94"/>
+      <c r="BD7" s="94"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="94"/>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="97"/>
+      <c r="BI7" s="94"/>
+      <c r="BJ7" s="94"/>
+      <c r="BK7" s="94"/>
+      <c r="BL7" s="94"/>
+      <c r="BM7" s="94"/>
+      <c r="BN7" s="94"/>
+      <c r="BO7" s="98"/>
+      <c r="BP7" s="97"/>
       <c r="BQ7" s="11"/>
       <c r="BR7" s="11"/>
       <c r="BS7" s="11"/>
@@ -2945,7 +2869,7 @@
       <c r="CC7" s="11"/>
       <c r="CD7" s="11"/>
       <c r="CE7" s="12"/>
-      <c r="CF7" s="114"/>
+      <c r="CF7" s="81"/>
     </row>
     <row r="8" spans="1:84" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
@@ -2969,67 +2893,67 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD8" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE8" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK8" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="12"/>
-      <c r="BH8" s="13"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
-      <c r="BK8" s="11"/>
-      <c r="BL8" s="11"/>
-      <c r="BM8" s="11"/>
-      <c r="BN8" s="11"/>
-      <c r="BO8" s="12"/>
-      <c r="BP8" s="13"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC8" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="94"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK8" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="94"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="94"/>
+      <c r="AP8" s="94"/>
+      <c r="AQ8" s="98"/>
+      <c r="AR8" s="97"/>
+      <c r="AS8" s="94"/>
+      <c r="AT8" s="94"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="94"/>
+      <c r="AW8" s="94"/>
+      <c r="AX8" s="94"/>
+      <c r="AY8" s="98"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="94"/>
+      <c r="BC8" s="94"/>
+      <c r="BD8" s="94"/>
+      <c r="BE8" s="94"/>
+      <c r="BF8" s="94"/>
+      <c r="BG8" s="98"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="94"/>
+      <c r="BJ8" s="94"/>
+      <c r="BK8" s="94"/>
+      <c r="BL8" s="94"/>
+      <c r="BM8" s="94"/>
+      <c r="BN8" s="94"/>
+      <c r="BO8" s="98"/>
+      <c r="BP8" s="97"/>
       <c r="BQ8" s="11"/>
       <c r="BR8" s="11"/>
       <c r="BS8" s="11"/>
@@ -3045,7 +2969,7 @@
       <c r="CC8" s="11"/>
       <c r="CD8" s="11"/>
       <c r="CE8" s="12"/>
-      <c r="CF8" s="114"/>
+      <c r="CF8" s="81"/>
     </row>
     <row r="9" spans="1:84" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="50" t="s">
@@ -3069,67 +2993,67 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD9" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE9" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
-      <c r="AU9" s="11"/>
-      <c r="AV9" s="11"/>
-      <c r="AW9" s="11"/>
-      <c r="AX9" s="11"/>
-      <c r="AY9" s="12"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="11"/>
-      <c r="BB9" s="11"/>
-      <c r="BC9" s="11"/>
-      <c r="BD9" s="11"/>
-      <c r="BE9" s="11"/>
-      <c r="BF9" s="11"/>
-      <c r="BG9" s="12"/>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="11"/>
-      <c r="BJ9" s="11"/>
-      <c r="BK9" s="11"/>
-      <c r="BL9" s="11"/>
-      <c r="BM9" s="11"/>
-      <c r="BN9" s="11"/>
-      <c r="BO9" s="12"/>
-      <c r="BP9" s="13"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD9" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL9" s="94"/>
+      <c r="AM9" s="94"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="98"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="94"/>
+      <c r="AT9" s="94"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="94"/>
+      <c r="AW9" s="94"/>
+      <c r="AX9" s="94"/>
+      <c r="AY9" s="98"/>
+      <c r="AZ9" s="97"/>
+      <c r="BA9" s="94"/>
+      <c r="BB9" s="94"/>
+      <c r="BC9" s="94"/>
+      <c r="BD9" s="94"/>
+      <c r="BE9" s="94"/>
+      <c r="BF9" s="94"/>
+      <c r="BG9" s="98"/>
+      <c r="BH9" s="97"/>
+      <c r="BI9" s="94"/>
+      <c r="BJ9" s="94"/>
+      <c r="BK9" s="94"/>
+      <c r="BL9" s="94"/>
+      <c r="BM9" s="94"/>
+      <c r="BN9" s="94"/>
+      <c r="BO9" s="98"/>
+      <c r="BP9" s="97"/>
       <c r="BQ9" s="11"/>
       <c r="BR9" s="11"/>
       <c r="BS9" s="11"/>
@@ -3145,7 +3069,7 @@
       <c r="CC9" s="11"/>
       <c r="CD9" s="11"/>
       <c r="CE9" s="12"/>
-      <c r="CF9" s="114"/>
+      <c r="CF9" s="81"/>
     </row>
     <row r="10" spans="1:84" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
@@ -3169,67 +3093,67 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC10" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD10" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE10" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK10" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="11"/>
-      <c r="AU10" s="11"/>
-      <c r="AV10" s="11"/>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="12"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="11"/>
-      <c r="BB10" s="11"/>
-      <c r="BC10" s="11"/>
-      <c r="BD10" s="11"/>
-      <c r="BE10" s="11"/>
-      <c r="BF10" s="11"/>
-      <c r="BG10" s="12"/>
-      <c r="BH10" s="13"/>
-      <c r="BI10" s="11"/>
-      <c r="BJ10" s="11"/>
-      <c r="BK10" s="11"/>
-      <c r="BL10" s="11"/>
-      <c r="BM10" s="11"/>
-      <c r="BN10" s="11"/>
-      <c r="BO10" s="12"/>
-      <c r="BP10" s="13"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="98"/>
+      <c r="AR10" s="97"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="94"/>
+      <c r="AX10" s="94"/>
+      <c r="AY10" s="98"/>
+      <c r="AZ10" s="97"/>
+      <c r="BA10" s="94"/>
+      <c r="BB10" s="94"/>
+      <c r="BC10" s="94"/>
+      <c r="BD10" s="94"/>
+      <c r="BE10" s="94"/>
+      <c r="BF10" s="94"/>
+      <c r="BG10" s="98"/>
+      <c r="BH10" s="97"/>
+      <c r="BI10" s="94"/>
+      <c r="BJ10" s="94"/>
+      <c r="BK10" s="94"/>
+      <c r="BL10" s="94"/>
+      <c r="BM10" s="94"/>
+      <c r="BN10" s="94"/>
+      <c r="BO10" s="98"/>
+      <c r="BP10" s="97"/>
       <c r="BQ10" s="11"/>
       <c r="BR10" s="11"/>
       <c r="BS10" s="11"/>
@@ -3245,7 +3169,7 @@
       <c r="CC10" s="11"/>
       <c r="CD10" s="11"/>
       <c r="CE10" s="12"/>
-      <c r="CF10" s="114"/>
+      <c r="CF10" s="81"/>
     </row>
     <row r="11" spans="1:84" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
@@ -3269,67 +3193,67 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC11" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD11" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE11" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK11" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11"/>
-      <c r="AX11" s="11"/>
-      <c r="AY11" s="12"/>
-      <c r="AZ11" s="13"/>
-      <c r="BA11" s="11"/>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11"/>
-      <c r="BD11" s="11"/>
-      <c r="BE11" s="11"/>
-      <c r="BF11" s="11"/>
-      <c r="BG11" s="12"/>
-      <c r="BH11" s="13"/>
-      <c r="BI11" s="11"/>
-      <c r="BJ11" s="11"/>
-      <c r="BK11" s="11"/>
-      <c r="BL11" s="11"/>
-      <c r="BM11" s="11"/>
-      <c r="BN11" s="11"/>
-      <c r="BO11" s="12"/>
-      <c r="BP11" s="13"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE11" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK11" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="98"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="94"/>
+      <c r="AW11" s="94"/>
+      <c r="AX11" s="94"/>
+      <c r="AY11" s="98"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="94"/>
+      <c r="BB11" s="94"/>
+      <c r="BC11" s="94"/>
+      <c r="BD11" s="94"/>
+      <c r="BE11" s="94"/>
+      <c r="BF11" s="94"/>
+      <c r="BG11" s="98"/>
+      <c r="BH11" s="97"/>
+      <c r="BI11" s="94"/>
+      <c r="BJ11" s="94"/>
+      <c r="BK11" s="94"/>
+      <c r="BL11" s="94"/>
+      <c r="BM11" s="94"/>
+      <c r="BN11" s="94"/>
+      <c r="BO11" s="98"/>
+      <c r="BP11" s="97"/>
       <c r="BQ11" s="11"/>
       <c r="BR11" s="11"/>
       <c r="BS11" s="11"/>
@@ -3345,7 +3269,7 @@
       <c r="CC11" s="11"/>
       <c r="CD11" s="11"/>
       <c r="CE11" s="12"/>
-      <c r="CF11" s="114"/>
+      <c r="CF11" s="81"/>
     </row>
     <row r="12" spans="1:84" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
@@ -3369,55 +3293,55 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="123"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="16"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="18"/>
-      <c r="BH12" s="16"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="18"/>
-      <c r="BP12" s="16"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="109"/>
+      <c r="AJ12" s="107"/>
+      <c r="AK12" s="108"/>
+      <c r="AL12" s="108"/>
+      <c r="AM12" s="108"/>
+      <c r="AN12" s="108"/>
+      <c r="AO12" s="108"/>
+      <c r="AP12" s="108"/>
+      <c r="AQ12" s="109"/>
+      <c r="AR12" s="107"/>
+      <c r="AS12" s="108"/>
+      <c r="AT12" s="108"/>
+      <c r="AU12" s="108"/>
+      <c r="AV12" s="108"/>
+      <c r="AW12" s="108"/>
+      <c r="AX12" s="108"/>
+      <c r="AY12" s="109"/>
+      <c r="AZ12" s="107"/>
+      <c r="BA12" s="108"/>
+      <c r="BB12" s="108"/>
+      <c r="BC12" s="108"/>
+      <c r="BD12" s="108"/>
+      <c r="BE12" s="108"/>
+      <c r="BF12" s="108"/>
+      <c r="BG12" s="109"/>
+      <c r="BH12" s="107"/>
+      <c r="BI12" s="108"/>
+      <c r="BJ12" s="108"/>
+      <c r="BK12" s="108"/>
+      <c r="BL12" s="108"/>
+      <c r="BM12" s="108"/>
+      <c r="BN12" s="108"/>
+      <c r="BO12" s="109"/>
+      <c r="BP12" s="107"/>
       <c r="BQ12" s="17"/>
       <c r="BR12" s="17"/>
       <c r="BS12" s="17"/>
@@ -3433,7 +3357,7 @@
       <c r="CC12" s="17"/>
       <c r="CD12" s="17"/>
       <c r="CE12" s="18"/>
-      <c r="CF12" s="114"/>
+      <c r="CF12" s="81"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
@@ -3457,59 +3381,59 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="123"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="107" t="s">
+      <c r="T13" s="88"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="109"/>
+      <c r="AJ13" s="110"/>
+      <c r="AK13" s="111"/>
+      <c r="AL13" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AM13" s="107" t="s">
+      <c r="AM13" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="79"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="18"/>
-      <c r="AZ13" s="16"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="18"/>
-      <c r="BH13" s="16"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
-      <c r="BM13" s="17"/>
-      <c r="BN13" s="17"/>
-      <c r="BO13" s="18"/>
-      <c r="BP13" s="16"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="111"/>
+      <c r="AP13" s="111"/>
+      <c r="AQ13" s="112"/>
+      <c r="AR13" s="110"/>
+      <c r="AS13" s="108"/>
+      <c r="AT13" s="108"/>
+      <c r="AU13" s="108"/>
+      <c r="AV13" s="108"/>
+      <c r="AW13" s="108"/>
+      <c r="AX13" s="108"/>
+      <c r="AY13" s="109"/>
+      <c r="AZ13" s="107"/>
+      <c r="BA13" s="108"/>
+      <c r="BB13" s="108"/>
+      <c r="BC13" s="108"/>
+      <c r="BD13" s="108"/>
+      <c r="BE13" s="108"/>
+      <c r="BF13" s="108"/>
+      <c r="BG13" s="109"/>
+      <c r="BH13" s="107"/>
+      <c r="BI13" s="108"/>
+      <c r="BJ13" s="108"/>
+      <c r="BK13" s="108"/>
+      <c r="BL13" s="108"/>
+      <c r="BM13" s="108"/>
+      <c r="BN13" s="108"/>
+      <c r="BO13" s="109"/>
+      <c r="BP13" s="107"/>
       <c r="BQ13" s="17"/>
       <c r="BR13" s="17"/>
       <c r="BS13" s="17"/>
@@ -3525,7 +3449,7 @@
       <c r="CC13" s="17"/>
       <c r="CD13" s="17"/>
       <c r="CE13" s="18"/>
-      <c r="CF13" s="114"/>
+      <c r="CF13" s="81"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A14" s="39" t="s">
@@ -3549,59 +3473,59 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="70"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO14" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="18"/>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="18"/>
-      <c r="BH14" s="16"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
-      <c r="BL14" s="17"/>
-      <c r="BM14" s="17"/>
-      <c r="BN14" s="17"/>
-      <c r="BO14" s="18"/>
-      <c r="BP14" s="16"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="109"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="114"/>
+      <c r="AL14" s="114"/>
+      <c r="AM14" s="114"/>
+      <c r="AN14" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO14" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="108"/>
+      <c r="AT14" s="108"/>
+      <c r="AU14" s="108"/>
+      <c r="AV14" s="108"/>
+      <c r="AW14" s="108"/>
+      <c r="AX14" s="108"/>
+      <c r="AY14" s="109"/>
+      <c r="AZ14" s="107"/>
+      <c r="BA14" s="108"/>
+      <c r="BB14" s="108"/>
+      <c r="BC14" s="108"/>
+      <c r="BD14" s="108"/>
+      <c r="BE14" s="108"/>
+      <c r="BF14" s="108"/>
+      <c r="BG14" s="109"/>
+      <c r="BH14" s="107"/>
+      <c r="BI14" s="108"/>
+      <c r="BJ14" s="108"/>
+      <c r="BK14" s="108"/>
+      <c r="BL14" s="108"/>
+      <c r="BM14" s="108"/>
+      <c r="BN14" s="108"/>
+      <c r="BO14" s="109"/>
+      <c r="BP14" s="107"/>
       <c r="BQ14" s="17"/>
       <c r="BR14" s="17"/>
       <c r="BS14" s="17"/>
@@ -3617,7 +3541,7 @@
       <c r="CC14" s="17"/>
       <c r="CD14" s="17"/>
       <c r="CE14" s="18"/>
-      <c r="CF14" s="114"/>
+      <c r="CF14" s="81"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
@@ -3641,57 +3565,57 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="123"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="73"/>
-      <c r="AK15" s="74"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="74"/>
-      <c r="AN15" s="74"/>
-      <c r="AO15" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="16"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="18"/>
-      <c r="AZ15" s="16"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="17"/>
-      <c r="BF15" s="17"/>
-      <c r="BG15" s="18"/>
-      <c r="BH15" s="16"/>
-      <c r="BI15" s="17"/>
-      <c r="BJ15" s="17"/>
-      <c r="BK15" s="17"/>
-      <c r="BL15" s="17"/>
-      <c r="BM15" s="17"/>
-      <c r="BN15" s="17"/>
-      <c r="BO15" s="18"/>
-      <c r="BP15" s="16"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="108"/>
+      <c r="AD15" s="108"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="108"/>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="109"/>
+      <c r="AJ15" s="116"/>
+      <c r="AK15" s="117"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="117"/>
+      <c r="AO15" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP15" s="108"/>
+      <c r="AQ15" s="109"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="108"/>
+      <c r="AT15" s="108"/>
+      <c r="AU15" s="108"/>
+      <c r="AV15" s="108"/>
+      <c r="AW15" s="108"/>
+      <c r="AX15" s="108"/>
+      <c r="AY15" s="109"/>
+      <c r="AZ15" s="107"/>
+      <c r="BA15" s="108"/>
+      <c r="BB15" s="108"/>
+      <c r="BC15" s="108"/>
+      <c r="BD15" s="108"/>
+      <c r="BE15" s="108"/>
+      <c r="BF15" s="108"/>
+      <c r="BG15" s="109"/>
+      <c r="BH15" s="107"/>
+      <c r="BI15" s="108"/>
+      <c r="BJ15" s="108"/>
+      <c r="BK15" s="108"/>
+      <c r="BL15" s="108"/>
+      <c r="BM15" s="108"/>
+      <c r="BN15" s="108"/>
+      <c r="BO15" s="109"/>
+      <c r="BP15" s="107"/>
       <c r="BQ15" s="17"/>
       <c r="BR15" s="17"/>
       <c r="BS15" s="17"/>
@@ -3707,7 +3631,7 @@
       <c r="CC15" s="17"/>
       <c r="CD15" s="17"/>
       <c r="CE15" s="18"/>
-      <c r="CF15" s="114"/>
+      <c r="CF15" s="81"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
@@ -3731,57 +3655,57 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="123"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="74"/>
-      <c r="AP16" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="16"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="17"/>
-      <c r="BE16" s="17"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="18"/>
-      <c r="BH16" s="16"/>
-      <c r="BI16" s="17"/>
-      <c r="BJ16" s="17"/>
-      <c r="BK16" s="17"/>
-      <c r="BL16" s="17"/>
-      <c r="BM16" s="17"/>
-      <c r="BN16" s="17"/>
-      <c r="BO16" s="18"/>
-      <c r="BP16" s="16"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="109"/>
+      <c r="AJ16" s="107"/>
+      <c r="AK16" s="108"/>
+      <c r="AL16" s="108"/>
+      <c r="AM16" s="108"/>
+      <c r="AN16" s="108"/>
+      <c r="AO16" s="117"/>
+      <c r="AP16" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ16" s="120"/>
+      <c r="AR16" s="116"/>
+      <c r="AS16" s="108"/>
+      <c r="AT16" s="108"/>
+      <c r="AU16" s="108"/>
+      <c r="AV16" s="108"/>
+      <c r="AW16" s="108"/>
+      <c r="AX16" s="108"/>
+      <c r="AY16" s="109"/>
+      <c r="AZ16" s="107"/>
+      <c r="BA16" s="108"/>
+      <c r="BB16" s="108"/>
+      <c r="BC16" s="108"/>
+      <c r="BD16" s="108"/>
+      <c r="BE16" s="108"/>
+      <c r="BF16" s="108"/>
+      <c r="BG16" s="109"/>
+      <c r="BH16" s="107"/>
+      <c r="BI16" s="108"/>
+      <c r="BJ16" s="108"/>
+      <c r="BK16" s="108"/>
+      <c r="BL16" s="108"/>
+      <c r="BM16" s="108"/>
+      <c r="BN16" s="108"/>
+      <c r="BO16" s="109"/>
+      <c r="BP16" s="107"/>
       <c r="BQ16" s="17"/>
       <c r="BR16" s="17"/>
       <c r="BS16" s="17"/>
@@ -3797,7 +3721,7 @@
       <c r="CC16" s="17"/>
       <c r="CD16" s="17"/>
       <c r="CE16" s="18"/>
-      <c r="CF16" s="114"/>
+      <c r="CF16" s="81"/>
     </row>
     <row r="17" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
@@ -3821,55 +3745,55 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="123"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="18"/>
-      <c r="AZ17" s="16"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="18"/>
-      <c r="BH17" s="16"/>
-      <c r="BI17" s="17"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="17"/>
-      <c r="BL17" s="17"/>
-      <c r="BM17" s="17"/>
-      <c r="BN17" s="17"/>
-      <c r="BO17" s="18"/>
-      <c r="BP17" s="16"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="109"/>
+      <c r="AJ17" s="107"/>
+      <c r="AK17" s="108"/>
+      <c r="AL17" s="108"/>
+      <c r="AM17" s="108"/>
+      <c r="AN17" s="108"/>
+      <c r="AO17" s="108"/>
+      <c r="AP17" s="108"/>
+      <c r="AQ17" s="109"/>
+      <c r="AR17" s="107"/>
+      <c r="AS17" s="108"/>
+      <c r="AT17" s="108"/>
+      <c r="AU17" s="108"/>
+      <c r="AV17" s="108"/>
+      <c r="AW17" s="108"/>
+      <c r="AX17" s="108"/>
+      <c r="AY17" s="109"/>
+      <c r="AZ17" s="107"/>
+      <c r="BA17" s="108"/>
+      <c r="BB17" s="108"/>
+      <c r="BC17" s="108"/>
+      <c r="BD17" s="108"/>
+      <c r="BE17" s="108"/>
+      <c r="BF17" s="108"/>
+      <c r="BG17" s="109"/>
+      <c r="BH17" s="107"/>
+      <c r="BI17" s="108"/>
+      <c r="BJ17" s="108"/>
+      <c r="BK17" s="108"/>
+      <c r="BL17" s="108"/>
+      <c r="BM17" s="108"/>
+      <c r="BN17" s="108"/>
+      <c r="BO17" s="109"/>
+      <c r="BP17" s="107"/>
       <c r="BQ17" s="17"/>
       <c r="BR17" s="17"/>
       <c r="BS17" s="17"/>
@@ -3885,10 +3809,10 @@
       <c r="CC17" s="17"/>
       <c r="CD17" s="17"/>
       <c r="CE17" s="18"/>
-      <c r="CF17" s="114"/>
+      <c r="CF17" s="81"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="68" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="25"/>
@@ -3909,77 +3833,77 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="123"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM18" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN18" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO18" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP18" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ18" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA18" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB18" s="78"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="18"/>
-      <c r="BH18" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI18" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ18" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BK18" s="78"/>
-      <c r="BL18" s="17"/>
-      <c r="BM18" s="17"/>
-      <c r="BN18" s="17"/>
-      <c r="BO18" s="18"/>
-      <c r="BP18" s="16"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="108"/>
+      <c r="AD18" s="108"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="109"/>
+      <c r="AJ18" s="107"/>
+      <c r="AK18" s="108"/>
+      <c r="AL18" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM18" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN18" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO18" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP18" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ18" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR18" s="121"/>
+      <c r="AS18" s="108"/>
+      <c r="AT18" s="108"/>
+      <c r="AU18" s="108"/>
+      <c r="AV18" s="108"/>
+      <c r="AW18" s="108"/>
+      <c r="AX18" s="108"/>
+      <c r="AY18" s="109"/>
+      <c r="AZ18" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA18" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB18" s="108"/>
+      <c r="BC18" s="108"/>
+      <c r="BD18" s="108"/>
+      <c r="BE18" s="108"/>
+      <c r="BF18" s="108"/>
+      <c r="BG18" s="109"/>
+      <c r="BH18" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI18" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ18" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK18" s="108"/>
+      <c r="BL18" s="108"/>
+      <c r="BM18" s="108"/>
+      <c r="BN18" s="108"/>
+      <c r="BO18" s="109"/>
+      <c r="BP18" s="107"/>
       <c r="BQ18" s="17"/>
       <c r="BR18" s="17"/>
       <c r="BS18" s="17"/>
@@ -3995,10 +3919,10 @@
       <c r="CC18" s="17"/>
       <c r="CD18" s="17"/>
       <c r="CE18" s="18"/>
-      <c r="CF18" s="114"/>
+      <c r="CF18" s="81"/>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="55" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="25"/>
@@ -4019,79 +3943,79 @@
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="122"/>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="123"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM19" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN19" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO19" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP19" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ19" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR19" s="84"/>
-      <c r="AS19" s="76"/>
-      <c r="AT19" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU19" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="143" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA19" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB19" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC19" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD19" s="72"/>
-      <c r="BE19" s="72"/>
-      <c r="BF19" s="72"/>
-      <c r="BG19" s="81"/>
-      <c r="BH19" s="16"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="17"/>
-      <c r="BK19" s="17"/>
-      <c r="BL19" s="17"/>
-      <c r="BM19" s="17"/>
-      <c r="BN19" s="17"/>
-      <c r="BO19" s="18"/>
-      <c r="BP19" s="16"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="108"/>
+      <c r="AD19" s="108"/>
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="108"/>
+      <c r="AG19" s="108"/>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="109"/>
+      <c r="AJ19" s="107"/>
+      <c r="AK19" s="108"/>
+      <c r="AL19" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM19" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN19" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO19" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP19" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ19" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR19" s="122"/>
+      <c r="AS19" s="118"/>
+      <c r="AT19" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU19" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV19" s="108"/>
+      <c r="AW19" s="108"/>
+      <c r="AX19" s="108"/>
+      <c r="AY19" s="109"/>
+      <c r="AZ19" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA19" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB19" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC19" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD19" s="119"/>
+      <c r="BE19" s="119"/>
+      <c r="BF19" s="119"/>
+      <c r="BG19" s="123"/>
+      <c r="BH19" s="107"/>
+      <c r="BI19" s="108"/>
+      <c r="BJ19" s="108"/>
+      <c r="BK19" s="108"/>
+      <c r="BL19" s="108"/>
+      <c r="BM19" s="108"/>
+      <c r="BN19" s="108"/>
+      <c r="BO19" s="109"/>
+      <c r="BP19" s="107"/>
       <c r="BQ19" s="17"/>
       <c r="BR19" s="17"/>
       <c r="BS19" s="17"/>
@@ -4107,7 +4031,7 @@
       <c r="CC19" s="17"/>
       <c r="CD19" s="17"/>
       <c r="CE19" s="18"/>
-      <c r="CF19" s="114"/>
+      <c r="CF19" s="81"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A20" s="43" t="s">
@@ -4131,66 +4055,66 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="123"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="83"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="74"/>
-      <c r="AU20" s="74"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="18"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="74"/>
-      <c r="BB20" s="74"/>
-      <c r="BC20" s="74"/>
-      <c r="BD20" s="74"/>
-      <c r="BE20" s="74"/>
-      <c r="BF20" s="74"/>
-      <c r="BG20" s="77"/>
-      <c r="BH20" s="16"/>
-      <c r="BI20" s="17"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="78"/>
-      <c r="BL20" s="78"/>
-      <c r="BM20" s="78"/>
-      <c r="BN20" s="78"/>
-      <c r="BO20" s="138"/>
-      <c r="BP20" s="16"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="109"/>
+      <c r="AJ20" s="107"/>
+      <c r="AK20" s="108"/>
+      <c r="AL20" s="108"/>
+      <c r="AM20" s="108"/>
+      <c r="AN20" s="108"/>
+      <c r="AO20" s="108"/>
+      <c r="AP20" s="108"/>
+      <c r="AQ20" s="109"/>
+      <c r="AR20" s="122"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="117"/>
+      <c r="AU20" s="117"/>
+      <c r="AV20" s="108"/>
+      <c r="AW20" s="108"/>
+      <c r="AX20" s="108"/>
+      <c r="AY20" s="109"/>
+      <c r="AZ20" s="116"/>
+      <c r="BA20" s="117"/>
+      <c r="BB20" s="117"/>
+      <c r="BC20" s="117"/>
+      <c r="BD20" s="117"/>
+      <c r="BE20" s="117"/>
+      <c r="BF20" s="117"/>
+      <c r="BG20" s="120"/>
+      <c r="BH20" s="107"/>
+      <c r="BI20" s="108"/>
+      <c r="BJ20" s="108"/>
+      <c r="BK20" s="108"/>
+      <c r="BL20" s="108"/>
+      <c r="BM20" s="108"/>
+      <c r="BN20" s="108"/>
+      <c r="BO20" s="109"/>
+      <c r="BP20" s="107"/>
       <c r="BQ20" s="17"/>
       <c r="BR20" s="17"/>
       <c r="BS20" s="17"/>
       <c r="BT20" s="17"/>
-      <c r="BU20" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BV20" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BW20" s="138" t="s">
+      <c r="BU20" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV20" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW20" s="70" t="s">
         <v>45</v>
       </c>
       <c r="BX20" s="16"/>
@@ -4201,10 +4125,10 @@
       <c r="CC20" s="17"/>
       <c r="CD20" s="17"/>
       <c r="CE20" s="18"/>
-      <c r="CF20" s="114"/>
+      <c r="CF20" s="81"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="55" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="25"/>
@@ -4225,84 +4149,84 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="123"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="84"/>
-      <c r="AS21" s="80"/>
-      <c r="AT21" s="136"/>
-      <c r="AU21" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="138"/>
-      <c r="AZ21" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA21" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB21" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC21" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD21" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="BE21" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF21" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG21" s="69"/>
-      <c r="BH21" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI21" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ21" s="78"/>
-      <c r="BK21" s="78"/>
-      <c r="BL21" s="78"/>
-      <c r="BM21" s="17"/>
-      <c r="BN21" s="17"/>
-      <c r="BO21" s="18"/>
-      <c r="BP21" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="BQ21" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR21" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BS21" s="78" t="s">
+      <c r="T21" s="88"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="109"/>
+      <c r="AJ21" s="107"/>
+      <c r="AK21" s="108"/>
+      <c r="AL21" s="108"/>
+      <c r="AM21" s="108"/>
+      <c r="AN21" s="108"/>
+      <c r="AO21" s="108"/>
+      <c r="AP21" s="108"/>
+      <c r="AQ21" s="109"/>
+      <c r="AR21" s="122"/>
+      <c r="AS21" s="118"/>
+      <c r="AT21" s="111"/>
+      <c r="AU21" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV21" s="108"/>
+      <c r="AW21" s="108"/>
+      <c r="AX21" s="108"/>
+      <c r="AY21" s="109"/>
+      <c r="AZ21" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA21" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB21" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC21" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD21" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE21" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF21" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG21" s="112"/>
+      <c r="BH21" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI21" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ21" s="108"/>
+      <c r="BK21" s="108"/>
+      <c r="BL21" s="108"/>
+      <c r="BM21" s="108"/>
+      <c r="BN21" s="108"/>
+      <c r="BO21" s="109"/>
+      <c r="BP21" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="BQ21" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR21" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS21" s="58" t="s">
         <v>45</v>
       </c>
       <c r="BT21" s="17"/>
@@ -4317,7 +4241,7 @@
       <c r="CC21" s="17"/>
       <c r="CD21" s="17"/>
       <c r="CE21" s="18"/>
-      <c r="CF21" s="114"/>
+      <c r="CF21" s="81"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A22" s="43" t="s">
@@ -4341,65 +4265,65 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="123"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="16"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="17"/>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="16"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
-      <c r="AV22" s="17"/>
-      <c r="AW22" s="17"/>
-      <c r="AX22" s="17"/>
-      <c r="AY22" s="18"/>
-      <c r="AZ22" s="137"/>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="78"/>
-      <c r="BC22" s="80"/>
-      <c r="BD22" s="80"/>
-      <c r="BE22" s="80"/>
-      <c r="BF22" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG22" s="140" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH22" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI22" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ22" s="74"/>
-      <c r="BK22" s="74"/>
-      <c r="BL22" s="74"/>
-      <c r="BM22" s="74"/>
-      <c r="BN22" s="74"/>
-      <c r="BO22" s="77"/>
-      <c r="BP22" s="73"/>
-      <c r="BQ22" s="74"/>
-      <c r="BR22" s="74"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="109"/>
+      <c r="AJ22" s="107"/>
+      <c r="AK22" s="108"/>
+      <c r="AL22" s="108"/>
+      <c r="AM22" s="108"/>
+      <c r="AN22" s="108"/>
+      <c r="AO22" s="108"/>
+      <c r="AP22" s="108"/>
+      <c r="AQ22" s="109"/>
+      <c r="AR22" s="107"/>
+      <c r="AS22" s="108"/>
+      <c r="AT22" s="108"/>
+      <c r="AU22" s="108"/>
+      <c r="AV22" s="108"/>
+      <c r="AW22" s="108"/>
+      <c r="AX22" s="108"/>
+      <c r="AY22" s="109"/>
+      <c r="AZ22" s="107"/>
+      <c r="BA22" s="108"/>
+      <c r="BB22" s="108"/>
+      <c r="BC22" s="118"/>
+      <c r="BD22" s="118"/>
+      <c r="BE22" s="118"/>
+      <c r="BF22" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG22" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH22" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI22" s="117" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ22" s="117"/>
+      <c r="BK22" s="117"/>
+      <c r="BL22" s="117"/>
+      <c r="BM22" s="117"/>
+      <c r="BN22" s="117"/>
+      <c r="BO22" s="120"/>
+      <c r="BP22" s="116"/>
+      <c r="BQ22" s="57"/>
+      <c r="BR22" s="57"/>
       <c r="BS22" s="17"/>
       <c r="BT22" s="17"/>
       <c r="BU22" s="17"/>
@@ -4413,7 +4337,7 @@
       <c r="CC22" s="17"/>
       <c r="CD22" s="17"/>
       <c r="CE22" s="18"/>
-      <c r="CF22" s="114"/>
+      <c r="CF22" s="81"/>
     </row>
     <row r="23" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
@@ -4437,55 +4361,55 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="122"/>
-      <c r="Y23" s="122"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="16"/>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
-      <c r="AW23" s="17"/>
-      <c r="AX23" s="17"/>
-      <c r="AY23" s="18"/>
-      <c r="AZ23" s="16"/>
-      <c r="BA23" s="17"/>
-      <c r="BB23" s="17"/>
-      <c r="BC23" s="17"/>
-      <c r="BD23" s="17"/>
-      <c r="BE23" s="17"/>
-      <c r="BF23" s="17"/>
-      <c r="BG23" s="18"/>
-      <c r="BH23" s="16"/>
-      <c r="BI23" s="17"/>
-      <c r="BJ23" s="17"/>
-      <c r="BK23" s="17"/>
-      <c r="BL23" s="17"/>
-      <c r="BM23" s="17"/>
-      <c r="BN23" s="17"/>
-      <c r="BO23" s="18"/>
-      <c r="BP23" s="16"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="108"/>
+      <c r="AG23" s="108"/>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="109"/>
+      <c r="AJ23" s="107"/>
+      <c r="AK23" s="108"/>
+      <c r="AL23" s="108"/>
+      <c r="AM23" s="108"/>
+      <c r="AN23" s="108"/>
+      <c r="AO23" s="108"/>
+      <c r="AP23" s="108"/>
+      <c r="AQ23" s="109"/>
+      <c r="AR23" s="107"/>
+      <c r="AS23" s="108"/>
+      <c r="AT23" s="108"/>
+      <c r="AU23" s="108"/>
+      <c r="AV23" s="108"/>
+      <c r="AW23" s="108"/>
+      <c r="AX23" s="108"/>
+      <c r="AY23" s="109"/>
+      <c r="AZ23" s="107"/>
+      <c r="BA23" s="108"/>
+      <c r="BB23" s="108"/>
+      <c r="BC23" s="108"/>
+      <c r="BD23" s="108"/>
+      <c r="BE23" s="108"/>
+      <c r="BF23" s="108"/>
+      <c r="BG23" s="109"/>
+      <c r="BH23" s="107"/>
+      <c r="BI23" s="108"/>
+      <c r="BJ23" s="108"/>
+      <c r="BK23" s="108"/>
+      <c r="BL23" s="108"/>
+      <c r="BM23" s="108"/>
+      <c r="BN23" s="108"/>
+      <c r="BO23" s="109"/>
+      <c r="BP23" s="107"/>
       <c r="BQ23" s="17"/>
       <c r="BR23" s="17"/>
       <c r="BS23" s="17"/>
@@ -4501,7 +4425,7 @@
       <c r="CC23" s="17"/>
       <c r="CD23" s="17"/>
       <c r="CE23" s="18"/>
-      <c r="CF23" s="114"/>
+      <c r="CF23" s="81"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A24" s="41" t="s">
@@ -4525,74 +4449,74 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="123"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="18"/>
-      <c r="AR24" s="16"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
-      <c r="AW24" s="17"/>
-      <c r="AX24" s="17"/>
-      <c r="AY24" s="18"/>
-      <c r="AZ24" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA24" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB24" s="78"/>
-      <c r="BC24" s="17"/>
-      <c r="BD24" s="17"/>
-      <c r="BE24" s="78"/>
-      <c r="BF24" s="78"/>
-      <c r="BG24" s="138"/>
-      <c r="BH24" s="83"/>
-      <c r="BI24" s="70"/>
-      <c r="BJ24" s="70"/>
-      <c r="BK24" s="67"/>
-      <c r="BL24" s="17"/>
-      <c r="BM24" s="17"/>
-      <c r="BN24" s="78"/>
-      <c r="BO24" s="18"/>
-      <c r="BP24" s="142" t="s">
-        <v>45</v>
-      </c>
-      <c r="BQ24" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR24" s="70" t="s">
+      <c r="T24" s="88"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="109"/>
+      <c r="AJ24" s="107"/>
+      <c r="AK24" s="108"/>
+      <c r="AL24" s="108"/>
+      <c r="AM24" s="108"/>
+      <c r="AN24" s="108"/>
+      <c r="AO24" s="108"/>
+      <c r="AP24" s="108"/>
+      <c r="AQ24" s="109"/>
+      <c r="AR24" s="107"/>
+      <c r="AS24" s="108"/>
+      <c r="AT24" s="108"/>
+      <c r="AU24" s="108"/>
+      <c r="AV24" s="108"/>
+      <c r="AW24" s="108"/>
+      <c r="AX24" s="108"/>
+      <c r="AY24" s="109"/>
+      <c r="AZ24" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA24" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB24" s="108"/>
+      <c r="BC24" s="108"/>
+      <c r="BD24" s="108"/>
+      <c r="BE24" s="108"/>
+      <c r="BF24" s="108"/>
+      <c r="BG24" s="109"/>
+      <c r="BH24" s="122"/>
+      <c r="BI24" s="114"/>
+      <c r="BJ24" s="114"/>
+      <c r="BK24" s="114"/>
+      <c r="BL24" s="108"/>
+      <c r="BM24" s="108"/>
+      <c r="BN24" s="108"/>
+      <c r="BO24" s="109"/>
+      <c r="BP24" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="BQ24" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR24" s="56" t="s">
         <v>45</v>
       </c>
       <c r="BS24" s="17"/>
-      <c r="BT24" s="78"/>
-      <c r="BU24" s="78"/>
-      <c r="BV24" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BW24" s="138" t="s">
+      <c r="BT24" s="58"/>
+      <c r="BU24" s="58"/>
+      <c r="BV24" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW24" s="70" t="s">
         <v>45</v>
       </c>
       <c r="BX24" s="16"/>
@@ -4603,7 +4527,7 @@
       <c r="CC24" s="17"/>
       <c r="CD24" s="17"/>
       <c r="CE24" s="18"/>
-      <c r="CF24" s="114"/>
+      <c r="CF24" s="81"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A25" s="41" t="s">
@@ -4627,63 +4551,63 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="123"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="16"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" s="18"/>
-      <c r="AR25" s="16"/>
-      <c r="AS25" s="17"/>
-      <c r="AT25" s="17"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="17"/>
-      <c r="AW25" s="17"/>
-      <c r="AX25" s="17"/>
-      <c r="AY25" s="18"/>
-      <c r="AZ25" s="16"/>
-      <c r="BA25" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB25" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC25" s="17"/>
-      <c r="BD25" s="17"/>
-      <c r="BE25" s="17"/>
-      <c r="BF25" s="17"/>
-      <c r="BG25" s="18"/>
-      <c r="BH25" s="83"/>
-      <c r="BI25" s="65"/>
-      <c r="BJ25" s="139"/>
-      <c r="BK25" s="136"/>
-      <c r="BL25" s="17"/>
-      <c r="BM25" s="17"/>
-      <c r="BN25" s="17"/>
-      <c r="BO25" s="18"/>
-      <c r="BP25" s="71"/>
-      <c r="BQ25" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR25" s="139" t="s">
+      <c r="T25" s="88"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="108"/>
+      <c r="AD25" s="108"/>
+      <c r="AE25" s="108"/>
+      <c r="AF25" s="108"/>
+      <c r="AG25" s="108"/>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="109"/>
+      <c r="AJ25" s="107"/>
+      <c r="AK25" s="108"/>
+      <c r="AL25" s="108"/>
+      <c r="AM25" s="108"/>
+      <c r="AN25" s="108"/>
+      <c r="AO25" s="108"/>
+      <c r="AP25" s="108"/>
+      <c r="AQ25" s="109"/>
+      <c r="AR25" s="107"/>
+      <c r="AS25" s="108"/>
+      <c r="AT25" s="108"/>
+      <c r="AU25" s="108"/>
+      <c r="AV25" s="108"/>
+      <c r="AW25" s="108"/>
+      <c r="AX25" s="108"/>
+      <c r="AY25" s="109"/>
+      <c r="AZ25" s="107"/>
+      <c r="BA25" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB25" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC25" s="108"/>
+      <c r="BD25" s="108"/>
+      <c r="BE25" s="108"/>
+      <c r="BF25" s="108"/>
+      <c r="BG25" s="109"/>
+      <c r="BH25" s="122"/>
+      <c r="BI25" s="111"/>
+      <c r="BJ25" s="119"/>
+      <c r="BK25" s="111"/>
+      <c r="BL25" s="108"/>
+      <c r="BM25" s="108"/>
+      <c r="BN25" s="108"/>
+      <c r="BO25" s="109"/>
+      <c r="BP25" s="121"/>
+      <c r="BQ25" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR25" s="71" t="s">
         <v>45</v>
       </c>
       <c r="BS25" s="17"/>
@@ -4699,7 +4623,7 @@
       <c r="CC25" s="17"/>
       <c r="CD25" s="17"/>
       <c r="CE25" s="18"/>
-      <c r="CF25" s="114"/>
+      <c r="CF25" s="81"/>
     </row>
     <row r="26" spans="1:84" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
@@ -4723,55 +4647,55 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
       <c r="S26" s="34"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="122"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="122"/>
-      <c r="AA26" s="123"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="33"/>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
-      <c r="AV26" s="31"/>
-      <c r="AW26" s="31"/>
-      <c r="AX26" s="31"/>
-      <c r="AY26" s="34"/>
-      <c r="AZ26" s="33"/>
-      <c r="BA26" s="31"/>
-      <c r="BB26" s="31"/>
-      <c r="BC26" s="31"/>
-      <c r="BD26" s="31"/>
-      <c r="BE26" s="31"/>
-      <c r="BF26" s="31"/>
-      <c r="BG26" s="34"/>
-      <c r="BH26" s="33"/>
-      <c r="BI26" s="31"/>
-      <c r="BJ26" s="31"/>
-      <c r="BK26" s="31"/>
-      <c r="BL26" s="31"/>
-      <c r="BM26" s="31"/>
-      <c r="BN26" s="31"/>
-      <c r="BO26" s="34"/>
-      <c r="BP26" s="33"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="125"/>
+      <c r="AC26" s="126"/>
+      <c r="AD26" s="126"/>
+      <c r="AE26" s="126"/>
+      <c r="AF26" s="126"/>
+      <c r="AG26" s="126"/>
+      <c r="AH26" s="126"/>
+      <c r="AI26" s="127"/>
+      <c r="AJ26" s="125"/>
+      <c r="AK26" s="126"/>
+      <c r="AL26" s="126"/>
+      <c r="AM26" s="126"/>
+      <c r="AN26" s="126"/>
+      <c r="AO26" s="126"/>
+      <c r="AP26" s="126"/>
+      <c r="AQ26" s="127"/>
+      <c r="AR26" s="125"/>
+      <c r="AS26" s="126"/>
+      <c r="AT26" s="126"/>
+      <c r="AU26" s="126"/>
+      <c r="AV26" s="126"/>
+      <c r="AW26" s="126"/>
+      <c r="AX26" s="126"/>
+      <c r="AY26" s="127"/>
+      <c r="AZ26" s="125"/>
+      <c r="BA26" s="126"/>
+      <c r="BB26" s="126"/>
+      <c r="BC26" s="126"/>
+      <c r="BD26" s="126"/>
+      <c r="BE26" s="126"/>
+      <c r="BF26" s="126"/>
+      <c r="BG26" s="127"/>
+      <c r="BH26" s="125"/>
+      <c r="BI26" s="126"/>
+      <c r="BJ26" s="126"/>
+      <c r="BK26" s="126"/>
+      <c r="BL26" s="126"/>
+      <c r="BM26" s="126"/>
+      <c r="BN26" s="126"/>
+      <c r="BO26" s="127"/>
+      <c r="BP26" s="125"/>
       <c r="BQ26" s="31"/>
       <c r="BR26" s="31"/>
       <c r="BS26" s="31"/>
@@ -4787,7 +4711,7 @@
       <c r="CC26" s="31"/>
       <c r="CD26" s="31"/>
       <c r="CE26" s="34"/>
-      <c r="CF26" s="114"/>
+      <c r="CF26" s="81"/>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A27" s="37" t="s">
@@ -4795,123 +4719,123 @@
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="122"/>
-      <c r="Y27" s="122"/>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="123"/>
-      <c r="AB27" s="88"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="89"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="88"/>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="112" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="129"/>
+      <c r="AD27" s="129"/>
+      <c r="AE27" s="129"/>
+      <c r="AF27" s="129"/>
+      <c r="AG27" s="129"/>
+      <c r="AH27" s="129"/>
+      <c r="AI27" s="130"/>
+      <c r="AJ27" s="128"/>
+      <c r="AK27" s="129"/>
+      <c r="AL27" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="AM27" s="112" t="s">
+      <c r="AM27" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="AN27" s="112" t="s">
+      <c r="AN27" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="AO27" s="112" t="s">
+      <c r="AO27" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="AP27" s="112" t="s">
+      <c r="AP27" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="AQ27" s="111" t="s">
+      <c r="AQ27" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="AR27" s="88"/>
-      <c r="AS27" s="89"/>
-      <c r="AT27" s="89"/>
-      <c r="AU27" s="89"/>
-      <c r="AV27" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW27" s="91"/>
-      <c r="AX27" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY27" s="90"/>
-      <c r="AZ27" s="88"/>
-      <c r="BA27" s="89"/>
-      <c r="BB27" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC27" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD27" s="89"/>
-      <c r="BE27" s="91"/>
-      <c r="BF27" s="91"/>
-      <c r="BG27" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH27" s="141"/>
-      <c r="BI27" s="89"/>
-      <c r="BJ27" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="BK27" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="BL27" s="89"/>
-      <c r="BM27" s="91"/>
-      <c r="BN27" s="91"/>
-      <c r="BO27" s="92"/>
-      <c r="BP27" s="88"/>
-      <c r="BQ27" s="89"/>
-      <c r="BR27" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="BS27" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="BT27" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="BU27" s="89"/>
-      <c r="BV27" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="BW27" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="BX27" s="88"/>
-      <c r="BY27" s="89"/>
-      <c r="BZ27" s="89"/>
-      <c r="CA27" s="89"/>
-      <c r="CB27" s="89"/>
-      <c r="CC27" s="89"/>
-      <c r="CD27" s="89"/>
-      <c r="CE27" s="90"/>
-      <c r="CF27" s="114"/>
+      <c r="AR27" s="128"/>
+      <c r="AS27" s="129"/>
+      <c r="AT27" s="129"/>
+      <c r="AU27" s="129"/>
+      <c r="AV27" s="129" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW27" s="129"/>
+      <c r="AX27" s="129" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY27" s="130"/>
+      <c r="AZ27" s="128"/>
+      <c r="BA27" s="129"/>
+      <c r="BB27" s="129" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC27" s="129" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD27" s="129"/>
+      <c r="BE27" s="129"/>
+      <c r="BF27" s="129"/>
+      <c r="BG27" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH27" s="128"/>
+      <c r="BI27" s="129"/>
+      <c r="BJ27" s="129" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK27" s="129" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL27" s="129"/>
+      <c r="BM27" s="129"/>
+      <c r="BN27" s="129"/>
+      <c r="BO27" s="130"/>
+      <c r="BP27" s="128"/>
+      <c r="BQ27" s="63"/>
+      <c r="BR27" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS27" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="BT27" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="BU27" s="63"/>
+      <c r="BV27" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW27" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="BX27" s="62"/>
+      <c r="BY27" s="63"/>
+      <c r="BZ27" s="63"/>
+      <c r="CA27" s="63"/>
+      <c r="CB27" s="63"/>
+      <c r="CC27" s="63"/>
+      <c r="CD27" s="63"/>
+      <c r="CE27" s="64"/>
+      <c r="CF27" s="81"/>
     </row>
     <row r="28" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
@@ -4935,55 +4859,55 @@
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="18"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="123"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="16"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
-      <c r="AW28" s="17"/>
-      <c r="AX28" s="17"/>
-      <c r="AY28" s="18"/>
-      <c r="AZ28" s="16"/>
-      <c r="BA28" s="17"/>
-      <c r="BB28" s="17"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="17"/>
-      <c r="BE28" s="17"/>
-      <c r="BF28" s="17"/>
-      <c r="BG28" s="18"/>
-      <c r="BH28" s="16"/>
-      <c r="BI28" s="17"/>
-      <c r="BJ28" s="17"/>
-      <c r="BK28" s="17"/>
-      <c r="BL28" s="17"/>
-      <c r="BM28" s="17"/>
-      <c r="BN28" s="17"/>
-      <c r="BO28" s="18"/>
-      <c r="BP28" s="16"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="108"/>
+      <c r="AD28" s="108"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="108"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="109"/>
+      <c r="AJ28" s="107"/>
+      <c r="AK28" s="108"/>
+      <c r="AL28" s="108"/>
+      <c r="AM28" s="108"/>
+      <c r="AN28" s="108"/>
+      <c r="AO28" s="108"/>
+      <c r="AP28" s="108"/>
+      <c r="AQ28" s="109"/>
+      <c r="AR28" s="107"/>
+      <c r="AS28" s="108"/>
+      <c r="AT28" s="108"/>
+      <c r="AU28" s="108"/>
+      <c r="AV28" s="108"/>
+      <c r="AW28" s="108"/>
+      <c r="AX28" s="108"/>
+      <c r="AY28" s="109"/>
+      <c r="AZ28" s="107"/>
+      <c r="BA28" s="108"/>
+      <c r="BB28" s="108"/>
+      <c r="BC28" s="108"/>
+      <c r="BD28" s="108"/>
+      <c r="BE28" s="108"/>
+      <c r="BF28" s="108"/>
+      <c r="BG28" s="109"/>
+      <c r="BH28" s="107"/>
+      <c r="BI28" s="108"/>
+      <c r="BJ28" s="108"/>
+      <c r="BK28" s="108"/>
+      <c r="BL28" s="108"/>
+      <c r="BM28" s="108"/>
+      <c r="BN28" s="108"/>
+      <c r="BO28" s="109"/>
+      <c r="BP28" s="107"/>
       <c r="BQ28" s="17"/>
       <c r="BR28" s="17"/>
       <c r="BS28" s="17"/>
@@ -4999,7 +4923,7 @@
       <c r="CC28" s="17"/>
       <c r="CD28" s="17"/>
       <c r="CE28" s="18"/>
-      <c r="CF28" s="114"/>
+      <c r="CF28" s="81"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A29" s="45" t="s">
@@ -5023,62 +4947,62 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="122"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="123"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="17"/>
-      <c r="AO29" s="17"/>
-      <c r="AP29" s="17"/>
-      <c r="AQ29" s="18"/>
-      <c r="AR29" s="16"/>
-      <c r="AS29" s="17"/>
-      <c r="AT29" s="17"/>
-      <c r="AU29" s="17"/>
-      <c r="AV29" s="17"/>
-      <c r="AW29" s="17"/>
-      <c r="AX29" s="17"/>
-      <c r="AY29" s="18"/>
-      <c r="AZ29" s="16"/>
-      <c r="BA29" s="17"/>
-      <c r="BB29" s="17"/>
-      <c r="BC29" s="17"/>
-      <c r="BD29" s="17"/>
-      <c r="BE29" s="17"/>
-      <c r="BF29" s="17"/>
-      <c r="BG29" s="18"/>
-      <c r="BH29" s="16"/>
-      <c r="BI29" s="17"/>
-      <c r="BJ29" s="17"/>
-      <c r="BK29" s="17"/>
-      <c r="BL29" s="17"/>
-      <c r="BM29" s="17"/>
-      <c r="BN29" s="17"/>
-      <c r="BO29" s="18"/>
-      <c r="BP29" s="16"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="107"/>
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="108"/>
+      <c r="AE29" s="108"/>
+      <c r="AF29" s="108"/>
+      <c r="AG29" s="108"/>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="109"/>
+      <c r="AJ29" s="107"/>
+      <c r="AK29" s="108"/>
+      <c r="AL29" s="108"/>
+      <c r="AM29" s="108"/>
+      <c r="AN29" s="108"/>
+      <c r="AO29" s="108"/>
+      <c r="AP29" s="108"/>
+      <c r="AQ29" s="109"/>
+      <c r="AR29" s="107"/>
+      <c r="AS29" s="108"/>
+      <c r="AT29" s="108"/>
+      <c r="AU29" s="108"/>
+      <c r="AV29" s="108"/>
+      <c r="AW29" s="108"/>
+      <c r="AX29" s="108"/>
+      <c r="AY29" s="109"/>
+      <c r="AZ29" s="107"/>
+      <c r="BA29" s="108"/>
+      <c r="BB29" s="108"/>
+      <c r="BC29" s="108"/>
+      <c r="BD29" s="108"/>
+      <c r="BE29" s="108"/>
+      <c r="BF29" s="108"/>
+      <c r="BG29" s="109"/>
+      <c r="BH29" s="107"/>
+      <c r="BI29" s="108"/>
+      <c r="BJ29" s="108"/>
+      <c r="BK29" s="108"/>
+      <c r="BL29" s="108"/>
+      <c r="BM29" s="108"/>
+      <c r="BN29" s="108"/>
+      <c r="BO29" s="109"/>
+      <c r="BP29" s="107"/>
       <c r="BQ29" s="17"/>
       <c r="BR29" s="17"/>
-      <c r="BS29" s="91"/>
-      <c r="BT29" s="91"/>
-      <c r="BU29" s="78"/>
-      <c r="BV29" s="91"/>
-      <c r="BW29" s="92"/>
+      <c r="BS29" s="65"/>
+      <c r="BT29" s="65"/>
+      <c r="BU29" s="58"/>
+      <c r="BV29" s="65"/>
+      <c r="BW29" s="66"/>
       <c r="BX29" s="16"/>
       <c r="BY29" s="17"/>
       <c r="BZ29" s="17"/>
@@ -5087,7 +5011,7 @@
       <c r="CC29" s="17"/>
       <c r="CD29" s="17"/>
       <c r="CE29" s="18"/>
-      <c r="CF29" s="114"/>
+      <c r="CF29" s="81"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A30" s="45" t="s">
@@ -5111,62 +5035,62 @@
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="123"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="17"/>
-      <c r="AN30" s="17"/>
-      <c r="AO30" s="17"/>
-      <c r="AP30" s="17"/>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="16"/>
-      <c r="AS30" s="17"/>
-      <c r="AT30" s="17"/>
-      <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
-      <c r="AW30" s="17"/>
-      <c r="AX30" s="17"/>
-      <c r="AY30" s="18"/>
-      <c r="AZ30" s="16"/>
-      <c r="BA30" s="17"/>
-      <c r="BB30" s="17"/>
-      <c r="BC30" s="17"/>
-      <c r="BD30" s="17"/>
-      <c r="BE30" s="17"/>
-      <c r="BF30" s="17"/>
-      <c r="BG30" s="18"/>
-      <c r="BH30" s="16"/>
-      <c r="BI30" s="17"/>
-      <c r="BJ30" s="17"/>
-      <c r="BK30" s="17"/>
-      <c r="BL30" s="17"/>
-      <c r="BM30" s="17"/>
-      <c r="BN30" s="17"/>
-      <c r="BO30" s="18"/>
-      <c r="BP30" s="16"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="108"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="108"/>
+      <c r="AF30" s="108"/>
+      <c r="AG30" s="108"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="109"/>
+      <c r="AJ30" s="107"/>
+      <c r="AK30" s="108"/>
+      <c r="AL30" s="108"/>
+      <c r="AM30" s="108"/>
+      <c r="AN30" s="108"/>
+      <c r="AO30" s="108"/>
+      <c r="AP30" s="108"/>
+      <c r="AQ30" s="109"/>
+      <c r="AR30" s="107"/>
+      <c r="AS30" s="108"/>
+      <c r="AT30" s="108"/>
+      <c r="AU30" s="108"/>
+      <c r="AV30" s="108"/>
+      <c r="AW30" s="108"/>
+      <c r="AX30" s="108"/>
+      <c r="AY30" s="109"/>
+      <c r="AZ30" s="107"/>
+      <c r="BA30" s="108"/>
+      <c r="BB30" s="108"/>
+      <c r="BC30" s="108"/>
+      <c r="BD30" s="108"/>
+      <c r="BE30" s="108"/>
+      <c r="BF30" s="108"/>
+      <c r="BG30" s="109"/>
+      <c r="BH30" s="107"/>
+      <c r="BI30" s="108"/>
+      <c r="BJ30" s="108"/>
+      <c r="BK30" s="108"/>
+      <c r="BL30" s="108"/>
+      <c r="BM30" s="108"/>
+      <c r="BN30" s="108"/>
+      <c r="BO30" s="109"/>
+      <c r="BP30" s="107"/>
       <c r="BQ30" s="17"/>
       <c r="BR30" s="17"/>
-      <c r="BS30" s="89"/>
-      <c r="BT30" s="89"/>
+      <c r="BS30" s="63"/>
+      <c r="BT30" s="63"/>
       <c r="BU30" s="17"/>
-      <c r="BV30" s="89"/>
-      <c r="BW30" s="90"/>
+      <c r="BV30" s="63"/>
+      <c r="BW30" s="64"/>
       <c r="BX30" s="16"/>
       <c r="BY30" s="17"/>
       <c r="BZ30" s="17"/>
@@ -5175,7 +5099,7 @@
       <c r="CC30" s="17"/>
       <c r="CD30" s="17"/>
       <c r="CE30" s="18"/>
-      <c r="CF30" s="114"/>
+      <c r="CF30" s="81"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A31" s="45" t="s">
@@ -5199,14 +5123,14 @@
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="123"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="90"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
@@ -5250,11 +5174,11 @@
       <c r="BP31" s="16"/>
       <c r="BQ31" s="17"/>
       <c r="BR31" s="17"/>
-      <c r="BS31" s="89"/>
-      <c r="BT31" s="89"/>
+      <c r="BS31" s="63"/>
+      <c r="BT31" s="63"/>
       <c r="BU31" s="17"/>
-      <c r="BV31" s="89"/>
-      <c r="BW31" s="90"/>
+      <c r="BV31" s="63"/>
+      <c r="BW31" s="64"/>
       <c r="BX31" s="16"/>
       <c r="BY31" s="17"/>
       <c r="BZ31" s="17"/>
@@ -5263,7 +5187,7 @@
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
       <c r="CE31" s="18"/>
-      <c r="CF31" s="114"/>
+      <c r="CF31" s="81"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
@@ -5285,14 +5209,14 @@
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="123"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="90"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
@@ -5349,7 +5273,7 @@
       <c r="CC32" s="17"/>
       <c r="CD32" s="17"/>
       <c r="CE32" s="18"/>
-      <c r="CF32" s="114"/>
+      <c r="CF32" s="81"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
@@ -5371,14 +5295,14 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="123"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="90"/>
       <c r="AB33" s="16"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
@@ -5435,7 +5359,7 @@
       <c r="CC33" s="17"/>
       <c r="CD33" s="17"/>
       <c r="CE33" s="18"/>
-      <c r="CF33" s="114"/>
+      <c r="CF33" s="81"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
@@ -5457,14 +5381,14 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="123"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="90"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
@@ -5521,7 +5445,7 @@
       <c r="CC34" s="17"/>
       <c r="CD34" s="17"/>
       <c r="CE34" s="18"/>
-      <c r="CF34" s="114"/>
+      <c r="CF34" s="81"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
@@ -5543,14 +5467,14 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="121"/>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="122"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="123"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
+      <c r="AA35" s="90"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
@@ -5607,7 +5531,7 @@
       <c r="CC35" s="17"/>
       <c r="CD35" s="17"/>
       <c r="CE35" s="18"/>
-      <c r="CF35" s="114"/>
+      <c r="CF35" s="81"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
@@ -5629,14 +5553,14 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="121"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
-      <c r="Y36" s="122"/>
-      <c r="Z36" s="122"/>
-      <c r="AA36" s="123"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="89"/>
+      <c r="AA36" s="90"/>
       <c r="AB36" s="16"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
@@ -5693,7 +5617,7 @@
       <c r="CC36" s="17"/>
       <c r="CD36" s="17"/>
       <c r="CE36" s="18"/>
-      <c r="CF36" s="114"/>
+      <c r="CF36" s="81"/>
     </row>
     <row r="37" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
@@ -5715,14 +5639,14 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="23"/>
-      <c r="T37" s="124"/>
-      <c r="U37" s="125"/>
-      <c r="V37" s="125"/>
-      <c r="W37" s="125"/>
-      <c r="X37" s="125"/>
-      <c r="Y37" s="125"/>
-      <c r="Z37" s="125"/>
-      <c r="AA37" s="126"/>
+      <c r="T37" s="91"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="92"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="92"/>
+      <c r="AA37" s="93"/>
       <c r="AB37" s="21"/>
       <c r="AC37" s="22"/>
       <c r="AD37" s="22"/>
@@ -5779,94 +5703,94 @@
       <c r="CC37" s="22"/>
       <c r="CD37" s="22"/>
       <c r="CE37" s="23"/>
-      <c r="CF37" s="114"/>
+      <c r="CF37" s="81"/>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="115"/>
-      <c r="O38" s="115"/>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="115"/>
-      <c r="R38" s="115"/>
-      <c r="S38" s="115"/>
-      <c r="T38" s="115"/>
-      <c r="U38" s="115"/>
-      <c r="V38" s="115"/>
-      <c r="W38" s="115"/>
-      <c r="X38" s="115"/>
-      <c r="Y38" s="115"/>
-      <c r="Z38" s="115"/>
-      <c r="AA38" s="115"/>
-      <c r="AB38" s="115"/>
-      <c r="AC38" s="115"/>
-      <c r="AD38" s="115"/>
-      <c r="AE38" s="115"/>
-      <c r="AF38" s="115"/>
-      <c r="AG38" s="115"/>
-      <c r="AH38" s="115"/>
-      <c r="AI38" s="115"/>
-      <c r="AJ38" s="115"/>
-      <c r="AK38" s="115"/>
-      <c r="AL38" s="115"/>
-      <c r="AM38" s="115"/>
-      <c r="AN38" s="115"/>
-      <c r="AO38" s="115"/>
-      <c r="AP38" s="115"/>
-      <c r="AQ38" s="115"/>
-      <c r="AR38" s="115"/>
-      <c r="AS38" s="115"/>
-      <c r="AT38" s="115"/>
-      <c r="AU38" s="115"/>
-      <c r="AV38" s="115"/>
-      <c r="AW38" s="115"/>
-      <c r="AX38" s="115"/>
-      <c r="AY38" s="115"/>
-      <c r="AZ38" s="115"/>
-      <c r="BA38" s="115"/>
-      <c r="BB38" s="115"/>
-      <c r="BC38" s="115"/>
-      <c r="BD38" s="115"/>
-      <c r="BE38" s="115"/>
-      <c r="BF38" s="115"/>
-      <c r="BG38" s="115"/>
-      <c r="BH38" s="115"/>
-      <c r="BI38" s="115"/>
-      <c r="BJ38" s="115"/>
-      <c r="BK38" s="115"/>
-      <c r="BL38" s="115"/>
-      <c r="BM38" s="115"/>
-      <c r="BN38" s="115"/>
-      <c r="BO38" s="115"/>
-      <c r="BP38" s="115"/>
-      <c r="BQ38" s="115"/>
-      <c r="BR38" s="115"/>
-      <c r="BS38" s="115"/>
-      <c r="BT38" s="115"/>
-      <c r="BU38" s="115"/>
-      <c r="BV38" s="115"/>
-      <c r="BW38" s="115"/>
-      <c r="BX38" s="115"/>
-      <c r="BY38" s="115"/>
-      <c r="BZ38" s="115"/>
-      <c r="CA38" s="115"/>
-      <c r="CB38" s="115"/>
-      <c r="CC38" s="115"/>
-      <c r="CD38" s="115"/>
-      <c r="CE38" s="115"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="82"/>
+      <c r="AB38" s="82"/>
+      <c r="AC38" s="82"/>
+      <c r="AD38" s="82"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="82"/>
+      <c r="AG38" s="82"/>
+      <c r="AH38" s="82"/>
+      <c r="AI38" s="82"/>
+      <c r="AJ38" s="82"/>
+      <c r="AK38" s="82"/>
+      <c r="AL38" s="82"/>
+      <c r="AM38" s="82"/>
+      <c r="AN38" s="82"/>
+      <c r="AO38" s="82"/>
+      <c r="AP38" s="82"/>
+      <c r="AQ38" s="82"/>
+      <c r="AR38" s="82"/>
+      <c r="AS38" s="82"/>
+      <c r="AT38" s="82"/>
+      <c r="AU38" s="82"/>
+      <c r="AV38" s="82"/>
+      <c r="AW38" s="82"/>
+      <c r="AX38" s="82"/>
+      <c r="AY38" s="82"/>
+      <c r="AZ38" s="82"/>
+      <c r="BA38" s="82"/>
+      <c r="BB38" s="82"/>
+      <c r="BC38" s="82"/>
+      <c r="BD38" s="82"/>
+      <c r="BE38" s="82"/>
+      <c r="BF38" s="82"/>
+      <c r="BG38" s="82"/>
+      <c r="BH38" s="82"/>
+      <c r="BI38" s="82"/>
+      <c r="BJ38" s="82"/>
+      <c r="BK38" s="82"/>
+      <c r="BL38" s="82"/>
+      <c r="BM38" s="82"/>
+      <c r="BN38" s="82"/>
+      <c r="BO38" s="82"/>
+      <c r="BP38" s="82"/>
+      <c r="BQ38" s="82"/>
+      <c r="BR38" s="82"/>
+      <c r="BS38" s="82"/>
+      <c r="BT38" s="82"/>
+      <c r="BU38" s="82"/>
+      <c r="BV38" s="82"/>
+      <c r="BW38" s="82"/>
+      <c r="BX38" s="82"/>
+      <c r="BY38" s="82"/>
+      <c r="BZ38" s="82"/>
+      <c r="CA38" s="82"/>
+      <c r="CB38" s="82"/>
+      <c r="CC38" s="82"/>
+      <c r="CD38" s="82"/>
+      <c r="CE38" s="82"/>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.15">
       <c r="F42" s="2" t="s">
@@ -5893,19 +5817,21 @@
       <c r="I48" s="54"/>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F50" s="82" t="s">
+      <c r="F50" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="I50" s="87"/>
+      <c r="I50" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF37"/>
+    <mergeCell ref="A38:CE38"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA37"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
     <mergeCell ref="AN4:AQ4"/>
@@ -5920,14 +5846,12 @@
     <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CF37"/>
-    <mergeCell ref="A38:CE38"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA37"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="D2:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B6:B37">
@@ -6169,15 +6093,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -6186,6 +6101,15 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6208,14 +6132,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6226,4 +6142,12 @@
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>